--- a/Running_Log.xlsx
+++ b/Running_Log.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/AlexDolwick/Documents/NIH IRTA/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/AlexDolwick/dolwick_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47DC7E0A-F548-044A-B54B-C01127925FE0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC312D42-0A7C-2B4E-B088-E7CF9B743538}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1800" yWindow="460" windowWidth="25680" windowHeight="15920" xr2:uid="{4B2E00A5-7125-EC4E-9EAD-C4CEE86B127A}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3653" uniqueCount="3103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3655" uniqueCount="3105">
   <si>
     <t>Date</t>
   </si>
@@ -9340,6 +9340,12 @@
   </si>
   <si>
     <t>46:57</t>
+  </si>
+  <si>
+    <t>2019-12-12</t>
+  </si>
+  <si>
+    <t>46:36</t>
   </si>
 </sst>
 </file>
@@ -9713,10 +9719,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1BECE25-7878-7543-A5E4-1B4438F2AAC2}">
-  <dimension ref="A1:C2387"/>
+  <dimension ref="A1:C2388"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2373" workbookViewId="0">
-      <selection activeCell="C2388" sqref="C2388"/>
+      <selection activeCell="C2391" sqref="C2391"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -34282,6 +34288,17 @@
         <v>3102</v>
       </c>
     </row>
+    <row r="2388" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2388" s="2" t="s">
+        <v>3103</v>
+      </c>
+      <c r="B2388" s="1">
+        <v>6.51</v>
+      </c>
+      <c r="C2388" s="2" t="s">
+        <v>3104</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>

--- a/Running_Log.xlsx
+++ b/Running_Log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/AlexDolwick/dolwick_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC312D42-0A7C-2B4E-B088-E7CF9B743538}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E879143-9263-0B4C-AD91-F488E40DDE79}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1800" yWindow="460" windowWidth="25680" windowHeight="15920" xr2:uid="{4B2E00A5-7125-EC4E-9EAD-C4CEE86B127A}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3655" uniqueCount="3105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3657" uniqueCount="3106">
   <si>
     <t>Date</t>
   </si>
@@ -9346,6 +9346,9 @@
   </si>
   <si>
     <t>46:36</t>
+  </si>
+  <si>
+    <t>2019-12-13</t>
   </si>
 </sst>
 </file>
@@ -9719,10 +9722,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1BECE25-7878-7543-A5E4-1B4438F2AAC2}">
-  <dimension ref="A1:C2388"/>
+  <dimension ref="A1:C2389"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2373" workbookViewId="0">
-      <selection activeCell="C2391" sqref="C2391"/>
+      <selection activeCell="C2390" sqref="C2390"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -34299,6 +34302,17 @@
         <v>3104</v>
       </c>
     </row>
+    <row r="2389" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2389" s="2" t="s">
+        <v>3105</v>
+      </c>
+      <c r="B2389" s="1">
+        <v>6.55</v>
+      </c>
+      <c r="C2389" s="2" t="s">
+        <v>421</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>

--- a/Running_Log.xlsx
+++ b/Running_Log.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/AlexDolwick/dolwick_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E879143-9263-0B4C-AD91-F488E40DDE79}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9E82DAC-6DB7-FB4C-83C1-FE1F059C2ACE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1800" yWindow="460" windowWidth="25680" windowHeight="15920" xr2:uid="{4B2E00A5-7125-EC4E-9EAD-C4CEE86B127A}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3657" uniqueCount="3106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3660" uniqueCount="3107">
   <si>
     <t>Date</t>
   </si>
@@ -9349,6 +9349,9 @@
   </si>
   <si>
     <t>2019-12-13</t>
+  </si>
+  <si>
+    <t>2019-12-14</t>
   </si>
 </sst>
 </file>
@@ -9722,10 +9725,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1BECE25-7878-7543-A5E4-1B4438F2AAC2}">
-  <dimension ref="A1:C2389"/>
+  <dimension ref="A1:C2391"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2373" workbookViewId="0">
-      <selection activeCell="C2390" sqref="C2390"/>
+      <selection activeCell="B2392" sqref="B2392"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -34313,6 +34316,25 @@
         <v>421</v>
       </c>
     </row>
+    <row r="2390" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2390" s="2" t="s">
+        <v>3106</v>
+      </c>
+      <c r="B2390" s="1">
+        <v>6.21</v>
+      </c>
+      <c r="C2390" s="2" t="s">
+        <v>1818</v>
+      </c>
+    </row>
+    <row r="2391" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2391" s="2" t="s">
+        <v>3106</v>
+      </c>
+      <c r="B2391" s="1">
+        <v>5.58</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>

--- a/Running_Log.xlsx
+++ b/Running_Log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/AlexDolwick/dolwick_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9E82DAC-6DB7-FB4C-83C1-FE1F059C2ACE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D46421B3-1D46-1747-8F01-E2296A2640A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1800" yWindow="460" windowWidth="25680" windowHeight="15920" xr2:uid="{4B2E00A5-7125-EC4E-9EAD-C4CEE86B127A}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3660" uniqueCount="3107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3662" uniqueCount="3109">
   <si>
     <t>Date</t>
   </si>
@@ -9352,6 +9352,12 @@
   </si>
   <si>
     <t>2019-12-14</t>
+  </si>
+  <si>
+    <t>2019-12-17</t>
+  </si>
+  <si>
+    <t>33:30</t>
   </si>
 </sst>
 </file>
@@ -9725,10 +9731,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1BECE25-7878-7543-A5E4-1B4438F2AAC2}">
-  <dimension ref="A1:C2391"/>
+  <dimension ref="A1:C2392"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2373" workbookViewId="0">
-      <selection activeCell="B2392" sqref="B2392"/>
+      <selection activeCell="B2394" sqref="B2394"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -34335,6 +34341,17 @@
         <v>5.58</v>
       </c>
     </row>
+    <row r="2392" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2392" s="2" t="s">
+        <v>3107</v>
+      </c>
+      <c r="B2392" s="1">
+        <v>4.7</v>
+      </c>
+      <c r="C2392" s="2" t="s">
+        <v>3108</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>

--- a/Running_Log.xlsx
+++ b/Running_Log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/AlexDolwick/dolwick_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D46421B3-1D46-1747-8F01-E2296A2640A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF99DB70-E725-E341-87A3-8ECDA2FB270E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1800" yWindow="460" windowWidth="25680" windowHeight="15920" xr2:uid="{4B2E00A5-7125-EC4E-9EAD-C4CEE86B127A}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3662" uniqueCount="3109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3664" uniqueCount="3110">
   <si>
     <t>Date</t>
   </si>
@@ -9358,6 +9358,9 @@
   </si>
   <si>
     <t>33:30</t>
+  </si>
+  <si>
+    <t>2019-12-18</t>
   </si>
 </sst>
 </file>
@@ -9731,10 +9734,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1BECE25-7878-7543-A5E4-1B4438F2AAC2}">
-  <dimension ref="A1:C2392"/>
+  <dimension ref="A1:C2393"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2373" workbookViewId="0">
-      <selection activeCell="B2394" sqref="B2394"/>
+      <selection activeCell="C2394" sqref="C2394"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -34352,6 +34355,17 @@
         <v>3108</v>
       </c>
     </row>
+    <row r="2393" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2393" s="2" t="s">
+        <v>3109</v>
+      </c>
+      <c r="B2393" s="1">
+        <v>4.6900000000000004</v>
+      </c>
+      <c r="C2393" s="2" t="s">
+        <v>651</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>

--- a/Running_Log.xlsx
+++ b/Running_Log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/AlexDolwick/dolwick_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF99DB70-E725-E341-87A3-8ECDA2FB270E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60AA50B5-29DD-F74A-A0E6-F3EE048EEE8C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1800" yWindow="460" windowWidth="25680" windowHeight="15920" xr2:uid="{4B2E00A5-7125-EC4E-9EAD-C4CEE86B127A}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3664" uniqueCount="3110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3666" uniqueCount="3111">
   <si>
     <t>Date</t>
   </si>
@@ -9361,6 +9361,9 @@
   </si>
   <si>
     <t>2019-12-18</t>
+  </si>
+  <si>
+    <t>2019-12-19</t>
   </si>
 </sst>
 </file>
@@ -9734,10 +9737,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1BECE25-7878-7543-A5E4-1B4438F2AAC2}">
-  <dimension ref="A1:C2393"/>
+  <dimension ref="A1:C2394"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2373" workbookViewId="0">
-      <selection activeCell="C2394" sqref="C2394"/>
+      <selection activeCell="C2395" sqref="C2395"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -34366,6 +34369,17 @@
         <v>651</v>
       </c>
     </row>
+    <row r="2394" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2394" s="2" t="s">
+        <v>3110</v>
+      </c>
+      <c r="B2394" s="1">
+        <v>4.79</v>
+      </c>
+      <c r="C2394" s="2" t="s">
+        <v>518</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>

--- a/Running_Log.xlsx
+++ b/Running_Log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/AlexDolwick/dolwick_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60AA50B5-29DD-F74A-A0E6-F3EE048EEE8C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FC6B153-5623-3941-ACD2-69F152CCEE18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1800" yWindow="460" windowWidth="25680" windowHeight="15920" xr2:uid="{4B2E00A5-7125-EC4E-9EAD-C4CEE86B127A}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3666" uniqueCount="3111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3668" uniqueCount="3113">
   <si>
     <t>Date</t>
   </si>
@@ -9364,6 +9364,12 @@
   </si>
   <si>
     <t>2019-12-19</t>
+  </si>
+  <si>
+    <t>2019-12-22</t>
+  </si>
+  <si>
+    <t>35:19</t>
   </si>
 </sst>
 </file>
@@ -9737,7 +9743,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1BECE25-7878-7543-A5E4-1B4438F2AAC2}">
-  <dimension ref="A1:C2394"/>
+  <dimension ref="A1:C2395"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2373" workbookViewId="0">
       <selection activeCell="C2395" sqref="C2395"/>
@@ -34380,6 +34386,17 @@
         <v>518</v>
       </c>
     </row>
+    <row r="2395" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2395" s="2" t="s">
+        <v>3111</v>
+      </c>
+      <c r="B2395" s="1">
+        <v>4.95</v>
+      </c>
+      <c r="C2395" s="2" t="s">
+        <v>3112</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>

--- a/Running_Log.xlsx
+++ b/Running_Log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/AlexDolwick/dolwick_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FC6B153-5623-3941-ACD2-69F152CCEE18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1486B113-970A-1F42-B11D-CA23CAFC1128}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1800" yWindow="460" windowWidth="25680" windowHeight="15920" xr2:uid="{4B2E00A5-7125-EC4E-9EAD-C4CEE86B127A}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3668" uniqueCount="3113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3670" uniqueCount="3115">
   <si>
     <t>Date</t>
   </si>
@@ -9370,6 +9370,12 @@
   </si>
   <si>
     <t>35:19</t>
+  </si>
+  <si>
+    <t>2019-12-24</t>
+  </si>
+  <si>
+    <t>40:17</t>
   </si>
 </sst>
 </file>
@@ -9743,10 +9749,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1BECE25-7878-7543-A5E4-1B4438F2AAC2}">
-  <dimension ref="A1:C2395"/>
+  <dimension ref="A1:C2396"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2373" workbookViewId="0">
-      <selection activeCell="C2395" sqref="C2395"/>
+    <sheetView tabSelected="1" topLeftCell="A2379" workbookViewId="0">
+      <selection activeCell="A2397" sqref="A2397"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -34397,6 +34403,17 @@
         <v>3112</v>
       </c>
     </row>
+    <row r="2396" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2396" s="2" t="s">
+        <v>3113</v>
+      </c>
+      <c r="B2396" s="1">
+        <v>6</v>
+      </c>
+      <c r="C2396" s="2" t="s">
+        <v>3114</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>

--- a/Running_Log.xlsx
+++ b/Running_Log.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/AlexDolwick/dolwick_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1486B113-970A-1F42-B11D-CA23CAFC1128}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF21FD32-38AD-FF45-8E84-8A5234502340}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1800" yWindow="460" windowWidth="25680" windowHeight="15920" xr2:uid="{4B2E00A5-7125-EC4E-9EAD-C4CEE86B127A}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3670" uniqueCount="3115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3697" uniqueCount="3136">
   <si>
     <t>Date</t>
   </si>
@@ -9376,6 +9376,69 @@
   </si>
   <si>
     <t>40:17</t>
+  </si>
+  <si>
+    <t>2020-01-03</t>
+  </si>
+  <si>
+    <t>32:30</t>
+  </si>
+  <si>
+    <t>2020-01-07</t>
+  </si>
+  <si>
+    <t>33:55</t>
+  </si>
+  <si>
+    <t>2020-01-08</t>
+  </si>
+  <si>
+    <t>2020-01-09</t>
+  </si>
+  <si>
+    <t>2020-01-10</t>
+  </si>
+  <si>
+    <t>2020-01-11</t>
+  </si>
+  <si>
+    <t>43:08</t>
+  </si>
+  <si>
+    <t>2020-01-13</t>
+  </si>
+  <si>
+    <t>2020-01-14</t>
+  </si>
+  <si>
+    <t>43:23</t>
+  </si>
+  <si>
+    <t>2020-01-17</t>
+  </si>
+  <si>
+    <t>59:33</t>
+  </si>
+  <si>
+    <t>2020-01-19</t>
+  </si>
+  <si>
+    <t>1:04:44</t>
+  </si>
+  <si>
+    <t>2020-01-20</t>
+  </si>
+  <si>
+    <t>2020-01-21</t>
+  </si>
+  <si>
+    <t>2020-01-22</t>
+  </si>
+  <si>
+    <t>2020-01-24</t>
+  </si>
+  <si>
+    <t>48:25</t>
   </si>
 </sst>
 </file>
@@ -9749,10 +9812,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1BECE25-7878-7543-A5E4-1B4438F2AAC2}">
-  <dimension ref="A1:C2396"/>
+  <dimension ref="A1:C2410"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2379" workbookViewId="0">
-      <selection activeCell="A2397" sqref="A2397"/>
+    <sheetView tabSelected="1" topLeftCell="A2382" workbookViewId="0">
+      <selection activeCell="A2411" sqref="A2411"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -34414,6 +34477,157 @@
         <v>3114</v>
       </c>
     </row>
+    <row r="2397" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2397" s="2" t="s">
+        <v>3115</v>
+      </c>
+      <c r="B2397" s="1">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="C2397" s="2" t="s">
+        <v>3116</v>
+      </c>
+    </row>
+    <row r="2398" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2398" s="2" t="s">
+        <v>3117</v>
+      </c>
+      <c r="B2398" s="1">
+        <v>4.72</v>
+      </c>
+      <c r="C2398" s="2" t="s">
+        <v>3118</v>
+      </c>
+    </row>
+    <row r="2399" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2399" s="2" t="s">
+        <v>3119</v>
+      </c>
+      <c r="B2399" s="1">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="2400" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2400" s="2" t="s">
+        <v>3120</v>
+      </c>
+      <c r="B2400" s="1">
+        <v>4.72</v>
+      </c>
+      <c r="C2400" s="2" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="2401" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2401" s="2" t="s">
+        <v>3121</v>
+      </c>
+      <c r="B2401" s="1">
+        <v>6.04</v>
+      </c>
+      <c r="C2401" s="2" t="s">
+        <v>2896</v>
+      </c>
+    </row>
+    <row r="2402" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2402" s="2" t="s">
+        <v>3122</v>
+      </c>
+      <c r="B2402" s="1">
+        <v>6.13</v>
+      </c>
+      <c r="C2402" s="2" t="s">
+        <v>3123</v>
+      </c>
+    </row>
+    <row r="2403" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2403" s="2" t="s">
+        <v>3124</v>
+      </c>
+      <c r="B2403" s="1">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="C2403" s="2" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="2404" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2404" s="2" t="s">
+        <v>3125</v>
+      </c>
+      <c r="B2404" s="1">
+        <v>6.02</v>
+      </c>
+      <c r="C2404" s="2" t="s">
+        <v>3126</v>
+      </c>
+    </row>
+    <row r="2405" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2405" s="2" t="s">
+        <v>3127</v>
+      </c>
+      <c r="B2405" s="1">
+        <v>8.1300000000000008</v>
+      </c>
+      <c r="C2405" s="2" t="s">
+        <v>3128</v>
+      </c>
+    </row>
+    <row r="2406" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2406" s="2" t="s">
+        <v>3129</v>
+      </c>
+      <c r="B2406" s="1">
+        <v>9.61</v>
+      </c>
+      <c r="C2406" s="2" t="s">
+        <v>3130</v>
+      </c>
+    </row>
+    <row r="2407" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2407" s="2" t="s">
+        <v>3131</v>
+      </c>
+      <c r="B2407" s="1">
+        <v>6.68</v>
+      </c>
+      <c r="C2407" s="2" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="2408" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2408" s="2" t="s">
+        <v>3132</v>
+      </c>
+      <c r="B2408" s="1">
+        <v>5</v>
+      </c>
+      <c r="C2408" s="2" t="s">
+        <v>2913</v>
+      </c>
+    </row>
+    <row r="2409" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2409" s="2" t="s">
+        <v>3133</v>
+      </c>
+      <c r="B2409" s="1">
+        <v>6.11</v>
+      </c>
+      <c r="C2409" s="2" t="s">
+        <v>3126</v>
+      </c>
+    </row>
+    <row r="2410" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2410" s="2" t="s">
+        <v>3134</v>
+      </c>
+      <c r="B2410" s="1">
+        <v>7.16</v>
+      </c>
+      <c r="C2410" s="2" t="s">
+        <v>3135</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>

--- a/Running_Log.xlsx
+++ b/Running_Log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/AlexDolwick/dolwick_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF21FD32-38AD-FF45-8E84-8A5234502340}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3371DA8E-B468-594D-83A1-608F1A8FAD7B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1800" yWindow="460" windowWidth="25680" windowHeight="15920" xr2:uid="{4B2E00A5-7125-EC4E-9EAD-C4CEE86B127A}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3697" uniqueCount="3136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3697" uniqueCount="3137">
   <si>
     <t>Date</t>
   </si>
@@ -9439,6 +9439,9 @@
   </si>
   <si>
     <t>48:25</t>
+  </si>
+  <si>
+    <t>1:09:59</t>
   </si>
 </sst>
 </file>
@@ -9814,8 +9817,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1BECE25-7878-7543-A5E4-1B4438F2AAC2}">
   <dimension ref="A1:C2410"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2382" workbookViewId="0">
-      <selection activeCell="A2411" sqref="A2411"/>
+    <sheetView tabSelected="1" topLeftCell="A1263" workbookViewId="0">
+      <selection activeCell="F1276" sqref="F1276"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23202,7 +23205,7 @@
         <v>9.15</v>
       </c>
       <c r="C1272" s="2" t="s">
-        <v>756</v>
+        <v>3136</v>
       </c>
     </row>
     <row r="1273" spans="1:3" x14ac:dyDescent="0.2">

--- a/Running_Log.xlsx
+++ b/Running_Log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/AlexDolwick/dolwick_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3371DA8E-B468-594D-83A1-608F1A8FAD7B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A0C2A35-4B9F-824B-82A6-D49EF77D7290}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1800" yWindow="460" windowWidth="25680" windowHeight="15920" xr2:uid="{4B2E00A5-7125-EC4E-9EAD-C4CEE86B127A}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3697" uniqueCount="3137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3699" uniqueCount="3138">
   <si>
     <t>Date</t>
   </si>
@@ -9442,6 +9442,9 @@
   </si>
   <si>
     <t>1:09:59</t>
+  </si>
+  <si>
+    <t>2020-01-25</t>
   </si>
 </sst>
 </file>
@@ -9815,10 +9818,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1BECE25-7878-7543-A5E4-1B4438F2AAC2}">
-  <dimension ref="A1:C2410"/>
+  <dimension ref="A1:C2411"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1263" workbookViewId="0">
-      <selection activeCell="F1276" sqref="F1276"/>
+    <sheetView tabSelected="1" topLeftCell="A2380" workbookViewId="0">
+      <selection activeCell="C2411" sqref="C2411"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -34631,6 +34634,17 @@
         <v>3135</v>
       </c>
     </row>
+    <row r="2411" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2411" s="2" t="s">
+        <v>3137</v>
+      </c>
+      <c r="B2411" s="1">
+        <v>6.45</v>
+      </c>
+      <c r="C2411" s="2" t="s">
+        <v>789</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>

--- a/Running_Log.xlsx
+++ b/Running_Log.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/AlexDolwick/dolwick_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A0C2A35-4B9F-824B-82A6-D49EF77D7290}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9AA5133-59A1-5E4B-98FD-CDFBDA9706C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1800" yWindow="460" windowWidth="25680" windowHeight="15920" xr2:uid="{4B2E00A5-7125-EC4E-9EAD-C4CEE86B127A}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25680" windowHeight="15920" xr2:uid="{4B2E00A5-7125-EC4E-9EAD-C4CEE86B127A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3699" uniqueCount="3138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3706" uniqueCount="3145">
   <si>
     <t>Date</t>
   </si>
@@ -9445,6 +9445,27 @@
   </si>
   <si>
     <t>2020-01-25</t>
+  </si>
+  <si>
+    <t>2020-01-26</t>
+  </si>
+  <si>
+    <t>1:08:04</t>
+  </si>
+  <si>
+    <t>2020-01-27</t>
+  </si>
+  <si>
+    <t>43:48</t>
+  </si>
+  <si>
+    <t>2020-01-29</t>
+  </si>
+  <si>
+    <t>2020-01-28</t>
+  </si>
+  <si>
+    <t>45:06</t>
   </si>
 </sst>
 </file>
@@ -9818,10 +9839,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1BECE25-7878-7543-A5E4-1B4438F2AAC2}">
-  <dimension ref="A1:C2411"/>
+  <dimension ref="A1:C2415"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2380" workbookViewId="0">
-      <selection activeCell="C2411" sqref="C2411"/>
+    <sheetView tabSelected="1" topLeftCell="A2387" workbookViewId="0">
+      <selection activeCell="B1987" sqref="B1987"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -34645,6 +34666,47 @@
         <v>789</v>
       </c>
     </row>
+    <row r="2412" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2412" s="2" t="s">
+        <v>3138</v>
+      </c>
+      <c r="B2412" s="1">
+        <v>10</v>
+      </c>
+      <c r="C2412" s="2" t="s">
+        <v>3139</v>
+      </c>
+    </row>
+    <row r="2413" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2413" s="2" t="s">
+        <v>3140</v>
+      </c>
+      <c r="B2413" s="1">
+        <v>6.06</v>
+      </c>
+      <c r="C2413" s="2" t="s">
+        <v>3141</v>
+      </c>
+    </row>
+    <row r="2414" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2414" s="2" t="s">
+        <v>3143</v>
+      </c>
+      <c r="B2414" s="1">
+        <v>6.34</v>
+      </c>
+      <c r="C2414" s="2" t="s">
+        <v>3144</v>
+      </c>
+    </row>
+    <row r="2415" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2415" s="2" t="s">
+        <v>3142</v>
+      </c>
+      <c r="B2415" s="1">
+        <v>11.45</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>

--- a/Running_Log.xlsx
+++ b/Running_Log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/AlexDolwick/dolwick_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9AA5133-59A1-5E4B-98FD-CDFBDA9706C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{414F51FC-24FF-1047-BB96-ECA2D875C637}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25680" windowHeight="15920" xr2:uid="{4B2E00A5-7125-EC4E-9EAD-C4CEE86B127A}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3706" uniqueCount="3145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3708" uniqueCount="3146">
   <si>
     <t>Date</t>
   </si>
@@ -9466,6 +9466,9 @@
   </si>
   <si>
     <t>45:06</t>
+  </si>
+  <si>
+    <t>2020-01-30</t>
   </si>
 </sst>
 </file>
@@ -9839,10 +9842,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1BECE25-7878-7543-A5E4-1B4438F2AAC2}">
-  <dimension ref="A1:C2415"/>
+  <dimension ref="A1:C2416"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2387" workbookViewId="0">
-      <selection activeCell="B1987" sqref="B1987"/>
+      <selection activeCell="C2417" sqref="C2417"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -34707,6 +34710,17 @@
         <v>11.45</v>
       </c>
     </row>
+    <row r="2416" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2416" s="2" t="s">
+        <v>3145</v>
+      </c>
+      <c r="B2416" s="1">
+        <v>6.3</v>
+      </c>
+      <c r="C2416" s="2" t="s">
+        <v>1773</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>

--- a/Running_Log.xlsx
+++ b/Running_Log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/AlexDolwick/dolwick_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{414F51FC-24FF-1047-BB96-ECA2D875C637}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{497AB1F0-FBEA-A340-AA25-09FE0C85D992}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25680" windowHeight="15920" xr2:uid="{4B2E00A5-7125-EC4E-9EAD-C4CEE86B127A}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3708" uniqueCount="3146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3710" uniqueCount="3148">
   <si>
     <t>Date</t>
   </si>
@@ -9469,6 +9469,12 @@
   </si>
   <si>
     <t>2020-01-30</t>
+  </si>
+  <si>
+    <t>2020-02-01</t>
+  </si>
+  <si>
+    <t>1:35:19</t>
   </si>
 </sst>
 </file>
@@ -9842,10 +9848,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1BECE25-7878-7543-A5E4-1B4438F2AAC2}">
-  <dimension ref="A1:C2416"/>
+  <dimension ref="A1:C2417"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2387" workbookViewId="0">
-      <selection activeCell="C2417" sqref="C2417"/>
+    <sheetView tabSelected="1" topLeftCell="A2393" workbookViewId="0">
+      <selection activeCell="A2418" sqref="A2418"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -34721,6 +34727,17 @@
         <v>1773</v>
       </c>
     </row>
+    <row r="2417" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2417" s="2" t="s">
+        <v>3146</v>
+      </c>
+      <c r="B2417" s="1">
+        <v>14.4</v>
+      </c>
+      <c r="C2417" s="2" t="s">
+        <v>3147</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>

--- a/Running_Log.xlsx
+++ b/Running_Log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/AlexDolwick/dolwick_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{497AB1F0-FBEA-A340-AA25-09FE0C85D992}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB3E6153-B4BA-434E-8E66-2E41820CB870}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25680" windowHeight="15920" xr2:uid="{4B2E00A5-7125-EC4E-9EAD-C4CEE86B127A}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3710" uniqueCount="3148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3714" uniqueCount="3152">
   <si>
     <t>Date</t>
   </si>
@@ -9475,6 +9475,18 @@
   </si>
   <si>
     <t>1:35:19</t>
+  </si>
+  <si>
+    <t>2020-02-02</t>
+  </si>
+  <si>
+    <t>45:46</t>
+  </si>
+  <si>
+    <t>2020-02-03</t>
+  </si>
+  <si>
+    <t>59:48</t>
   </si>
 </sst>
 </file>
@@ -9848,10 +9860,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1BECE25-7878-7543-A5E4-1B4438F2AAC2}">
-  <dimension ref="A1:C2417"/>
+  <dimension ref="A1:C2419"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2393" workbookViewId="0">
-      <selection activeCell="A2418" sqref="A2418"/>
+    <sheetView tabSelected="1" topLeftCell="A2403" workbookViewId="0">
+      <selection activeCell="C2420" sqref="C2420"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -34738,6 +34750,28 @@
         <v>3147</v>
       </c>
     </row>
+    <row r="2418" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2418" s="2" t="s">
+        <v>3148</v>
+      </c>
+      <c r="B2418" s="1">
+        <v>5.84</v>
+      </c>
+      <c r="C2418" s="2" t="s">
+        <v>3149</v>
+      </c>
+    </row>
+    <row r="2419" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2419" s="2" t="s">
+        <v>3150</v>
+      </c>
+      <c r="B2419" s="1">
+        <v>8.18</v>
+      </c>
+      <c r="C2419" s="2" t="s">
+        <v>3151</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>

--- a/Running_Log.xlsx
+++ b/Running_Log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/AlexDolwick/dolwick_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB3E6153-B4BA-434E-8E66-2E41820CB870}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46B713FE-6DE0-2244-98F7-68A5FA34791B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25680" windowHeight="15920" xr2:uid="{4B2E00A5-7125-EC4E-9EAD-C4CEE86B127A}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3714" uniqueCount="3152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3717" uniqueCount="3155">
   <si>
     <t>Date</t>
   </si>
@@ -9487,6 +9487,15 @@
   </si>
   <si>
     <t>59:48</t>
+  </si>
+  <si>
+    <t>2020-02-04</t>
+  </si>
+  <si>
+    <t>47:42</t>
+  </si>
+  <si>
+    <t>2020-02-05</t>
   </si>
 </sst>
 </file>
@@ -9860,10 +9869,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1BECE25-7878-7543-A5E4-1B4438F2AAC2}">
-  <dimension ref="A1:C2419"/>
+  <dimension ref="A1:C2421"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2403" workbookViewId="0">
-      <selection activeCell="C2420" sqref="C2420"/>
+    <sheetView tabSelected="1" topLeftCell="A2395" workbookViewId="0">
+      <selection activeCell="B2422" sqref="B2422"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -34772,6 +34781,25 @@
         <v>3151</v>
       </c>
     </row>
+    <row r="2420" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2420" s="2" t="s">
+        <v>3152</v>
+      </c>
+      <c r="B2420" s="1">
+        <v>6.56</v>
+      </c>
+      <c r="C2420" s="2" t="s">
+        <v>3153</v>
+      </c>
+    </row>
+    <row r="2421" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2421" s="2" t="s">
+        <v>3154</v>
+      </c>
+      <c r="B2421" s="1">
+        <v>12.11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>

--- a/Running_Log.xlsx
+++ b/Running_Log.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/AlexDolwick/dolwick_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46B713FE-6DE0-2244-98F7-68A5FA34791B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A732A481-9C09-704C-AEC2-EF14FB76F224}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25680" windowHeight="15920" xr2:uid="{4B2E00A5-7125-EC4E-9EAD-C4CEE86B127A}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3717" uniqueCount="3155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3729" uniqueCount="3165">
   <si>
     <t>Date</t>
   </si>
@@ -9496,6 +9496,36 @@
   </si>
   <si>
     <t>2020-02-05</t>
+  </si>
+  <si>
+    <t>2020-02-06</t>
+  </si>
+  <si>
+    <t>49:02</t>
+  </si>
+  <si>
+    <t>2020-02-08</t>
+  </si>
+  <si>
+    <t>54:11</t>
+  </si>
+  <si>
+    <t>2020-02-09</t>
+  </si>
+  <si>
+    <t>2020-02-10</t>
+  </si>
+  <si>
+    <t>38:43</t>
+  </si>
+  <si>
+    <t>2020-02-11</t>
+  </si>
+  <si>
+    <t>52:11</t>
+  </si>
+  <si>
+    <t>2020-02-12</t>
   </si>
 </sst>
 </file>
@@ -9869,10 +9899,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1BECE25-7878-7543-A5E4-1B4438F2AAC2}">
-  <dimension ref="A1:C2421"/>
+  <dimension ref="A1:C2428"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2395" workbookViewId="0">
-      <selection activeCell="B2422" sqref="B2422"/>
+    <sheetView tabSelected="1" topLeftCell="A2405" workbookViewId="0">
+      <selection activeCell="F2422" sqref="F2422"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -34800,6 +34830,77 @@
         <v>12.11</v>
       </c>
     </row>
+    <row r="2422" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2422" s="2" t="s">
+        <v>3155</v>
+      </c>
+      <c r="B2422" s="1">
+        <v>6.19</v>
+      </c>
+      <c r="C2422" s="2" t="s">
+        <v>3156</v>
+      </c>
+    </row>
+    <row r="2423" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2423" s="2" t="s">
+        <v>3157</v>
+      </c>
+      <c r="B2423" s="1">
+        <v>7.55</v>
+      </c>
+      <c r="C2423" s="2" t="s">
+        <v>3158</v>
+      </c>
+    </row>
+    <row r="2424" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2424" s="2" t="s">
+        <v>3159</v>
+      </c>
+      <c r="B2424" s="1">
+        <v>3.11</v>
+      </c>
+      <c r="C2424" s="2" t="s">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="2425" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2425" s="2" t="s">
+        <v>3159</v>
+      </c>
+      <c r="B2425" s="1">
+        <v>8.98</v>
+      </c>
+    </row>
+    <row r="2426" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2426" s="2" t="s">
+        <v>3160</v>
+      </c>
+      <c r="B2426" s="1">
+        <v>5.15</v>
+      </c>
+      <c r="C2426" s="2" t="s">
+        <v>3161</v>
+      </c>
+    </row>
+    <row r="2427" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2427" s="2" t="s">
+        <v>3162</v>
+      </c>
+      <c r="B2427" s="1">
+        <v>7.45</v>
+      </c>
+      <c r="C2427" s="2" t="s">
+        <v>3163</v>
+      </c>
+    </row>
+    <row r="2428" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2428" s="2" t="s">
+        <v>3164</v>
+      </c>
+      <c r="B2428" s="1">
+        <v>10.58</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>

--- a/Running_Log.xlsx
+++ b/Running_Log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/AlexDolwick/dolwick_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A732A481-9C09-704C-AEC2-EF14FB76F224}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{066E30B5-6558-6148-9B85-69A6FFAB3AFA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25680" windowHeight="15920" xr2:uid="{4B2E00A5-7125-EC4E-9EAD-C4CEE86B127A}"/>
   </bookViews>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3729" uniqueCount="3165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3739" uniqueCount="3172">
   <si>
     <t>Date</t>
   </si>
@@ -9526,6 +9528,27 @@
   </si>
   <si>
     <t>2020-02-12</t>
+  </si>
+  <si>
+    <t>2020-02-14</t>
+  </si>
+  <si>
+    <t>50:29</t>
+  </si>
+  <si>
+    <t>2020-02-15</t>
+  </si>
+  <si>
+    <t>1:41:01</t>
+  </si>
+  <si>
+    <t>2020-02-16</t>
+  </si>
+  <si>
+    <t>2020-02-17</t>
+  </si>
+  <si>
+    <t>2020-02-18</t>
   </si>
 </sst>
 </file>
@@ -9899,10 +9922,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1BECE25-7878-7543-A5E4-1B4438F2AAC2}">
-  <dimension ref="A1:C2428"/>
+  <dimension ref="A1:C2433"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2405" workbookViewId="0">
-      <selection activeCell="F2422" sqref="F2422"/>
+      <selection activeCell="A2434" sqref="A2434"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -34901,6 +34924,61 @@
         <v>10.58</v>
       </c>
     </row>
+    <row r="2429" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2429" s="2" t="s">
+        <v>3165</v>
+      </c>
+      <c r="B2429" s="1">
+        <v>6.94</v>
+      </c>
+      <c r="C2429" s="2" t="s">
+        <v>3166</v>
+      </c>
+    </row>
+    <row r="2430" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2430" s="2" t="s">
+        <v>3167</v>
+      </c>
+      <c r="B2430" s="1">
+        <v>15.34</v>
+      </c>
+      <c r="C2430" s="2" t="s">
+        <v>3168</v>
+      </c>
+    </row>
+    <row r="2431" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2431" s="2" t="s">
+        <v>3169</v>
+      </c>
+      <c r="B2431" s="1">
+        <v>6.91</v>
+      </c>
+      <c r="C2431" s="2" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="2432" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2432" s="2" t="s">
+        <v>3170</v>
+      </c>
+      <c r="B2432" s="1">
+        <v>5.95</v>
+      </c>
+      <c r="C2432" s="2" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="2433" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2433" s="2" t="s">
+        <v>3171</v>
+      </c>
+      <c r="B2433" s="1">
+        <v>8.08</v>
+      </c>
+      <c r="C2433" s="2" t="s">
+        <v>2467</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>

--- a/Running_Log.xlsx
+++ b/Running_Log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/AlexDolwick/dolwick_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{066E30B5-6558-6148-9B85-69A6FFAB3AFA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ABF1AC3-A017-3D43-8FC0-C78904D7A3DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25680" windowHeight="15920" xr2:uid="{4B2E00A5-7125-EC4E-9EAD-C4CEE86B127A}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3739" uniqueCount="3172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3747" uniqueCount="3178">
   <si>
     <t>Date</t>
   </si>
@@ -9549,6 +9549,24 @@
   </si>
   <si>
     <t>2020-02-18</t>
+  </si>
+  <si>
+    <t>2020-02-19</t>
+  </si>
+  <si>
+    <t>2020-02-21</t>
+  </si>
+  <si>
+    <t>57:08</t>
+  </si>
+  <si>
+    <t>2020-02-22</t>
+  </si>
+  <si>
+    <t>1:00:34</t>
+  </si>
+  <si>
+    <t>2020-02-23</t>
   </si>
 </sst>
 </file>
@@ -9922,10 +9940,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1BECE25-7878-7543-A5E4-1B4438F2AAC2}">
-  <dimension ref="A1:C2433"/>
+  <dimension ref="A1:C2438"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2405" workbookViewId="0">
-      <selection activeCell="A2434" sqref="A2434"/>
+      <selection activeCell="C2438" sqref="C2438"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -34979,6 +34997,55 @@
         <v>2467</v>
       </c>
     </row>
+    <row r="2434" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2434" s="2" t="s">
+        <v>3172</v>
+      </c>
+      <c r="B2434" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2435" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2435" s="2" t="s">
+        <v>3173</v>
+      </c>
+      <c r="B2435" s="1">
+        <v>8.14</v>
+      </c>
+      <c r="C2435" s="2" t="s">
+        <v>3174</v>
+      </c>
+    </row>
+    <row r="2436" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2436" s="2" t="s">
+        <v>3175</v>
+      </c>
+      <c r="B2436" s="1">
+        <v>8.01</v>
+      </c>
+      <c r="C2436" s="2" t="s">
+        <v>3176</v>
+      </c>
+    </row>
+    <row r="2437" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2437" s="2" t="s">
+        <v>3177</v>
+      </c>
+      <c r="B2437" s="1">
+        <v>10</v>
+      </c>
+      <c r="C2437" s="2" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="2438" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2438" s="2" t="s">
+        <v>3177</v>
+      </c>
+      <c r="B2438" s="1">
+        <v>5.47</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>

--- a/Running_Log.xlsx
+++ b/Running_Log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/AlexDolwick/dolwick_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ABF1AC3-A017-3D43-8FC0-C78904D7A3DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C2317FA-4FD7-F047-ABF9-BA2B5C142C04}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25680" windowHeight="15920" xr2:uid="{4B2E00A5-7125-EC4E-9EAD-C4CEE86B127A}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3747" uniqueCount="3178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3751" uniqueCount="3181">
   <si>
     <t>Date</t>
   </si>
@@ -9567,6 +9567,15 @@
   </si>
   <si>
     <t>2020-02-23</t>
+  </si>
+  <si>
+    <t>2020-02-25</t>
+  </si>
+  <si>
+    <t>1:01:37</t>
+  </si>
+  <si>
+    <t>2020-02-26</t>
   </si>
 </sst>
 </file>
@@ -9940,10 +9949,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1BECE25-7878-7543-A5E4-1B4438F2AAC2}">
-  <dimension ref="A1:C2438"/>
+  <dimension ref="A1:C2440"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2405" workbookViewId="0">
-      <selection activeCell="C2438" sqref="C2438"/>
+    <sheetView tabSelected="1" topLeftCell="A2421" workbookViewId="0">
+      <selection activeCell="C2446" sqref="C2446"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -35046,6 +35055,28 @@
         <v>5.47</v>
       </c>
     </row>
+    <row r="2439" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2439" s="2" t="s">
+        <v>3178</v>
+      </c>
+      <c r="B2439" s="1">
+        <v>8.3699999999999992</v>
+      </c>
+      <c r="C2439" s="2" t="s">
+        <v>3179</v>
+      </c>
+    </row>
+    <row r="2440" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2440" s="2" t="s">
+        <v>3180</v>
+      </c>
+      <c r="B2440" s="1">
+        <v>8.5399999999999991</v>
+      </c>
+      <c r="C2440" s="2" t="s">
+        <v>2084</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>

--- a/Running_Log.xlsx
+++ b/Running_Log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/AlexDolwick/dolwick_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C2317FA-4FD7-F047-ABF9-BA2B5C142C04}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84D445A6-D763-2D45-9A5B-049A41548597}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25680" windowHeight="15920" xr2:uid="{4B2E00A5-7125-EC4E-9EAD-C4CEE86B127A}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3751" uniqueCount="3181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3759" uniqueCount="3189">
   <si>
     <t>Date</t>
   </si>
@@ -9576,6 +9576,30 @@
   </si>
   <si>
     <t>2020-02-26</t>
+  </si>
+  <si>
+    <t>2020-02-27</t>
+  </si>
+  <si>
+    <t>52:38</t>
+  </si>
+  <si>
+    <t>2020-02-28</t>
+  </si>
+  <si>
+    <t>55:24</t>
+  </si>
+  <si>
+    <t>2020-02-29</t>
+  </si>
+  <si>
+    <t>1:08:13</t>
+  </si>
+  <si>
+    <t>2020-03-01</t>
+  </si>
+  <si>
+    <t>1:46:56</t>
   </si>
 </sst>
 </file>
@@ -9949,10 +9973,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1BECE25-7878-7543-A5E4-1B4438F2AAC2}">
-  <dimension ref="A1:C2440"/>
+  <dimension ref="A1:C2444"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2421" workbookViewId="0">
-      <selection activeCell="C2446" sqref="C2446"/>
+    <sheetView tabSelected="1" topLeftCell="A2434" workbookViewId="0">
+      <selection activeCell="F2452" sqref="F2452"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -35077,6 +35101,50 @@
         <v>2084</v>
       </c>
     </row>
+    <row r="2441" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2441" s="2" t="s">
+        <v>3181</v>
+      </c>
+      <c r="B2441" s="1">
+        <v>7.41</v>
+      </c>
+      <c r="C2441" s="2" t="s">
+        <v>3182</v>
+      </c>
+    </row>
+    <row r="2442" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2442" s="2" t="s">
+        <v>3183</v>
+      </c>
+      <c r="B2442" s="1">
+        <v>8.15</v>
+      </c>
+      <c r="C2442" s="2" t="s">
+        <v>3184</v>
+      </c>
+    </row>
+    <row r="2443" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2443" s="2" t="s">
+        <v>3185</v>
+      </c>
+      <c r="B2443" s="1">
+        <v>9.8800000000000008</v>
+      </c>
+      <c r="C2443" s="2" t="s">
+        <v>3186</v>
+      </c>
+    </row>
+    <row r="2444" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2444" s="2" t="s">
+        <v>3187</v>
+      </c>
+      <c r="B2444" s="1">
+        <v>16.23</v>
+      </c>
+      <c r="C2444" s="2" t="s">
+        <v>3188</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>

--- a/Running_Log.xlsx
+++ b/Running_Log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/AlexDolwick/dolwick_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84D445A6-D763-2D45-9A5B-049A41548597}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C2F6723-17CC-6A4C-A8E8-A70BE8E17273}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25680" windowHeight="15920" xr2:uid="{4B2E00A5-7125-EC4E-9EAD-C4CEE86B127A}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3759" uniqueCount="3189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3773" uniqueCount="3202">
   <si>
     <t>Date</t>
   </si>
@@ -9600,6 +9600,45 @@
   </si>
   <si>
     <t>1:46:56</t>
+  </si>
+  <si>
+    <t>2020-03-02</t>
+  </si>
+  <si>
+    <t>41:03</t>
+  </si>
+  <si>
+    <t>2020-03-03</t>
+  </si>
+  <si>
+    <t>59:25</t>
+  </si>
+  <si>
+    <t>2020-03-04</t>
+  </si>
+  <si>
+    <t>1:09:07</t>
+  </si>
+  <si>
+    <t>2020-03-05</t>
+  </si>
+  <si>
+    <t>58:14</t>
+  </si>
+  <si>
+    <t>2020-03-06</t>
+  </si>
+  <si>
+    <t>1:11:44</t>
+  </si>
+  <si>
+    <t>2020-03-07</t>
+  </si>
+  <si>
+    <t>57:36</t>
+  </si>
+  <si>
+    <t>9:22</t>
   </si>
 </sst>
 </file>
@@ -9973,10 +10012,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1BECE25-7878-7543-A5E4-1B4438F2AAC2}">
-  <dimension ref="A1:C2444"/>
+  <dimension ref="A1:C2451"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2434" workbookViewId="0">
-      <selection activeCell="F2452" sqref="F2452"/>
+      <selection activeCell="D2449" sqref="D2449"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -35145,6 +35184,83 @@
         <v>3188</v>
       </c>
     </row>
+    <row r="2445" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2445" s="2" t="s">
+        <v>3189</v>
+      </c>
+      <c r="B2445" s="1">
+        <v>5.05</v>
+      </c>
+      <c r="C2445" s="2" t="s">
+        <v>3190</v>
+      </c>
+    </row>
+    <row r="2446" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2446" s="2" t="s">
+        <v>3191</v>
+      </c>
+      <c r="B2446" s="1">
+        <v>8.27</v>
+      </c>
+      <c r="C2446" s="2" t="s">
+        <v>3192</v>
+      </c>
+    </row>
+    <row r="2447" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2447" s="2" t="s">
+        <v>3193</v>
+      </c>
+      <c r="B2447" s="1">
+        <v>9.42</v>
+      </c>
+      <c r="C2447" s="2" t="s">
+        <v>3194</v>
+      </c>
+    </row>
+    <row r="2448" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2448" s="2" t="s">
+        <v>3195</v>
+      </c>
+      <c r="B2448" s="1">
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="C2448" s="2" t="s">
+        <v>3196</v>
+      </c>
+    </row>
+    <row r="2449" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2449" s="2" t="s">
+        <v>3197</v>
+      </c>
+      <c r="B2449" s="1">
+        <v>10.210000000000001</v>
+      </c>
+      <c r="C2449" s="2" t="s">
+        <v>3198</v>
+      </c>
+    </row>
+    <row r="2450" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2450" s="2" t="s">
+        <v>3199</v>
+      </c>
+      <c r="B2450" s="1">
+        <v>8.11</v>
+      </c>
+      <c r="C2450" s="2" t="s">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="2451" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2451" s="2" t="s">
+        <v>3199</v>
+      </c>
+      <c r="B2451" s="1">
+        <v>1.29</v>
+      </c>
+      <c r="C2451" s="2" t="s">
+        <v>3201</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>

--- a/Running_Log.xlsx
+++ b/Running_Log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/AlexDolwick/dolwick_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C2F6723-17CC-6A4C-A8E8-A70BE8E17273}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{492BC59B-9EE0-AF49-B814-BCA8307E2863}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25680" windowHeight="15920" xr2:uid="{4B2E00A5-7125-EC4E-9EAD-C4CEE86B127A}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3773" uniqueCount="3202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3777" uniqueCount="3205">
   <si>
     <t>Date</t>
   </si>
@@ -9639,6 +9639,15 @@
   </si>
   <si>
     <t>9:22</t>
+  </si>
+  <si>
+    <t>2020-03-08</t>
+  </si>
+  <si>
+    <t>1:49:09</t>
+  </si>
+  <si>
+    <t>2020-03-09</t>
   </si>
 </sst>
 </file>
@@ -10012,10 +10021,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1BECE25-7878-7543-A5E4-1B4438F2AAC2}">
-  <dimension ref="A1:C2451"/>
+  <dimension ref="A1:C2453"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2434" workbookViewId="0">
-      <selection activeCell="D2449" sqref="D2449"/>
+      <selection activeCell="A2454" sqref="A2454"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -35261,6 +35270,28 @@
         <v>3201</v>
       </c>
     </row>
+    <row r="2452" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2452" s="2" t="s">
+        <v>3202</v>
+      </c>
+      <c r="B2452" s="1">
+        <v>15.01</v>
+      </c>
+      <c r="C2452" s="2" t="s">
+        <v>3203</v>
+      </c>
+    </row>
+    <row r="2453" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2453" s="2" t="s">
+        <v>3204</v>
+      </c>
+      <c r="B2453" s="1">
+        <v>6.32</v>
+      </c>
+      <c r="C2453" s="2" t="s">
+        <v>2965</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>

--- a/Running_Log.xlsx
+++ b/Running_Log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/AlexDolwick/dolwick_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{492BC59B-9EE0-AF49-B814-BCA8307E2863}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F7AA5AB-754C-7848-B05C-610AB122BBE2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25680" windowHeight="15920" xr2:uid="{4B2E00A5-7125-EC4E-9EAD-C4CEE86B127A}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3777" uniqueCount="3205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3793" uniqueCount="3217">
   <si>
     <t>Date</t>
   </si>
@@ -9648,6 +9648,42 @@
   </si>
   <si>
     <t>2020-03-09</t>
+  </si>
+  <si>
+    <t>2020-03-10</t>
+  </si>
+  <si>
+    <t>57:57</t>
+  </si>
+  <si>
+    <t>2020-03-11</t>
+  </si>
+  <si>
+    <t>1:14:53</t>
+  </si>
+  <si>
+    <t>2020-03-12</t>
+  </si>
+  <si>
+    <t>2020-03-14</t>
+  </si>
+  <si>
+    <t>2020-03-15</t>
+  </si>
+  <si>
+    <t>1:29:18</t>
+  </si>
+  <si>
+    <t>2020-03-16</t>
+  </si>
+  <si>
+    <t>2020-03-17</t>
+  </si>
+  <si>
+    <t>49:21</t>
+  </si>
+  <si>
+    <t>2020-03-18</t>
   </si>
 </sst>
 </file>
@@ -10021,10 +10057,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1BECE25-7878-7543-A5E4-1B4438F2AAC2}">
-  <dimension ref="A1:C2453"/>
+  <dimension ref="A1:C2461"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2434" workbookViewId="0">
-      <selection activeCell="A2454" sqref="A2454"/>
+      <selection activeCell="A2462" sqref="A2462"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -35292,6 +35328,94 @@
         <v>2965</v>
       </c>
     </row>
+    <row r="2454" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2454" s="2" t="s">
+        <v>3205</v>
+      </c>
+      <c r="B2454" s="1">
+        <v>8.0299999999999994</v>
+      </c>
+      <c r="C2454" s="2" t="s">
+        <v>3206</v>
+      </c>
+    </row>
+    <row r="2455" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2455" s="2" t="s">
+        <v>3207</v>
+      </c>
+      <c r="B2455" s="1">
+        <v>10</v>
+      </c>
+      <c r="C2455" s="2" t="s">
+        <v>3208</v>
+      </c>
+    </row>
+    <row r="2456" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2456" s="2" t="s">
+        <v>3209</v>
+      </c>
+      <c r="B2456" s="1">
+        <v>7</v>
+      </c>
+      <c r="C2456" s="2" t="s">
+        <v>1792</v>
+      </c>
+    </row>
+    <row r="2457" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2457" s="2" t="s">
+        <v>3210</v>
+      </c>
+      <c r="B2457" s="1">
+        <v>8.02</v>
+      </c>
+      <c r="C2457" s="2" t="s">
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="2458" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2458" s="2" t="s">
+        <v>3211</v>
+      </c>
+      <c r="B2458" s="1">
+        <v>12.64</v>
+      </c>
+      <c r="C2458" s="2" t="s">
+        <v>3212</v>
+      </c>
+    </row>
+    <row r="2459" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2459" s="2" t="s">
+        <v>3213</v>
+      </c>
+      <c r="B2459" s="1">
+        <v>7.02</v>
+      </c>
+      <c r="C2459" s="2" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="2460" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2460" s="2" t="s">
+        <v>3214</v>
+      </c>
+      <c r="B2460" s="1">
+        <v>7.46</v>
+      </c>
+      <c r="C2460" s="2" t="s">
+        <v>3215</v>
+      </c>
+    </row>
+    <row r="2461" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2461" s="2" t="s">
+        <v>3216</v>
+      </c>
+      <c r="B2461" s="1">
+        <v>7.02</v>
+      </c>
+      <c r="C2461" s="2" t="s">
+        <v>678</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>

--- a/Running_Log.xlsx
+++ b/Running_Log.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/AlexDolwick/dolwick_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F7AA5AB-754C-7848-B05C-610AB122BBE2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10D6FF8D-5469-A34D-8708-8263D97FE859}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25680" windowHeight="15920" xr2:uid="{4B2E00A5-7125-EC4E-9EAD-C4CEE86B127A}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3793" uniqueCount="3217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3811" uniqueCount="3232">
   <si>
     <t>Date</t>
   </si>
@@ -9684,6 +9684,51 @@
   </si>
   <si>
     <t>2020-03-18</t>
+  </si>
+  <si>
+    <t>2020-03-19</t>
+  </si>
+  <si>
+    <t>2020-03-20</t>
+  </si>
+  <si>
+    <t>2020-03-21</t>
+  </si>
+  <si>
+    <t>42:12</t>
+  </si>
+  <si>
+    <t>2020-03-22</t>
+  </si>
+  <si>
+    <t>1:40:23</t>
+  </si>
+  <si>
+    <t>2020-03-24</t>
+  </si>
+  <si>
+    <t>53:06</t>
+  </si>
+  <si>
+    <t>2020-03-25</t>
+  </si>
+  <si>
+    <t>53:52</t>
+  </si>
+  <si>
+    <t>2020-03-26</t>
+  </si>
+  <si>
+    <t>47:49</t>
+  </si>
+  <si>
+    <t>2020-03-27</t>
+  </si>
+  <si>
+    <t>1:09:19</t>
+  </si>
+  <si>
+    <t>2020-03-28</t>
   </si>
 </sst>
 </file>
@@ -10057,10 +10102,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1BECE25-7878-7543-A5E4-1B4438F2AAC2}">
-  <dimension ref="A1:C2461"/>
+  <dimension ref="A1:C2470"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2434" workbookViewId="0">
-      <selection activeCell="A2462" sqref="A2462"/>
+    <sheetView tabSelected="1" topLeftCell="A2450" workbookViewId="0">
+      <selection activeCell="A2471" sqref="A2471"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -35416,6 +35461,105 @@
         <v>678</v>
       </c>
     </row>
+    <row r="2462" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2462" s="2" t="s">
+        <v>3217</v>
+      </c>
+      <c r="B2462" s="1">
+        <v>6</v>
+      </c>
+      <c r="C2462" s="2" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="2463" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2463" s="2" t="s">
+        <v>3218</v>
+      </c>
+      <c r="B2463" s="1">
+        <v>9.64</v>
+      </c>
+      <c r="C2463" s="2" t="s">
+        <v>3194</v>
+      </c>
+    </row>
+    <row r="2464" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2464" s="2" t="s">
+        <v>3219</v>
+      </c>
+      <c r="B2464" s="1">
+        <v>5.65</v>
+      </c>
+      <c r="C2464" s="2" t="s">
+        <v>3220</v>
+      </c>
+    </row>
+    <row r="2465" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2465" s="2" t="s">
+        <v>3221</v>
+      </c>
+      <c r="B2465" s="1">
+        <v>13.69</v>
+      </c>
+      <c r="C2465" s="2" t="s">
+        <v>3222</v>
+      </c>
+    </row>
+    <row r="2466" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2466" s="2" t="s">
+        <v>3223</v>
+      </c>
+      <c r="B2466" s="1">
+        <v>8.1300000000000008</v>
+      </c>
+      <c r="C2466" s="2" t="s">
+        <v>3224</v>
+      </c>
+    </row>
+    <row r="2467" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2467" s="2" t="s">
+        <v>3225</v>
+      </c>
+      <c r="B2467" s="1">
+        <v>8.1199999999999992</v>
+      </c>
+      <c r="C2467" s="2" t="s">
+        <v>3226</v>
+      </c>
+    </row>
+    <row r="2468" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2468" s="2" t="s">
+        <v>3227</v>
+      </c>
+      <c r="B2468" s="1">
+        <v>7.14</v>
+      </c>
+      <c r="C2468" s="2" t="s">
+        <v>3228</v>
+      </c>
+    </row>
+    <row r="2469" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2469" s="2" t="s">
+        <v>3229</v>
+      </c>
+      <c r="B2469" s="1">
+        <v>9.52</v>
+      </c>
+      <c r="C2469" s="2" t="s">
+        <v>3230</v>
+      </c>
+    </row>
+    <row r="2470" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2470" s="2" t="s">
+        <v>3231</v>
+      </c>
+      <c r="B2470" s="1">
+        <v>7.14</v>
+      </c>
+      <c r="C2470" s="2" t="s">
+        <v>438</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>

--- a/Running_Log.xlsx
+++ b/Running_Log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/AlexDolwick/dolwick_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10D6FF8D-5469-A34D-8708-8263D97FE859}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2FFCF4E-3AF7-D643-8965-A6D1A2BCB81A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25680" windowHeight="15920" xr2:uid="{4B2E00A5-7125-EC4E-9EAD-C4CEE86B127A}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3811" uniqueCount="3232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3813" uniqueCount="3234">
   <si>
     <t>Date</t>
   </si>
@@ -9729,6 +9729,12 @@
   </si>
   <si>
     <t>2020-03-28</t>
+  </si>
+  <si>
+    <t>2020-03-29</t>
+  </si>
+  <si>
+    <t>1:39:43</t>
   </si>
 </sst>
 </file>
@@ -10102,10 +10108,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1BECE25-7878-7543-A5E4-1B4438F2AAC2}">
-  <dimension ref="A1:C2470"/>
+  <dimension ref="A1:C2471"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2450" workbookViewId="0">
-      <selection activeCell="A2471" sqref="A2471"/>
+      <selection activeCell="C2471" sqref="C2471"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -35560,6 +35566,17 @@
         <v>438</v>
       </c>
     </row>
+    <row r="2471" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2471" s="2" t="s">
+        <v>3232</v>
+      </c>
+      <c r="B2471" s="1">
+        <v>14</v>
+      </c>
+      <c r="C2471" s="2" t="s">
+        <v>3233</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>

--- a/Running_Log.xlsx
+++ b/Running_Log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/AlexDolwick/dolwick_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2FFCF4E-3AF7-D643-8965-A6D1A2BCB81A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{349F004C-EE31-364C-AEEB-F9B3E0FEE480}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25680" windowHeight="15920" xr2:uid="{4B2E00A5-7125-EC4E-9EAD-C4CEE86B127A}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3813" uniqueCount="3234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3815" uniqueCount="3235">
   <si>
     <t>Date</t>
   </si>
@@ -9735,6 +9735,9 @@
   </si>
   <si>
     <t>1:39:43</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
   </si>
 </sst>
 </file>
@@ -10108,10 +10111,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1BECE25-7878-7543-A5E4-1B4438F2AAC2}">
-  <dimension ref="A1:C2471"/>
+  <dimension ref="A1:C2472"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2450" workbookViewId="0">
-      <selection activeCell="C2471" sqref="C2471"/>
+    <sheetView tabSelected="1" topLeftCell="A2446" workbookViewId="0">
+      <selection activeCell="C2473" sqref="C2473"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -35577,6 +35580,17 @@
         <v>3233</v>
       </c>
     </row>
+    <row r="2472" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2472" s="2" t="s">
+        <v>3234</v>
+      </c>
+      <c r="B2472" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="C2472" s="2" t="s">
+        <v>1787</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>

--- a/Running_Log.xlsx
+++ b/Running_Log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/AlexDolwick/dolwick_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{349F004C-EE31-364C-AEEB-F9B3E0FEE480}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA465090-8CBE-154C-96DA-B40F704CF4C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25680" windowHeight="15920" xr2:uid="{4B2E00A5-7125-EC4E-9EAD-C4CEE86B127A}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3815" uniqueCount="3235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3822" uniqueCount="3241">
   <si>
     <t>Date</t>
   </si>
@@ -9738,6 +9738,24 @@
   </si>
   <si>
     <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2020-04-01</t>
+  </si>
+  <si>
+    <t>49:48</t>
+  </si>
+  <si>
+    <t>2020-04-02</t>
+  </si>
+  <si>
+    <t>2020-04-03</t>
+  </si>
+  <si>
+    <t>2020-04-04</t>
+  </si>
+  <si>
+    <t>1:47:10</t>
   </si>
 </sst>
 </file>
@@ -10111,10 +10129,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1BECE25-7878-7543-A5E4-1B4438F2AAC2}">
-  <dimension ref="A1:C2472"/>
+  <dimension ref="A1:C2476"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2446" workbookViewId="0">
-      <selection activeCell="C2473" sqref="C2473"/>
+    <sheetView tabSelected="1" topLeftCell="A2452" workbookViewId="0">
+      <selection activeCell="D2479" sqref="D2479"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -35591,6 +35609,47 @@
         <v>1787</v>
       </c>
     </row>
+    <row r="2473" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2473" s="2" t="s">
+        <v>3235</v>
+      </c>
+      <c r="B2473" s="1">
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="C2473" s="2" t="s">
+        <v>3236</v>
+      </c>
+    </row>
+    <row r="2474" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2474" s="2" t="s">
+        <v>3237</v>
+      </c>
+      <c r="B2474" s="1">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="2475" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2475" s="2" t="s">
+        <v>3238</v>
+      </c>
+      <c r="B2475" s="1">
+        <v>7.14</v>
+      </c>
+      <c r="C2475" s="2" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="2476" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2476" s="2" t="s">
+        <v>3239</v>
+      </c>
+      <c r="B2476" s="1">
+        <v>15.2</v>
+      </c>
+      <c r="C2476" s="2" t="s">
+        <v>3240</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>

--- a/Running_Log.xlsx
+++ b/Running_Log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/AlexDolwick/dolwick_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA465090-8CBE-154C-96DA-B40F704CF4C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{319DEED4-EB52-5F42-89B4-577107A97A77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25680" windowHeight="15920" xr2:uid="{4B2E00A5-7125-EC4E-9EAD-C4CEE86B127A}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3822" uniqueCount="3241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3828" uniqueCount="3246">
   <si>
     <t>Date</t>
   </si>
@@ -9756,6 +9756,21 @@
   </si>
   <si>
     <t>1:47:10</t>
+  </si>
+  <si>
+    <t>2020-04-05</t>
+  </si>
+  <si>
+    <t>52:43</t>
+  </si>
+  <si>
+    <t>2020-04-07</t>
+  </si>
+  <si>
+    <t>2020-04-08</t>
+  </si>
+  <si>
+    <t>48:11</t>
   </si>
 </sst>
 </file>
@@ -10129,10 +10144,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1BECE25-7878-7543-A5E4-1B4438F2AAC2}">
-  <dimension ref="A1:C2476"/>
+  <dimension ref="A1:C2479"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2452" workbookViewId="0">
-      <selection activeCell="D2479" sqref="D2479"/>
+    <sheetView tabSelected="1" topLeftCell="A2459" workbookViewId="0">
+      <selection activeCell="C2480" sqref="C2480"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -35650,6 +35665,39 @@
         <v>3240</v>
       </c>
     </row>
+    <row r="2477" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2477" s="2" t="s">
+        <v>3241</v>
+      </c>
+      <c r="B2477" s="1">
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="C2477" s="2" t="s">
+        <v>3242</v>
+      </c>
+    </row>
+    <row r="2478" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2478" s="2" t="s">
+        <v>3243</v>
+      </c>
+      <c r="B2478" s="1">
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="C2478" s="2" t="s">
+        <v>2687</v>
+      </c>
+    </row>
+    <row r="2479" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2479" s="2" t="s">
+        <v>3244</v>
+      </c>
+      <c r="B2479" s="1">
+        <v>7.14</v>
+      </c>
+      <c r="C2479" s="2" t="s">
+        <v>3245</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>

--- a/Running_Log.xlsx
+++ b/Running_Log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/AlexDolwick/dolwick_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{319DEED4-EB52-5F42-89B4-577107A97A77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{580E581E-44FB-7E4F-8601-414330DF98D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25680" windowHeight="15920" xr2:uid="{4B2E00A5-7125-EC4E-9EAD-C4CEE86B127A}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3828" uniqueCount="3246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3832" uniqueCount="3250">
   <si>
     <t>Date</t>
   </si>
@@ -9771,6 +9771,18 @@
   </si>
   <si>
     <t>48:11</t>
+  </si>
+  <si>
+    <t>2020-04-09</t>
+  </si>
+  <si>
+    <t>33:44</t>
+  </si>
+  <si>
+    <t>2020-04-10</t>
+  </si>
+  <si>
+    <t>1:09:41</t>
   </si>
 </sst>
 </file>
@@ -10144,10 +10156,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1BECE25-7878-7543-A5E4-1B4438F2AAC2}">
-  <dimension ref="A1:C2479"/>
+  <dimension ref="A1:C2481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2459" workbookViewId="0">
-      <selection activeCell="C2480" sqref="C2480"/>
+      <selection activeCell="B2484" sqref="B2484"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -35698,6 +35710,28 @@
         <v>3245</v>
       </c>
     </row>
+    <row r="2480" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2480" s="2" t="s">
+        <v>3246</v>
+      </c>
+      <c r="B2480" s="1">
+        <v>5.68</v>
+      </c>
+      <c r="C2480" s="2" t="s">
+        <v>3247</v>
+      </c>
+    </row>
+    <row r="2481" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2481" s="2" t="s">
+        <v>3248</v>
+      </c>
+      <c r="B2481" s="1">
+        <v>10.61</v>
+      </c>
+      <c r="C2481" s="2" t="s">
+        <v>3249</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>

--- a/Running_Log.xlsx
+++ b/Running_Log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/AlexDolwick/dolwick_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{580E581E-44FB-7E4F-8601-414330DF98D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B711B77-EF34-3F43-A0D2-46034E1EDECE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25680" windowHeight="15920" xr2:uid="{4B2E00A5-7125-EC4E-9EAD-C4CEE86B127A}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3832" uniqueCount="3250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3846" uniqueCount="3261">
   <si>
     <t>Date</t>
   </si>
@@ -9783,6 +9783,39 @@
   </si>
   <si>
     <t>1:09:41</t>
+  </si>
+  <si>
+    <t>2020-04-11</t>
+  </si>
+  <si>
+    <t>1:42:55</t>
+  </si>
+  <si>
+    <t>2020-04-12</t>
+  </si>
+  <si>
+    <t>41:39</t>
+  </si>
+  <si>
+    <t>2020-04-14</t>
+  </si>
+  <si>
+    <t>2020-04-15</t>
+  </si>
+  <si>
+    <t>39:12</t>
+  </si>
+  <si>
+    <t>2020-04-16</t>
+  </si>
+  <si>
+    <t>2020-04-17</t>
+  </si>
+  <si>
+    <t>2020-04-18</t>
+  </si>
+  <si>
+    <t>50:50</t>
   </si>
 </sst>
 </file>
@@ -10156,10 +10189,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1BECE25-7878-7543-A5E4-1B4438F2AAC2}">
-  <dimension ref="A1:C2481"/>
+  <dimension ref="A1:C2488"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2459" workbookViewId="0">
-      <selection activeCell="B2484" sqref="B2484"/>
+    <sheetView tabSelected="1" topLeftCell="A2398" workbookViewId="0">
+      <selection activeCell="E2486" sqref="E2486"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -35732,6 +35765,83 @@
         <v>3249</v>
       </c>
     </row>
+    <row r="2482" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2482" s="2" t="s">
+        <v>3250</v>
+      </c>
+      <c r="B2482" s="1">
+        <v>16</v>
+      </c>
+      <c r="C2482" s="2" t="s">
+        <v>3251</v>
+      </c>
+    </row>
+    <row r="2483" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2483" s="2" t="s">
+        <v>3252</v>
+      </c>
+      <c r="B2483" s="1">
+        <v>5.77</v>
+      </c>
+      <c r="C2483" s="2" t="s">
+        <v>3253</v>
+      </c>
+    </row>
+    <row r="2484" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2484" s="2" t="s">
+        <v>3254</v>
+      </c>
+      <c r="B2484" s="1">
+        <v>10</v>
+      </c>
+      <c r="C2484" s="2" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="2485" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2485" s="2" t="s">
+        <v>3255</v>
+      </c>
+      <c r="B2485" s="1">
+        <v>5.89</v>
+      </c>
+      <c r="C2485" s="2" t="s">
+        <v>3256</v>
+      </c>
+    </row>
+    <row r="2486" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2486" s="2" t="s">
+        <v>3257</v>
+      </c>
+      <c r="B2486" s="1">
+        <v>7.14</v>
+      </c>
+      <c r="C2486" s="2" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="2487" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2487" s="2" t="s">
+        <v>3258</v>
+      </c>
+      <c r="B2487" s="1">
+        <v>7.14</v>
+      </c>
+      <c r="C2487" s="2" t="s">
+        <v>2448</v>
+      </c>
+    </row>
+    <row r="2488" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2488" s="2" t="s">
+        <v>3259</v>
+      </c>
+      <c r="B2488" s="1">
+        <v>7.14</v>
+      </c>
+      <c r="C2488" s="2" t="s">
+        <v>3260</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>

--- a/Running_Log.xlsx
+++ b/Running_Log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/AlexDolwick/dolwick_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B711B77-EF34-3F43-A0D2-46034E1EDECE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1501D8DF-C5AA-204D-81CA-E771643AB118}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25680" windowHeight="15920" xr2:uid="{4B2E00A5-7125-EC4E-9EAD-C4CEE86B127A}"/>
   </bookViews>
@@ -10191,8 +10191,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1BECE25-7878-7543-A5E4-1B4438F2AAC2}">
   <dimension ref="A1:C2488"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2398" workbookViewId="0">
-      <selection activeCell="E2486" sqref="E2486"/>
+    <sheetView tabSelected="1" topLeftCell="A2467" workbookViewId="0">
+      <selection activeCell="B2490" sqref="B2490"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -35836,7 +35836,7 @@
         <v>3259</v>
       </c>
       <c r="B2488" s="1">
-        <v>7.14</v>
+        <v>8.0500000000000007</v>
       </c>
       <c r="C2488" s="2" t="s">
         <v>3260</v>

--- a/Running_Log.xlsx
+++ b/Running_Log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/AlexDolwick/dolwick_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1501D8DF-C5AA-204D-81CA-E771643AB118}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CA3EBBE-F986-5B47-8CBB-8E29A022157D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25680" windowHeight="15920" xr2:uid="{4B2E00A5-7125-EC4E-9EAD-C4CEE86B127A}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3846" uniqueCount="3261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3854" uniqueCount="3268">
   <si>
     <t>Date</t>
   </si>
@@ -9816,6 +9816,27 @@
   </si>
   <si>
     <t>50:50</t>
+  </si>
+  <si>
+    <t>2020-04-19</t>
+  </si>
+  <si>
+    <t>1:30:18</t>
+  </si>
+  <si>
+    <t>2020-04-21</t>
+  </si>
+  <si>
+    <t>38:26</t>
+  </si>
+  <si>
+    <t>2020-04-22</t>
+  </si>
+  <si>
+    <t>2020-04-23</t>
+  </si>
+  <si>
+    <t>1:05:33</t>
   </si>
 </sst>
 </file>
@@ -10189,10 +10210,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1BECE25-7878-7543-A5E4-1B4438F2AAC2}">
-  <dimension ref="A1:C2488"/>
+  <dimension ref="A1:C2492"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2467" workbookViewId="0">
-      <selection activeCell="B2490" sqref="B2490"/>
+      <selection activeCell="B2493" sqref="B2493"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -35842,6 +35863,50 @@
         <v>3260</v>
       </c>
     </row>
+    <row r="2489" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2489" s="2" t="s">
+        <v>3261</v>
+      </c>
+      <c r="B2489" s="1">
+        <v>13.1</v>
+      </c>
+      <c r="C2489" s="2" t="s">
+        <v>3262</v>
+      </c>
+    </row>
+    <row r="2490" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2490" s="2" t="s">
+        <v>3263</v>
+      </c>
+      <c r="B2490" s="1">
+        <v>5.67</v>
+      </c>
+      <c r="C2490" s="2" t="s">
+        <v>3264</v>
+      </c>
+    </row>
+    <row r="2491" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2491" s="2" t="s">
+        <v>3265</v>
+      </c>
+      <c r="B2491" s="1">
+        <v>5.67</v>
+      </c>
+      <c r="C2491" s="2" t="s">
+        <v>1486</v>
+      </c>
+    </row>
+    <row r="2492" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2492" s="2" t="s">
+        <v>3266</v>
+      </c>
+      <c r="B2492" s="1">
+        <v>10</v>
+      </c>
+      <c r="C2492" s="2" t="s">
+        <v>3267</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>

--- a/Running_Log.xlsx
+++ b/Running_Log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/AlexDolwick/dolwick_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CA3EBBE-F986-5B47-8CBB-8E29A022157D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32803DAF-01D5-1E45-9AC1-0A259D7BFF15}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25680" windowHeight="15920" xr2:uid="{4B2E00A5-7125-EC4E-9EAD-C4CEE86B127A}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3854" uniqueCount="3268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3860" uniqueCount="3274">
   <si>
     <t>Date</t>
   </si>
@@ -9837,6 +9837,24 @@
   </si>
   <si>
     <t>1:05:33</t>
+  </si>
+  <si>
+    <t>2020-04-24</t>
+  </si>
+  <si>
+    <t>50:07</t>
+  </si>
+  <si>
+    <t>2020-04-25</t>
+  </si>
+  <si>
+    <t>47:19</t>
+  </si>
+  <si>
+    <t>2020-04-26</t>
+  </si>
+  <si>
+    <t>1:39:54</t>
   </si>
 </sst>
 </file>
@@ -10210,10 +10228,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1BECE25-7878-7543-A5E4-1B4438F2AAC2}">
-  <dimension ref="A1:C2492"/>
+  <dimension ref="A1:C2495"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2467" workbookViewId="0">
-      <selection activeCell="B2493" sqref="B2493"/>
+    <sheetView tabSelected="1" topLeftCell="A2465" workbookViewId="0">
+      <selection activeCell="C2496" sqref="C2496"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -35907,6 +35925,39 @@
         <v>3267</v>
       </c>
     </row>
+    <row r="2493" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2493" s="2" t="s">
+        <v>3268</v>
+      </c>
+      <c r="B2493" s="1">
+        <v>7.14</v>
+      </c>
+      <c r="C2493" s="2" t="s">
+        <v>3269</v>
+      </c>
+    </row>
+    <row r="2494" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2494" s="2" t="s">
+        <v>3270</v>
+      </c>
+      <c r="B2494" s="1">
+        <v>7.14</v>
+      </c>
+      <c r="C2494" s="2" t="s">
+        <v>3271</v>
+      </c>
+    </row>
+    <row r="2495" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2495" s="2" t="s">
+        <v>3272</v>
+      </c>
+      <c r="B2495" s="1">
+        <v>15.22</v>
+      </c>
+      <c r="C2495" s="2" t="s">
+        <v>3273</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>

--- a/Running_Log.xlsx
+++ b/Running_Log.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/AlexDolwick/dolwick_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32803DAF-01D5-1E45-9AC1-0A259D7BFF15}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE4AAFBF-F1A1-6C4C-8785-9B0E298AA72D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25680" windowHeight="15920" xr2:uid="{4B2E00A5-7125-EC4E-9EAD-C4CEE86B127A}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3860" uniqueCount="3274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3878" uniqueCount="3289">
   <si>
     <t>Date</t>
   </si>
@@ -9855,6 +9855,51 @@
   </si>
   <si>
     <t>1:39:54</t>
+  </si>
+  <si>
+    <t>2020-04-28</t>
+  </si>
+  <si>
+    <t>1:06:21</t>
+  </si>
+  <si>
+    <t>2020-04-29</t>
+  </si>
+  <si>
+    <t>41:00</t>
+  </si>
+  <si>
+    <t>2020-04-30</t>
+  </si>
+  <si>
+    <t>2020-05-01</t>
+  </si>
+  <si>
+    <t>1:16:14</t>
+  </si>
+  <si>
+    <t>2020-05-02</t>
+  </si>
+  <si>
+    <t>2020-05-03</t>
+  </si>
+  <si>
+    <t>1:27:19</t>
+  </si>
+  <si>
+    <t>2020-05-05</t>
+  </si>
+  <si>
+    <t>2020-05-06</t>
+  </si>
+  <si>
+    <t>1:04:04</t>
+  </si>
+  <si>
+    <t>2020-05-07</t>
+  </si>
+  <si>
+    <t>56:14</t>
   </si>
 </sst>
 </file>
@@ -10228,10 +10273,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1BECE25-7878-7543-A5E4-1B4438F2AAC2}">
-  <dimension ref="A1:C2495"/>
+  <dimension ref="A1:C2504"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2465" workbookViewId="0">
-      <selection activeCell="C2496" sqref="C2496"/>
+    <sheetView tabSelected="1" topLeftCell="A2476" workbookViewId="0">
+      <selection activeCell="C2505" sqref="C2505"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -35958,6 +36003,105 @@
         <v>3273</v>
       </c>
     </row>
+    <row r="2496" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2496" s="2" t="s">
+        <v>3274</v>
+      </c>
+      <c r="B2496" s="1">
+        <v>10</v>
+      </c>
+      <c r="C2496" s="2" t="s">
+        <v>3275</v>
+      </c>
+    </row>
+    <row r="2497" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2497" s="2" t="s">
+        <v>3276</v>
+      </c>
+      <c r="B2497" s="1">
+        <v>5.63</v>
+      </c>
+      <c r="C2497" s="2" t="s">
+        <v>3277</v>
+      </c>
+    </row>
+    <row r="2498" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2498" s="2" t="s">
+        <v>3278</v>
+      </c>
+      <c r="B2498" s="1">
+        <v>7.64</v>
+      </c>
+      <c r="C2498" s="2" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="2499" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2499" s="2" t="s">
+        <v>3279</v>
+      </c>
+      <c r="B2499" s="1">
+        <v>10.76</v>
+      </c>
+      <c r="C2499" s="2" t="s">
+        <v>3280</v>
+      </c>
+    </row>
+    <row r="2500" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2500" s="2" t="s">
+        <v>3281</v>
+      </c>
+      <c r="B2500" s="1">
+        <v>5.04</v>
+      </c>
+      <c r="C2500" s="2" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="2501" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2501" s="2" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B2501" s="1">
+        <v>13.13</v>
+      </c>
+      <c r="C2501" s="2" t="s">
+        <v>3283</v>
+      </c>
+    </row>
+    <row r="2502" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2502" s="2" t="s">
+        <v>3284</v>
+      </c>
+      <c r="B2502" s="1">
+        <v>5.76</v>
+      </c>
+      <c r="C2502" s="2" t="s">
+        <v>2201</v>
+      </c>
+    </row>
+    <row r="2503" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2503" s="2" t="s">
+        <v>3285</v>
+      </c>
+      <c r="B2503" s="1">
+        <v>10</v>
+      </c>
+      <c r="C2503" s="2" t="s">
+        <v>3286</v>
+      </c>
+    </row>
+    <row r="2504" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2504" s="2" t="s">
+        <v>3287</v>
+      </c>
+      <c r="B2504" s="1">
+        <v>8.02</v>
+      </c>
+      <c r="C2504" s="2" t="s">
+        <v>3288</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>

--- a/Running_Log.xlsx
+++ b/Running_Log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/AlexDolwick/dolwick_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE4AAFBF-F1A1-6C4C-8785-9B0E298AA72D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBC63638-A018-F544-B95C-10871CB6721F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25680" windowHeight="15920" xr2:uid="{4B2E00A5-7125-EC4E-9EAD-C4CEE86B127A}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3878" uniqueCount="3289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3882" uniqueCount="3292">
   <si>
     <t>Date</t>
   </si>
@@ -9900,6 +9900,15 @@
   </si>
   <si>
     <t>56:14</t>
+  </si>
+  <si>
+    <t>2020-05-08</t>
+  </si>
+  <si>
+    <t>1:05:55</t>
+  </si>
+  <si>
+    <t>16:04</t>
   </si>
 </sst>
 </file>
@@ -10273,10 +10282,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1BECE25-7878-7543-A5E4-1B4438F2AAC2}">
-  <dimension ref="A1:C2504"/>
+  <dimension ref="A1:C2506"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2476" workbookViewId="0">
-      <selection activeCell="C2505" sqref="C2505"/>
+      <selection activeCell="A2507" sqref="A2507"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -36102,6 +36111,28 @@
         <v>3288</v>
       </c>
     </row>
+    <row r="2505" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2505" s="2" t="s">
+        <v>3289</v>
+      </c>
+      <c r="B2505" s="1">
+        <v>10</v>
+      </c>
+      <c r="C2505" s="2" t="s">
+        <v>3290</v>
+      </c>
+    </row>
+    <row r="2506" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2506" s="2" t="s">
+        <v>3289</v>
+      </c>
+      <c r="B2506" s="1">
+        <v>2.23</v>
+      </c>
+      <c r="C2506" s="2" t="s">
+        <v>3291</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>

--- a/Running_Log.xlsx
+++ b/Running_Log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/AlexDolwick/dolwick_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBC63638-A018-F544-B95C-10871CB6721F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DA1D53E-8F4A-C94C-B61B-08A5222DF9D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25680" windowHeight="15920" xr2:uid="{4B2E00A5-7125-EC4E-9EAD-C4CEE86B127A}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3882" uniqueCount="3292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3886" uniqueCount="3295">
   <si>
     <t>Date</t>
   </si>
@@ -9909,6 +9909,15 @@
   </si>
   <si>
     <t>16:04</t>
+  </si>
+  <si>
+    <t>2020-05-09</t>
+  </si>
+  <si>
+    <t>2020-05-10</t>
+  </si>
+  <si>
+    <t>1:50:28</t>
   </si>
 </sst>
 </file>
@@ -10282,10 +10291,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1BECE25-7878-7543-A5E4-1B4438F2AAC2}">
-  <dimension ref="A1:C2506"/>
+  <dimension ref="A1:C2508"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2476" workbookViewId="0">
-      <selection activeCell="A2507" sqref="A2507"/>
+    <sheetView tabSelected="1" topLeftCell="A2482" workbookViewId="0">
+      <selection activeCell="B2509" sqref="B2509"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -36133,6 +36142,28 @@
         <v>3291</v>
       </c>
     </row>
+    <row r="2507" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2507" s="2" t="s">
+        <v>3292</v>
+      </c>
+      <c r="B2507" s="1">
+        <v>8</v>
+      </c>
+      <c r="C2507" s="2" t="s">
+        <v>3224</v>
+      </c>
+    </row>
+    <row r="2508" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2508" s="2" t="s">
+        <v>3293</v>
+      </c>
+      <c r="B2508" s="1">
+        <v>17</v>
+      </c>
+      <c r="C2508" s="2" t="s">
+        <v>3294</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>

--- a/Running_Log.xlsx
+++ b/Running_Log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/AlexDolwick/dolwick_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DA1D53E-8F4A-C94C-B61B-08A5222DF9D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3244C2E1-DBF5-C347-A47A-8A457BDEBD7A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25680" windowHeight="15920" xr2:uid="{4B2E00A5-7125-EC4E-9EAD-C4CEE86B127A}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3886" uniqueCount="3295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3890" uniqueCount="3299">
   <si>
     <t>Date</t>
   </si>
@@ -9918,6 +9918,18 @@
   </si>
   <si>
     <t>1:50:28</t>
+  </si>
+  <si>
+    <t>2020-05-12</t>
+  </si>
+  <si>
+    <t>54:03</t>
+  </si>
+  <si>
+    <t>2020-05-13</t>
+  </si>
+  <si>
+    <t>1:22:34</t>
   </si>
 </sst>
 </file>
@@ -10291,10 +10303,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1BECE25-7878-7543-A5E4-1B4438F2AAC2}">
-  <dimension ref="A1:C2508"/>
+  <dimension ref="A1:C2510"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2482" workbookViewId="0">
-      <selection activeCell="B2509" sqref="B2509"/>
+    <sheetView tabSelected="1" topLeftCell="A2487" workbookViewId="0">
+      <selection activeCell="A2511" sqref="A2511"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -36164,6 +36176,28 @@
         <v>3294</v>
       </c>
     </row>
+    <row r="2509" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2509" s="2" t="s">
+        <v>3295</v>
+      </c>
+      <c r="B2509" s="1">
+        <v>7.09</v>
+      </c>
+      <c r="C2509" s="2" t="s">
+        <v>3296</v>
+      </c>
+    </row>
+    <row r="2510" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2510" s="2" t="s">
+        <v>3297</v>
+      </c>
+      <c r="B2510" s="1">
+        <v>11.58</v>
+      </c>
+      <c r="C2510" s="2" t="s">
+        <v>3298</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>

--- a/Running_Log.xlsx
+++ b/Running_Log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/AlexDolwick/dolwick_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3244C2E1-DBF5-C347-A47A-8A457BDEBD7A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C46516A-CB55-624C-A19E-CEE3FE85FE29}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25680" windowHeight="15920" xr2:uid="{4B2E00A5-7125-EC4E-9EAD-C4CEE86B127A}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3890" uniqueCount="3299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3897" uniqueCount="3305">
   <si>
     <t>Date</t>
   </si>
@@ -9930,6 +9930,24 @@
   </si>
   <si>
     <t>1:22:34</t>
+  </si>
+  <si>
+    <t>2020-05-14</t>
+  </si>
+  <si>
+    <t>2020-05-15</t>
+  </si>
+  <si>
+    <t>52:40</t>
+  </si>
+  <si>
+    <t>2020-05-16</t>
+  </si>
+  <si>
+    <t>2020-05-17</t>
+  </si>
+  <si>
+    <t>2:01:29</t>
   </si>
 </sst>
 </file>
@@ -10303,10 +10321,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1BECE25-7878-7543-A5E4-1B4438F2AAC2}">
-  <dimension ref="A1:C2510"/>
+  <dimension ref="A1:C2514"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2487" workbookViewId="0">
-      <selection activeCell="A2511" sqref="A2511"/>
+      <selection activeCell="A2516" sqref="A2516"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -36198,6 +36216,47 @@
         <v>3298</v>
       </c>
     </row>
+    <row r="2511" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2511" s="2" t="s">
+        <v>3299</v>
+      </c>
+      <c r="B2511" s="1">
+        <v>5.75</v>
+      </c>
+    </row>
+    <row r="2512" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2512" s="2" t="s">
+        <v>3300</v>
+      </c>
+      <c r="B2512" s="1">
+        <v>5.54</v>
+      </c>
+      <c r="C2512" s="2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="2513" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2513" s="2" t="s">
+        <v>3302</v>
+      </c>
+      <c r="B2513" s="1">
+        <v>7.14</v>
+      </c>
+      <c r="C2513" s="2" t="s">
+        <v>3301</v>
+      </c>
+    </row>
+    <row r="2514" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2514" s="2" t="s">
+        <v>3303</v>
+      </c>
+      <c r="B2514" s="1">
+        <v>18.29</v>
+      </c>
+      <c r="C2514" s="2" t="s">
+        <v>3304</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>

--- a/Running_Log.xlsx
+++ b/Running_Log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/AlexDolwick/dolwick_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C46516A-CB55-624C-A19E-CEE3FE85FE29}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AB50610-B400-3A43-81D6-49655A55EB15}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25680" windowHeight="15920" xr2:uid="{4B2E00A5-7125-EC4E-9EAD-C4CEE86B127A}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3897" uniqueCount="3305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3905" uniqueCount="3312">
   <si>
     <t>Date</t>
   </si>
@@ -9948,6 +9948,27 @@
   </si>
   <si>
     <t>2:01:29</t>
+  </si>
+  <si>
+    <t>2020-05-19</t>
+  </si>
+  <si>
+    <t>40:34</t>
+  </si>
+  <si>
+    <t>2020-05-20</t>
+  </si>
+  <si>
+    <t>2020-05-21</t>
+  </si>
+  <si>
+    <t>51:27</t>
+  </si>
+  <si>
+    <t>2020-05-22</t>
+  </si>
+  <si>
+    <t>1:23:40</t>
   </si>
 </sst>
 </file>
@@ -10321,10 +10342,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1BECE25-7878-7543-A5E4-1B4438F2AAC2}">
-  <dimension ref="A1:C2514"/>
+  <dimension ref="A1:C2518"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2487" workbookViewId="0">
-      <selection activeCell="A2516" sqref="A2516"/>
+      <selection activeCell="C2518" sqref="C2518"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -36257,6 +36278,50 @@
         <v>3304</v>
       </c>
     </row>
+    <row r="2515" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2515" s="2" t="s">
+        <v>3305</v>
+      </c>
+      <c r="B2515" s="1">
+        <v>5.67</v>
+      </c>
+      <c r="C2515" s="2" t="s">
+        <v>3306</v>
+      </c>
+    </row>
+    <row r="2516" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2516" s="2" t="s">
+        <v>3307</v>
+      </c>
+      <c r="B2516" s="1">
+        <v>7.37</v>
+      </c>
+      <c r="C2516" s="2" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="2517" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2517" s="2" t="s">
+        <v>3308</v>
+      </c>
+      <c r="B2517" s="1">
+        <v>7.26</v>
+      </c>
+      <c r="C2517" s="2" t="s">
+        <v>3309</v>
+      </c>
+    </row>
+    <row r="2518" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2518" s="2" t="s">
+        <v>3310</v>
+      </c>
+      <c r="B2518" s="1">
+        <v>12.02</v>
+      </c>
+      <c r="C2518" s="2" t="s">
+        <v>3311</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>

--- a/Running_Log.xlsx
+++ b/Running_Log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/AlexDolwick/dolwick_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AB50610-B400-3A43-81D6-49655A55EB15}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEE3FA32-DEA7-C94E-B837-012BE8C2D727}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25680" windowHeight="15920" xr2:uid="{4B2E00A5-7125-EC4E-9EAD-C4CEE86B127A}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3905" uniqueCount="3312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3909" uniqueCount="3315">
   <si>
     <t>Date</t>
   </si>
@@ -9969,6 +9969,15 @@
   </si>
   <si>
     <t>1:23:40</t>
+  </si>
+  <si>
+    <t>2020-05-23</t>
+  </si>
+  <si>
+    <t>2020-05-24</t>
+  </si>
+  <si>
+    <t>14:12</t>
   </si>
 </sst>
 </file>
@@ -10342,10 +10351,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1BECE25-7878-7543-A5E4-1B4438F2AAC2}">
-  <dimension ref="A1:C2518"/>
+  <dimension ref="A1:C2520"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2487" workbookViewId="0">
-      <selection activeCell="C2518" sqref="C2518"/>
+    <sheetView tabSelected="1" topLeftCell="A2504" workbookViewId="0">
+      <selection activeCell="C2521" sqref="C2521"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -36322,6 +36331,28 @@
         <v>3311</v>
       </c>
     </row>
+    <row r="2519" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2519" s="2" t="s">
+        <v>3312</v>
+      </c>
+      <c r="B2519" s="1">
+        <v>4.6900000000000004</v>
+      </c>
+      <c r="C2519" s="2" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="2520" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2520" s="2" t="s">
+        <v>3313</v>
+      </c>
+      <c r="B2520" s="1">
+        <v>2.04</v>
+      </c>
+      <c r="C2520" s="2" t="s">
+        <v>3314</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>

--- a/Running_Log.xlsx
+++ b/Running_Log.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/AlexDolwick/dolwick_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEE3FA32-DEA7-C94E-B837-012BE8C2D727}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37FACE84-9F66-354A-9DDA-C74BFF21520E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25680" windowHeight="15920" xr2:uid="{4B2E00A5-7125-EC4E-9EAD-C4CEE86B127A}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3909" uniqueCount="3315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3925" uniqueCount="3326">
   <si>
     <t>Date</t>
   </si>
@@ -9978,6 +9978,39 @@
   </si>
   <si>
     <t>14:12</t>
+  </si>
+  <si>
+    <t>2020-06-01</t>
+  </si>
+  <si>
+    <t>2020-06-03</t>
+  </si>
+  <si>
+    <t>31:32</t>
+  </si>
+  <si>
+    <t>2020-06-05</t>
+  </si>
+  <si>
+    <t>2020-06-11</t>
+  </si>
+  <si>
+    <t>2020-06-12</t>
+  </si>
+  <si>
+    <t>42:26</t>
+  </si>
+  <si>
+    <t>2020-06-13</t>
+  </si>
+  <si>
+    <t>2020-06-14</t>
+  </si>
+  <si>
+    <t>37:23</t>
+  </si>
+  <si>
+    <t>2020-06-15</t>
   </si>
 </sst>
 </file>
@@ -10351,10 +10384,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1BECE25-7878-7543-A5E4-1B4438F2AAC2}">
-  <dimension ref="A1:C2520"/>
+  <dimension ref="A1:E2528"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2504" workbookViewId="0">
-      <selection activeCell="C2521" sqref="C2521"/>
+    <sheetView tabSelected="1" topLeftCell="A2501" workbookViewId="0">
+      <selection activeCell="A2529" sqref="A2529"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -36092,7 +36125,7 @@
         <v>3275</v>
       </c>
     </row>
-    <row r="2497" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2497" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2497" s="2" t="s">
         <v>3276</v>
       </c>
@@ -36103,7 +36136,7 @@
         <v>3277</v>
       </c>
     </row>
-    <row r="2498" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2498" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2498" s="2" t="s">
         <v>3278</v>
       </c>
@@ -36114,7 +36147,7 @@
         <v>1321</v>
       </c>
     </row>
-    <row r="2499" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2499" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2499" s="2" t="s">
         <v>3279</v>
       </c>
@@ -36124,8 +36157,9 @@
       <c r="C2499" s="2" t="s">
         <v>3280</v>
       </c>
-    </row>
-    <row r="2500" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E2499" s="6"/>
+    </row>
+    <row r="2500" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2500" s="2" t="s">
         <v>3281</v>
       </c>
@@ -36136,7 +36170,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="2501" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2501" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2501" s="2" t="s">
         <v>3282</v>
       </c>
@@ -36147,7 +36181,7 @@
         <v>3283</v>
       </c>
     </row>
-    <row r="2502" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2502" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2502" s="2" t="s">
         <v>3284</v>
       </c>
@@ -36158,7 +36192,7 @@
         <v>2201</v>
       </c>
     </row>
-    <row r="2503" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2503" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2503" s="2" t="s">
         <v>3285</v>
       </c>
@@ -36169,7 +36203,7 @@
         <v>3286</v>
       </c>
     </row>
-    <row r="2504" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2504" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2504" s="2" t="s">
         <v>3287</v>
       </c>
@@ -36180,7 +36214,7 @@
         <v>3288</v>
       </c>
     </row>
-    <row r="2505" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2505" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2505" s="2" t="s">
         <v>3289</v>
       </c>
@@ -36191,7 +36225,7 @@
         <v>3290</v>
       </c>
     </row>
-    <row r="2506" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2506" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2506" s="2" t="s">
         <v>3289</v>
       </c>
@@ -36202,7 +36236,7 @@
         <v>3291</v>
       </c>
     </row>
-    <row r="2507" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2507" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2507" s="2" t="s">
         <v>3292</v>
       </c>
@@ -36213,7 +36247,7 @@
         <v>3224</v>
       </c>
     </row>
-    <row r="2508" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2508" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2508" s="2" t="s">
         <v>3293</v>
       </c>
@@ -36224,7 +36258,7 @@
         <v>3294</v>
       </c>
     </row>
-    <row r="2509" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2509" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2509" s="2" t="s">
         <v>3295</v>
       </c>
@@ -36235,7 +36269,7 @@
         <v>3296</v>
       </c>
     </row>
-    <row r="2510" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2510" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2510" s="2" t="s">
         <v>3297</v>
       </c>
@@ -36246,7 +36280,7 @@
         <v>3298</v>
       </c>
     </row>
-    <row r="2511" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2511" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2511" s="2" t="s">
         <v>3299</v>
       </c>
@@ -36254,7 +36288,7 @@
         <v>5.75</v>
       </c>
     </row>
-    <row r="2512" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2512" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2512" s="2" t="s">
         <v>3300</v>
       </c>
@@ -36351,6 +36385,94 @@
       </c>
       <c r="C2520" s="2" t="s">
         <v>3314</v>
+      </c>
+    </row>
+    <row r="2521" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2521" s="2" t="s">
+        <v>3315</v>
+      </c>
+      <c r="B2521" s="1">
+        <v>3</v>
+      </c>
+      <c r="C2521" s="2" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="2522" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2522" s="2" t="s">
+        <v>3316</v>
+      </c>
+      <c r="B2522" s="1">
+        <v>4.22</v>
+      </c>
+      <c r="C2522" s="2" t="s">
+        <v>3317</v>
+      </c>
+    </row>
+    <row r="2523" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2523" s="2" t="s">
+        <v>3318</v>
+      </c>
+      <c r="B2523" s="1">
+        <v>4.32</v>
+      </c>
+      <c r="C2523" s="2" t="s">
+        <v>1753</v>
+      </c>
+    </row>
+    <row r="2524" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2524" s="2" t="s">
+        <v>3319</v>
+      </c>
+      <c r="B2524" s="1">
+        <v>4.3</v>
+      </c>
+      <c r="C2524" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2525" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2525" s="2" t="s">
+        <v>3320</v>
+      </c>
+      <c r="B2525" s="1">
+        <v>5.77</v>
+      </c>
+      <c r="C2525" s="2" t="s">
+        <v>3321</v>
+      </c>
+    </row>
+    <row r="2526" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2526" s="2" t="s">
+        <v>3322</v>
+      </c>
+      <c r="B2526" s="1">
+        <v>6</v>
+      </c>
+      <c r="C2526" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="2527" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2527" s="2" t="s">
+        <v>3323</v>
+      </c>
+      <c r="B2527" s="1">
+        <v>5.34</v>
+      </c>
+      <c r="C2527" s="2" t="s">
+        <v>3324</v>
+      </c>
+    </row>
+    <row r="2528" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2528" s="2" t="s">
+        <v>3325</v>
+      </c>
+      <c r="B2528" s="1">
+        <v>7.41</v>
+      </c>
+      <c r="C2528" s="2" t="s">
+        <v>2203</v>
       </c>
     </row>
   </sheetData>

--- a/Running_Log.xlsx
+++ b/Running_Log.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/AlexDolwick/dolwick_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37FACE84-9F66-354A-9DDA-C74BFF21520E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED48FCED-994B-854B-AE6D-4B0323E07D4A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25680" windowHeight="15920" xr2:uid="{4B2E00A5-7125-EC4E-9EAD-C4CEE86B127A}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3925" uniqueCount="3326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3949" uniqueCount="3348">
   <si>
     <t>Date</t>
   </si>
@@ -10011,6 +10011,72 @@
   </si>
   <si>
     <t>2020-06-15</t>
+  </si>
+  <si>
+    <t>2020-06-16</t>
+  </si>
+  <si>
+    <t>46:31</t>
+  </si>
+  <si>
+    <t>40:56</t>
+  </si>
+  <si>
+    <t>2020-06-17</t>
+  </si>
+  <si>
+    <t>2020-06-18</t>
+  </si>
+  <si>
+    <t>36:33</t>
+  </si>
+  <si>
+    <t>2020-06-20</t>
+  </si>
+  <si>
+    <t>2020-06-21</t>
+  </si>
+  <si>
+    <t>34:18</t>
+  </si>
+  <si>
+    <t>2020-06-23</t>
+  </si>
+  <si>
+    <t>2020-06-24</t>
+  </si>
+  <si>
+    <t>45:51</t>
+  </si>
+  <si>
+    <t>2020-06-25</t>
+  </si>
+  <si>
+    <t>53:23</t>
+  </si>
+  <si>
+    <t>2020-06-26</t>
+  </si>
+  <si>
+    <t>1:04:51</t>
+  </si>
+  <si>
+    <t>2020-06-27</t>
+  </si>
+  <si>
+    <t>43:51</t>
+  </si>
+  <si>
+    <t>2020-06-28</t>
+  </si>
+  <si>
+    <t>48:45</t>
+  </si>
+  <si>
+    <t>2020-06-29</t>
+  </si>
+  <si>
+    <t>1:13:54</t>
   </si>
 </sst>
 </file>
@@ -10384,10 +10450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1BECE25-7878-7543-A5E4-1B4438F2AAC2}">
-  <dimension ref="A1:E2528"/>
+  <dimension ref="A1:E2540"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2501" workbookViewId="0">
-      <selection activeCell="A2529" sqref="A2529"/>
+    <sheetView tabSelected="1" topLeftCell="A2522" workbookViewId="0">
+      <selection activeCell="B2541" sqref="B2541"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -36475,6 +36541,138 @@
         <v>2203</v>
       </c>
     </row>
+    <row r="2529" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2529" s="2" t="s">
+        <v>3326</v>
+      </c>
+      <c r="B2529" s="1">
+        <v>6.61</v>
+      </c>
+      <c r="C2529" s="2" t="s">
+        <v>3327</v>
+      </c>
+    </row>
+    <row r="2530" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2530" s="2" t="s">
+        <v>3329</v>
+      </c>
+      <c r="B2530" s="1">
+        <v>5.89</v>
+      </c>
+      <c r="C2530" s="2" t="s">
+        <v>3328</v>
+      </c>
+    </row>
+    <row r="2531" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2531" s="2" t="s">
+        <v>3330</v>
+      </c>
+      <c r="B2531" s="1">
+        <v>5.19</v>
+      </c>
+      <c r="C2531" s="2" t="s">
+        <v>3331</v>
+      </c>
+    </row>
+    <row r="2532" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2532" s="2" t="s">
+        <v>3332</v>
+      </c>
+      <c r="B2532" s="1">
+        <v>5.07</v>
+      </c>
+      <c r="C2532" s="2" t="s">
+        <v>2890</v>
+      </c>
+    </row>
+    <row r="2533" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2533" s="2" t="s">
+        <v>3333</v>
+      </c>
+      <c r="B2533" s="1">
+        <v>5.07</v>
+      </c>
+      <c r="C2533" s="2" t="s">
+        <v>3334</v>
+      </c>
+    </row>
+    <row r="2534" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2534" s="2" t="s">
+        <v>3335</v>
+      </c>
+      <c r="B2534" s="1">
+        <v>6.7</v>
+      </c>
+      <c r="C2534" s="2" t="s">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="2535" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2535" s="2" t="s">
+        <v>3336</v>
+      </c>
+      <c r="B2535" s="1">
+        <v>6.3</v>
+      </c>
+      <c r="C2535" s="2" t="s">
+        <v>3337</v>
+      </c>
+    </row>
+    <row r="2536" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2536" s="2" t="s">
+        <v>3338</v>
+      </c>
+      <c r="B2536" s="1">
+        <v>7.68</v>
+      </c>
+      <c r="C2536" s="2" t="s">
+        <v>3339</v>
+      </c>
+    </row>
+    <row r="2537" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2537" s="2" t="s">
+        <v>3340</v>
+      </c>
+      <c r="B2537" s="1">
+        <v>9.32</v>
+      </c>
+      <c r="C2537" s="2" t="s">
+        <v>3341</v>
+      </c>
+    </row>
+    <row r="2538" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2538" s="2" t="s">
+        <v>3342</v>
+      </c>
+      <c r="B2538" s="1">
+        <v>6.17</v>
+      </c>
+      <c r="C2538" s="2" t="s">
+        <v>3343</v>
+      </c>
+    </row>
+    <row r="2539" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2539" s="2" t="s">
+        <v>3344</v>
+      </c>
+      <c r="B2539" s="1">
+        <v>6.91</v>
+      </c>
+      <c r="C2539" s="2" t="s">
+        <v>3345</v>
+      </c>
+    </row>
+    <row r="2540" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2540" s="2" t="s">
+        <v>3346</v>
+      </c>
+      <c r="B2540" s="1">
+        <v>10.79</v>
+      </c>
+      <c r="C2540" s="2" t="s">
+        <v>3347</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>

--- a/Running_Log.xlsx
+++ b/Running_Log.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/AlexDolwick/dolwick_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED48FCED-994B-854B-AE6D-4B0323E07D4A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3276540-DFF3-7741-AD3D-A467A5E4365D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25680" windowHeight="15920" xr2:uid="{4B2E00A5-7125-EC4E-9EAD-C4CEE86B127A}"/>
+    <workbookView xWindow="1480" yWindow="460" windowWidth="25680" windowHeight="15920" xr2:uid="{4B2E00A5-7125-EC4E-9EAD-C4CEE86B127A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3949" uniqueCount="3348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3990" uniqueCount="3378">
   <si>
     <t>Date</t>
   </si>
@@ -10077,6 +10077,96 @@
   </si>
   <si>
     <t>1:13:54</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-07-01</t>
+  </si>
+  <si>
+    <t>2020-07-02</t>
+  </si>
+  <si>
+    <t>16:47</t>
+  </si>
+  <si>
+    <t>2020-07-03</t>
+  </si>
+  <si>
+    <t>1:00:59</t>
+  </si>
+  <si>
+    <t>2020-07-04</t>
+  </si>
+  <si>
+    <t>37:17</t>
+  </si>
+  <si>
+    <t>2020-07-06</t>
+  </si>
+  <si>
+    <t>38:01</t>
+  </si>
+  <si>
+    <t>2020-07-07</t>
+  </si>
+  <si>
+    <t>55:41</t>
+  </si>
+  <si>
+    <t>2020-07-08</t>
+  </si>
+  <si>
+    <t>2020-07-09</t>
+  </si>
+  <si>
+    <t>2020-07-10</t>
+  </si>
+  <si>
+    <t>1:10:40</t>
+  </si>
+  <si>
+    <t>2020-07-11</t>
+  </si>
+  <si>
+    <t>50:25</t>
+  </si>
+  <si>
+    <t>2020-07-13</t>
+  </si>
+  <si>
+    <t>6:05</t>
+  </si>
+  <si>
+    <t>2020-07-14</t>
+  </si>
+  <si>
+    <t>38:20</t>
+  </si>
+  <si>
+    <t>2020-07-15</t>
+  </si>
+  <si>
+    <t>2020-07-16</t>
+  </si>
+  <si>
+    <t>2020-07-17</t>
+  </si>
+  <si>
+    <t>2020-07-18</t>
+  </si>
+  <si>
+    <t>1:36:08</t>
+  </si>
+  <si>
+    <t>2020-07-20</t>
+  </si>
+  <si>
+    <t>57:53</t>
+  </si>
+  <si>
+    <t>2020-07-21</t>
   </si>
 </sst>
 </file>
@@ -10450,10 +10540,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1BECE25-7878-7543-A5E4-1B4438F2AAC2}">
-  <dimension ref="A1:E2540"/>
+  <dimension ref="A1:E2562"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2522" workbookViewId="0">
-      <selection activeCell="B2541" sqref="B2541"/>
+    <sheetView tabSelected="1" topLeftCell="A2536" workbookViewId="0">
+      <selection activeCell="L2552" sqref="L2552"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -36673,6 +36763,239 @@
         <v>3347</v>
       </c>
     </row>
+    <row r="2541" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2541" s="2" t="s">
+        <v>3348</v>
+      </c>
+      <c r="B2541" s="1">
+        <v>8</v>
+      </c>
+      <c r="C2541" s="2" t="s">
+        <v>3192</v>
+      </c>
+    </row>
+    <row r="2542" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2542" s="2" t="s">
+        <v>3349</v>
+      </c>
+      <c r="B2542" s="1">
+        <v>5.35</v>
+      </c>
+      <c r="C2542" s="2" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="2543" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2543" s="2" t="s">
+        <v>3350</v>
+      </c>
+      <c r="B2543" s="1">
+        <v>3</v>
+      </c>
+      <c r="C2543" s="2" t="s">
+        <v>3351</v>
+      </c>
+    </row>
+    <row r="2544" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2544" s="2" t="s">
+        <v>3350</v>
+      </c>
+      <c r="B2544" s="1">
+        <v>5.29</v>
+      </c>
+    </row>
+    <row r="2545" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2545" s="2" t="s">
+        <v>3352</v>
+      </c>
+      <c r="B2545" s="1">
+        <v>8.27</v>
+      </c>
+      <c r="C2545" s="2" t="s">
+        <v>3353</v>
+      </c>
+    </row>
+    <row r="2546" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2546" s="2" t="s">
+        <v>3354</v>
+      </c>
+      <c r="B2546" s="1">
+        <v>5.32</v>
+      </c>
+      <c r="C2546" s="2" t="s">
+        <v>3355</v>
+      </c>
+    </row>
+    <row r="2547" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2547" s="2" t="s">
+        <v>3356</v>
+      </c>
+      <c r="B2547" s="1">
+        <v>5.36</v>
+      </c>
+      <c r="C2547" s="2" t="s">
+        <v>3357</v>
+      </c>
+    </row>
+    <row r="2548" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2548" s="2" t="s">
+        <v>3358</v>
+      </c>
+      <c r="B2548" s="1">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="C2548" s="2" t="s">
+        <v>3359</v>
+      </c>
+    </row>
+    <row r="2549" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2549" s="2" t="s">
+        <v>3360</v>
+      </c>
+      <c r="B2549" s="1">
+        <v>8.27</v>
+      </c>
+      <c r="C2549" s="2" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="2550" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2550" s="2" t="s">
+        <v>3361</v>
+      </c>
+      <c r="B2550" s="1">
+        <v>3.93</v>
+      </c>
+      <c r="C2550" s="2" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="2551" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2551" s="2" t="s">
+        <v>3361</v>
+      </c>
+      <c r="B2551" s="1">
+        <v>8.07</v>
+      </c>
+    </row>
+    <row r="2552" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2552" s="2" t="s">
+        <v>3362</v>
+      </c>
+      <c r="B2552" s="1">
+        <v>10</v>
+      </c>
+      <c r="C2552" s="2" t="s">
+        <v>3363</v>
+      </c>
+    </row>
+    <row r="2553" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2553" s="2" t="s">
+        <v>3364</v>
+      </c>
+      <c r="B2553" s="1">
+        <v>7.14</v>
+      </c>
+      <c r="C2553" s="2" t="s">
+        <v>3365</v>
+      </c>
+    </row>
+    <row r="2554" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2554" s="2" t="s">
+        <v>3366</v>
+      </c>
+      <c r="B2554" s="1">
+        <v>1.24</v>
+      </c>
+      <c r="C2554" s="2" t="s">
+        <v>3367</v>
+      </c>
+    </row>
+    <row r="2555" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2555" s="2" t="s">
+        <v>3366</v>
+      </c>
+      <c r="B2555" s="1">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="2556" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2556" s="2" t="s">
+        <v>3368</v>
+      </c>
+      <c r="B2556" s="1">
+        <v>5.05</v>
+      </c>
+      <c r="C2556" s="2" t="s">
+        <v>3369</v>
+      </c>
+    </row>
+    <row r="2557" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2557" s="2" t="s">
+        <v>3370</v>
+      </c>
+      <c r="B2557" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="C2557" s="2" t="s">
+        <v>3166</v>
+      </c>
+    </row>
+    <row r="2558" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2558" s="2" t="s">
+        <v>3371</v>
+      </c>
+      <c r="B2558" s="1">
+        <v>7.53</v>
+      </c>
+      <c r="C2558" s="2" t="s">
+        <v>1813</v>
+      </c>
+    </row>
+    <row r="2559" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2559" s="2" t="s">
+        <v>3372</v>
+      </c>
+      <c r="B2559" s="1">
+        <v>6.12</v>
+      </c>
+      <c r="C2559" s="2" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="2560" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2560" s="2" t="s">
+        <v>3373</v>
+      </c>
+      <c r="B2560" s="1">
+        <v>14.07</v>
+      </c>
+      <c r="C2560" s="2" t="s">
+        <v>3374</v>
+      </c>
+    </row>
+    <row r="2561" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2561" s="2" t="s">
+        <v>3375</v>
+      </c>
+      <c r="B2561" s="1">
+        <v>7.93</v>
+      </c>
+      <c r="C2561" s="2" t="s">
+        <v>3376</v>
+      </c>
+    </row>
+    <row r="2562" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2562" s="2" t="s">
+        <v>3377</v>
+      </c>
+      <c r="B2562" s="1">
+        <v>8</v>
+      </c>
+      <c r="C2562" s="2" t="s">
+        <v>2911</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>

--- a/Running_Log.xlsx
+++ b/Running_Log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/AlexDolwick/dolwick_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3276540-DFF3-7741-AD3D-A467A5E4365D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23869816-A7A6-024D-A59E-2161C5DC53A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1480" yWindow="460" windowWidth="25680" windowHeight="15920" xr2:uid="{4B2E00A5-7125-EC4E-9EAD-C4CEE86B127A}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3990" uniqueCount="3378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3998" uniqueCount="3384">
   <si>
     <t>Date</t>
   </si>
@@ -10167,6 +10167,24 @@
   </si>
   <si>
     <t>2020-07-21</t>
+  </si>
+  <si>
+    <t>2020-07-22</t>
+  </si>
+  <si>
+    <t>2020-07-23</t>
+  </si>
+  <si>
+    <t>52:58</t>
+  </si>
+  <si>
+    <t>2020-07-24</t>
+  </si>
+  <si>
+    <t>2020-07-25</t>
+  </si>
+  <si>
+    <t>1:21:42</t>
   </si>
 </sst>
 </file>
@@ -10540,10 +10558,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1BECE25-7878-7543-A5E4-1B4438F2AAC2}">
-  <dimension ref="A1:E2562"/>
+  <dimension ref="A1:E2566"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2536" workbookViewId="0">
-      <selection activeCell="L2552" sqref="L2552"/>
+      <selection activeCell="C2567" sqref="C2567"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -36996,6 +37014,50 @@
         <v>2911</v>
       </c>
     </row>
+    <row r="2563" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2563" s="2" t="s">
+        <v>3378</v>
+      </c>
+      <c r="B2563" s="1">
+        <v>6.08</v>
+      </c>
+      <c r="C2563" s="2" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="2564" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2564" s="2" t="s">
+        <v>3379</v>
+      </c>
+      <c r="B2564" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="C2564" s="2" t="s">
+        <v>3380</v>
+      </c>
+    </row>
+    <row r="2565" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2565" s="2" t="s">
+        <v>3381</v>
+      </c>
+      <c r="B2565" s="1">
+        <v>7.09</v>
+      </c>
+      <c r="C2565" s="2" t="s">
+        <v>2046</v>
+      </c>
+    </row>
+    <row r="2566" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2566" s="2" t="s">
+        <v>3382</v>
+      </c>
+      <c r="B2566" s="1">
+        <v>11.56</v>
+      </c>
+      <c r="C2566" s="2" t="s">
+        <v>3383</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>

--- a/Running_Log.xlsx
+++ b/Running_Log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/AlexDolwick/dolwick_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23869816-A7A6-024D-A59E-2161C5DC53A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36139860-7D95-E44A-862A-2E5BC2E298D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1480" yWindow="460" windowWidth="25680" windowHeight="15920" xr2:uid="{4B2E00A5-7125-EC4E-9EAD-C4CEE86B127A}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3998" uniqueCount="3384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4011" uniqueCount="3396">
   <si>
     <t>Date</t>
   </si>
@@ -10185,6 +10185,42 @@
   </si>
   <si>
     <t>1:21:42</t>
+  </si>
+  <si>
+    <t>2020-07-27</t>
+  </si>
+  <si>
+    <t>57:02</t>
+  </si>
+  <si>
+    <t>2020-07-28</t>
+  </si>
+  <si>
+    <t>55:39</t>
+  </si>
+  <si>
+    <t>2020-07-29</t>
+  </si>
+  <si>
+    <t>2020-07-30</t>
+  </si>
+  <si>
+    <t>40:48</t>
+  </si>
+  <si>
+    <t>2020-07-31</t>
+  </si>
+  <si>
+    <t>2020-08-01</t>
+  </si>
+  <si>
+    <t>1:47:15</t>
+  </si>
+  <si>
+    <t>2020-08-03</t>
+  </si>
+  <si>
+    <t>1:00:08</t>
   </si>
 </sst>
 </file>
@@ -10558,10 +10594,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1BECE25-7878-7543-A5E4-1B4438F2AAC2}">
-  <dimension ref="A1:E2566"/>
+  <dimension ref="A1:E2573"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2536" workbookViewId="0">
-      <selection activeCell="C2567" sqref="C2567"/>
+    <sheetView tabSelected="1" topLeftCell="A2554" workbookViewId="0">
+      <selection activeCell="C2574" sqref="C2574"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -37058,6 +37094,80 @@
         <v>3383</v>
       </c>
     </row>
+    <row r="2567" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2567" s="2" t="s">
+        <v>3384</v>
+      </c>
+      <c r="B2567" s="1">
+        <v>7.9</v>
+      </c>
+      <c r="C2567" s="2" t="s">
+        <v>3385</v>
+      </c>
+    </row>
+    <row r="2568" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2568" s="2" t="s">
+        <v>3386</v>
+      </c>
+      <c r="B2568" s="1">
+        <v>8.26</v>
+      </c>
+      <c r="C2568" s="2" t="s">
+        <v>3387</v>
+      </c>
+    </row>
+    <row r="2569" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2569" s="2" t="s">
+        <v>3388</v>
+      </c>
+      <c r="B2569" s="1">
+        <v>10.89</v>
+      </c>
+    </row>
+    <row r="2570" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2570" s="2" t="s">
+        <v>3389</v>
+      </c>
+      <c r="B2570" s="1">
+        <v>5.68</v>
+      </c>
+      <c r="C2570" s="2" t="s">
+        <v>3390</v>
+      </c>
+    </row>
+    <row r="2571" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2571" s="2" t="s">
+        <v>3391</v>
+      </c>
+      <c r="B2571" s="1">
+        <v>7.39</v>
+      </c>
+      <c r="C2571" s="2" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="2572" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2572" s="2" t="s">
+        <v>3392</v>
+      </c>
+      <c r="B2572" s="1">
+        <v>16.690000000000001</v>
+      </c>
+      <c r="C2572" s="2" t="s">
+        <v>3393</v>
+      </c>
+    </row>
+    <row r="2573" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2573" s="2" t="s">
+        <v>3394</v>
+      </c>
+      <c r="B2573" s="1">
+        <v>8</v>
+      </c>
+      <c r="C2573" s="2" t="s">
+        <v>3395</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>

--- a/Running_Log.xlsx
+++ b/Running_Log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/AlexDolwick/dolwick_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36139860-7D95-E44A-862A-2E5BC2E298D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67AD1482-011A-2048-BA2D-546F4B2AD30F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1480" yWindow="460" windowWidth="25680" windowHeight="15920" xr2:uid="{4B2E00A5-7125-EC4E-9EAD-C4CEE86B127A}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4011" uniqueCount="3396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4032" uniqueCount="3414">
   <si>
     <t>Date</t>
   </si>
@@ -10221,6 +10222,60 @@
   </si>
   <si>
     <t>1:00:08</t>
+  </si>
+  <si>
+    <t>2020-08-04</t>
+  </si>
+  <si>
+    <t>50:31</t>
+  </si>
+  <si>
+    <t>2020-08-05</t>
+  </si>
+  <si>
+    <t>2020-08-06</t>
+  </si>
+  <si>
+    <t>42:13</t>
+  </si>
+  <si>
+    <t>2020-08-07</t>
+  </si>
+  <si>
+    <t>1:00:47</t>
+  </si>
+  <si>
+    <t>2020-08-08</t>
+  </si>
+  <si>
+    <t>1:49:03</t>
+  </si>
+  <si>
+    <t>2020-08-10</t>
+  </si>
+  <si>
+    <t>41:42</t>
+  </si>
+  <si>
+    <t>2020-08-11</t>
+  </si>
+  <si>
+    <t>1:24:58</t>
+  </si>
+  <si>
+    <t>2020-08-12</t>
+  </si>
+  <si>
+    <t>42:39</t>
+  </si>
+  <si>
+    <t>2020-08-13</t>
+  </si>
+  <si>
+    <t>2020-08-14</t>
+  </si>
+  <si>
+    <t>1:08:14</t>
   </si>
 </sst>
 </file>
@@ -10594,10 +10649,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1BECE25-7878-7543-A5E4-1B4438F2AAC2}">
-  <dimension ref="A1:E2573"/>
+  <dimension ref="A1:E2584"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2554" workbookViewId="0">
-      <selection activeCell="C2574" sqref="C2574"/>
+    <sheetView tabSelected="1" topLeftCell="A2555" workbookViewId="0">
+      <selection activeCell="I2578" sqref="I2578"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -37168,6 +37223,124 @@
         <v>3395</v>
       </c>
     </row>
+    <row r="2574" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2574" s="2" t="s">
+        <v>3394</v>
+      </c>
+      <c r="B2574" s="1">
+        <v>5.58</v>
+      </c>
+      <c r="C2574" s="2" t="s">
+        <v>3025</v>
+      </c>
+    </row>
+    <row r="2575" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2575" s="2" t="s">
+        <v>3396</v>
+      </c>
+      <c r="B2575" s="1">
+        <v>7.09</v>
+      </c>
+      <c r="C2575" s="2" t="s">
+        <v>3397</v>
+      </c>
+    </row>
+    <row r="2576" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2576" s="2" t="s">
+        <v>3398</v>
+      </c>
+      <c r="B2576" s="1">
+        <v>9.11</v>
+      </c>
+    </row>
+    <row r="2577" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2577" s="2" t="s">
+        <v>3399</v>
+      </c>
+      <c r="B2577" s="1">
+        <v>5.78</v>
+      </c>
+      <c r="C2577" s="2" t="s">
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="2578" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2578" s="2" t="s">
+        <v>3401</v>
+      </c>
+      <c r="B2578" s="1">
+        <v>8.69</v>
+      </c>
+      <c r="C2578" s="2" t="s">
+        <v>3402</v>
+      </c>
+    </row>
+    <row r="2579" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2579" s="2" t="s">
+        <v>3403</v>
+      </c>
+      <c r="B2579" s="1">
+        <v>15.84</v>
+      </c>
+      <c r="C2579" s="2" t="s">
+        <v>3404</v>
+      </c>
+    </row>
+    <row r="2580" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2580" s="2" t="s">
+        <v>3405</v>
+      </c>
+      <c r="B2580" s="1">
+        <v>5.63</v>
+      </c>
+      <c r="C2580" s="2" t="s">
+        <v>3406</v>
+      </c>
+    </row>
+    <row r="2581" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2581" s="2" t="s">
+        <v>3407</v>
+      </c>
+      <c r="B2581" s="1">
+        <v>12</v>
+      </c>
+      <c r="C2581" s="2" t="s">
+        <v>3408</v>
+      </c>
+    </row>
+    <row r="2582" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2582" s="2" t="s">
+        <v>3409</v>
+      </c>
+      <c r="B2582" s="1">
+        <v>5.77</v>
+      </c>
+      <c r="C2582" s="2" t="s">
+        <v>3410</v>
+      </c>
+    </row>
+    <row r="2583" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2583" s="2" t="s">
+        <v>3411</v>
+      </c>
+      <c r="B2583" s="1">
+        <v>8</v>
+      </c>
+      <c r="C2583" s="2" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="2584" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2584" s="2" t="s">
+        <v>3412</v>
+      </c>
+      <c r="B2584" s="1">
+        <v>10</v>
+      </c>
+      <c r="C2584" s="2" t="s">
+        <v>3413</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>

--- a/Running_Log.xlsx
+++ b/Running_Log.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/AlexDolwick/dolwick_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67AD1482-011A-2048-BA2D-546F4B2AD30F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE6F6F1F-8014-B44A-8FE8-1160D12E5ED0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1480" yWindow="460" windowWidth="25680" windowHeight="15920" xr2:uid="{4B2E00A5-7125-EC4E-9EAD-C4CEE86B127A}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25680" windowHeight="15920" xr2:uid="{4B2E00A5-7125-EC4E-9EAD-C4CEE86B127A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4032" uniqueCount="3414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4131" uniqueCount="3490">
   <si>
     <t>Date</t>
   </si>
@@ -10276,6 +10275,234 @@
   </si>
   <si>
     <t>1:08:14</t>
+  </si>
+  <si>
+    <t>2020-08-17</t>
+  </si>
+  <si>
+    <t>56:40</t>
+  </si>
+  <si>
+    <t>2020-08-18</t>
+  </si>
+  <si>
+    <t>56:25</t>
+  </si>
+  <si>
+    <t>2020-08-19</t>
+  </si>
+  <si>
+    <t>2020-08-20</t>
+  </si>
+  <si>
+    <t>1:31:53</t>
+  </si>
+  <si>
+    <t>2020-08-21</t>
+  </si>
+  <si>
+    <t>53:29</t>
+  </si>
+  <si>
+    <t>2020-08-22</t>
+  </si>
+  <si>
+    <t>1:48:59</t>
+  </si>
+  <si>
+    <t>2020-08-24</t>
+  </si>
+  <si>
+    <t>1:13:01</t>
+  </si>
+  <si>
+    <t>2020-08-25</t>
+  </si>
+  <si>
+    <t>2020-08-26</t>
+  </si>
+  <si>
+    <t>1:01:17</t>
+  </si>
+  <si>
+    <t>2020-08-27</t>
+  </si>
+  <si>
+    <t>2020-08-28</t>
+  </si>
+  <si>
+    <t>2:03:48</t>
+  </si>
+  <si>
+    <t>2020-08-29</t>
+  </si>
+  <si>
+    <t>2020-09-02</t>
+  </si>
+  <si>
+    <t>2020-09-03</t>
+  </si>
+  <si>
+    <t>2020-09-04</t>
+  </si>
+  <si>
+    <t>2020-09-05</t>
+  </si>
+  <si>
+    <t>2020-09-08</t>
+  </si>
+  <si>
+    <t>46:55</t>
+  </si>
+  <si>
+    <t>2020-09-09</t>
+  </si>
+  <si>
+    <t>1:00:21</t>
+  </si>
+  <si>
+    <t>2020-09-10</t>
+  </si>
+  <si>
+    <t>2020-09-11</t>
+  </si>
+  <si>
+    <t>54:47</t>
+  </si>
+  <si>
+    <t>2020-09-12</t>
+  </si>
+  <si>
+    <t>2:02:47</t>
+  </si>
+  <si>
+    <t>2020-09-13</t>
+  </si>
+  <si>
+    <t>51:24</t>
+  </si>
+  <si>
+    <t>2020-09-15</t>
+  </si>
+  <si>
+    <t>59:06</t>
+  </si>
+  <si>
+    <t>2020-09-16</t>
+  </si>
+  <si>
+    <t>2020-09-17</t>
+  </si>
+  <si>
+    <t>1:08:57</t>
+  </si>
+  <si>
+    <t>31:34</t>
+  </si>
+  <si>
+    <t>2020-09-18</t>
+  </si>
+  <si>
+    <t>2020-09-19</t>
+  </si>
+  <si>
+    <t>2020-09-20</t>
+  </si>
+  <si>
+    <t>1:52:40</t>
+  </si>
+  <si>
+    <t>2020-09-21</t>
+  </si>
+  <si>
+    <t>1:05:34</t>
+  </si>
+  <si>
+    <t>2020-09-22</t>
+  </si>
+  <si>
+    <t>50:39</t>
+  </si>
+  <si>
+    <t>2020-09-23</t>
+  </si>
+  <si>
+    <t>2020-09-24</t>
+  </si>
+  <si>
+    <t>51:10</t>
+  </si>
+  <si>
+    <t>2020-09-25</t>
+  </si>
+  <si>
+    <t>2020-09-26</t>
+  </si>
+  <si>
+    <t>1:37:06</t>
+  </si>
+  <si>
+    <t>2020-09-28</t>
+  </si>
+  <si>
+    <t>1:07:33</t>
+  </si>
+  <si>
+    <t>2020-09-29</t>
+  </si>
+  <si>
+    <t>1:06:10</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-10-01</t>
+  </si>
+  <si>
+    <t>1:11:40</t>
+  </si>
+  <si>
+    <t>2020-10-02</t>
+  </si>
+  <si>
+    <t>1:08:15</t>
+  </si>
+  <si>
+    <t>2020-10-03</t>
+  </si>
+  <si>
+    <t>1:55:30</t>
+  </si>
+  <si>
+    <t>2020-10-05</t>
+  </si>
+  <si>
+    <t>1:13:10</t>
+  </si>
+  <si>
+    <t>2020-10-07</t>
+  </si>
+  <si>
+    <t>42:02</t>
+  </si>
+  <si>
+    <t>2020-10-08</t>
+  </si>
+  <si>
+    <t>2020-10-09</t>
+  </si>
+  <si>
+    <t>55:13</t>
+  </si>
+  <si>
+    <t>2020-10-10</t>
+  </si>
+  <si>
+    <t>2020-10-11</t>
+  </si>
+  <si>
+    <t>1:35:45</t>
   </si>
 </sst>
 </file>
@@ -10649,10 +10876,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1BECE25-7878-7543-A5E4-1B4438F2AAC2}">
-  <dimension ref="A1:E2584"/>
+  <dimension ref="A1:E2636"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2555" workbookViewId="0">
-      <selection activeCell="I2578" sqref="I2578"/>
+    <sheetView tabSelected="1" topLeftCell="A2622" workbookViewId="0">
+      <selection activeCell="C2637" sqref="C2637"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -37341,6 +37568,563 @@
         <v>3413</v>
       </c>
     </row>
+    <row r="2585" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2585" s="2" t="s">
+        <v>3414</v>
+      </c>
+      <c r="B2585" s="1">
+        <v>8.2200000000000006</v>
+      </c>
+      <c r="C2585" s="2" t="s">
+        <v>3415</v>
+      </c>
+    </row>
+    <row r="2586" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2586" s="2" t="s">
+        <v>3416</v>
+      </c>
+      <c r="B2586" s="1">
+        <v>8.06</v>
+      </c>
+      <c r="C2586" s="2" t="s">
+        <v>3417</v>
+      </c>
+    </row>
+    <row r="2587" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2587" s="2" t="s">
+        <v>3418</v>
+      </c>
+      <c r="B2587" s="1">
+        <v>10.23</v>
+      </c>
+    </row>
+    <row r="2588" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2588" s="2" t="s">
+        <v>3419</v>
+      </c>
+      <c r="B2588" s="1">
+        <v>12</v>
+      </c>
+      <c r="C2588" s="2" t="s">
+        <v>3420</v>
+      </c>
+    </row>
+    <row r="2589" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2589" s="2" t="s">
+        <v>3421</v>
+      </c>
+      <c r="B2589" s="1">
+        <v>7.14</v>
+      </c>
+      <c r="C2589" s="2" t="s">
+        <v>3422</v>
+      </c>
+    </row>
+    <row r="2590" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2590" s="2" t="s">
+        <v>3423</v>
+      </c>
+      <c r="B2590" s="1">
+        <v>16.53</v>
+      </c>
+      <c r="C2590" s="2" t="s">
+        <v>3424</v>
+      </c>
+    </row>
+    <row r="2591" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2591" s="2" t="s">
+        <v>3425</v>
+      </c>
+      <c r="B2591" s="1">
+        <v>10</v>
+      </c>
+      <c r="C2591" s="2" t="s">
+        <v>3426</v>
+      </c>
+    </row>
+    <row r="2592" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2592" s="2" t="s">
+        <v>3425</v>
+      </c>
+      <c r="B2592" s="1">
+        <v>5.14</v>
+      </c>
+      <c r="C2592" s="2" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="2593" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2593" s="2" t="s">
+        <v>3427</v>
+      </c>
+      <c r="B2593" s="1">
+        <v>8.11</v>
+      </c>
+      <c r="C2593" s="2" t="s">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="2594" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2594" s="2" t="s">
+        <v>3428</v>
+      </c>
+      <c r="B2594" s="1">
+        <v>8.32</v>
+      </c>
+      <c r="C2594" s="2" t="s">
+        <v>3429</v>
+      </c>
+    </row>
+    <row r="2595" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2595" s="2" t="s">
+        <v>3430</v>
+      </c>
+      <c r="B2595" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2596" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2596" s="2" t="s">
+        <v>3431</v>
+      </c>
+      <c r="B2596" s="1">
+        <v>17.010000000000002</v>
+      </c>
+      <c r="C2596" s="2" t="s">
+        <v>3432</v>
+      </c>
+    </row>
+    <row r="2597" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2597" s="2" t="s">
+        <v>3433</v>
+      </c>
+      <c r="B2597" s="1">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="C2597" s="2" t="s">
+        <v>3286</v>
+      </c>
+    </row>
+    <row r="2598" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2598" s="2" t="s">
+        <v>3434</v>
+      </c>
+      <c r="B2598" s="1">
+        <v>7.49</v>
+      </c>
+      <c r="C2598" s="2" t="s">
+        <v>2192</v>
+      </c>
+    </row>
+    <row r="2599" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2599" s="2" t="s">
+        <v>3435</v>
+      </c>
+      <c r="B2599" s="1">
+        <v>7.75</v>
+      </c>
+      <c r="C2599" s="2" t="s">
+        <v>3014</v>
+      </c>
+    </row>
+    <row r="2600" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2600" s="2" t="s">
+        <v>3436</v>
+      </c>
+      <c r="B2600" s="1">
+        <v>8.43</v>
+      </c>
+      <c r="C2600" s="2" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="2601" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2601" s="2" t="s">
+        <v>3437</v>
+      </c>
+      <c r="B2601" s="1">
+        <v>13.97</v>
+      </c>
+      <c r="C2601" s="2" t="s">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="2602" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2602" s="2" t="s">
+        <v>3438</v>
+      </c>
+      <c r="B2602" s="1">
+        <v>6.2</v>
+      </c>
+      <c r="C2602" s="2" t="s">
+        <v>3439</v>
+      </c>
+    </row>
+    <row r="2603" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2603" s="2" t="s">
+        <v>3440</v>
+      </c>
+      <c r="B2603" s="1">
+        <v>8.09</v>
+      </c>
+      <c r="C2603" s="2" t="s">
+        <v>3441</v>
+      </c>
+    </row>
+    <row r="2604" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2604" s="2" t="s">
+        <v>3442</v>
+      </c>
+      <c r="B2604" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="C2604" s="2" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="2605" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2605" s="2" t="s">
+        <v>3443</v>
+      </c>
+      <c r="B2605" s="1">
+        <v>8.23</v>
+      </c>
+      <c r="C2605" s="2" t="s">
+        <v>3444</v>
+      </c>
+    </row>
+    <row r="2606" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2606" s="2" t="s">
+        <v>3445</v>
+      </c>
+      <c r="B2606" s="1">
+        <v>17.72</v>
+      </c>
+      <c r="C2606" s="2" t="s">
+        <v>3446</v>
+      </c>
+    </row>
+    <row r="2607" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2607" s="2" t="s">
+        <v>3447</v>
+      </c>
+      <c r="B2607" s="1">
+        <v>7.9</v>
+      </c>
+      <c r="C2607" s="2" t="s">
+        <v>3448</v>
+      </c>
+    </row>
+    <row r="2608" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2608" s="2" t="s">
+        <v>3449</v>
+      </c>
+      <c r="B2608" s="1">
+        <v>9</v>
+      </c>
+      <c r="C2608" s="2" t="s">
+        <v>3450</v>
+      </c>
+    </row>
+    <row r="2609" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2609" s="2" t="s">
+        <v>3451</v>
+      </c>
+      <c r="B2609" s="1">
+        <v>10.050000000000001</v>
+      </c>
+      <c r="C2609" s="2" t="s">
+        <v>1988</v>
+      </c>
+    </row>
+    <row r="2610" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2610" s="2" t="s">
+        <v>3452</v>
+      </c>
+      <c r="B2610" s="1">
+        <v>10.039999999999999</v>
+      </c>
+      <c r="C2610" s="2" t="s">
+        <v>3453</v>
+      </c>
+    </row>
+    <row r="2611" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2611" s="2" t="s">
+        <v>3452</v>
+      </c>
+      <c r="B2611" s="1">
+        <v>4.34</v>
+      </c>
+      <c r="C2611" s="2" t="s">
+        <v>3454</v>
+      </c>
+    </row>
+    <row r="2612" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2612" s="2" t="s">
+        <v>3455</v>
+      </c>
+      <c r="B2612" s="1">
+        <v>7.61</v>
+      </c>
+      <c r="C2612" s="2" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="2613" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2613" s="2" t="s">
+        <v>3456</v>
+      </c>
+      <c r="B2613" s="1">
+        <v>4.97</v>
+      </c>
+      <c r="C2613" s="2" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="2614" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2614" s="2" t="s">
+        <v>3456</v>
+      </c>
+      <c r="B2614" s="1">
+        <v>6.63</v>
+      </c>
+    </row>
+    <row r="2615" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2615" s="2" t="s">
+        <v>3457</v>
+      </c>
+      <c r="B2615" s="1">
+        <v>16.260000000000002</v>
+      </c>
+      <c r="C2615" s="2" t="s">
+        <v>3458</v>
+      </c>
+    </row>
+    <row r="2616" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2616" s="2" t="s">
+        <v>3459</v>
+      </c>
+      <c r="B2616" s="1">
+        <v>8.3800000000000008</v>
+      </c>
+      <c r="C2616" s="2" t="s">
+        <v>3460</v>
+      </c>
+    </row>
+    <row r="2617" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2617" s="2" t="s">
+        <v>3461</v>
+      </c>
+      <c r="B2617" s="1">
+        <v>7</v>
+      </c>
+      <c r="C2617" s="2" t="s">
+        <v>3462</v>
+      </c>
+    </row>
+    <row r="2618" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2618" s="2" t="s">
+        <v>3463</v>
+      </c>
+      <c r="B2618" s="1">
+        <v>7.22</v>
+      </c>
+      <c r="C2618" s="2" t="s">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="2619" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2619" s="2" t="s">
+        <v>3464</v>
+      </c>
+      <c r="B2619" s="1">
+        <v>5.2</v>
+      </c>
+      <c r="C2619" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2620" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2620" s="2" t="s">
+        <v>3464</v>
+      </c>
+      <c r="B2620" s="1">
+        <v>6.05</v>
+      </c>
+      <c r="C2620" s="2" t="s">
+        <v>3465</v>
+      </c>
+    </row>
+    <row r="2621" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2621" s="2" t="s">
+        <v>3466</v>
+      </c>
+      <c r="B2621" s="1">
+        <v>5.3</v>
+      </c>
+      <c r="C2621" s="2" t="s">
+        <v>2874</v>
+      </c>
+    </row>
+    <row r="2622" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2622" s="2" t="s">
+        <v>3467</v>
+      </c>
+      <c r="B2622" s="1">
+        <v>13.64</v>
+      </c>
+      <c r="C2622" s="2" t="s">
+        <v>3468</v>
+      </c>
+    </row>
+    <row r="2623" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2623" s="2" t="s">
+        <v>3469</v>
+      </c>
+      <c r="B2623" s="1">
+        <v>10.039999999999999</v>
+      </c>
+      <c r="C2623" s="2" t="s">
+        <v>3470</v>
+      </c>
+    </row>
+    <row r="2624" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2624" s="2" t="s">
+        <v>3471</v>
+      </c>
+      <c r="B2624" s="1">
+        <v>9.48</v>
+      </c>
+      <c r="C2624" s="2" t="s">
+        <v>3472</v>
+      </c>
+    </row>
+    <row r="2625" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2625" s="2" t="s">
+        <v>3473</v>
+      </c>
+      <c r="B2625" s="1">
+        <v>8.73</v>
+      </c>
+    </row>
+    <row r="2626" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2626" s="2" t="s">
+        <v>3474</v>
+      </c>
+      <c r="B2626" s="1">
+        <v>10.06</v>
+      </c>
+      <c r="C2626" s="2" t="s">
+        <v>3475</v>
+      </c>
+    </row>
+    <row r="2627" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2627" s="2" t="s">
+        <v>3474</v>
+      </c>
+      <c r="B2627" s="1">
+        <v>4.51</v>
+      </c>
+      <c r="C2627" s="2" t="s">
+        <v>2883</v>
+      </c>
+    </row>
+    <row r="2628" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2628" s="2" t="s">
+        <v>3476</v>
+      </c>
+      <c r="B2628" s="1">
+        <v>9.31</v>
+      </c>
+      <c r="C2628" s="2" t="s">
+        <v>3477</v>
+      </c>
+    </row>
+    <row r="2629" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2629" s="2" t="s">
+        <v>3478</v>
+      </c>
+      <c r="B2629" s="1">
+        <v>18</v>
+      </c>
+      <c r="C2629" s="2" t="s">
+        <v>3479</v>
+      </c>
+    </row>
+    <row r="2630" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2630" s="2" t="s">
+        <v>3480</v>
+      </c>
+      <c r="B2630" s="1">
+        <v>10.02</v>
+      </c>
+      <c r="C2630" s="2" t="s">
+        <v>3481</v>
+      </c>
+    </row>
+    <row r="2631" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2631" s="2" t="s">
+        <v>3482</v>
+      </c>
+      <c r="B2631" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="C2631" s="2" t="s">
+        <v>3483</v>
+      </c>
+    </row>
+    <row r="2632" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2632" s="2" t="s">
+        <v>3484</v>
+      </c>
+      <c r="B2632" s="1">
+        <v>6.06</v>
+      </c>
+      <c r="C2632" s="2" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="2633" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2633" s="2" t="s">
+        <v>3485</v>
+      </c>
+      <c r="B2633" s="1">
+        <v>7.46</v>
+      </c>
+      <c r="C2633" s="2" t="s">
+        <v>3486</v>
+      </c>
+    </row>
+    <row r="2634" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2634" s="2" t="s">
+        <v>3487</v>
+      </c>
+      <c r="B2634" s="1">
+        <v>3.11</v>
+      </c>
+      <c r="C2634" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="2635" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2635" s="2" t="s">
+        <v>3487</v>
+      </c>
+      <c r="B2635" s="1">
+        <v>6.19</v>
+      </c>
+    </row>
+    <row r="2636" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2636" s="2" t="s">
+        <v>3488</v>
+      </c>
+      <c r="B2636" s="1">
+        <v>16.22</v>
+      </c>
+      <c r="C2636" s="2" t="s">
+        <v>3489</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>

--- a/Running_Log.xlsx
+++ b/Running_Log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/AlexDolwick/dolwick_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE6F6F1F-8014-B44A-8FE8-1160D12E5ED0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B584BAF8-4478-7847-8DAC-54B89F7BA003}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25680" windowHeight="15920" xr2:uid="{4B2E00A5-7125-EC4E-9EAD-C4CEE86B127A}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4131" uniqueCount="3490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4135" uniqueCount="3494">
   <si>
     <t>Date</t>
   </si>
@@ -10503,6 +10503,18 @@
   </si>
   <si>
     <t>1:35:45</t>
+  </si>
+  <si>
+    <t>2020-10-14</t>
+  </si>
+  <si>
+    <t>2020-10-13</t>
+  </si>
+  <si>
+    <t>42:16</t>
+  </si>
+  <si>
+    <t>1:06:12</t>
   </si>
 </sst>
 </file>
@@ -10876,10 +10888,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1BECE25-7878-7543-A5E4-1B4438F2AAC2}">
-  <dimension ref="A1:E2636"/>
+  <dimension ref="A1:E2638"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2622" workbookViewId="0">
-      <selection activeCell="C2637" sqref="C2637"/>
+      <selection activeCell="C2639" sqref="C2639"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -38125,6 +38137,28 @@
         <v>3489</v>
       </c>
     </row>
+    <row r="2637" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2637" s="2" t="s">
+        <v>3491</v>
+      </c>
+      <c r="B2637" s="1">
+        <v>5.25</v>
+      </c>
+      <c r="C2637" s="2" t="s">
+        <v>3492</v>
+      </c>
+    </row>
+    <row r="2638" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2638" s="2" t="s">
+        <v>3490</v>
+      </c>
+      <c r="B2638" s="1">
+        <v>10.17</v>
+      </c>
+      <c r="C2638" s="2" t="s">
+        <v>3493</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>

--- a/Running_Log.xlsx
+++ b/Running_Log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/AlexDolwick/dolwick_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B584BAF8-4478-7847-8DAC-54B89F7BA003}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{036C9504-310F-E74F-8884-8B7DC3F37E91}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25680" windowHeight="15920" xr2:uid="{4B2E00A5-7125-EC4E-9EAD-C4CEE86B127A}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4135" uniqueCount="3494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4143" uniqueCount="3499">
   <si>
     <t>Date</t>
   </si>
@@ -10515,6 +10515,21 @@
   </si>
   <si>
     <t>1:06:12</t>
+  </si>
+  <si>
+    <t>2020-10-15</t>
+  </si>
+  <si>
+    <t>2020-10-16</t>
+  </si>
+  <si>
+    <t>1:08:55</t>
+  </si>
+  <si>
+    <t>2020-10-17</t>
+  </si>
+  <si>
+    <t>1:47:18</t>
   </si>
 </sst>
 </file>
@@ -10888,10 +10903,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1BECE25-7878-7543-A5E4-1B4438F2AAC2}">
-  <dimension ref="A1:E2638"/>
+  <dimension ref="A1:E2642"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2622" workbookViewId="0">
-      <selection activeCell="C2639" sqref="C2639"/>
+    <sheetView tabSelected="1" topLeftCell="A2624" workbookViewId="0">
+      <selection activeCell="C2642" sqref="C2642"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -38159,6 +38174,50 @@
         <v>3493</v>
       </c>
     </row>
+    <row r="2639" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2639" s="2" t="s">
+        <v>3494</v>
+      </c>
+      <c r="B2639" s="1">
+        <v>5.13</v>
+      </c>
+      <c r="C2639" s="2" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="2640" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2640" s="2" t="s">
+        <v>3494</v>
+      </c>
+      <c r="B2640" s="1">
+        <v>5.01</v>
+      </c>
+      <c r="C2640" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2641" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2641" s="2" t="s">
+        <v>3495</v>
+      </c>
+      <c r="B2641" s="1">
+        <v>10.06</v>
+      </c>
+      <c r="C2641" s="2" t="s">
+        <v>3496</v>
+      </c>
+    </row>
+    <row r="2642" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2642" s="2" t="s">
+        <v>3497</v>
+      </c>
+      <c r="B2642" s="1">
+        <v>15.37</v>
+      </c>
+      <c r="C2642" s="2" t="s">
+        <v>3498</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>

--- a/Running_Log.xlsx
+++ b/Running_Log.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/AlexDolwick/dolwick_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{036C9504-310F-E74F-8884-8B7DC3F37E91}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10694C28-10C6-444A-9E56-50924E027ECD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25680" windowHeight="15920" xr2:uid="{4B2E00A5-7125-EC4E-9EAD-C4CEE86B127A}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4143" uniqueCount="3499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4173" uniqueCount="3522">
   <si>
     <t>Date</t>
   </si>
@@ -10530,6 +10530,75 @@
   </si>
   <si>
     <t>1:47:18</t>
+  </si>
+  <si>
+    <t>2020-10-19</t>
+  </si>
+  <si>
+    <t>2020-10-20</t>
+  </si>
+  <si>
+    <t>57:54</t>
+  </si>
+  <si>
+    <t>2020-10-21</t>
+  </si>
+  <si>
+    <t>2020-10-22</t>
+  </si>
+  <si>
+    <t>46:39</t>
+  </si>
+  <si>
+    <t>2020-10-23</t>
+  </si>
+  <si>
+    <t>2020-10-26</t>
+  </si>
+  <si>
+    <t>2020-10-27</t>
+  </si>
+  <si>
+    <t>1:10:34</t>
+  </si>
+  <si>
+    <t>2020-10-28</t>
+  </si>
+  <si>
+    <t>2020-10-29</t>
+  </si>
+  <si>
+    <t>1:15:23</t>
+  </si>
+  <si>
+    <t>2020-10-30</t>
+  </si>
+  <si>
+    <t>2020-10-31</t>
+  </si>
+  <si>
+    <t>1:39:42</t>
+  </si>
+  <si>
+    <t>2020-11-02</t>
+  </si>
+  <si>
+    <t>1:07:00</t>
+  </si>
+  <si>
+    <t>2020-11-03</t>
+  </si>
+  <si>
+    <t>1:11:06</t>
+  </si>
+  <si>
+    <t>2020-11-04</t>
+  </si>
+  <si>
+    <t>2020-11-05</t>
+  </si>
+  <si>
+    <t>55:58</t>
   </si>
 </sst>
 </file>
@@ -10903,10 +10972,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1BECE25-7878-7543-A5E4-1B4438F2AAC2}">
-  <dimension ref="A1:E2642"/>
+  <dimension ref="A1:E2657"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2624" workbookViewId="0">
-      <selection activeCell="C2642" sqref="C2642"/>
+    <sheetView tabSelected="1" topLeftCell="A2641" workbookViewId="0">
+      <selection activeCell="C2658" sqref="C2658"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -38218,6 +38287,171 @@
         <v>3498</v>
       </c>
     </row>
+    <row r="2643" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2643" s="2" t="s">
+        <v>3499</v>
+      </c>
+      <c r="B2643" s="1">
+        <v>8.81</v>
+      </c>
+      <c r="C2643" s="2" t="s">
+        <v>3230</v>
+      </c>
+    </row>
+    <row r="2644" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2644" s="2" t="s">
+        <v>3500</v>
+      </c>
+      <c r="B2644" s="1">
+        <v>8.0399999999999991</v>
+      </c>
+      <c r="C2644" s="2" t="s">
+        <v>3501</v>
+      </c>
+    </row>
+    <row r="2645" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2645" s="2" t="s">
+        <v>3502</v>
+      </c>
+      <c r="B2645" s="1">
+        <v>8.34</v>
+      </c>
+      <c r="C2645" s="2" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="2646" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2646" s="2" t="s">
+        <v>3503</v>
+      </c>
+      <c r="B2646" s="1">
+        <v>6.55</v>
+      </c>
+      <c r="C2646" s="2" t="s">
+        <v>3504</v>
+      </c>
+    </row>
+    <row r="2647" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2647" s="2" t="s">
+        <v>3505</v>
+      </c>
+      <c r="B2647" s="1">
+        <v>8.07</v>
+      </c>
+      <c r="C2647" s="2" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="2648" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2648" s="2" t="s">
+        <v>3506</v>
+      </c>
+      <c r="B2648" s="1">
+        <v>7.24</v>
+      </c>
+      <c r="C2648" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2649" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2649" s="2" t="s">
+        <v>3507</v>
+      </c>
+      <c r="B2649" s="1">
+        <v>10.34</v>
+      </c>
+      <c r="C2649" s="2" t="s">
+        <v>3508</v>
+      </c>
+    </row>
+    <row r="2650" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2650" s="2" t="s">
+        <v>3509</v>
+      </c>
+      <c r="B2650" s="1">
+        <v>9.69</v>
+      </c>
+      <c r="C2650" s="2" t="s">
+        <v>3230</v>
+      </c>
+    </row>
+    <row r="2651" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2651" s="2" t="s">
+        <v>3510</v>
+      </c>
+      <c r="B2651" s="1">
+        <v>9.66</v>
+      </c>
+      <c r="C2651" s="2" t="s">
+        <v>3511</v>
+      </c>
+    </row>
+    <row r="2652" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2652" s="2" t="s">
+        <v>3512</v>
+      </c>
+      <c r="B2652" s="1">
+        <v>6.62</v>
+      </c>
+      <c r="C2652" s="2" t="s">
+        <v>2203</v>
+      </c>
+    </row>
+    <row r="2653" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2653" s="2" t="s">
+        <v>3513</v>
+      </c>
+      <c r="B2653" s="1">
+        <v>15.13</v>
+      </c>
+      <c r="C2653" s="2" t="s">
+        <v>3514</v>
+      </c>
+    </row>
+    <row r="2654" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2654" s="2" t="s">
+        <v>3515</v>
+      </c>
+      <c r="B2654" s="1">
+        <v>10.029999999999999</v>
+      </c>
+      <c r="C2654" s="2" t="s">
+        <v>3516</v>
+      </c>
+    </row>
+    <row r="2655" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2655" s="2" t="s">
+        <v>3517</v>
+      </c>
+      <c r="B2655" s="1">
+        <v>10.37</v>
+      </c>
+      <c r="C2655" s="2" t="s">
+        <v>3518</v>
+      </c>
+    </row>
+    <row r="2656" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2656" s="2" t="s">
+        <v>3519</v>
+      </c>
+      <c r="B2656" s="1">
+        <v>7.6</v>
+      </c>
+      <c r="C2656" s="2" t="s">
+        <v>2733</v>
+      </c>
+    </row>
+    <row r="2657" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2657" s="2" t="s">
+        <v>3520</v>
+      </c>
+      <c r="B2657" s="1">
+        <v>8.02</v>
+      </c>
+      <c r="C2657" s="2" t="s">
+        <v>3521</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>

--- a/Running_Log.xlsx
+++ b/Running_Log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/AlexDolwick/dolwick_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10694C28-10C6-444A-9E56-50924E027ECD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D73974F5-335A-834E-B855-CAC31421F31F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25680" windowHeight="15920" xr2:uid="{4B2E00A5-7125-EC4E-9EAD-C4CEE86B127A}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4173" uniqueCount="3522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4181" uniqueCount="3530">
   <si>
     <t>Date</t>
   </si>
@@ -10599,6 +10599,30 @@
   </si>
   <si>
     <t>55:58</t>
+  </si>
+  <si>
+    <t>2020-11-06</t>
+  </si>
+  <si>
+    <t>1:10:36</t>
+  </si>
+  <si>
+    <t>2020-11-07</t>
+  </si>
+  <si>
+    <t>1:12:41</t>
+  </si>
+  <si>
+    <t>2020-11-08</t>
+  </si>
+  <si>
+    <t>2:02:07</t>
+  </si>
+  <si>
+    <t>2020-11-10</t>
+  </si>
+  <si>
+    <t>59:22</t>
   </si>
 </sst>
 </file>
@@ -10972,10 +10996,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1BECE25-7878-7543-A5E4-1B4438F2AAC2}">
-  <dimension ref="A1:E2657"/>
+  <dimension ref="A1:E2661"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2641" workbookViewId="0">
-      <selection activeCell="C2658" sqref="C2658"/>
+    <sheetView tabSelected="1" topLeftCell="A2642" workbookViewId="0">
+      <selection activeCell="B2662" sqref="B2662"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -38452,6 +38476,50 @@
         <v>3521</v>
       </c>
     </row>
+    <row r="2658" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2658" s="2" t="s">
+        <v>3522</v>
+      </c>
+      <c r="B2658" s="1">
+        <v>9.2799999999999994</v>
+      </c>
+      <c r="C2658" s="2" t="s">
+        <v>3523</v>
+      </c>
+    </row>
+    <row r="2659" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2659" s="2" t="s">
+        <v>3524</v>
+      </c>
+      <c r="B2659" s="1">
+        <v>9.7200000000000006</v>
+      </c>
+      <c r="C2659" s="2" t="s">
+        <v>3525</v>
+      </c>
+    </row>
+    <row r="2660" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2660" s="2" t="s">
+        <v>3526</v>
+      </c>
+      <c r="B2660" s="1">
+        <v>16.3</v>
+      </c>
+      <c r="C2660" s="2" t="s">
+        <v>3527</v>
+      </c>
+    </row>
+    <row r="2661" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2661" s="2" t="s">
+        <v>3528</v>
+      </c>
+      <c r="B2661" s="1">
+        <v>8.24</v>
+      </c>
+      <c r="C2661" s="2" t="s">
+        <v>3529</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>

--- a/Running_Log.xlsx
+++ b/Running_Log.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/AlexDolwick/dolwick_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D73974F5-335A-834E-B855-CAC31421F31F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEE7A8E9-D0E9-F540-95B6-707923378F25}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25680" windowHeight="15920" xr2:uid="{4B2E00A5-7125-EC4E-9EAD-C4CEE86B127A}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4181" uniqueCount="3530">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4221" uniqueCount="3565">
   <si>
     <t>Date</t>
   </si>
@@ -10623,6 +10623,111 @@
   </si>
   <si>
     <t>59:22</t>
+  </si>
+  <si>
+    <t>2020-11-12</t>
+  </si>
+  <si>
+    <t>1:20:21</t>
+  </si>
+  <si>
+    <t>2020-11-13</t>
+  </si>
+  <si>
+    <t>2020-11-14</t>
+  </si>
+  <si>
+    <t>45:21</t>
+  </si>
+  <si>
+    <t>2020-11-15</t>
+  </si>
+  <si>
+    <t>1:33:57</t>
+  </si>
+  <si>
+    <t>2020-11-16</t>
+  </si>
+  <si>
+    <t>49:13</t>
+  </si>
+  <si>
+    <t>2020-11-17</t>
+  </si>
+  <si>
+    <t>1:17:17</t>
+  </si>
+  <si>
+    <t>2020-11-18</t>
+  </si>
+  <si>
+    <t>2020-11-19</t>
+  </si>
+  <si>
+    <t>2020-11-20</t>
+  </si>
+  <si>
+    <t>2020-11-21</t>
+  </si>
+  <si>
+    <t>2:00:54</t>
+  </si>
+  <si>
+    <t>2020-11-23</t>
+  </si>
+  <si>
+    <t>50:52</t>
+  </si>
+  <si>
+    <t>2020-11-24</t>
+  </si>
+  <si>
+    <t>1:04:21</t>
+  </si>
+  <si>
+    <t>2020-11-25</t>
+  </si>
+  <si>
+    <t>40:37</t>
+  </si>
+  <si>
+    <t>2020-11-26</t>
+  </si>
+  <si>
+    <t>51:52</t>
+  </si>
+  <si>
+    <t>2020-11-27</t>
+  </si>
+  <si>
+    <t>2020-11-28</t>
+  </si>
+  <si>
+    <t>51:14</t>
+  </si>
+  <si>
+    <t>2020-11-30</t>
+  </si>
+  <si>
+    <t>48:22</t>
+  </si>
+  <si>
+    <t>2020-12-01</t>
+  </si>
+  <si>
+    <t>45:16</t>
+  </si>
+  <si>
+    <t>2020-12-02</t>
+  </si>
+  <si>
+    <t>46:12</t>
+  </si>
+  <si>
+    <t>2020-12-03</t>
+  </si>
+  <si>
+    <t>56:49</t>
   </si>
 </sst>
 </file>
@@ -10996,10 +11101,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1BECE25-7878-7543-A5E4-1B4438F2AAC2}">
-  <dimension ref="A1:E2661"/>
+  <dimension ref="A1:E2681"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2642" workbookViewId="0">
-      <selection activeCell="B2662" sqref="B2662"/>
+    <sheetView tabSelected="1" topLeftCell="A2651" workbookViewId="0">
+      <selection activeCell="C2682" sqref="C2682"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -38520,6 +38625,226 @@
         <v>3529</v>
       </c>
     </row>
+    <row r="2662" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2662" s="2" t="s">
+        <v>3530</v>
+      </c>
+      <c r="B2662" s="1">
+        <v>11.03</v>
+      </c>
+      <c r="C2662" s="2" t="s">
+        <v>3531</v>
+      </c>
+    </row>
+    <row r="2663" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2663" s="2" t="s">
+        <v>3532</v>
+      </c>
+      <c r="B2663" s="1">
+        <v>11.01</v>
+      </c>
+      <c r="C2663" s="2" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="2664" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2664" s="2" t="s">
+        <v>3533</v>
+      </c>
+      <c r="B2664" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="C2664" s="2" t="s">
+        <v>3534</v>
+      </c>
+    </row>
+    <row r="2665" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2665" s="2" t="s">
+        <v>3535</v>
+      </c>
+      <c r="B2665" s="1">
+        <v>13.51</v>
+      </c>
+      <c r="C2665" s="2" t="s">
+        <v>3536</v>
+      </c>
+    </row>
+    <row r="2666" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2666" s="2" t="s">
+        <v>3537</v>
+      </c>
+      <c r="B2666" s="1">
+        <v>6.01</v>
+      </c>
+      <c r="C2666" s="2" t="s">
+        <v>3538</v>
+      </c>
+    </row>
+    <row r="2667" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2667" s="2" t="s">
+        <v>3539</v>
+      </c>
+      <c r="B2667" s="1">
+        <v>10.51</v>
+      </c>
+      <c r="C2667" s="2" t="s">
+        <v>3540</v>
+      </c>
+    </row>
+    <row r="2668" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2668" s="2" t="s">
+        <v>3541</v>
+      </c>
+      <c r="B2668" s="1">
+        <v>10</v>
+      </c>
+      <c r="C2668" s="2" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="2669" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2669" s="2" t="s">
+        <v>3542</v>
+      </c>
+      <c r="B2669" s="1">
+        <v>6.65</v>
+      </c>
+      <c r="C2669" s="2" t="s">
+        <v>3465</v>
+      </c>
+    </row>
+    <row r="2670" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2670" s="2" t="s">
+        <v>3543</v>
+      </c>
+      <c r="B2670" s="1">
+        <v>10</v>
+      </c>
+      <c r="C2670" s="2" t="s">
+        <v>2083</v>
+      </c>
+    </row>
+    <row r="2671" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2671" s="2" t="s">
+        <v>3544</v>
+      </c>
+      <c r="B2671" s="1">
+        <v>17</v>
+      </c>
+      <c r="C2671" s="2" t="s">
+        <v>3545</v>
+      </c>
+    </row>
+    <row r="2672" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2672" s="2" t="s">
+        <v>3546</v>
+      </c>
+      <c r="B2672" s="1">
+        <v>6</v>
+      </c>
+      <c r="C2672" s="2" t="s">
+        <v>3547</v>
+      </c>
+    </row>
+    <row r="2673" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2673" s="2" t="s">
+        <v>3548</v>
+      </c>
+      <c r="B2673" s="1">
+        <v>9.27</v>
+      </c>
+      <c r="C2673" s="2" t="s">
+        <v>3549</v>
+      </c>
+    </row>
+    <row r="2674" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2674" s="2" t="s">
+        <v>3550</v>
+      </c>
+      <c r="B2674" s="1">
+        <v>6</v>
+      </c>
+      <c r="C2674" s="2" t="s">
+        <v>3551</v>
+      </c>
+    </row>
+    <row r="2675" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2675" s="2" t="s">
+        <v>3552</v>
+      </c>
+      <c r="B2675" s="1">
+        <v>7.32</v>
+      </c>
+      <c r="C2675" s="2" t="s">
+        <v>3553</v>
+      </c>
+    </row>
+    <row r="2676" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2676" s="2" t="s">
+        <v>3554</v>
+      </c>
+      <c r="B2676" s="1">
+        <v>6</v>
+      </c>
+      <c r="C2676" s="2" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="2677" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2677" s="2" t="s">
+        <v>3555</v>
+      </c>
+      <c r="B2677" s="1">
+        <v>7.52</v>
+      </c>
+      <c r="C2677" s="2" t="s">
+        <v>3556</v>
+      </c>
+    </row>
+    <row r="2678" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2678" s="2" t="s">
+        <v>3557</v>
+      </c>
+      <c r="B2678" s="1">
+        <v>7.34</v>
+      </c>
+      <c r="C2678" s="2" t="s">
+        <v>3558</v>
+      </c>
+    </row>
+    <row r="2679" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2679" s="2" t="s">
+        <v>3559</v>
+      </c>
+      <c r="B2679" s="1">
+        <v>6.13</v>
+      </c>
+      <c r="C2679" s="2" t="s">
+        <v>3560</v>
+      </c>
+    </row>
+    <row r="2680" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2680" s="2" t="s">
+        <v>3561</v>
+      </c>
+      <c r="B2680" s="1">
+        <v>6.29</v>
+      </c>
+      <c r="C2680" s="2" t="s">
+        <v>3562</v>
+      </c>
+    </row>
+    <row r="2681" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2681" s="2" t="s">
+        <v>3563</v>
+      </c>
+      <c r="B2681" s="1">
+        <v>7.59</v>
+      </c>
+      <c r="C2681" s="2" t="s">
+        <v>3564</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>

--- a/Running_Log.xlsx
+++ b/Running_Log.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/AlexDolwick/dolwick_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEE7A8E9-D0E9-F540-95B6-707923378F25}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CE7FBFB-5C83-A345-A90C-D8AECC996029}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25680" windowHeight="15920" xr2:uid="{4B2E00A5-7125-EC4E-9EAD-C4CEE86B127A}"/>
+    <workbookView xWindow="1400" yWindow="460" windowWidth="25680" windowHeight="15920" xr2:uid="{4B2E00A5-7125-EC4E-9EAD-C4CEE86B127A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4221" uniqueCount="3565">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4284" uniqueCount="3614">
   <si>
     <t>Date</t>
   </si>
@@ -10728,6 +10728,153 @@
   </si>
   <si>
     <t>56:49</t>
+  </si>
+  <si>
+    <t>2020-12-04</t>
+  </si>
+  <si>
+    <t>51:20</t>
+  </si>
+  <si>
+    <t>2020-12-05</t>
+  </si>
+  <si>
+    <t>2020-12-06</t>
+  </si>
+  <si>
+    <t>2020-12-16</t>
+  </si>
+  <si>
+    <t>2020-12-21</t>
+  </si>
+  <si>
+    <t>2020-12-22</t>
+  </si>
+  <si>
+    <t>2020-12-23</t>
+  </si>
+  <si>
+    <t>2020-12-24</t>
+  </si>
+  <si>
+    <t>2020-12-26</t>
+  </si>
+  <si>
+    <t>2020-12-27</t>
+  </si>
+  <si>
+    <t>2020-12-28</t>
+  </si>
+  <si>
+    <t>46:35</t>
+  </si>
+  <si>
+    <t>2020-12-30</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2021-01-01</t>
+  </si>
+  <si>
+    <t>48:44</t>
+  </si>
+  <si>
+    <t>2021-01-02</t>
+  </si>
+  <si>
+    <t>53:35</t>
+  </si>
+  <si>
+    <t>2021-01-04</t>
+  </si>
+  <si>
+    <t>2021-01-05</t>
+  </si>
+  <si>
+    <t>54:13</t>
+  </si>
+  <si>
+    <t>2021-01-06</t>
+  </si>
+  <si>
+    <t>40:44</t>
+  </si>
+  <si>
+    <t>2021-01-07</t>
+  </si>
+  <si>
+    <t>1:06:54</t>
+  </si>
+  <si>
+    <t>2021-01-08</t>
+  </si>
+  <si>
+    <t>2021-01-09</t>
+  </si>
+  <si>
+    <t>1:17:22</t>
+  </si>
+  <si>
+    <t>2021-01-11</t>
+  </si>
+  <si>
+    <t>48:40</t>
+  </si>
+  <si>
+    <t>2021-01-12</t>
+  </si>
+  <si>
+    <t>50:45</t>
+  </si>
+  <si>
+    <t>2021-01-13</t>
+  </si>
+  <si>
+    <t>43:59</t>
+  </si>
+  <si>
+    <t>2021-01-15</t>
+  </si>
+  <si>
+    <t>1:02:49</t>
+  </si>
+  <si>
+    <t>2021-01-17</t>
+  </si>
+  <si>
+    <t>1:25:01</t>
+  </si>
+  <si>
+    <t>2021-01-18</t>
+  </si>
+  <si>
+    <t>2021-01-19</t>
+  </si>
+  <si>
+    <t>2021-01-20</t>
+  </si>
+  <si>
+    <t>56:09</t>
+  </si>
+  <si>
+    <t>2021-01-21</t>
+  </si>
+  <si>
+    <t>48:15</t>
+  </si>
+  <si>
+    <t>2021-01-22</t>
+  </si>
+  <si>
+    <t>50:19</t>
+  </si>
+  <si>
+    <t>2021-01-23</t>
+  </si>
+  <si>
+    <t>1:25:30</t>
   </si>
 </sst>
 </file>
@@ -11101,10 +11248,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1BECE25-7878-7543-A5E4-1B4438F2AAC2}">
-  <dimension ref="A1:E2681"/>
+  <dimension ref="A1:E2713"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2651" workbookViewId="0">
-      <selection activeCell="C2682" sqref="C2682"/>
+    <sheetView tabSelected="1" topLeftCell="A2685" workbookViewId="0">
+      <selection activeCell="C2714" sqref="C2714"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -38845,6 +38992,355 @@
         <v>3564</v>
       </c>
     </row>
+    <row r="2682" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2682" s="2" t="s">
+        <v>3565</v>
+      </c>
+      <c r="B2682" s="1">
+        <v>7.4</v>
+      </c>
+      <c r="C2682" s="2" t="s">
+        <v>3566</v>
+      </c>
+    </row>
+    <row r="2683" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2683" s="2" t="s">
+        <v>3567</v>
+      </c>
+      <c r="B2683" s="1">
+        <v>6.01</v>
+      </c>
+      <c r="C2683" s="2" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="2684" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2684" s="2" t="s">
+        <v>3568</v>
+      </c>
+      <c r="B2684" s="1">
+        <v>2.68</v>
+      </c>
+      <c r="C2684" s="2" t="s">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="2685" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2685" s="2" t="s">
+        <v>3569</v>
+      </c>
+      <c r="B2685" s="1">
+        <v>2.84</v>
+      </c>
+    </row>
+    <row r="2686" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2686" s="2" t="s">
+        <v>3570</v>
+      </c>
+      <c r="B2686" s="1">
+        <v>5.69</v>
+      </c>
+      <c r="C2686" s="2" t="s">
+        <v>3306</v>
+      </c>
+    </row>
+    <row r="2687" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2687" s="2" t="s">
+        <v>3571</v>
+      </c>
+      <c r="B2687" s="1">
+        <v>5</v>
+      </c>
+      <c r="C2687" s="2" t="s">
+        <v>2609</v>
+      </c>
+    </row>
+    <row r="2688" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2688" s="2" t="s">
+        <v>3572</v>
+      </c>
+      <c r="B2688" s="1">
+        <v>7.14</v>
+      </c>
+      <c r="C2688" s="2" t="s">
+        <v>2959</v>
+      </c>
+    </row>
+    <row r="2689" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2689" s="2" t="s">
+        <v>3573</v>
+      </c>
+      <c r="B2689" s="1">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="C2689" s="2" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="2690" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2690" s="2" t="s">
+        <v>3574</v>
+      </c>
+      <c r="B2690" s="1">
+        <v>7.07</v>
+      </c>
+      <c r="C2690" s="2" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="2691" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2691" s="2" t="s">
+        <v>3575</v>
+      </c>
+      <c r="B2691" s="1">
+        <v>8.41</v>
+      </c>
+      <c r="C2691" s="2" t="s">
+        <v>3001</v>
+      </c>
+    </row>
+    <row r="2692" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2692" s="2" t="s">
+        <v>3576</v>
+      </c>
+      <c r="B2692" s="1">
+        <v>7</v>
+      </c>
+      <c r="C2692" s="2" t="s">
+        <v>3577</v>
+      </c>
+    </row>
+    <row r="2693" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2693" s="2" t="s">
+        <v>3578</v>
+      </c>
+      <c r="B2693" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="C2693" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="2694" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2694" s="2" t="s">
+        <v>3579</v>
+      </c>
+      <c r="B2694" s="1">
+        <v>6</v>
+      </c>
+      <c r="C2694" s="2" t="s">
+        <v>2419</v>
+      </c>
+    </row>
+    <row r="2695" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2695" s="2" t="s">
+        <v>3580</v>
+      </c>
+      <c r="B2695" s="1">
+        <v>6.82</v>
+      </c>
+      <c r="C2695" s="2" t="s">
+        <v>3581</v>
+      </c>
+    </row>
+    <row r="2696" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2696" s="2" t="s">
+        <v>3582</v>
+      </c>
+      <c r="B2696" s="1">
+        <v>7.09</v>
+      </c>
+      <c r="C2696" s="2" t="s">
+        <v>3583</v>
+      </c>
+    </row>
+    <row r="2697" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2697" s="2" t="s">
+        <v>3584</v>
+      </c>
+      <c r="B2697" s="1">
+        <v>7</v>
+      </c>
+      <c r="C2697" s="2" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="2698" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2698" s="2" t="s">
+        <v>3585</v>
+      </c>
+      <c r="B2698" s="1">
+        <v>7.43</v>
+      </c>
+      <c r="C2698" s="2" t="s">
+        <v>3586</v>
+      </c>
+    </row>
+    <row r="2699" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2699" s="2" t="s">
+        <v>3587</v>
+      </c>
+      <c r="B2699" s="1">
+        <v>6</v>
+      </c>
+      <c r="C2699" s="2" t="s">
+        <v>3588</v>
+      </c>
+    </row>
+    <row r="2700" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2700" s="2" t="s">
+        <v>3589</v>
+      </c>
+      <c r="B2700" s="1">
+        <v>8</v>
+      </c>
+      <c r="C2700" s="2" t="s">
+        <v>3590</v>
+      </c>
+    </row>
+    <row r="2701" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2701" s="2" t="s">
+        <v>3591</v>
+      </c>
+      <c r="B2701" s="1">
+        <v>6</v>
+      </c>
+      <c r="C2701" s="2" t="s">
+        <v>1595</v>
+      </c>
+    </row>
+    <row r="2702" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2702" s="2" t="s">
+        <v>3592</v>
+      </c>
+      <c r="B2702" s="1">
+        <v>11.12</v>
+      </c>
+      <c r="C2702" s="2" t="s">
+        <v>3593</v>
+      </c>
+    </row>
+    <row r="2703" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2703" s="2" t="s">
+        <v>3594</v>
+      </c>
+      <c r="B2703" s="1">
+        <v>7.49</v>
+      </c>
+      <c r="C2703" s="2" t="s">
+        <v>3595</v>
+      </c>
+    </row>
+    <row r="2704" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2704" s="2" t="s">
+        <v>3596</v>
+      </c>
+      <c r="B2704" s="1">
+        <v>7.64</v>
+      </c>
+      <c r="C2704" s="2" t="s">
+        <v>3597</v>
+      </c>
+    </row>
+    <row r="2705" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2705" s="2" t="s">
+        <v>3598</v>
+      </c>
+      <c r="B2705" s="1">
+        <v>6.01</v>
+      </c>
+      <c r="C2705" s="2" t="s">
+        <v>3599</v>
+      </c>
+    </row>
+    <row r="2706" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2706" s="2" t="s">
+        <v>3600</v>
+      </c>
+      <c r="B2706" s="1">
+        <v>8.42</v>
+      </c>
+      <c r="C2706" s="2" t="s">
+        <v>3601</v>
+      </c>
+    </row>
+    <row r="2707" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2707" s="2" t="s">
+        <v>3602</v>
+      </c>
+      <c r="B2707" s="1">
+        <v>11.11</v>
+      </c>
+      <c r="C2707" s="2" t="s">
+        <v>3603</v>
+      </c>
+    </row>
+    <row r="2708" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2708" s="2" t="s">
+        <v>3604</v>
+      </c>
+      <c r="B2708" s="1">
+        <v>7.75</v>
+      </c>
+      <c r="C2708" s="2" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="2709" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2709" s="2" t="s">
+        <v>3605</v>
+      </c>
+      <c r="B2709" s="1">
+        <v>7.42</v>
+      </c>
+      <c r="C2709" s="2" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="2710" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2710" s="2" t="s">
+        <v>3606</v>
+      </c>
+      <c r="B2710" s="1">
+        <v>8.26</v>
+      </c>
+      <c r="C2710" s="2" t="s">
+        <v>3607</v>
+      </c>
+    </row>
+    <row r="2711" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2711" s="2" t="s">
+        <v>3608</v>
+      </c>
+      <c r="B2711" s="1">
+        <v>7</v>
+      </c>
+      <c r="C2711" s="2" t="s">
+        <v>3609</v>
+      </c>
+    </row>
+    <row r="2712" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2712" s="2" t="s">
+        <v>3610</v>
+      </c>
+      <c r="B2712" s="1">
+        <v>7.18</v>
+      </c>
+      <c r="C2712" s="2" t="s">
+        <v>3611</v>
+      </c>
+    </row>
+    <row r="2713" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2713" s="2" t="s">
+        <v>3612</v>
+      </c>
+      <c r="B2713" s="1">
+        <v>13.1</v>
+      </c>
+      <c r="C2713" s="2" t="s">
+        <v>3613</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>

--- a/Running_Log.xlsx
+++ b/Running_Log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/AlexDolwick/dolwick_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CE7FBFB-5C83-A345-A90C-D8AECC996029}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{673B31DD-58ED-A145-978B-137135C41DA4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1400" yWindow="460" windowWidth="25680" windowHeight="15920" xr2:uid="{4B2E00A5-7125-EC4E-9EAD-C4CEE86B127A}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4284" uniqueCount="3614">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4292" uniqueCount="3621">
   <si>
     <t>Date</t>
   </si>
@@ -10875,6 +10875,27 @@
   </si>
   <si>
     <t>1:25:30</t>
+  </si>
+  <si>
+    <t>2021-01-25</t>
+  </si>
+  <si>
+    <t>48:20</t>
+  </si>
+  <si>
+    <t>2021-01-26</t>
+  </si>
+  <si>
+    <t>2021-01-27</t>
+  </si>
+  <si>
+    <t>57:01</t>
+  </si>
+  <si>
+    <t>2021-01-28</t>
+  </si>
+  <si>
+    <t>1:03:26</t>
   </si>
 </sst>
 </file>
@@ -11248,10 +11269,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1BECE25-7878-7543-A5E4-1B4438F2AAC2}">
-  <dimension ref="A1:E2713"/>
+  <dimension ref="A1:E2717"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2685" workbookViewId="0">
-      <selection activeCell="C2714" sqref="C2714"/>
+    <sheetView tabSelected="1" topLeftCell="A2687" workbookViewId="0">
+      <selection activeCell="C2719" sqref="C2719"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -39341,6 +39362,50 @@
         <v>3613</v>
       </c>
     </row>
+    <row r="2714" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2714" s="2" t="s">
+        <v>3614</v>
+      </c>
+      <c r="B2714" s="1">
+        <v>6</v>
+      </c>
+      <c r="C2714" s="2" t="s">
+        <v>3615</v>
+      </c>
+    </row>
+    <row r="2715" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2715" s="2" t="s">
+        <v>3616</v>
+      </c>
+      <c r="B2715" s="1">
+        <v>9.41</v>
+      </c>
+      <c r="C2715" s="2" t="s">
+        <v>2939</v>
+      </c>
+    </row>
+    <row r="2716" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2716" s="2" t="s">
+        <v>3617</v>
+      </c>
+      <c r="B2716" s="1">
+        <v>7.43</v>
+      </c>
+      <c r="C2716" s="2" t="s">
+        <v>3618</v>
+      </c>
+    </row>
+    <row r="2717" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2717" s="2" t="s">
+        <v>3619</v>
+      </c>
+      <c r="B2717" s="1">
+        <v>8.44</v>
+      </c>
+      <c r="C2717" s="2" t="s">
+        <v>3620</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>

--- a/Running_Log.xlsx
+++ b/Running_Log.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/AlexDolwick/dolwick_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{673B31DD-58ED-A145-978B-137135C41DA4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9EE1A2A-DFD9-AC41-99A2-8B5D349B86E1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1400" yWindow="460" windowWidth="25680" windowHeight="15920" xr2:uid="{4B2E00A5-7125-EC4E-9EAD-C4CEE86B127A}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4292" uniqueCount="3621">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4370" uniqueCount="3681">
   <si>
     <t>Date</t>
   </si>
@@ -10896,6 +10896,186 @@
   </si>
   <si>
     <t>1:03:26</t>
+  </si>
+  <si>
+    <t>2021-01-29</t>
+  </si>
+  <si>
+    <t>2021-01-30</t>
+  </si>
+  <si>
+    <t>49:20</t>
+  </si>
+  <si>
+    <t>2021-01-31</t>
+  </si>
+  <si>
+    <t>1:49:17</t>
+  </si>
+  <si>
+    <t>2021-02-01</t>
+  </si>
+  <si>
+    <t>48:05</t>
+  </si>
+  <si>
+    <t>2021-02-02</t>
+  </si>
+  <si>
+    <t>55:20</t>
+  </si>
+  <si>
+    <t>59:08</t>
+  </si>
+  <si>
+    <t>2021-02-04</t>
+  </si>
+  <si>
+    <t>57:38</t>
+  </si>
+  <si>
+    <t>2021-02-05</t>
+  </si>
+  <si>
+    <t>2021-02-07</t>
+  </si>
+  <si>
+    <t>56:10</t>
+  </si>
+  <si>
+    <t>2021-02-08</t>
+  </si>
+  <si>
+    <t>2021-02-09</t>
+  </si>
+  <si>
+    <t>2021-02-16</t>
+  </si>
+  <si>
+    <t>2021-02-17</t>
+  </si>
+  <si>
+    <t>40:32</t>
+  </si>
+  <si>
+    <t>2021-02-19</t>
+  </si>
+  <si>
+    <t>33:08</t>
+  </si>
+  <si>
+    <t>2021-02-21</t>
+  </si>
+  <si>
+    <t>42:38</t>
+  </si>
+  <si>
+    <t>2021-02-22</t>
+  </si>
+  <si>
+    <t>38:52</t>
+  </si>
+  <si>
+    <t>2021-02-23</t>
+  </si>
+  <si>
+    <t>2021-02-24</t>
+  </si>
+  <si>
+    <t>43:25</t>
+  </si>
+  <si>
+    <t>2021-02-25</t>
+  </si>
+  <si>
+    <t>2021-02-26</t>
+  </si>
+  <si>
+    <t>2021-02-27</t>
+  </si>
+  <si>
+    <t>1:07:32</t>
+  </si>
+  <si>
+    <t>2021-03-01</t>
+  </si>
+  <si>
+    <t>2021-03-02</t>
+  </si>
+  <si>
+    <t>45:54</t>
+  </si>
+  <si>
+    <t>2021-03-03</t>
+  </si>
+  <si>
+    <t>2021-03-04</t>
+  </si>
+  <si>
+    <t>2021-03-05</t>
+  </si>
+  <si>
+    <t>40:42</t>
+  </si>
+  <si>
+    <t>2021-03-06</t>
+  </si>
+  <si>
+    <t>1:23:23</t>
+  </si>
+  <si>
+    <t>2021-03-09</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>23:55</t>
+  </si>
+  <si>
+    <t>2021-04-01</t>
+  </si>
+  <si>
+    <t>2021-04-04</t>
+  </si>
+  <si>
+    <t>2021-04-06</t>
+  </si>
+  <si>
+    <t>2021-04-08</t>
+  </si>
+  <si>
+    <t>37:37</t>
+  </si>
+  <si>
+    <t>2021-04-09</t>
+  </si>
+  <si>
+    <t>35:45</t>
+  </si>
+  <si>
+    <t>2021-04-10</t>
+  </si>
+  <si>
+    <t>2021-04-13</t>
+  </si>
+  <si>
+    <t>36:06</t>
+  </si>
+  <si>
+    <t>2021-04-14</t>
+  </si>
+  <si>
+    <t>2021-04-15</t>
+  </si>
+  <si>
+    <t>37:21</t>
+  </si>
+  <si>
+    <t>2021-04-16</t>
+  </si>
+  <si>
+    <t>36:22</t>
   </si>
 </sst>
 </file>
@@ -11269,10 +11449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1BECE25-7878-7543-A5E4-1B4438F2AAC2}">
-  <dimension ref="A1:E2717"/>
+  <dimension ref="A1:E2756"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2687" workbookViewId="0">
-      <selection activeCell="C2719" sqref="C2719"/>
+    <sheetView tabSelected="1" topLeftCell="A2723" workbookViewId="0">
+      <selection activeCell="A2757" sqref="A2757"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -39406,6 +39586,435 @@
         <v>3620</v>
       </c>
     </row>
+    <row r="2718" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2718" s="2" t="s">
+        <v>3621</v>
+      </c>
+      <c r="B2718" s="1">
+        <v>7</v>
+      </c>
+      <c r="C2718" s="2" t="s">
+        <v>1969</v>
+      </c>
+    </row>
+    <row r="2719" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2719" s="2" t="s">
+        <v>3622</v>
+      </c>
+      <c r="B2719" s="1">
+        <v>7</v>
+      </c>
+      <c r="C2719" s="2" t="s">
+        <v>3623</v>
+      </c>
+    </row>
+    <row r="2720" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2720" s="2" t="s">
+        <v>3624</v>
+      </c>
+      <c r="B2720" s="1">
+        <v>15.04</v>
+      </c>
+      <c r="C2720" s="2" t="s">
+        <v>3625</v>
+      </c>
+    </row>
+    <row r="2721" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2721" s="2" t="s">
+        <v>3626</v>
+      </c>
+      <c r="B2721" s="1">
+        <v>5.57</v>
+      </c>
+      <c r="C2721" s="2" t="s">
+        <v>3627</v>
+      </c>
+    </row>
+    <row r="2722" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2722" s="2" t="s">
+        <v>3626</v>
+      </c>
+      <c r="B2722" s="1">
+        <v>6.44</v>
+      </c>
+      <c r="C2722" s="2" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="2723" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2723" s="2" t="s">
+        <v>3628</v>
+      </c>
+      <c r="B2723" s="1">
+        <v>7.1</v>
+      </c>
+      <c r="C2723" s="2" t="s">
+        <v>3629</v>
+      </c>
+    </row>
+    <row r="2724" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2724" s="2" t="s">
+        <v>3631</v>
+      </c>
+      <c r="B2724" s="1">
+        <v>8.31</v>
+      </c>
+      <c r="C2724" s="2" t="s">
+        <v>3630</v>
+      </c>
+    </row>
+    <row r="2725" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2725" s="2" t="s">
+        <v>3633</v>
+      </c>
+      <c r="B2725" s="1">
+        <v>8.3800000000000008</v>
+      </c>
+      <c r="C2725" s="2" t="s">
+        <v>3632</v>
+      </c>
+    </row>
+    <row r="2726" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2726" s="2" t="s">
+        <v>3634</v>
+      </c>
+      <c r="B2726" s="1">
+        <v>8</v>
+      </c>
+      <c r="C2726" s="2" t="s">
+        <v>3635</v>
+      </c>
+    </row>
+    <row r="2727" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2727" s="2" t="s">
+        <v>3636</v>
+      </c>
+      <c r="B2727" s="1">
+        <v>7.01</v>
+      </c>
+      <c r="C2727" s="2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="2728" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2728" s="2" t="s">
+        <v>3637</v>
+      </c>
+      <c r="B2728" s="1">
+        <v>7.2</v>
+      </c>
+      <c r="C2728" s="2" t="s">
+        <v>1492</v>
+      </c>
+    </row>
+    <row r="2729" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2729" s="2" t="s">
+        <v>3638</v>
+      </c>
+      <c r="B2729" s="1">
+        <v>5.13</v>
+      </c>
+      <c r="C2729" s="2" t="s">
+        <v>1486</v>
+      </c>
+    </row>
+    <row r="2730" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2730" s="2" t="s">
+        <v>3639</v>
+      </c>
+      <c r="B2730" s="1">
+        <v>5.62</v>
+      </c>
+      <c r="C2730" s="2" t="s">
+        <v>3640</v>
+      </c>
+    </row>
+    <row r="2731" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2731" s="2" t="s">
+        <v>3641</v>
+      </c>
+      <c r="B2731" s="1">
+        <v>5.23</v>
+      </c>
+      <c r="C2731" s="2" t="s">
+        <v>3642</v>
+      </c>
+    </row>
+    <row r="2732" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2732" s="2" t="s">
+        <v>3643</v>
+      </c>
+      <c r="B2732" s="1">
+        <v>6.34</v>
+      </c>
+      <c r="C2732" s="2" t="s">
+        <v>3644</v>
+      </c>
+    </row>
+    <row r="2733" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2733" s="2" t="s">
+        <v>3645</v>
+      </c>
+      <c r="B2733" s="1">
+        <v>5.27</v>
+      </c>
+      <c r="C2733" s="2" t="s">
+        <v>3646</v>
+      </c>
+    </row>
+    <row r="2734" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2734" s="2" t="s">
+        <v>3647</v>
+      </c>
+      <c r="B2734" s="1">
+        <v>2.23</v>
+      </c>
+      <c r="C2734" s="2" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="2735" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2735" s="2" t="s">
+        <v>3648</v>
+      </c>
+      <c r="B2735" s="1">
+        <v>6.24</v>
+      </c>
+      <c r="C2735" s="2" t="s">
+        <v>3649</v>
+      </c>
+    </row>
+    <row r="2736" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2736" s="2" t="s">
+        <v>3650</v>
+      </c>
+      <c r="B2736" s="1">
+        <v>6.26</v>
+      </c>
+      <c r="C2736" s="2" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="2737" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2737" s="2" t="s">
+        <v>3651</v>
+      </c>
+      <c r="B2737" s="1">
+        <v>5.78</v>
+      </c>
+      <c r="C2737" s="2" t="s">
+        <v>2124</v>
+      </c>
+    </row>
+    <row r="2738" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2738" s="2" t="s">
+        <v>3652</v>
+      </c>
+      <c r="B2738" s="1">
+        <v>10</v>
+      </c>
+      <c r="C2738" s="2" t="s">
+        <v>3653</v>
+      </c>
+    </row>
+    <row r="2739" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2739" s="2" t="s">
+        <v>3654</v>
+      </c>
+      <c r="B2739" s="1">
+        <v>8.3699999999999992</v>
+      </c>
+      <c r="C2739" s="2" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="2740" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2740" s="2" t="s">
+        <v>3655</v>
+      </c>
+      <c r="B2740" s="1">
+        <v>6.3</v>
+      </c>
+      <c r="C2740" s="2" t="s">
+        <v>3656</v>
+      </c>
+    </row>
+    <row r="2741" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2741" s="2" t="s">
+        <v>3657</v>
+      </c>
+      <c r="B2741" s="1">
+        <v>9.0299999999999994</v>
+      </c>
+      <c r="C2741" s="2" t="s">
+        <v>1669</v>
+      </c>
+    </row>
+    <row r="2742" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2742" s="2" t="s">
+        <v>3658</v>
+      </c>
+      <c r="B2742" s="1">
+        <v>4.05</v>
+      </c>
+      <c r="C2742" s="2" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="2743" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2743" s="2" t="s">
+        <v>3659</v>
+      </c>
+      <c r="B2743" s="1">
+        <v>6.29</v>
+      </c>
+      <c r="C2743" s="2" t="s">
+        <v>3660</v>
+      </c>
+    </row>
+    <row r="2744" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2744" s="2" t="s">
+        <v>3661</v>
+      </c>
+      <c r="B2744" s="1">
+        <v>12.54</v>
+      </c>
+      <c r="C2744" s="2" t="s">
+        <v>3662</v>
+      </c>
+    </row>
+    <row r="2745" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2745" s="2" t="s">
+        <v>3663</v>
+      </c>
+      <c r="B2745" s="1">
+        <v>6.25</v>
+      </c>
+      <c r="C2745" s="2" t="s">
+        <v>3581</v>
+      </c>
+    </row>
+    <row r="2746" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2746" s="2" t="s">
+        <v>3664</v>
+      </c>
+      <c r="B2746" s="1">
+        <v>3.08</v>
+      </c>
+      <c r="C2746" s="2" t="s">
+        <v>3665</v>
+      </c>
+    </row>
+    <row r="2747" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2747" s="2" t="s">
+        <v>3666</v>
+      </c>
+      <c r="B2747" s="1">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="C2747" s="2" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="2748" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2748" s="2" t="s">
+        <v>3667</v>
+      </c>
+      <c r="B2748" s="1">
+        <v>4.41</v>
+      </c>
+      <c r="C2748" s="2" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="2749" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2749" s="2" t="s">
+        <v>3668</v>
+      </c>
+      <c r="B2749" s="1">
+        <v>5</v>
+      </c>
+      <c r="C2749" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="2750" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2750" s="2" t="s">
+        <v>3669</v>
+      </c>
+      <c r="B2750" s="1">
+        <v>5.13</v>
+      </c>
+      <c r="C2750" s="2" t="s">
+        <v>3670</v>
+      </c>
+    </row>
+    <row r="2751" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2751" s="2" t="s">
+        <v>3671</v>
+      </c>
+      <c r="B2751" s="1">
+        <v>5.12</v>
+      </c>
+      <c r="C2751" s="2" t="s">
+        <v>3672</v>
+      </c>
+    </row>
+    <row r="2752" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2752" s="2" t="s">
+        <v>3673</v>
+      </c>
+      <c r="B2752" s="1">
+        <v>5.2</v>
+      </c>
+      <c r="C2752" s="2" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="2753" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2753" s="2" t="s">
+        <v>3674</v>
+      </c>
+      <c r="B2753" s="1">
+        <v>5.08</v>
+      </c>
+      <c r="C2753" s="2" t="s">
+        <v>3675</v>
+      </c>
+    </row>
+    <row r="2754" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2754" s="2" t="s">
+        <v>3676</v>
+      </c>
+      <c r="B2754" s="1">
+        <v>5</v>
+      </c>
+      <c r="C2754" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2755" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2755" s="2" t="s">
+        <v>3677</v>
+      </c>
+      <c r="B2755" s="1">
+        <v>5.03</v>
+      </c>
+      <c r="C2755" s="2" t="s">
+        <v>3678</v>
+      </c>
+    </row>
+    <row r="2756" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2756" s="2" t="s">
+        <v>3679</v>
+      </c>
+      <c r="B2756" s="1">
+        <v>5.0199999999999996</v>
+      </c>
+      <c r="C2756" s="2" t="s">
+        <v>3680</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>

--- a/Running_Log.xlsx
+++ b/Running_Log.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/AlexDolwick/dolwick_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9EE1A2A-DFD9-AC41-99A2-8B5D349B86E1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0228D5B7-0C03-9344-AD78-7DF50AD643E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1400" yWindow="460" windowWidth="25680" windowHeight="15920" xr2:uid="{4B2E00A5-7125-EC4E-9EAD-C4CEE86B127A}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4370" uniqueCount="3681">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4540" uniqueCount="3818">
   <si>
     <t>Date</t>
   </si>
@@ -11076,6 +11076,417 @@
   </si>
   <si>
     <t>36:22</t>
+  </si>
+  <si>
+    <t>2021-04-17</t>
+  </si>
+  <si>
+    <t>2021-04-21</t>
+  </si>
+  <si>
+    <t>39:22</t>
+  </si>
+  <si>
+    <t>2021-04-22</t>
+  </si>
+  <si>
+    <t>2021-04-23</t>
+  </si>
+  <si>
+    <t>37:39</t>
+  </si>
+  <si>
+    <t>2021-04-24</t>
+  </si>
+  <si>
+    <t>2021-04-27</t>
+  </si>
+  <si>
+    <t>27:08</t>
+  </si>
+  <si>
+    <t>2021-04-28</t>
+  </si>
+  <si>
+    <t>2021-04-29</t>
+  </si>
+  <si>
+    <t>36:35</t>
+  </si>
+  <si>
+    <t>2021-04-30</t>
+  </si>
+  <si>
+    <t>2021-05-01</t>
+  </si>
+  <si>
+    <t>46:07</t>
+  </si>
+  <si>
+    <t>2021-05-04</t>
+  </si>
+  <si>
+    <t>35:01</t>
+  </si>
+  <si>
+    <t>2021-05-07</t>
+  </si>
+  <si>
+    <t>2021-05-08</t>
+  </si>
+  <si>
+    <t>39:44</t>
+  </si>
+  <si>
+    <t>2021-05-10</t>
+  </si>
+  <si>
+    <t>2021-05-11</t>
+  </si>
+  <si>
+    <t>2021-05-12</t>
+  </si>
+  <si>
+    <t>2021-05-14</t>
+  </si>
+  <si>
+    <t>26:11</t>
+  </si>
+  <si>
+    <t>2021-05-15</t>
+  </si>
+  <si>
+    <t>2021-05-17</t>
+  </si>
+  <si>
+    <t>49:01</t>
+  </si>
+  <si>
+    <t>2021-05-18</t>
+  </si>
+  <si>
+    <t>41:38</t>
+  </si>
+  <si>
+    <t>2021-05-19</t>
+  </si>
+  <si>
+    <t>51:30</t>
+  </si>
+  <si>
+    <t>2021-05-20</t>
+  </si>
+  <si>
+    <t>49:31</t>
+  </si>
+  <si>
+    <t>2021-05-21</t>
+  </si>
+  <si>
+    <t>38:34</t>
+  </si>
+  <si>
+    <t>2021-05-22</t>
+  </si>
+  <si>
+    <t>1:00:32</t>
+  </si>
+  <si>
+    <t>2021-05-25</t>
+  </si>
+  <si>
+    <t>48:37</t>
+  </si>
+  <si>
+    <t>2021-05-26</t>
+  </si>
+  <si>
+    <t>57:52</t>
+  </si>
+  <si>
+    <t>2021-05-27</t>
+  </si>
+  <si>
+    <t>2021-05-28</t>
+  </si>
+  <si>
+    <t>37:54</t>
+  </si>
+  <si>
+    <t>2021-05-31</t>
+  </si>
+  <si>
+    <t>42:23</t>
+  </si>
+  <si>
+    <t>2021-06-03</t>
+  </si>
+  <si>
+    <t>2021-06-04</t>
+  </si>
+  <si>
+    <t>2021-06-05</t>
+  </si>
+  <si>
+    <t>2021-06-08</t>
+  </si>
+  <si>
+    <t>43:13</t>
+  </si>
+  <si>
+    <t>2021-06-09</t>
+  </si>
+  <si>
+    <t>48:47</t>
+  </si>
+  <si>
+    <t>2021-06-10</t>
+  </si>
+  <si>
+    <t>56:34</t>
+  </si>
+  <si>
+    <t>2021-06-11</t>
+  </si>
+  <si>
+    <t>2021-06-12</t>
+  </si>
+  <si>
+    <t>1:02:01</t>
+  </si>
+  <si>
+    <t>2021-06-14</t>
+  </si>
+  <si>
+    <t>42:37</t>
+  </si>
+  <si>
+    <t>2021-06-15</t>
+  </si>
+  <si>
+    <t>54:37</t>
+  </si>
+  <si>
+    <t>2021-06-16</t>
+  </si>
+  <si>
+    <t>1:01:46</t>
+  </si>
+  <si>
+    <t>2021-06-17</t>
+  </si>
+  <si>
+    <t>2021-06-18</t>
+  </si>
+  <si>
+    <t>41:51</t>
+  </si>
+  <si>
+    <t>2021-06-19</t>
+  </si>
+  <si>
+    <t>1:11:39</t>
+  </si>
+  <si>
+    <t>2021-06-21</t>
+  </si>
+  <si>
+    <t>2021-06-22</t>
+  </si>
+  <si>
+    <t>2021-06-23</t>
+  </si>
+  <si>
+    <t>47:09</t>
+  </si>
+  <si>
+    <t>2021-06-24</t>
+  </si>
+  <si>
+    <t>1:22:42</t>
+  </si>
+  <si>
+    <t>2021-06-26</t>
+  </si>
+  <si>
+    <t>52:03</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-07-01</t>
+  </si>
+  <si>
+    <t>2021-07-02</t>
+  </si>
+  <si>
+    <t>2021-07-03</t>
+  </si>
+  <si>
+    <t>2021-07-04</t>
+  </si>
+  <si>
+    <t>36:49</t>
+  </si>
+  <si>
+    <t>2021-07-05</t>
+  </si>
+  <si>
+    <t>2021-07-06</t>
+  </si>
+  <si>
+    <t>40:08</t>
+  </si>
+  <si>
+    <t>2021-07-08</t>
+  </si>
+  <si>
+    <t>50:14</t>
+  </si>
+  <si>
+    <t>2021-07-09</t>
+  </si>
+  <si>
+    <t>48:57</t>
+  </si>
+  <si>
+    <t>2021-07-10</t>
+  </si>
+  <si>
+    <t>2021-07-13</t>
+  </si>
+  <si>
+    <t>2021-07-14</t>
+  </si>
+  <si>
+    <t>2021-07-15</t>
+  </si>
+  <si>
+    <t>2021-07-16</t>
+  </si>
+  <si>
+    <t>2021-07-17</t>
+  </si>
+  <si>
+    <t>51:41</t>
+  </si>
+  <si>
+    <t>2021-07-19</t>
+  </si>
+  <si>
+    <t>1:05:49</t>
+  </si>
+  <si>
+    <t>2021-07-20</t>
+  </si>
+  <si>
+    <t>2021-07-21</t>
+  </si>
+  <si>
+    <t>51:32</t>
+  </si>
+  <si>
+    <t>2021-07-22</t>
+  </si>
+  <si>
+    <t>2021-07-23</t>
+  </si>
+  <si>
+    <t>2021-07-24</t>
+  </si>
+  <si>
+    <t>1:32:08</t>
+  </si>
+  <si>
+    <t>2021-07-26</t>
+  </si>
+  <si>
+    <t>1:03:36</t>
+  </si>
+  <si>
+    <t>2021-07-27</t>
+  </si>
+  <si>
+    <t>1:12:03</t>
+  </si>
+  <si>
+    <t>2021-07-29</t>
+  </si>
+  <si>
+    <t>2021-07-30</t>
+  </si>
+  <si>
+    <t>2021-07-31</t>
+  </si>
+  <si>
+    <t>30:20</t>
+  </si>
+  <si>
+    <t>2021-08-02</t>
+  </si>
+  <si>
+    <t>43:22</t>
+  </si>
+  <si>
+    <t>2021-08-04</t>
+  </si>
+  <si>
+    <t>43:26</t>
+  </si>
+  <si>
+    <t>2021-08-05</t>
+  </si>
+  <si>
+    <t>41:37</t>
+  </si>
+  <si>
+    <t>2021-08-06</t>
+  </si>
+  <si>
+    <t>8:51</t>
+  </si>
+  <si>
+    <t>2021-08-08</t>
+  </si>
+  <si>
+    <t>1:08:52</t>
+  </si>
+  <si>
+    <t>2021-08-10</t>
+  </si>
+  <si>
+    <t>45:36</t>
+  </si>
+  <si>
+    <t>2021-08-11</t>
+  </si>
+  <si>
+    <t>49:39</t>
+  </si>
+  <si>
+    <t>2021-08-12</t>
+  </si>
+  <si>
+    <t>50:59</t>
+  </si>
+  <si>
+    <t>2021-08-14</t>
+  </si>
+  <si>
+    <t>28:18</t>
+  </si>
+  <si>
+    <t>2021-08-16</t>
+  </si>
+  <si>
+    <t>41:27</t>
+  </si>
+  <si>
+    <t>2021-08-17</t>
+  </si>
+  <si>
+    <t>1:00:33</t>
   </si>
 </sst>
 </file>
@@ -11449,10 +11860,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1BECE25-7878-7543-A5E4-1B4438F2AAC2}">
-  <dimension ref="A1:E2756"/>
+  <dimension ref="A1:E2842"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2723" workbookViewId="0">
-      <selection activeCell="A2757" sqref="A2757"/>
+    <sheetView tabSelected="1" topLeftCell="A2820" workbookViewId="0">
+      <selection activeCell="C2843" sqref="C2843"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -40015,6 +40426,946 @@
         <v>3680</v>
       </c>
     </row>
+    <row r="2757" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2757" s="2" t="s">
+        <v>3681</v>
+      </c>
+      <c r="B2757" s="1">
+        <v>5</v>
+      </c>
+      <c r="C2757" s="2" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="2758" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2758" s="2" t="s">
+        <v>3682</v>
+      </c>
+      <c r="B2758" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="C2758" s="2" t="s">
+        <v>3683</v>
+      </c>
+    </row>
+    <row r="2759" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2759" s="2" t="s">
+        <v>3684</v>
+      </c>
+      <c r="B2759" s="1">
+        <v>5</v>
+      </c>
+      <c r="C2759" s="2" t="s">
+        <v>3247</v>
+      </c>
+    </row>
+    <row r="2760" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2760" s="2" t="s">
+        <v>3685</v>
+      </c>
+      <c r="B2760" s="1">
+        <v>5.43</v>
+      </c>
+      <c r="C2760" s="2" t="s">
+        <v>3686</v>
+      </c>
+    </row>
+    <row r="2761" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2761" s="2" t="s">
+        <v>3687</v>
+      </c>
+      <c r="B2761" s="1">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="C2761" s="2" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="2762" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2762" s="2" t="s">
+        <v>3688</v>
+      </c>
+      <c r="B2762" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="C2762" s="2" t="s">
+        <v>3689</v>
+      </c>
+    </row>
+    <row r="2763" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2763" s="2" t="s">
+        <v>3690</v>
+      </c>
+      <c r="B2763" s="1">
+        <v>5</v>
+      </c>
+      <c r="C2763" s="2" t="s">
+        <v>3324</v>
+      </c>
+    </row>
+    <row r="2764" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2764" s="2" t="s">
+        <v>3691</v>
+      </c>
+      <c r="B2764" s="1">
+        <v>5.23</v>
+      </c>
+      <c r="C2764" s="2" t="s">
+        <v>3692</v>
+      </c>
+    </row>
+    <row r="2765" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2765" s="2" t="s">
+        <v>3693</v>
+      </c>
+      <c r="B2765" s="1">
+        <v>5.07</v>
+      </c>
+      <c r="C2765" s="2" t="s">
+        <v>3369</v>
+      </c>
+    </row>
+    <row r="2766" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2766" s="2" t="s">
+        <v>3694</v>
+      </c>
+      <c r="B2766" s="1">
+        <v>6.42</v>
+      </c>
+      <c r="C2766" s="2" t="s">
+        <v>3695</v>
+      </c>
+    </row>
+    <row r="2767" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2767" s="2" t="s">
+        <v>3696</v>
+      </c>
+      <c r="B2767" s="1">
+        <v>5.07</v>
+      </c>
+      <c r="C2767" s="2" t="s">
+        <v>3697</v>
+      </c>
+    </row>
+    <row r="2768" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2768" s="2" t="s">
+        <v>3698</v>
+      </c>
+      <c r="B2768" s="1">
+        <v>5</v>
+      </c>
+      <c r="C2768" s="2" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="2769" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2769" s="2" t="s">
+        <v>3699</v>
+      </c>
+      <c r="B2769" s="1">
+        <v>6.13</v>
+      </c>
+      <c r="C2769" s="2" t="s">
+        <v>3700</v>
+      </c>
+    </row>
+    <row r="2770" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2770" s="2" t="s">
+        <v>3701</v>
+      </c>
+      <c r="B2770" s="1">
+        <v>7.14</v>
+      </c>
+      <c r="C2770" s="2" t="s">
+        <v>3581</v>
+      </c>
+    </row>
+    <row r="2771" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2771" s="2" t="s">
+        <v>3702</v>
+      </c>
+      <c r="B2771" s="1">
+        <v>6.61</v>
+      </c>
+      <c r="C2771" s="2" t="s">
+        <v>1807</v>
+      </c>
+    </row>
+    <row r="2772" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2772" s="2" t="s">
+        <v>3703</v>
+      </c>
+      <c r="B2772" s="1">
+        <v>7.05</v>
+      </c>
+    </row>
+    <row r="2773" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2773" s="2" t="s">
+        <v>3704</v>
+      </c>
+      <c r="B2773" s="1">
+        <v>4.13</v>
+      </c>
+      <c r="C2773" s="2" t="s">
+        <v>3705</v>
+      </c>
+    </row>
+    <row r="2774" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2774" s="2" t="s">
+        <v>3706</v>
+      </c>
+      <c r="B2774" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="C2774" s="2" t="s">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="2775" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2775" s="2" t="s">
+        <v>3707</v>
+      </c>
+      <c r="B2775" s="1">
+        <v>7.03</v>
+      </c>
+      <c r="C2775" s="2" t="s">
+        <v>3708</v>
+      </c>
+    </row>
+    <row r="2776" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2776" s="2" t="s">
+        <v>3709</v>
+      </c>
+      <c r="B2776" s="1">
+        <v>6</v>
+      </c>
+      <c r="C2776" s="2" t="s">
+        <v>3710</v>
+      </c>
+    </row>
+    <row r="2777" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2777" s="2" t="s">
+        <v>3711</v>
+      </c>
+      <c r="B2777" s="1">
+        <v>7.28</v>
+      </c>
+      <c r="C2777" s="2" t="s">
+        <v>3712</v>
+      </c>
+    </row>
+    <row r="2778" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2778" s="2" t="s">
+        <v>3713</v>
+      </c>
+      <c r="B2778" s="1">
+        <v>7.13</v>
+      </c>
+      <c r="C2778" s="2" t="s">
+        <v>3714</v>
+      </c>
+    </row>
+    <row r="2779" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2779" s="2" t="s">
+        <v>3715</v>
+      </c>
+      <c r="B2779" s="1">
+        <v>5.19</v>
+      </c>
+      <c r="C2779" s="2" t="s">
+        <v>3716</v>
+      </c>
+    </row>
+    <row r="2780" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2780" s="2" t="s">
+        <v>3717</v>
+      </c>
+      <c r="B2780" s="1">
+        <v>8.7799999999999994</v>
+      </c>
+      <c r="C2780" s="2" t="s">
+        <v>3718</v>
+      </c>
+    </row>
+    <row r="2781" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2781" s="2" t="s">
+        <v>3719</v>
+      </c>
+      <c r="B2781" s="1">
+        <v>7.19</v>
+      </c>
+      <c r="C2781" s="2" t="s">
+        <v>3720</v>
+      </c>
+    </row>
+    <row r="2782" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2782" s="2" t="s">
+        <v>3721</v>
+      </c>
+      <c r="B2782" s="1">
+        <v>8.2100000000000009</v>
+      </c>
+      <c r="C2782" s="2" t="s">
+        <v>3722</v>
+      </c>
+    </row>
+    <row r="2783" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2783" s="2" t="s">
+        <v>3723</v>
+      </c>
+      <c r="B2783" s="1">
+        <v>5</v>
+      </c>
+      <c r="C2783" s="2" t="s">
+        <v>3675</v>
+      </c>
+    </row>
+    <row r="2784" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2784" s="2" t="s">
+        <v>3724</v>
+      </c>
+      <c r="B2784" s="1">
+        <v>5.21</v>
+      </c>
+      <c r="C2784" s="2" t="s">
+        <v>3725</v>
+      </c>
+    </row>
+    <row r="2785" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2785" s="2" t="s">
+        <v>3726</v>
+      </c>
+      <c r="B2785" s="1">
+        <v>5.55</v>
+      </c>
+      <c r="C2785" s="2" t="s">
+        <v>3727</v>
+      </c>
+    </row>
+    <row r="2786" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2786" s="2" t="s">
+        <v>3728</v>
+      </c>
+      <c r="B2786" s="1">
+        <v>6</v>
+      </c>
+      <c r="C2786" s="2" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="2787" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2787" s="2" t="s">
+        <v>3729</v>
+      </c>
+      <c r="B2787" s="1">
+        <v>7.05</v>
+      </c>
+      <c r="C2787" s="2" t="s">
+        <v>2690</v>
+      </c>
+    </row>
+    <row r="2788" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2788" s="2" t="s">
+        <v>3730</v>
+      </c>
+      <c r="B2788" s="1">
+        <v>8</v>
+      </c>
+      <c r="C2788" s="2" t="s">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="2789" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2789" s="2" t="s">
+        <v>3731</v>
+      </c>
+      <c r="B2789" s="1">
+        <v>6</v>
+      </c>
+      <c r="C2789" s="2" t="s">
+        <v>3732</v>
+      </c>
+    </row>
+    <row r="2790" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2790" s="2" t="s">
+        <v>3733</v>
+      </c>
+      <c r="B2790" s="1">
+        <v>7</v>
+      </c>
+      <c r="C2790" s="2" t="s">
+        <v>3734</v>
+      </c>
+    </row>
+    <row r="2791" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2791" s="2" t="s">
+        <v>3735</v>
+      </c>
+      <c r="B2791" s="1">
+        <v>8.0299999999999994</v>
+      </c>
+      <c r="C2791" s="2" t="s">
+        <v>3736</v>
+      </c>
+    </row>
+    <row r="2792" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2792" s="2" t="s">
+        <v>3737</v>
+      </c>
+      <c r="B2792" s="1">
+        <v>6</v>
+      </c>
+      <c r="C2792" s="2" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="2793" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2793" s="2" t="s">
+        <v>3738</v>
+      </c>
+      <c r="B2793" s="1">
+        <v>9.0399999999999991</v>
+      </c>
+      <c r="C2793" s="2" t="s">
+        <v>3739</v>
+      </c>
+    </row>
+    <row r="2794" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2794" s="2" t="s">
+        <v>3740</v>
+      </c>
+      <c r="B2794" s="1">
+        <v>6.06</v>
+      </c>
+      <c r="C2794" s="2" t="s">
+        <v>3741</v>
+      </c>
+    </row>
+    <row r="2795" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2795" s="2" t="s">
+        <v>3742</v>
+      </c>
+      <c r="B2795" s="1">
+        <v>8</v>
+      </c>
+      <c r="C2795" s="2" t="s">
+        <v>3743</v>
+      </c>
+    </row>
+    <row r="2796" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2796" s="2" t="s">
+        <v>3744</v>
+      </c>
+      <c r="B2796" s="1">
+        <v>9.14</v>
+      </c>
+      <c r="C2796" s="2" t="s">
+        <v>3745</v>
+      </c>
+    </row>
+    <row r="2797" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2797" s="2" t="s">
+        <v>3746</v>
+      </c>
+      <c r="B2797" s="1">
+        <v>6.06</v>
+      </c>
+      <c r="C2797" s="2" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="2798" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2798" s="2" t="s">
+        <v>3747</v>
+      </c>
+      <c r="B2798" s="1">
+        <v>6.09</v>
+      </c>
+      <c r="C2798" s="2" t="s">
+        <v>3748</v>
+      </c>
+    </row>
+    <row r="2799" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2799" s="2" t="s">
+        <v>3749</v>
+      </c>
+      <c r="B2799" s="1">
+        <v>10</v>
+      </c>
+      <c r="C2799" s="2" t="s">
+        <v>3750</v>
+      </c>
+    </row>
+    <row r="2800" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2800" s="2" t="s">
+        <v>3751</v>
+      </c>
+      <c r="B2800" s="1">
+        <v>6.25</v>
+      </c>
+      <c r="C2800" s="2" t="s">
+        <v>3104</v>
+      </c>
+    </row>
+    <row r="2801" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2801" s="2" t="s">
+        <v>3752</v>
+      </c>
+      <c r="B2801" s="1">
+        <v>9.25</v>
+      </c>
+      <c r="C2801" s="2" t="s">
+        <v>3590</v>
+      </c>
+    </row>
+    <row r="2802" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2802" s="2" t="s">
+        <v>3753</v>
+      </c>
+      <c r="B2802" s="1">
+        <v>6.52</v>
+      </c>
+      <c r="C2802" s="2" t="s">
+        <v>3754</v>
+      </c>
+    </row>
+    <row r="2803" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2803" s="2" t="s">
+        <v>3755</v>
+      </c>
+      <c r="B2803" s="1">
+        <v>11.11</v>
+      </c>
+      <c r="C2803" s="2" t="s">
+        <v>3756</v>
+      </c>
+    </row>
+    <row r="2804" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2804" s="2" t="s">
+        <v>3757</v>
+      </c>
+      <c r="B2804" s="1">
+        <v>7.35</v>
+      </c>
+      <c r="C2804" s="2" t="s">
+        <v>3758</v>
+      </c>
+    </row>
+    <row r="2805" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2805" s="2" t="s">
+        <v>3759</v>
+      </c>
+      <c r="B2805" s="1">
+        <v>5</v>
+      </c>
+      <c r="C2805" s="2" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="2806" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2806" s="2" t="s">
+        <v>3760</v>
+      </c>
+      <c r="B2806" s="1">
+        <v>7</v>
+      </c>
+      <c r="C2806" s="2" t="s">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="2807" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2807" s="2" t="s">
+        <v>3761</v>
+      </c>
+      <c r="B2807" s="1">
+        <v>10.07</v>
+      </c>
+      <c r="C2807" s="2" t="s">
+        <v>3130</v>
+      </c>
+    </row>
+    <row r="2808" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2808" s="2" t="s">
+        <v>3762</v>
+      </c>
+      <c r="B2808" s="1">
+        <v>8.01</v>
+      </c>
+      <c r="C2808" s="2" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="2809" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2809" s="2" t="s">
+        <v>3763</v>
+      </c>
+      <c r="B2809" s="1">
+        <v>5</v>
+      </c>
+      <c r="C2809" s="2" t="s">
+        <v>3764</v>
+      </c>
+    </row>
+    <row r="2810" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2810" s="2" t="s">
+        <v>3765</v>
+      </c>
+      <c r="B2810" s="1">
+        <v>5.23</v>
+      </c>
+      <c r="C2810" s="2" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="2811" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2811" s="2" t="s">
+        <v>3766</v>
+      </c>
+      <c r="B2811" s="1">
+        <v>6.46</v>
+      </c>
+      <c r="C2811" s="2" t="s">
+        <v>3767</v>
+      </c>
+    </row>
+    <row r="2812" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2812" s="2" t="s">
+        <v>3768</v>
+      </c>
+      <c r="B2812" s="1">
+        <v>7.43</v>
+      </c>
+      <c r="C2812" s="2" t="s">
+        <v>3769</v>
+      </c>
+    </row>
+    <row r="2813" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2813" s="2" t="s">
+        <v>3770</v>
+      </c>
+      <c r="B2813" s="1">
+        <v>7.03</v>
+      </c>
+      <c r="C2813" s="2" t="s">
+        <v>3771</v>
+      </c>
+    </row>
+    <row r="2814" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2814" s="2" t="s">
+        <v>3772</v>
+      </c>
+      <c r="B2814" s="1">
+        <v>12.42</v>
+      </c>
+      <c r="C2814" s="2" t="s">
+        <v>2620</v>
+      </c>
+    </row>
+    <row r="2815" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2815" s="2" t="s">
+        <v>3773</v>
+      </c>
+      <c r="B2815" s="1">
+        <v>3</v>
+      </c>
+      <c r="C2815" s="2" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="2816" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2816" s="2" t="s">
+        <v>3774</v>
+      </c>
+      <c r="B2816" s="1">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="C2816" s="2" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="2817" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2817" s="2" t="s">
+        <v>3775</v>
+      </c>
+      <c r="B2817" s="1">
+        <v>6.03</v>
+      </c>
+      <c r="C2817" s="2" t="s">
+        <v>3562</v>
+      </c>
+    </row>
+    <row r="2818" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2818" s="2" t="s">
+        <v>3776</v>
+      </c>
+      <c r="B2818" s="1">
+        <v>8</v>
+      </c>
+      <c r="C2818" s="2" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="2819" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2819" s="2" t="s">
+        <v>3777</v>
+      </c>
+      <c r="B2819" s="1">
+        <v>7.04</v>
+      </c>
+      <c r="C2819" s="2" t="s">
+        <v>3778</v>
+      </c>
+    </row>
+    <row r="2820" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2820" s="2" t="s">
+        <v>3779</v>
+      </c>
+      <c r="B2820" s="1">
+        <v>9.25</v>
+      </c>
+      <c r="C2820" s="2" t="s">
+        <v>3780</v>
+      </c>
+    </row>
+    <row r="2821" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2821" s="2" t="s">
+        <v>3781</v>
+      </c>
+      <c r="B2821" s="1">
+        <v>6</v>
+      </c>
+      <c r="C2821" s="2" t="s">
+        <v>1634</v>
+      </c>
+    </row>
+    <row r="2822" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2822" s="2" t="s">
+        <v>3782</v>
+      </c>
+      <c r="B2822" s="1">
+        <v>7</v>
+      </c>
+      <c r="C2822" s="2" t="s">
+        <v>3783</v>
+      </c>
+    </row>
+    <row r="2823" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2823" s="2" t="s">
+        <v>3784</v>
+      </c>
+      <c r="B2823" s="1">
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="C2823" s="2" t="s">
+        <v>2956</v>
+      </c>
+    </row>
+    <row r="2824" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2824" s="2" t="s">
+        <v>3785</v>
+      </c>
+      <c r="B2824" s="1">
+        <v>7.26</v>
+      </c>
+      <c r="C2824" s="2" t="s">
+        <v>3365</v>
+      </c>
+    </row>
+    <row r="2825" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2825" s="2" t="s">
+        <v>3786</v>
+      </c>
+      <c r="B2825" s="1">
+        <v>13.1</v>
+      </c>
+      <c r="C2825" s="2" t="s">
+        <v>3787</v>
+      </c>
+    </row>
+    <row r="2826" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2826" s="2" t="s">
+        <v>3788</v>
+      </c>
+      <c r="B2826" s="1">
+        <v>8.07</v>
+      </c>
+      <c r="C2826" s="2" t="s">
+        <v>3789</v>
+      </c>
+    </row>
+    <row r="2827" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2827" s="2" t="s">
+        <v>3790</v>
+      </c>
+      <c r="B2827" s="1">
+        <v>10</v>
+      </c>
+      <c r="C2827" s="2" t="s">
+        <v>3791</v>
+      </c>
+    </row>
+    <row r="2828" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2828" s="2" t="s">
+        <v>3792</v>
+      </c>
+      <c r="B2828" s="1">
+        <v>9.14</v>
+      </c>
+      <c r="C2828" s="2" t="s">
+        <v>3789</v>
+      </c>
+    </row>
+    <row r="2829" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2829" s="2" t="s">
+        <v>3793</v>
+      </c>
+      <c r="B2829" s="1">
+        <v>7</v>
+      </c>
+      <c r="C2829" s="2" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="2830" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2830" s="2" t="s">
+        <v>3794</v>
+      </c>
+      <c r="B2830" s="1">
+        <v>4.01</v>
+      </c>
+      <c r="C2830" s="2" t="s">
+        <v>3795</v>
+      </c>
+    </row>
+    <row r="2831" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2831" s="2" t="s">
+        <v>3796</v>
+      </c>
+      <c r="B2831" s="1">
+        <v>6.36</v>
+      </c>
+      <c r="C2831" s="2" t="s">
+        <v>3797</v>
+      </c>
+    </row>
+    <row r="2832" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2832" s="2" t="s">
+        <v>3798</v>
+      </c>
+      <c r="B2832" s="1">
+        <v>6.13</v>
+      </c>
+      <c r="C2832" s="2" t="s">
+        <v>3799</v>
+      </c>
+    </row>
+    <row r="2833" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2833" s="2" t="s">
+        <v>3800</v>
+      </c>
+      <c r="B2833" s="1">
+        <v>6</v>
+      </c>
+      <c r="C2833" s="2" t="s">
+        <v>3801</v>
+      </c>
+    </row>
+    <row r="2834" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2834" s="2" t="s">
+        <v>3802</v>
+      </c>
+      <c r="B2834" s="1">
+        <v>1.58</v>
+      </c>
+      <c r="C2834" s="2" t="s">
+        <v>3803</v>
+      </c>
+    </row>
+    <row r="2835" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2835" s="2" t="s">
+        <v>3802</v>
+      </c>
+      <c r="B2835" s="1">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="2836" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2836" s="2" t="s">
+        <v>3804</v>
+      </c>
+      <c r="B2836" s="1">
+        <v>10</v>
+      </c>
+      <c r="C2836" s="2" t="s">
+        <v>3805</v>
+      </c>
+    </row>
+    <row r="2837" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2837" s="2" t="s">
+        <v>3806</v>
+      </c>
+      <c r="B2837" s="1">
+        <v>7</v>
+      </c>
+      <c r="C2837" s="2" t="s">
+        <v>3807</v>
+      </c>
+    </row>
+    <row r="2838" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2838" s="2" t="s">
+        <v>3808</v>
+      </c>
+      <c r="B2838" s="1">
+        <v>7.18</v>
+      </c>
+      <c r="C2838" s="2" t="s">
+        <v>3809</v>
+      </c>
+    </row>
+    <row r="2839" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2839" s="2" t="s">
+        <v>3810</v>
+      </c>
+      <c r="B2839" s="1">
+        <v>7.04</v>
+      </c>
+      <c r="C2839" s="2" t="s">
+        <v>3811</v>
+      </c>
+    </row>
+    <row r="2840" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2840" s="2" t="s">
+        <v>3812</v>
+      </c>
+      <c r="B2840" s="1">
+        <v>4</v>
+      </c>
+      <c r="C2840" s="2" t="s">
+        <v>3813</v>
+      </c>
+    </row>
+    <row r="2841" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2841" s="2" t="s">
+        <v>3814</v>
+      </c>
+      <c r="B2841" s="1">
+        <v>6</v>
+      </c>
+      <c r="C2841" s="2" t="s">
+        <v>3815</v>
+      </c>
+    </row>
+    <row r="2842" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2842" s="2" t="s">
+        <v>3816</v>
+      </c>
+      <c r="B2842" s="1">
+        <v>9.07</v>
+      </c>
+      <c r="C2842" s="2" t="s">
+        <v>3817</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>

--- a/Running_Log.xlsx
+++ b/Running_Log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/AlexDolwick/dolwick_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0228D5B7-0C03-9344-AD78-7DF50AD643E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38D773CA-71B7-7640-823B-372066532687}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1400" yWindow="460" windowWidth="25680" windowHeight="15920" xr2:uid="{4B2E00A5-7125-EC4E-9EAD-C4CEE86B127A}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4540" uniqueCount="3818">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4572" uniqueCount="3844">
   <si>
     <t>Date</t>
   </si>
@@ -11487,6 +11487,84 @@
   </si>
   <si>
     <t>1:00:33</t>
+  </si>
+  <si>
+    <t>2021-08-18</t>
+  </si>
+  <si>
+    <t>2021-08-19</t>
+  </si>
+  <si>
+    <t>45:08</t>
+  </si>
+  <si>
+    <t>2021-08-20</t>
+  </si>
+  <si>
+    <t>2021-08-21</t>
+  </si>
+  <si>
+    <t>1:21:41</t>
+  </si>
+  <si>
+    <t>2021-08-24</t>
+  </si>
+  <si>
+    <t>54:43</t>
+  </si>
+  <si>
+    <t>2021-08-25</t>
+  </si>
+  <si>
+    <t>2021-08-26</t>
+  </si>
+  <si>
+    <t>2021-08-27</t>
+  </si>
+  <si>
+    <t>1:07:18</t>
+  </si>
+  <si>
+    <t>2021-08-28</t>
+  </si>
+  <si>
+    <t>1:31:38</t>
+  </si>
+  <si>
+    <t>2021-08-30</t>
+  </si>
+  <si>
+    <t>1:07:55</t>
+  </si>
+  <si>
+    <t>2021-08-31</t>
+  </si>
+  <si>
+    <t>42:53</t>
+  </si>
+  <si>
+    <t>2021-09-01</t>
+  </si>
+  <si>
+    <t>2021-09-02</t>
+  </si>
+  <si>
+    <t>42:15</t>
+  </si>
+  <si>
+    <t>2021-09-03</t>
+  </si>
+  <si>
+    <t>2021-09-04</t>
+  </si>
+  <si>
+    <t>1:30:02</t>
+  </si>
+  <si>
+    <t>2021-09-06</t>
+  </si>
+  <si>
+    <t>1:12:50</t>
   </si>
 </sst>
 </file>
@@ -11860,10 +11938,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1BECE25-7878-7543-A5E4-1B4438F2AAC2}">
-  <dimension ref="A1:E2842"/>
+  <dimension ref="A1:E2858"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2820" workbookViewId="0">
-      <selection activeCell="C2843" sqref="C2843"/>
+    <sheetView tabSelected="1" topLeftCell="A2841" workbookViewId="0">
+      <selection activeCell="B2861" sqref="B2861"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -41366,6 +41444,182 @@
         <v>3817</v>
       </c>
     </row>
+    <row r="2843" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2843" s="2" t="s">
+        <v>3818</v>
+      </c>
+      <c r="B2843" s="1">
+        <v>6.01</v>
+      </c>
+      <c r="C2843" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2844" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2844" s="2" t="s">
+        <v>3819</v>
+      </c>
+      <c r="B2844" s="1">
+        <v>6</v>
+      </c>
+      <c r="C2844" s="2" t="s">
+        <v>3820</v>
+      </c>
+    </row>
+    <row r="2845" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2845" s="2" t="s">
+        <v>3821</v>
+      </c>
+      <c r="B2845" s="1">
+        <v>8.4600000000000009</v>
+      </c>
+      <c r="C2845" s="2" t="s">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="2846" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2846" s="2" t="s">
+        <v>3822</v>
+      </c>
+      <c r="B2846" s="1">
+        <v>12.09</v>
+      </c>
+      <c r="C2846" s="2" t="s">
+        <v>3823</v>
+      </c>
+    </row>
+    <row r="2847" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2847" s="2" t="s">
+        <v>3824</v>
+      </c>
+      <c r="B2847" s="1">
+        <v>8</v>
+      </c>
+      <c r="C2847" s="2" t="s">
+        <v>3825</v>
+      </c>
+    </row>
+    <row r="2848" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2848" s="2" t="s">
+        <v>3826</v>
+      </c>
+      <c r="B2848" s="1">
+        <v>9.07</v>
+      </c>
+      <c r="C2848" s="2" t="s">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="2849" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2849" s="2" t="s">
+        <v>3827</v>
+      </c>
+      <c r="B2849" s="1">
+        <v>6.32</v>
+      </c>
+      <c r="C2849" s="2" t="s">
+        <v>3153</v>
+      </c>
+    </row>
+    <row r="2850" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2850" s="2" t="s">
+        <v>3828</v>
+      </c>
+      <c r="B2850" s="1">
+        <v>9.0399999999999991</v>
+      </c>
+      <c r="C2850" s="2" t="s">
+        <v>3829</v>
+      </c>
+    </row>
+    <row r="2851" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2851" s="2" t="s">
+        <v>3830</v>
+      </c>
+      <c r="B2851" s="1">
+        <v>13.11</v>
+      </c>
+      <c r="C2851" s="2" t="s">
+        <v>3831</v>
+      </c>
+    </row>
+    <row r="2852" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2852" s="2" t="s">
+        <v>3832</v>
+      </c>
+      <c r="B2852" s="1">
+        <v>10</v>
+      </c>
+      <c r="C2852" s="2" t="s">
+        <v>3833</v>
+      </c>
+    </row>
+    <row r="2853" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2853" s="2" t="s">
+        <v>3834</v>
+      </c>
+      <c r="B2853" s="1">
+        <v>6.01</v>
+      </c>
+      <c r="C2853" s="2" t="s">
+        <v>3835</v>
+      </c>
+    </row>
+    <row r="2854" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2854" s="2" t="s">
+        <v>3836</v>
+      </c>
+      <c r="B2854" s="1">
+        <v>9.1</v>
+      </c>
+      <c r="C2854" s="2" t="s">
+        <v>2246</v>
+      </c>
+    </row>
+    <row r="2855" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2855" s="2" t="s">
+        <v>3837</v>
+      </c>
+      <c r="B2855" s="1">
+        <v>6</v>
+      </c>
+      <c r="C2855" s="2" t="s">
+        <v>3838</v>
+      </c>
+    </row>
+    <row r="2856" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2856" s="2" t="s">
+        <v>3839</v>
+      </c>
+      <c r="B2856" s="1">
+        <v>6.04</v>
+      </c>
+      <c r="C2856" s="2" t="s">
+        <v>2197</v>
+      </c>
+    </row>
+    <row r="2857" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2857" s="2" t="s">
+        <v>3840</v>
+      </c>
+      <c r="B2857" s="1">
+        <v>14</v>
+      </c>
+      <c r="C2857" s="2" t="s">
+        <v>3841</v>
+      </c>
+    </row>
+    <row r="2858" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2858" s="2" t="s">
+        <v>3842</v>
+      </c>
+      <c r="B2858" s="1">
+        <v>10</v>
+      </c>
+      <c r="C2858" s="2" t="s">
+        <v>3843</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>

--- a/Running_Log.xlsx
+++ b/Running_Log.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/AlexDolwick/dolwick_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38D773CA-71B7-7640-823B-372066532687}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D494D2E-FBBF-0D47-8353-2B6A6DC13AD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1400" yWindow="460" windowWidth="25680" windowHeight="15920" xr2:uid="{4B2E00A5-7125-EC4E-9EAD-C4CEE86B127A}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4572" uniqueCount="3844">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4612" uniqueCount="3875">
   <si>
     <t>Date</t>
   </si>
@@ -11565,6 +11565,99 @@
   </si>
   <si>
     <t>1:12:50</t>
+  </si>
+  <si>
+    <t>2021-09-07</t>
+  </si>
+  <si>
+    <t>2021-09-08</t>
+  </si>
+  <si>
+    <t>1:08:54</t>
+  </si>
+  <si>
+    <t>2021-09-09</t>
+  </si>
+  <si>
+    <t>47:10</t>
+  </si>
+  <si>
+    <t>2021-09-10</t>
+  </si>
+  <si>
+    <t>2021-09-11</t>
+  </si>
+  <si>
+    <t>16:28</t>
+  </si>
+  <si>
+    <t>2021-09-13</t>
+  </si>
+  <si>
+    <t>1:08:43</t>
+  </si>
+  <si>
+    <t>2021-09-14</t>
+  </si>
+  <si>
+    <t>47:33</t>
+  </si>
+  <si>
+    <t>2021-09-15</t>
+  </si>
+  <si>
+    <t>1:06:32</t>
+  </si>
+  <si>
+    <t>2021-09-16</t>
+  </si>
+  <si>
+    <t>2021-09-17</t>
+  </si>
+  <si>
+    <t>2021-09-18</t>
+  </si>
+  <si>
+    <t>1:01:50</t>
+  </si>
+  <si>
+    <t>2021-09-19</t>
+  </si>
+  <si>
+    <t>1:26:20</t>
+  </si>
+  <si>
+    <t>2021-09-21</t>
+  </si>
+  <si>
+    <t>2021-09-24</t>
+  </si>
+  <si>
+    <t>44:25</t>
+  </si>
+  <si>
+    <t>2021-09-26</t>
+  </si>
+  <si>
+    <t>2021-09-27</t>
+  </si>
+  <si>
+    <t>27:09</t>
+  </si>
+  <si>
+    <t>2021-09-29</t>
+  </si>
+  <si>
+    <t>41:22</t>
+  </si>
+  <si>
+    <t>2021-10-01</t>
+  </si>
+  <si>
+    <t>2021-10-02</t>
+  </si>
+  <si>
+    <t>1:16:48</t>
   </si>
 </sst>
 </file>
@@ -11938,10 +12031,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1BECE25-7878-7543-A5E4-1B4438F2AAC2}">
-  <dimension ref="A1:E2858"/>
+  <dimension ref="A1:E2879"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2841" workbookViewId="0">
-      <selection activeCell="B2861" sqref="B2861"/>
+    <sheetView tabSelected="1" topLeftCell="A2850" workbookViewId="0">
+      <selection activeCell="F2855" sqref="F2855"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -41620,6 +41713,231 @@
         <v>3843</v>
       </c>
     </row>
+    <row r="2859" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2859" s="2" t="s">
+        <v>3844</v>
+      </c>
+      <c r="B2859" s="1">
+        <v>8</v>
+      </c>
+      <c r="C2859" s="2" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="2860" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2860" s="2" t="s">
+        <v>3845</v>
+      </c>
+      <c r="B2860" s="1">
+        <v>10</v>
+      </c>
+      <c r="C2860" s="2" t="s">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="2861" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2861" s="2" t="s">
+        <v>3847</v>
+      </c>
+      <c r="B2861" s="1">
+        <v>6</v>
+      </c>
+      <c r="C2861" s="2" t="s">
+        <v>3848</v>
+      </c>
+    </row>
+    <row r="2862" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2862" s="2" t="s">
+        <v>3849</v>
+      </c>
+      <c r="B2862" s="1">
+        <v>7.83</v>
+      </c>
+      <c r="C2862" s="2" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="2863" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2863" s="2" t="s">
+        <v>3850</v>
+      </c>
+      <c r="B2863" s="1">
+        <v>3.11</v>
+      </c>
+      <c r="C2863" s="2" t="s">
+        <v>3851</v>
+      </c>
+    </row>
+    <row r="2864" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2864" s="2" t="s">
+        <v>3850</v>
+      </c>
+      <c r="B2864" s="1">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="2865" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2865" s="2" t="s">
+        <v>3852</v>
+      </c>
+      <c r="B2865" s="1">
+        <v>10.050000000000001</v>
+      </c>
+      <c r="C2865" s="2" t="s">
+        <v>3853</v>
+      </c>
+    </row>
+    <row r="2866" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2866" s="2" t="s">
+        <v>3854</v>
+      </c>
+      <c r="B2866" s="1">
+        <v>6</v>
+      </c>
+      <c r="C2866" s="2" t="s">
+        <v>3855</v>
+      </c>
+    </row>
+    <row r="2867" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2867" s="2" t="s">
+        <v>3856</v>
+      </c>
+      <c r="B2867" s="1">
+        <v>10</v>
+      </c>
+      <c r="C2867" s="2" t="s">
+        <v>3857</v>
+      </c>
+    </row>
+    <row r="2868" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2868" s="2" t="s">
+        <v>3858</v>
+      </c>
+      <c r="B2868" s="1">
+        <v>6.02</v>
+      </c>
+      <c r="C2868" s="2" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="2869" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2869" s="2" t="s">
+        <v>3859</v>
+      </c>
+      <c r="B2869" s="1">
+        <v>4.01</v>
+      </c>
+      <c r="C2869" s="2" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="2870" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2870" s="2" t="s">
+        <v>3860</v>
+      </c>
+      <c r="B2870" s="1">
+        <v>8.0399999999999991</v>
+      </c>
+      <c r="C2870" s="2" t="s">
+        <v>3861</v>
+      </c>
+    </row>
+    <row r="2871" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2871" s="2" t="s">
+        <v>3862</v>
+      </c>
+      <c r="B2871" s="1">
+        <v>13.1</v>
+      </c>
+      <c r="C2871" s="2" t="s">
+        <v>3863</v>
+      </c>
+    </row>
+    <row r="2872" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2872" s="2" t="s">
+        <v>3864</v>
+      </c>
+      <c r="B2872" s="1">
+        <v>5.7</v>
+      </c>
+      <c r="C2872" s="2" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="2873" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2873" s="2" t="s">
+        <v>3865</v>
+      </c>
+      <c r="B2873" s="1">
+        <v>6.34</v>
+      </c>
+      <c r="C2873" s="2" t="s">
+        <v>3866</v>
+      </c>
+    </row>
+    <row r="2874" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2874" s="2" t="s">
+        <v>3867</v>
+      </c>
+      <c r="B2874" s="1">
+        <v>7.03</v>
+      </c>
+      <c r="C2874" s="2" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="2875" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2875" s="2" t="s">
+        <v>3868</v>
+      </c>
+      <c r="B2875" s="1">
+        <v>4.04</v>
+      </c>
+      <c r="C2875" s="2" t="s">
+        <v>3869</v>
+      </c>
+    </row>
+    <row r="2876" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2876" s="2" t="s">
+        <v>3870</v>
+      </c>
+      <c r="B2876" s="1">
+        <v>6</v>
+      </c>
+      <c r="C2876" s="2" t="s">
+        <v>3871</v>
+      </c>
+    </row>
+    <row r="2877" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2877" s="2" t="s">
+        <v>3872</v>
+      </c>
+      <c r="B2877" s="1">
+        <v>4.01</v>
+      </c>
+      <c r="C2877" s="2" t="s">
+        <v>2288</v>
+      </c>
+    </row>
+    <row r="2878" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2878" s="2" t="s">
+        <v>3873</v>
+      </c>
+      <c r="B2878" s="1">
+        <v>13.11</v>
+      </c>
+      <c r="C2878" s="2" t="s">
+        <v>3874</v>
+      </c>
+    </row>
+    <row r="2879" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2879" s="2" t="s">
+        <v>3873</v>
+      </c>
+      <c r="B2879" s="1">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>

--- a/Running_Log.xlsx
+++ b/Running_Log.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/AlexDolwick/dolwick_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D494D2E-FBBF-0D47-8353-2B6A6DC13AD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D09C1E4-CE13-144A-9833-55E3E1BA547E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1400" yWindow="460" windowWidth="25680" windowHeight="15920" xr2:uid="{4B2E00A5-7125-EC4E-9EAD-C4CEE86B127A}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4612" uniqueCount="3875">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4620" uniqueCount="3882">
   <si>
     <t>Date</t>
   </si>
@@ -11658,6 +11658,27 @@
   </si>
   <si>
     <t>1:16:48</t>
+  </si>
+  <si>
+    <t>2021-10-17</t>
+  </si>
+  <si>
+    <t>26:42</t>
+  </si>
+  <si>
+    <t>2021-10-19</t>
+  </si>
+  <si>
+    <t>37:52</t>
+  </si>
+  <si>
+    <t>2021-10-21</t>
+  </si>
+  <si>
+    <t>2021-10-22</t>
+  </si>
+  <si>
+    <t>30:55</t>
   </si>
 </sst>
 </file>
@@ -12031,10 +12052,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1BECE25-7878-7543-A5E4-1B4438F2AAC2}">
-  <dimension ref="A1:E2879"/>
+  <dimension ref="A1:E2883"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2850" workbookViewId="0">
-      <selection activeCell="F2855" sqref="F2855"/>
+    <sheetView tabSelected="1" topLeftCell="A2856" workbookViewId="0">
+      <selection activeCell="C2884" sqref="C2884"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -41938,6 +41959,50 @@
         <v>3</v>
       </c>
     </row>
+    <row r="2880" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2880" s="2" t="s">
+        <v>3875</v>
+      </c>
+      <c r="B2880" s="1">
+        <v>3.76</v>
+      </c>
+      <c r="C2880" s="2" t="s">
+        <v>3876</v>
+      </c>
+    </row>
+    <row r="2881" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2881" s="2" t="s">
+        <v>3877</v>
+      </c>
+      <c r="B2881" s="1">
+        <v>5.2</v>
+      </c>
+      <c r="C2881" s="2" t="s">
+        <v>3878</v>
+      </c>
+    </row>
+    <row r="2882" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2882" s="2" t="s">
+        <v>3879</v>
+      </c>
+      <c r="B2882" s="1">
+        <v>6.3</v>
+      </c>
+      <c r="C2882" s="2" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="2883" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2883" s="2" t="s">
+        <v>3880</v>
+      </c>
+      <c r="B2883" s="1">
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="C2883" s="2" t="s">
+        <v>3881</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>

--- a/Running_Log.xlsx
+++ b/Running_Log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/AlexDolwick/dolwick_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D09C1E4-CE13-144A-9833-55E3E1BA547E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CBD1BDB-318B-8542-AB7A-E76A6CC8AAF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1400" yWindow="460" windowWidth="25680" windowHeight="15920" xr2:uid="{4B2E00A5-7125-EC4E-9EAD-C4CEE86B127A}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4620" uniqueCount="3882">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4624" uniqueCount="3886">
   <si>
     <t>Date</t>
   </si>
@@ -10508,9 +10508,6 @@
     <t>2020-10-14</t>
   </si>
   <si>
-    <t>2020-10-13</t>
-  </si>
-  <si>
     <t>42:16</t>
   </si>
   <si>
@@ -11679,6 +11676,21 @@
   </si>
   <si>
     <t>30:55</t>
+  </si>
+  <si>
+    <t>2021-10-23</t>
+  </si>
+  <si>
+    <t>53:42</t>
+  </si>
+  <si>
+    <t>2021-10-25</t>
+  </si>
+  <si>
+    <t>40:54</t>
+  </si>
+  <si>
+    <t>2020-10-12</t>
   </si>
 </sst>
 </file>
@@ -12052,10 +12064,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1BECE25-7878-7543-A5E4-1B4438F2AAC2}">
-  <dimension ref="A1:E2883"/>
+  <dimension ref="A1:E2885"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2856" workbookViewId="0">
-      <selection activeCell="C2884" sqref="C2884"/>
+    <sheetView tabSelected="1" topLeftCell="A1897" workbookViewId="0">
+      <selection activeCell="D1918" sqref="D1918"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -32179,7 +32191,7 @@
         <v>2518</v>
       </c>
       <c r="B1915" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C1915" s="2" t="s">
         <v>1982</v>
@@ -39303,13 +39315,13 @@
     </row>
     <row r="2637" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2637" s="2" t="s">
-        <v>3491</v>
+        <v>3885</v>
       </c>
       <c r="B2637" s="1">
         <v>5.25</v>
       </c>
       <c r="C2637" s="2" t="s">
-        <v>3492</v>
+        <v>3491</v>
       </c>
     </row>
     <row r="2638" spans="1:3" x14ac:dyDescent="0.2">
@@ -39320,12 +39332,12 @@
         <v>10.17</v>
       </c>
       <c r="C2638" s="2" t="s">
-        <v>3493</v>
+        <v>3492</v>
       </c>
     </row>
     <row r="2639" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2639" s="2" t="s">
-        <v>3494</v>
+        <v>3493</v>
       </c>
       <c r="B2639" s="1">
         <v>5.13</v>
@@ -39336,7 +39348,7 @@
     </row>
     <row r="2640" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2640" s="2" t="s">
-        <v>3494</v>
+        <v>3493</v>
       </c>
       <c r="B2640" s="1">
         <v>5.01</v>
@@ -39347,29 +39359,29 @@
     </row>
     <row r="2641" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2641" s="2" t="s">
-        <v>3495</v>
+        <v>3494</v>
       </c>
       <c r="B2641" s="1">
         <v>10.06</v>
       </c>
       <c r="C2641" s="2" t="s">
-        <v>3496</v>
+        <v>3495</v>
       </c>
     </row>
     <row r="2642" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2642" s="2" t="s">
-        <v>3497</v>
+        <v>3496</v>
       </c>
       <c r="B2642" s="1">
         <v>15.37</v>
       </c>
       <c r="C2642" s="2" t="s">
-        <v>3498</v>
+        <v>3497</v>
       </c>
     </row>
     <row r="2643" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2643" s="2" t="s">
-        <v>3499</v>
+        <v>3498</v>
       </c>
       <c r="B2643" s="1">
         <v>8.81</v>
@@ -39380,18 +39392,18 @@
     </row>
     <row r="2644" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2644" s="2" t="s">
-        <v>3500</v>
+        <v>3499</v>
       </c>
       <c r="B2644" s="1">
         <v>8.0399999999999991</v>
       </c>
       <c r="C2644" s="2" t="s">
-        <v>3501</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="2645" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2645" s="2" t="s">
-        <v>3502</v>
+        <v>3501</v>
       </c>
       <c r="B2645" s="1">
         <v>8.34</v>
@@ -39402,18 +39414,18 @@
     </row>
     <row r="2646" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2646" s="2" t="s">
-        <v>3503</v>
+        <v>3502</v>
       </c>
       <c r="B2646" s="1">
         <v>6.55</v>
       </c>
       <c r="C2646" s="2" t="s">
-        <v>3504</v>
+        <v>3503</v>
       </c>
     </row>
     <row r="2647" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2647" s="2" t="s">
-        <v>3505</v>
+        <v>3504</v>
       </c>
       <c r="B2647" s="1">
         <v>8.07</v>
@@ -39424,7 +39436,7 @@
     </row>
     <row r="2648" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2648" s="2" t="s">
-        <v>3506</v>
+        <v>3505</v>
       </c>
       <c r="B2648" s="1">
         <v>7.24</v>
@@ -39435,18 +39447,18 @@
     </row>
     <row r="2649" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2649" s="2" t="s">
-        <v>3507</v>
+        <v>3506</v>
       </c>
       <c r="B2649" s="1">
         <v>10.34</v>
       </c>
       <c r="C2649" s="2" t="s">
-        <v>3508</v>
+        <v>3507</v>
       </c>
     </row>
     <row r="2650" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2650" s="2" t="s">
-        <v>3509</v>
+        <v>3508</v>
       </c>
       <c r="B2650" s="1">
         <v>9.69</v>
@@ -39457,18 +39469,18 @@
     </row>
     <row r="2651" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2651" s="2" t="s">
-        <v>3510</v>
+        <v>3509</v>
       </c>
       <c r="B2651" s="1">
         <v>9.66</v>
       </c>
       <c r="C2651" s="2" t="s">
-        <v>3511</v>
+        <v>3510</v>
       </c>
     </row>
     <row r="2652" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2652" s="2" t="s">
-        <v>3512</v>
+        <v>3511</v>
       </c>
       <c r="B2652" s="1">
         <v>6.62</v>
@@ -39479,40 +39491,40 @@
     </row>
     <row r="2653" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2653" s="2" t="s">
-        <v>3513</v>
+        <v>3512</v>
       </c>
       <c r="B2653" s="1">
         <v>15.13</v>
       </c>
       <c r="C2653" s="2" t="s">
-        <v>3514</v>
+        <v>3513</v>
       </c>
     </row>
     <row r="2654" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2654" s="2" t="s">
-        <v>3515</v>
+        <v>3514</v>
       </c>
       <c r="B2654" s="1">
         <v>10.029999999999999</v>
       </c>
       <c r="C2654" s="2" t="s">
-        <v>3516</v>
+        <v>3515</v>
       </c>
     </row>
     <row r="2655" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2655" s="2" t="s">
-        <v>3517</v>
+        <v>3516</v>
       </c>
       <c r="B2655" s="1">
         <v>10.37</v>
       </c>
       <c r="C2655" s="2" t="s">
-        <v>3518</v>
+        <v>3517</v>
       </c>
     </row>
     <row r="2656" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2656" s="2" t="s">
-        <v>3519</v>
+        <v>3518</v>
       </c>
       <c r="B2656" s="1">
         <v>7.6</v>
@@ -39523,73 +39535,73 @@
     </row>
     <row r="2657" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2657" s="2" t="s">
-        <v>3520</v>
+        <v>3519</v>
       </c>
       <c r="B2657" s="1">
         <v>8.02</v>
       </c>
       <c r="C2657" s="2" t="s">
-        <v>3521</v>
+        <v>3520</v>
       </c>
     </row>
     <row r="2658" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2658" s="2" t="s">
-        <v>3522</v>
+        <v>3521</v>
       </c>
       <c r="B2658" s="1">
         <v>9.2799999999999994</v>
       </c>
       <c r="C2658" s="2" t="s">
-        <v>3523</v>
+        <v>3522</v>
       </c>
     </row>
     <row r="2659" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2659" s="2" t="s">
-        <v>3524</v>
+        <v>3523</v>
       </c>
       <c r="B2659" s="1">
         <v>9.7200000000000006</v>
       </c>
       <c r="C2659" s="2" t="s">
-        <v>3525</v>
+        <v>3524</v>
       </c>
     </row>
     <row r="2660" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2660" s="2" t="s">
-        <v>3526</v>
+        <v>3525</v>
       </c>
       <c r="B2660" s="1">
         <v>16.3</v>
       </c>
       <c r="C2660" s="2" t="s">
-        <v>3527</v>
+        <v>3526</v>
       </c>
     </row>
     <row r="2661" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2661" s="2" t="s">
-        <v>3528</v>
+        <v>3527</v>
       </c>
       <c r="B2661" s="1">
         <v>8.24</v>
       </c>
       <c r="C2661" s="2" t="s">
-        <v>3529</v>
+        <v>3528</v>
       </c>
     </row>
     <row r="2662" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2662" s="2" t="s">
-        <v>3530</v>
+        <v>3529</v>
       </c>
       <c r="B2662" s="1">
         <v>11.03</v>
       </c>
       <c r="C2662" s="2" t="s">
-        <v>3531</v>
+        <v>3530</v>
       </c>
     </row>
     <row r="2663" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2663" s="2" t="s">
-        <v>3532</v>
+        <v>3531</v>
       </c>
       <c r="B2663" s="1">
         <v>11.01</v>
@@ -39600,51 +39612,51 @@
     </row>
     <row r="2664" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2664" s="2" t="s">
-        <v>3533</v>
+        <v>3532</v>
       </c>
       <c r="B2664" s="1">
         <v>6.5</v>
       </c>
       <c r="C2664" s="2" t="s">
-        <v>3534</v>
+        <v>3533</v>
       </c>
     </row>
     <row r="2665" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2665" s="2" t="s">
-        <v>3535</v>
+        <v>3534</v>
       </c>
       <c r="B2665" s="1">
         <v>13.51</v>
       </c>
       <c r="C2665" s="2" t="s">
-        <v>3536</v>
+        <v>3535</v>
       </c>
     </row>
     <row r="2666" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2666" s="2" t="s">
-        <v>3537</v>
+        <v>3536</v>
       </c>
       <c r="B2666" s="1">
         <v>6.01</v>
       </c>
       <c r="C2666" s="2" t="s">
-        <v>3538</v>
+        <v>3537</v>
       </c>
     </row>
     <row r="2667" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2667" s="2" t="s">
-        <v>3539</v>
+        <v>3538</v>
       </c>
       <c r="B2667" s="1">
         <v>10.51</v>
       </c>
       <c r="C2667" s="2" t="s">
-        <v>3540</v>
+        <v>3539</v>
       </c>
     </row>
     <row r="2668" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2668" s="2" t="s">
-        <v>3541</v>
+        <v>3540</v>
       </c>
       <c r="B2668" s="1">
         <v>10</v>
@@ -39655,7 +39667,7 @@
     </row>
     <row r="2669" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2669" s="2" t="s">
-        <v>3542</v>
+        <v>3541</v>
       </c>
       <c r="B2669" s="1">
         <v>6.65</v>
@@ -39666,7 +39678,7 @@
     </row>
     <row r="2670" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2670" s="2" t="s">
-        <v>3543</v>
+        <v>3542</v>
       </c>
       <c r="B2670" s="1">
         <v>10</v>
@@ -39677,62 +39689,62 @@
     </row>
     <row r="2671" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2671" s="2" t="s">
-        <v>3544</v>
+        <v>3543</v>
       </c>
       <c r="B2671" s="1">
         <v>17</v>
       </c>
       <c r="C2671" s="2" t="s">
-        <v>3545</v>
+        <v>3544</v>
       </c>
     </row>
     <row r="2672" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2672" s="2" t="s">
-        <v>3546</v>
+        <v>3545</v>
       </c>
       <c r="B2672" s="1">
         <v>6</v>
       </c>
       <c r="C2672" s="2" t="s">
-        <v>3547</v>
+        <v>3546</v>
       </c>
     </row>
     <row r="2673" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2673" s="2" t="s">
-        <v>3548</v>
+        <v>3547</v>
       </c>
       <c r="B2673" s="1">
         <v>9.27</v>
       </c>
       <c r="C2673" s="2" t="s">
-        <v>3549</v>
+        <v>3548</v>
       </c>
     </row>
     <row r="2674" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2674" s="2" t="s">
-        <v>3550</v>
+        <v>3549</v>
       </c>
       <c r="B2674" s="1">
         <v>6</v>
       </c>
       <c r="C2674" s="2" t="s">
-        <v>3551</v>
+        <v>3550</v>
       </c>
     </row>
     <row r="2675" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2675" s="2" t="s">
-        <v>3552</v>
+        <v>3551</v>
       </c>
       <c r="B2675" s="1">
         <v>7.32</v>
       </c>
       <c r="C2675" s="2" t="s">
-        <v>3553</v>
+        <v>3552</v>
       </c>
     </row>
     <row r="2676" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2676" s="2" t="s">
-        <v>3554</v>
+        <v>3553</v>
       </c>
       <c r="B2676" s="1">
         <v>6</v>
@@ -39743,73 +39755,73 @@
     </row>
     <row r="2677" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2677" s="2" t="s">
-        <v>3555</v>
+        <v>3554</v>
       </c>
       <c r="B2677" s="1">
         <v>7.52</v>
       </c>
       <c r="C2677" s="2" t="s">
-        <v>3556</v>
+        <v>3555</v>
       </c>
     </row>
     <row r="2678" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2678" s="2" t="s">
-        <v>3557</v>
+        <v>3556</v>
       </c>
       <c r="B2678" s="1">
         <v>7.34</v>
       </c>
       <c r="C2678" s="2" t="s">
-        <v>3558</v>
+        <v>3557</v>
       </c>
     </row>
     <row r="2679" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2679" s="2" t="s">
-        <v>3559</v>
+        <v>3558</v>
       </c>
       <c r="B2679" s="1">
         <v>6.13</v>
       </c>
       <c r="C2679" s="2" t="s">
-        <v>3560</v>
+        <v>3559</v>
       </c>
     </row>
     <row r="2680" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2680" s="2" t="s">
-        <v>3561</v>
+        <v>3560</v>
       </c>
       <c r="B2680" s="1">
         <v>6.29</v>
       </c>
       <c r="C2680" s="2" t="s">
-        <v>3562</v>
+        <v>3561</v>
       </c>
     </row>
     <row r="2681" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2681" s="2" t="s">
-        <v>3563</v>
+        <v>3562</v>
       </c>
       <c r="B2681" s="1">
         <v>7.59</v>
       </c>
       <c r="C2681" s="2" t="s">
-        <v>3564</v>
+        <v>3563</v>
       </c>
     </row>
     <row r="2682" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2682" s="2" t="s">
-        <v>3565</v>
+        <v>3564</v>
       </c>
       <c r="B2682" s="1">
         <v>7.4</v>
       </c>
       <c r="C2682" s="2" t="s">
-        <v>3566</v>
+        <v>3565</v>
       </c>
     </row>
     <row r="2683" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2683" s="2" t="s">
-        <v>3567</v>
+        <v>3566</v>
       </c>
       <c r="B2683" s="1">
         <v>6.01</v>
@@ -39820,7 +39832,7 @@
     </row>
     <row r="2684" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2684" s="2" t="s">
-        <v>3568</v>
+        <v>3567</v>
       </c>
       <c r="B2684" s="1">
         <v>2.68</v>
@@ -39831,7 +39843,7 @@
     </row>
     <row r="2685" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2685" s="2" t="s">
-        <v>3569</v>
+        <v>3568</v>
       </c>
       <c r="B2685" s="1">
         <v>2.84</v>
@@ -39839,7 +39851,7 @@
     </row>
     <row r="2686" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2686" s="2" t="s">
-        <v>3570</v>
+        <v>3569</v>
       </c>
       <c r="B2686" s="1">
         <v>5.69</v>
@@ -39850,7 +39862,7 @@
     </row>
     <row r="2687" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2687" s="2" t="s">
-        <v>3571</v>
+        <v>3570</v>
       </c>
       <c r="B2687" s="1">
         <v>5</v>
@@ -39861,7 +39873,7 @@
     </row>
     <row r="2688" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2688" s="2" t="s">
-        <v>3572</v>
+        <v>3571</v>
       </c>
       <c r="B2688" s="1">
         <v>7.14</v>
@@ -39872,7 +39884,7 @@
     </row>
     <row r="2689" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2689" s="2" t="s">
-        <v>3573</v>
+        <v>3572</v>
       </c>
       <c r="B2689" s="1">
         <v>4.6500000000000004</v>
@@ -39883,7 +39895,7 @@
     </row>
     <row r="2690" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2690" s="2" t="s">
-        <v>3574</v>
+        <v>3573</v>
       </c>
       <c r="B2690" s="1">
         <v>7.07</v>
@@ -39894,7 +39906,7 @@
     </row>
     <row r="2691" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2691" s="2" t="s">
-        <v>3575</v>
+        <v>3574</v>
       </c>
       <c r="B2691" s="1">
         <v>8.41</v>
@@ -39905,18 +39917,18 @@
     </row>
     <row r="2692" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2692" s="2" t="s">
-        <v>3576</v>
+        <v>3575</v>
       </c>
       <c r="B2692" s="1">
         <v>7</v>
       </c>
       <c r="C2692" s="2" t="s">
-        <v>3577</v>
+        <v>3576</v>
       </c>
     </row>
     <row r="2693" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2693" s="2" t="s">
-        <v>3578</v>
+        <v>3577</v>
       </c>
       <c r="B2693" s="1">
         <v>7.5</v>
@@ -39927,7 +39939,7 @@
     </row>
     <row r="2694" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2694" s="2" t="s">
-        <v>3579</v>
+        <v>3578</v>
       </c>
       <c r="B2694" s="1">
         <v>6</v>
@@ -39938,29 +39950,29 @@
     </row>
     <row r="2695" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2695" s="2" t="s">
-        <v>3580</v>
+        <v>3579</v>
       </c>
       <c r="B2695" s="1">
         <v>6.82</v>
       </c>
       <c r="C2695" s="2" t="s">
-        <v>3581</v>
+        <v>3580</v>
       </c>
     </row>
     <row r="2696" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2696" s="2" t="s">
-        <v>3582</v>
+        <v>3581</v>
       </c>
       <c r="B2696" s="1">
         <v>7.09</v>
       </c>
       <c r="C2696" s="2" t="s">
-        <v>3583</v>
+        <v>3582</v>
       </c>
     </row>
     <row r="2697" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2697" s="2" t="s">
-        <v>3584</v>
+        <v>3583</v>
       </c>
       <c r="B2697" s="1">
         <v>7</v>
@@ -39971,40 +39983,40 @@
     </row>
     <row r="2698" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2698" s="2" t="s">
-        <v>3585</v>
+        <v>3584</v>
       </c>
       <c r="B2698" s="1">
         <v>7.43</v>
       </c>
       <c r="C2698" s="2" t="s">
-        <v>3586</v>
+        <v>3585</v>
       </c>
     </row>
     <row r="2699" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2699" s="2" t="s">
-        <v>3587</v>
+        <v>3586</v>
       </c>
       <c r="B2699" s="1">
         <v>6</v>
       </c>
       <c r="C2699" s="2" t="s">
-        <v>3588</v>
+        <v>3587</v>
       </c>
     </row>
     <row r="2700" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2700" s="2" t="s">
-        <v>3589</v>
+        <v>3588</v>
       </c>
       <c r="B2700" s="1">
         <v>8</v>
       </c>
       <c r="C2700" s="2" t="s">
-        <v>3590</v>
+        <v>3589</v>
       </c>
     </row>
     <row r="2701" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2701" s="2" t="s">
-        <v>3591</v>
+        <v>3590</v>
       </c>
       <c r="B2701" s="1">
         <v>6</v>
@@ -40015,73 +40027,73 @@
     </row>
     <row r="2702" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2702" s="2" t="s">
-        <v>3592</v>
+        <v>3591</v>
       </c>
       <c r="B2702" s="1">
         <v>11.12</v>
       </c>
       <c r="C2702" s="2" t="s">
-        <v>3593</v>
+        <v>3592</v>
       </c>
     </row>
     <row r="2703" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2703" s="2" t="s">
-        <v>3594</v>
+        <v>3593</v>
       </c>
       <c r="B2703" s="1">
         <v>7.49</v>
       </c>
       <c r="C2703" s="2" t="s">
-        <v>3595</v>
+        <v>3594</v>
       </c>
     </row>
     <row r="2704" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2704" s="2" t="s">
-        <v>3596</v>
+        <v>3595</v>
       </c>
       <c r="B2704" s="1">
         <v>7.64</v>
       </c>
       <c r="C2704" s="2" t="s">
-        <v>3597</v>
+        <v>3596</v>
       </c>
     </row>
     <row r="2705" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2705" s="2" t="s">
-        <v>3598</v>
+        <v>3597</v>
       </c>
       <c r="B2705" s="1">
         <v>6.01</v>
       </c>
       <c r="C2705" s="2" t="s">
-        <v>3599</v>
+        <v>3598</v>
       </c>
     </row>
     <row r="2706" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2706" s="2" t="s">
-        <v>3600</v>
+        <v>3599</v>
       </c>
       <c r="B2706" s="1">
         <v>8.42</v>
       </c>
       <c r="C2706" s="2" t="s">
-        <v>3601</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="2707" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2707" s="2" t="s">
-        <v>3602</v>
+        <v>3601</v>
       </c>
       <c r="B2707" s="1">
         <v>11.11</v>
       </c>
       <c r="C2707" s="2" t="s">
-        <v>3603</v>
+        <v>3602</v>
       </c>
     </row>
     <row r="2708" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2708" s="2" t="s">
-        <v>3604</v>
+        <v>3603</v>
       </c>
       <c r="B2708" s="1">
         <v>7.75</v>
@@ -40092,7 +40104,7 @@
     </row>
     <row r="2709" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2709" s="2" t="s">
-        <v>3605</v>
+        <v>3604</v>
       </c>
       <c r="B2709" s="1">
         <v>7.42</v>
@@ -40103,62 +40115,62 @@
     </row>
     <row r="2710" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2710" s="2" t="s">
-        <v>3606</v>
+        <v>3605</v>
       </c>
       <c r="B2710" s="1">
         <v>8.26</v>
       </c>
       <c r="C2710" s="2" t="s">
-        <v>3607</v>
+        <v>3606</v>
       </c>
     </row>
     <row r="2711" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2711" s="2" t="s">
-        <v>3608</v>
+        <v>3607</v>
       </c>
       <c r="B2711" s="1">
         <v>7</v>
       </c>
       <c r="C2711" s="2" t="s">
-        <v>3609</v>
+        <v>3608</v>
       </c>
     </row>
     <row r="2712" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2712" s="2" t="s">
-        <v>3610</v>
+        <v>3609</v>
       </c>
       <c r="B2712" s="1">
         <v>7.18</v>
       </c>
       <c r="C2712" s="2" t="s">
-        <v>3611</v>
+        <v>3610</v>
       </c>
     </row>
     <row r="2713" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2713" s="2" t="s">
-        <v>3612</v>
+        <v>3611</v>
       </c>
       <c r="B2713" s="1">
         <v>13.1</v>
       </c>
       <c r="C2713" s="2" t="s">
-        <v>3613</v>
+        <v>3612</v>
       </c>
     </row>
     <row r="2714" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2714" s="2" t="s">
-        <v>3614</v>
+        <v>3613</v>
       </c>
       <c r="B2714" s="1">
         <v>6</v>
       </c>
       <c r="C2714" s="2" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="2715" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2715" s="2" t="s">
-        <v>3616</v>
+        <v>3615</v>
       </c>
       <c r="B2715" s="1">
         <v>9.41</v>
@@ -40169,29 +40181,29 @@
     </row>
     <row r="2716" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2716" s="2" t="s">
-        <v>3617</v>
+        <v>3616</v>
       </c>
       <c r="B2716" s="1">
         <v>7.43</v>
       </c>
       <c r="C2716" s="2" t="s">
-        <v>3618</v>
+        <v>3617</v>
       </c>
     </row>
     <row r="2717" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2717" s="2" t="s">
-        <v>3619</v>
+        <v>3618</v>
       </c>
       <c r="B2717" s="1">
         <v>8.44</v>
       </c>
       <c r="C2717" s="2" t="s">
-        <v>3620</v>
+        <v>3619</v>
       </c>
     </row>
     <row r="2718" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2718" s="2" t="s">
-        <v>3621</v>
+        <v>3620</v>
       </c>
       <c r="B2718" s="1">
         <v>7</v>
@@ -40202,40 +40214,40 @@
     </row>
     <row r="2719" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2719" s="2" t="s">
-        <v>3622</v>
+        <v>3621</v>
       </c>
       <c r="B2719" s="1">
         <v>7</v>
       </c>
       <c r="C2719" s="2" t="s">
-        <v>3623</v>
+        <v>3622</v>
       </c>
     </row>
     <row r="2720" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2720" s="2" t="s">
-        <v>3624</v>
+        <v>3623</v>
       </c>
       <c r="B2720" s="1">
         <v>15.04</v>
       </c>
       <c r="C2720" s="2" t="s">
-        <v>3625</v>
+        <v>3624</v>
       </c>
     </row>
     <row r="2721" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2721" s="2" t="s">
-        <v>3626</v>
+        <v>3625</v>
       </c>
       <c r="B2721" s="1">
         <v>5.57</v>
       </c>
       <c r="C2721" s="2" t="s">
-        <v>3627</v>
+        <v>3626</v>
       </c>
     </row>
     <row r="2722" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2722" s="2" t="s">
-        <v>3626</v>
+        <v>3625</v>
       </c>
       <c r="B2722" s="1">
         <v>6.44</v>
@@ -40246,51 +40258,51 @@
     </row>
     <row r="2723" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2723" s="2" t="s">
-        <v>3628</v>
+        <v>3627</v>
       </c>
       <c r="B2723" s="1">
         <v>7.1</v>
       </c>
       <c r="C2723" s="2" t="s">
-        <v>3629</v>
+        <v>3628</v>
       </c>
     </row>
     <row r="2724" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2724" s="2" t="s">
-        <v>3631</v>
+        <v>3630</v>
       </c>
       <c r="B2724" s="1">
         <v>8.31</v>
       </c>
       <c r="C2724" s="2" t="s">
-        <v>3630</v>
+        <v>3629</v>
       </c>
     </row>
     <row r="2725" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2725" s="2" t="s">
-        <v>3633</v>
+        <v>3632</v>
       </c>
       <c r="B2725" s="1">
         <v>8.3800000000000008</v>
       </c>
       <c r="C2725" s="2" t="s">
-        <v>3632</v>
+        <v>3631</v>
       </c>
     </row>
     <row r="2726" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2726" s="2" t="s">
-        <v>3634</v>
+        <v>3633</v>
       </c>
       <c r="B2726" s="1">
         <v>8</v>
       </c>
       <c r="C2726" s="2" t="s">
-        <v>3635</v>
+        <v>3634</v>
       </c>
     </row>
     <row r="2727" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2727" s="2" t="s">
-        <v>3636</v>
+        <v>3635</v>
       </c>
       <c r="B2727" s="1">
         <v>7.01</v>
@@ -40301,7 +40313,7 @@
     </row>
     <row r="2728" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2728" s="2" t="s">
-        <v>3637</v>
+        <v>3636</v>
       </c>
       <c r="B2728" s="1">
         <v>7.2</v>
@@ -40312,7 +40324,7 @@
     </row>
     <row r="2729" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2729" s="2" t="s">
-        <v>3638</v>
+        <v>3637</v>
       </c>
       <c r="B2729" s="1">
         <v>5.13</v>
@@ -40323,51 +40335,51 @@
     </row>
     <row r="2730" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2730" s="2" t="s">
-        <v>3639</v>
+        <v>3638</v>
       </c>
       <c r="B2730" s="1">
         <v>5.62</v>
       </c>
       <c r="C2730" s="2" t="s">
-        <v>3640</v>
+        <v>3639</v>
       </c>
     </row>
     <row r="2731" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2731" s="2" t="s">
-        <v>3641</v>
+        <v>3640</v>
       </c>
       <c r="B2731" s="1">
         <v>5.23</v>
       </c>
       <c r="C2731" s="2" t="s">
-        <v>3642</v>
+        <v>3641</v>
       </c>
     </row>
     <row r="2732" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2732" s="2" t="s">
-        <v>3643</v>
+        <v>3642</v>
       </c>
       <c r="B2732" s="1">
         <v>6.34</v>
       </c>
       <c r="C2732" s="2" t="s">
-        <v>3644</v>
+        <v>3643</v>
       </c>
     </row>
     <row r="2733" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2733" s="2" t="s">
-        <v>3645</v>
+        <v>3644</v>
       </c>
       <c r="B2733" s="1">
         <v>5.27</v>
       </c>
       <c r="C2733" s="2" t="s">
-        <v>3646</v>
+        <v>3645</v>
       </c>
     </row>
     <row r="2734" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2734" s="2" t="s">
-        <v>3647</v>
+        <v>3646</v>
       </c>
       <c r="B2734" s="1">
         <v>2.23</v>
@@ -40378,18 +40390,18 @@
     </row>
     <row r="2735" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2735" s="2" t="s">
-        <v>3648</v>
+        <v>3647</v>
       </c>
       <c r="B2735" s="1">
         <v>6.24</v>
       </c>
       <c r="C2735" s="2" t="s">
-        <v>3649</v>
+        <v>3648</v>
       </c>
     </row>
     <row r="2736" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2736" s="2" t="s">
-        <v>3650</v>
+        <v>3649</v>
       </c>
       <c r="B2736" s="1">
         <v>6.26</v>
@@ -40400,7 +40412,7 @@
     </row>
     <row r="2737" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2737" s="2" t="s">
-        <v>3651</v>
+        <v>3650</v>
       </c>
       <c r="B2737" s="1">
         <v>5.78</v>
@@ -40411,18 +40423,18 @@
     </row>
     <row r="2738" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2738" s="2" t="s">
-        <v>3652</v>
+        <v>3651</v>
       </c>
       <c r="B2738" s="1">
         <v>10</v>
       </c>
       <c r="C2738" s="2" t="s">
-        <v>3653</v>
+        <v>3652</v>
       </c>
     </row>
     <row r="2739" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2739" s="2" t="s">
-        <v>3654</v>
+        <v>3653</v>
       </c>
       <c r="B2739" s="1">
         <v>8.3699999999999992</v>
@@ -40433,18 +40445,18 @@
     </row>
     <row r="2740" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2740" s="2" t="s">
-        <v>3655</v>
+        <v>3654</v>
       </c>
       <c r="B2740" s="1">
         <v>6.3</v>
       </c>
       <c r="C2740" s="2" t="s">
-        <v>3656</v>
+        <v>3655</v>
       </c>
     </row>
     <row r="2741" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2741" s="2" t="s">
-        <v>3657</v>
+        <v>3656</v>
       </c>
       <c r="B2741" s="1">
         <v>9.0299999999999994</v>
@@ -40455,7 +40467,7 @@
     </row>
     <row r="2742" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2742" s="2" t="s">
-        <v>3658</v>
+        <v>3657</v>
       </c>
       <c r="B2742" s="1">
         <v>4.05</v>
@@ -40466,51 +40478,51 @@
     </row>
     <row r="2743" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2743" s="2" t="s">
-        <v>3659</v>
+        <v>3658</v>
       </c>
       <c r="B2743" s="1">
         <v>6.29</v>
       </c>
       <c r="C2743" s="2" t="s">
-        <v>3660</v>
+        <v>3659</v>
       </c>
     </row>
     <row r="2744" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2744" s="2" t="s">
-        <v>3661</v>
+        <v>3660</v>
       </c>
       <c r="B2744" s="1">
         <v>12.54</v>
       </c>
       <c r="C2744" s="2" t="s">
-        <v>3662</v>
+        <v>3661</v>
       </c>
     </row>
     <row r="2745" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2745" s="2" t="s">
-        <v>3663</v>
+        <v>3662</v>
       </c>
       <c r="B2745" s="1">
         <v>6.25</v>
       </c>
       <c r="C2745" s="2" t="s">
-        <v>3581</v>
+        <v>3580</v>
       </c>
     </row>
     <row r="2746" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2746" s="2" t="s">
-        <v>3664</v>
+        <v>3663</v>
       </c>
       <c r="B2746" s="1">
         <v>3.08</v>
       </c>
       <c r="C2746" s="2" t="s">
-        <v>3665</v>
+        <v>3664</v>
       </c>
     </row>
     <row r="2747" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2747" s="2" t="s">
-        <v>3666</v>
+        <v>3665</v>
       </c>
       <c r="B2747" s="1">
         <v>4.0999999999999996</v>
@@ -40521,7 +40533,7 @@
     </row>
     <row r="2748" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2748" s="2" t="s">
-        <v>3667</v>
+        <v>3666</v>
       </c>
       <c r="B2748" s="1">
         <v>4.41</v>
@@ -40532,7 +40544,7 @@
     </row>
     <row r="2749" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2749" s="2" t="s">
-        <v>3668</v>
+        <v>3667</v>
       </c>
       <c r="B2749" s="1">
         <v>5</v>
@@ -40543,29 +40555,29 @@
     </row>
     <row r="2750" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2750" s="2" t="s">
-        <v>3669</v>
+        <v>3668</v>
       </c>
       <c r="B2750" s="1">
         <v>5.13</v>
       </c>
       <c r="C2750" s="2" t="s">
-        <v>3670</v>
+        <v>3669</v>
       </c>
     </row>
     <row r="2751" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2751" s="2" t="s">
-        <v>3671</v>
+        <v>3670</v>
       </c>
       <c r="B2751" s="1">
         <v>5.12</v>
       </c>
       <c r="C2751" s="2" t="s">
-        <v>3672</v>
+        <v>3671</v>
       </c>
     </row>
     <row r="2752" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2752" s="2" t="s">
-        <v>3673</v>
+        <v>3672</v>
       </c>
       <c r="B2752" s="1">
         <v>5.2</v>
@@ -40576,18 +40588,18 @@
     </row>
     <row r="2753" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2753" s="2" t="s">
-        <v>3674</v>
+        <v>3673</v>
       </c>
       <c r="B2753" s="1">
         <v>5.08</v>
       </c>
       <c r="C2753" s="2" t="s">
-        <v>3675</v>
+        <v>3674</v>
       </c>
     </row>
     <row r="2754" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2754" s="2" t="s">
-        <v>3676</v>
+        <v>3675</v>
       </c>
       <c r="B2754" s="1">
         <v>5</v>
@@ -40598,29 +40610,29 @@
     </row>
     <row r="2755" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2755" s="2" t="s">
-        <v>3677</v>
+        <v>3676</v>
       </c>
       <c r="B2755" s="1">
         <v>5.03</v>
       </c>
       <c r="C2755" s="2" t="s">
-        <v>3678</v>
+        <v>3677</v>
       </c>
     </row>
     <row r="2756" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2756" s="2" t="s">
-        <v>3679</v>
+        <v>3678</v>
       </c>
       <c r="B2756" s="1">
         <v>5.0199999999999996</v>
       </c>
       <c r="C2756" s="2" t="s">
-        <v>3680</v>
+        <v>3679</v>
       </c>
     </row>
     <row r="2757" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2757" s="2" t="s">
-        <v>3681</v>
+        <v>3680</v>
       </c>
       <c r="B2757" s="1">
         <v>5</v>
@@ -40631,18 +40643,18 @@
     </row>
     <row r="2758" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2758" s="2" t="s">
-        <v>3682</v>
+        <v>3681</v>
       </c>
       <c r="B2758" s="1">
         <v>5.5</v>
       </c>
       <c r="C2758" s="2" t="s">
-        <v>3683</v>
+        <v>3682</v>
       </c>
     </row>
     <row r="2759" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2759" s="2" t="s">
-        <v>3684</v>
+        <v>3683</v>
       </c>
       <c r="B2759" s="1">
         <v>5</v>
@@ -40653,18 +40665,18 @@
     </row>
     <row r="2760" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2760" s="2" t="s">
-        <v>3685</v>
+        <v>3684</v>
       </c>
       <c r="B2760" s="1">
         <v>5.43</v>
       </c>
       <c r="C2760" s="2" t="s">
-        <v>3686</v>
+        <v>3685</v>
       </c>
     </row>
     <row r="2761" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2761" s="2" t="s">
-        <v>3687</v>
+        <v>3686</v>
       </c>
       <c r="B2761" s="1">
         <v>4.3899999999999997</v>
@@ -40675,18 +40687,18 @@
     </row>
     <row r="2762" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2762" s="2" t="s">
-        <v>3688</v>
+        <v>3687</v>
       </c>
       <c r="B2762" s="1">
         <v>3.5</v>
       </c>
       <c r="C2762" s="2" t="s">
-        <v>3689</v>
+        <v>3688</v>
       </c>
     </row>
     <row r="2763" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2763" s="2" t="s">
-        <v>3690</v>
+        <v>3689</v>
       </c>
       <c r="B2763" s="1">
         <v>5</v>
@@ -40697,18 +40709,18 @@
     </row>
     <row r="2764" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2764" s="2" t="s">
-        <v>3691</v>
+        <v>3690</v>
       </c>
       <c r="B2764" s="1">
         <v>5.23</v>
       </c>
       <c r="C2764" s="2" t="s">
-        <v>3692</v>
+        <v>3691</v>
       </c>
     </row>
     <row r="2765" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2765" s="2" t="s">
-        <v>3693</v>
+        <v>3692</v>
       </c>
       <c r="B2765" s="1">
         <v>5.07</v>
@@ -40719,29 +40731,29 @@
     </row>
     <row r="2766" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2766" s="2" t="s">
-        <v>3694</v>
+        <v>3693</v>
       </c>
       <c r="B2766" s="1">
         <v>6.42</v>
       </c>
       <c r="C2766" s="2" t="s">
-        <v>3695</v>
+        <v>3694</v>
       </c>
     </row>
     <row r="2767" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2767" s="2" t="s">
-        <v>3696</v>
+        <v>3695</v>
       </c>
       <c r="B2767" s="1">
         <v>5.07</v>
       </c>
       <c r="C2767" s="2" t="s">
-        <v>3697</v>
+        <v>3696</v>
       </c>
     </row>
     <row r="2768" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2768" s="2" t="s">
-        <v>3698</v>
+        <v>3697</v>
       </c>
       <c r="B2768" s="1">
         <v>5</v>
@@ -40752,29 +40764,29 @@
     </row>
     <row r="2769" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2769" s="2" t="s">
-        <v>3699</v>
+        <v>3698</v>
       </c>
       <c r="B2769" s="1">
         <v>6.13</v>
       </c>
       <c r="C2769" s="2" t="s">
-        <v>3700</v>
+        <v>3699</v>
       </c>
     </row>
     <row r="2770" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2770" s="2" t="s">
-        <v>3701</v>
+        <v>3700</v>
       </c>
       <c r="B2770" s="1">
         <v>7.14</v>
       </c>
       <c r="C2770" s="2" t="s">
-        <v>3581</v>
+        <v>3580</v>
       </c>
     </row>
     <row r="2771" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2771" s="2" t="s">
-        <v>3702</v>
+        <v>3701</v>
       </c>
       <c r="B2771" s="1">
         <v>6.61</v>
@@ -40785,7 +40797,7 @@
     </row>
     <row r="2772" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2772" s="2" t="s">
-        <v>3703</v>
+        <v>3702</v>
       </c>
       <c r="B2772" s="1">
         <v>7.05</v>
@@ -40793,18 +40805,18 @@
     </row>
     <row r="2773" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2773" s="2" t="s">
-        <v>3704</v>
+        <v>3703</v>
       </c>
       <c r="B2773" s="1">
         <v>4.13</v>
       </c>
       <c r="C2773" s="2" t="s">
-        <v>3705</v>
+        <v>3704</v>
       </c>
     </row>
     <row r="2774" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2774" s="2" t="s">
-        <v>3706</v>
+        <v>3705</v>
       </c>
       <c r="B2774" s="1">
         <v>7.5</v>
@@ -40815,128 +40827,128 @@
     </row>
     <row r="2775" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2775" s="2" t="s">
-        <v>3707</v>
+        <v>3706</v>
       </c>
       <c r="B2775" s="1">
         <v>7.03</v>
       </c>
       <c r="C2775" s="2" t="s">
-        <v>3708</v>
+        <v>3707</v>
       </c>
     </row>
     <row r="2776" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2776" s="2" t="s">
-        <v>3709</v>
+        <v>3708</v>
       </c>
       <c r="B2776" s="1">
         <v>6</v>
       </c>
       <c r="C2776" s="2" t="s">
-        <v>3710</v>
+        <v>3709</v>
       </c>
     </row>
     <row r="2777" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2777" s="2" t="s">
-        <v>3711</v>
+        <v>3710</v>
       </c>
       <c r="B2777" s="1">
         <v>7.28</v>
       </c>
       <c r="C2777" s="2" t="s">
-        <v>3712</v>
+        <v>3711</v>
       </c>
     </row>
     <row r="2778" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2778" s="2" t="s">
-        <v>3713</v>
+        <v>3712</v>
       </c>
       <c r="B2778" s="1">
         <v>7.13</v>
       </c>
       <c r="C2778" s="2" t="s">
-        <v>3714</v>
+        <v>3713</v>
       </c>
     </row>
     <row r="2779" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2779" s="2" t="s">
-        <v>3715</v>
+        <v>3714</v>
       </c>
       <c r="B2779" s="1">
         <v>5.19</v>
       </c>
       <c r="C2779" s="2" t="s">
-        <v>3716</v>
+        <v>3715</v>
       </c>
     </row>
     <row r="2780" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2780" s="2" t="s">
-        <v>3717</v>
+        <v>3716</v>
       </c>
       <c r="B2780" s="1">
         <v>8.7799999999999994</v>
       </c>
       <c r="C2780" s="2" t="s">
-        <v>3718</v>
+        <v>3717</v>
       </c>
     </row>
     <row r="2781" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2781" s="2" t="s">
-        <v>3719</v>
+        <v>3718</v>
       </c>
       <c r="B2781" s="1">
         <v>7.19</v>
       </c>
       <c r="C2781" s="2" t="s">
-        <v>3720</v>
+        <v>3719</v>
       </c>
     </row>
     <row r="2782" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2782" s="2" t="s">
-        <v>3721</v>
+        <v>3720</v>
       </c>
       <c r="B2782" s="1">
         <v>8.2100000000000009</v>
       </c>
       <c r="C2782" s="2" t="s">
-        <v>3722</v>
+        <v>3721</v>
       </c>
     </row>
     <row r="2783" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2783" s="2" t="s">
-        <v>3723</v>
+        <v>3722</v>
       </c>
       <c r="B2783" s="1">
         <v>5</v>
       </c>
       <c r="C2783" s="2" t="s">
-        <v>3675</v>
+        <v>3674</v>
       </c>
     </row>
     <row r="2784" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2784" s="2" t="s">
-        <v>3724</v>
+        <v>3723</v>
       </c>
       <c r="B2784" s="1">
         <v>5.21</v>
       </c>
       <c r="C2784" s="2" t="s">
-        <v>3725</v>
+        <v>3724</v>
       </c>
     </row>
     <row r="2785" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2785" s="2" t="s">
-        <v>3726</v>
+        <v>3725</v>
       </c>
       <c r="B2785" s="1">
         <v>5.55</v>
       </c>
       <c r="C2785" s="2" t="s">
-        <v>3727</v>
+        <v>3726</v>
       </c>
     </row>
     <row r="2786" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2786" s="2" t="s">
-        <v>3728</v>
+        <v>3727</v>
       </c>
       <c r="B2786" s="1">
         <v>6</v>
@@ -40947,7 +40959,7 @@
     </row>
     <row r="2787" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2787" s="2" t="s">
-        <v>3729</v>
+        <v>3728</v>
       </c>
       <c r="B2787" s="1">
         <v>7.05</v>
@@ -40958,7 +40970,7 @@
     </row>
     <row r="2788" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2788" s="2" t="s">
-        <v>3730</v>
+        <v>3729</v>
       </c>
       <c r="B2788" s="1">
         <v>8</v>
@@ -40969,40 +40981,40 @@
     </row>
     <row r="2789" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2789" s="2" t="s">
-        <v>3731</v>
+        <v>3730</v>
       </c>
       <c r="B2789" s="1">
         <v>6</v>
       </c>
       <c r="C2789" s="2" t="s">
-        <v>3732</v>
+        <v>3731</v>
       </c>
     </row>
     <row r="2790" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2790" s="2" t="s">
-        <v>3733</v>
+        <v>3732</v>
       </c>
       <c r="B2790" s="1">
         <v>7</v>
       </c>
       <c r="C2790" s="2" t="s">
-        <v>3734</v>
+        <v>3733</v>
       </c>
     </row>
     <row r="2791" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2791" s="2" t="s">
-        <v>3735</v>
+        <v>3734</v>
       </c>
       <c r="B2791" s="1">
         <v>8.0299999999999994</v>
       </c>
       <c r="C2791" s="2" t="s">
-        <v>3736</v>
+        <v>3735</v>
       </c>
     </row>
     <row r="2792" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2792" s="2" t="s">
-        <v>3737</v>
+        <v>3736</v>
       </c>
       <c r="B2792" s="1">
         <v>6</v>
@@ -41013,51 +41025,51 @@
     </row>
     <row r="2793" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2793" s="2" t="s">
-        <v>3738</v>
+        <v>3737</v>
       </c>
       <c r="B2793" s="1">
         <v>9.0399999999999991</v>
       </c>
       <c r="C2793" s="2" t="s">
-        <v>3739</v>
+        <v>3738</v>
       </c>
     </row>
     <row r="2794" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2794" s="2" t="s">
-        <v>3740</v>
+        <v>3739</v>
       </c>
       <c r="B2794" s="1">
         <v>6.06</v>
       </c>
       <c r="C2794" s="2" t="s">
-        <v>3741</v>
+        <v>3740</v>
       </c>
     </row>
     <row r="2795" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2795" s="2" t="s">
-        <v>3742</v>
+        <v>3741</v>
       </c>
       <c r="B2795" s="1">
         <v>8</v>
       </c>
       <c r="C2795" s="2" t="s">
-        <v>3743</v>
+        <v>3742</v>
       </c>
     </row>
     <row r="2796" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2796" s="2" t="s">
-        <v>3744</v>
+        <v>3743</v>
       </c>
       <c r="B2796" s="1">
         <v>9.14</v>
       </c>
       <c r="C2796" s="2" t="s">
-        <v>3745</v>
+        <v>3744</v>
       </c>
     </row>
     <row r="2797" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2797" s="2" t="s">
-        <v>3746</v>
+        <v>3745</v>
       </c>
       <c r="B2797" s="1">
         <v>6.06</v>
@@ -41068,29 +41080,29 @@
     </row>
     <row r="2798" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2798" s="2" t="s">
-        <v>3747</v>
+        <v>3746</v>
       </c>
       <c r="B2798" s="1">
         <v>6.09</v>
       </c>
       <c r="C2798" s="2" t="s">
-        <v>3748</v>
+        <v>3747</v>
       </c>
     </row>
     <row r="2799" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2799" s="2" t="s">
-        <v>3749</v>
+        <v>3748</v>
       </c>
       <c r="B2799" s="1">
         <v>10</v>
       </c>
       <c r="C2799" s="2" t="s">
-        <v>3750</v>
+        <v>3749</v>
       </c>
     </row>
     <row r="2800" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2800" s="2" t="s">
-        <v>3751</v>
+        <v>3750</v>
       </c>
       <c r="B2800" s="1">
         <v>6.25</v>
@@ -41101,51 +41113,51 @@
     </row>
     <row r="2801" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2801" s="2" t="s">
-        <v>3752</v>
+        <v>3751</v>
       </c>
       <c r="B2801" s="1">
         <v>9.25</v>
       </c>
       <c r="C2801" s="2" t="s">
-        <v>3590</v>
+        <v>3589</v>
       </c>
     </row>
     <row r="2802" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2802" s="2" t="s">
-        <v>3753</v>
+        <v>3752</v>
       </c>
       <c r="B2802" s="1">
         <v>6.52</v>
       </c>
       <c r="C2802" s="2" t="s">
-        <v>3754</v>
+        <v>3753</v>
       </c>
     </row>
     <row r="2803" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2803" s="2" t="s">
-        <v>3755</v>
+        <v>3754</v>
       </c>
       <c r="B2803" s="1">
         <v>11.11</v>
       </c>
       <c r="C2803" s="2" t="s">
-        <v>3756</v>
+        <v>3755</v>
       </c>
     </row>
     <row r="2804" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2804" s="2" t="s">
-        <v>3757</v>
+        <v>3756</v>
       </c>
       <c r="B2804" s="1">
         <v>7.35</v>
       </c>
       <c r="C2804" s="2" t="s">
-        <v>3758</v>
+        <v>3757</v>
       </c>
     </row>
     <row r="2805" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2805" s="2" t="s">
-        <v>3759</v>
+        <v>3758</v>
       </c>
       <c r="B2805" s="1">
         <v>5</v>
@@ -41156,7 +41168,7 @@
     </row>
     <row r="2806" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2806" s="2" t="s">
-        <v>3760</v>
+        <v>3759</v>
       </c>
       <c r="B2806" s="1">
         <v>7</v>
@@ -41167,7 +41179,7 @@
     </row>
     <row r="2807" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2807" s="2" t="s">
-        <v>3761</v>
+        <v>3760</v>
       </c>
       <c r="B2807" s="1">
         <v>10.07</v>
@@ -41178,7 +41190,7 @@
     </row>
     <row r="2808" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2808" s="2" t="s">
-        <v>3762</v>
+        <v>3761</v>
       </c>
       <c r="B2808" s="1">
         <v>8.01</v>
@@ -41189,18 +41201,18 @@
     </row>
     <row r="2809" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2809" s="2" t="s">
-        <v>3763</v>
+        <v>3762</v>
       </c>
       <c r="B2809" s="1">
         <v>5</v>
       </c>
       <c r="C2809" s="2" t="s">
-        <v>3764</v>
+        <v>3763</v>
       </c>
     </row>
     <row r="2810" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2810" s="2" t="s">
-        <v>3765</v>
+        <v>3764</v>
       </c>
       <c r="B2810" s="1">
         <v>5.23</v>
@@ -41211,40 +41223,40 @@
     </row>
     <row r="2811" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2811" s="2" t="s">
-        <v>3766</v>
+        <v>3765</v>
       </c>
       <c r="B2811" s="1">
         <v>6.46</v>
       </c>
       <c r="C2811" s="2" t="s">
-        <v>3767</v>
+        <v>3766</v>
       </c>
     </row>
     <row r="2812" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2812" s="2" t="s">
-        <v>3768</v>
+        <v>3767</v>
       </c>
       <c r="B2812" s="1">
         <v>7.43</v>
       </c>
       <c r="C2812" s="2" t="s">
-        <v>3769</v>
+        <v>3768</v>
       </c>
     </row>
     <row r="2813" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2813" s="2" t="s">
-        <v>3770</v>
+        <v>3769</v>
       </c>
       <c r="B2813" s="1">
         <v>7.03</v>
       </c>
       <c r="C2813" s="2" t="s">
-        <v>3771</v>
+        <v>3770</v>
       </c>
     </row>
     <row r="2814" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2814" s="2" t="s">
-        <v>3772</v>
+        <v>3771</v>
       </c>
       <c r="B2814" s="1">
         <v>12.42</v>
@@ -41255,7 +41267,7 @@
     </row>
     <row r="2815" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2815" s="2" t="s">
-        <v>3773</v>
+        <v>3772</v>
       </c>
       <c r="B2815" s="1">
         <v>3</v>
@@ -41266,7 +41278,7 @@
     </row>
     <row r="2816" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2816" s="2" t="s">
-        <v>3774</v>
+        <v>3773</v>
       </c>
       <c r="B2816" s="1">
         <v>4.0999999999999996</v>
@@ -41277,18 +41289,18 @@
     </row>
     <row r="2817" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2817" s="2" t="s">
-        <v>3775</v>
+        <v>3774</v>
       </c>
       <c r="B2817" s="1">
         <v>6.03</v>
       </c>
       <c r="C2817" s="2" t="s">
-        <v>3562</v>
+        <v>3561</v>
       </c>
     </row>
     <row r="2818" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2818" s="2" t="s">
-        <v>3776</v>
+        <v>3775</v>
       </c>
       <c r="B2818" s="1">
         <v>8</v>
@@ -41299,29 +41311,29 @@
     </row>
     <row r="2819" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2819" s="2" t="s">
-        <v>3777</v>
+        <v>3776</v>
       </c>
       <c r="B2819" s="1">
         <v>7.04</v>
       </c>
       <c r="C2819" s="2" t="s">
-        <v>3778</v>
+        <v>3777</v>
       </c>
     </row>
     <row r="2820" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2820" s="2" t="s">
-        <v>3779</v>
+        <v>3778</v>
       </c>
       <c r="B2820" s="1">
         <v>9.25</v>
       </c>
       <c r="C2820" s="2" t="s">
-        <v>3780</v>
+        <v>3779</v>
       </c>
     </row>
     <row r="2821" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2821" s="2" t="s">
-        <v>3781</v>
+        <v>3780</v>
       </c>
       <c r="B2821" s="1">
         <v>6</v>
@@ -41332,18 +41344,18 @@
     </row>
     <row r="2822" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2822" s="2" t="s">
-        <v>3782</v>
+        <v>3781</v>
       </c>
       <c r="B2822" s="1">
         <v>7</v>
       </c>
       <c r="C2822" s="2" t="s">
-        <v>3783</v>
+        <v>3782</v>
       </c>
     </row>
     <row r="2823" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2823" s="2" t="s">
-        <v>3784</v>
+        <v>3783</v>
       </c>
       <c r="B2823" s="1">
         <v>8.0500000000000007</v>
@@ -41354,7 +41366,7 @@
     </row>
     <row r="2824" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2824" s="2" t="s">
-        <v>3785</v>
+        <v>3784</v>
       </c>
       <c r="B2824" s="1">
         <v>7.26</v>
@@ -41365,51 +41377,51 @@
     </row>
     <row r="2825" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2825" s="2" t="s">
-        <v>3786</v>
+        <v>3785</v>
       </c>
       <c r="B2825" s="1">
         <v>13.1</v>
       </c>
       <c r="C2825" s="2" t="s">
-        <v>3787</v>
+        <v>3786</v>
       </c>
     </row>
     <row r="2826" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2826" s="2" t="s">
-        <v>3788</v>
+        <v>3787</v>
       </c>
       <c r="B2826" s="1">
         <v>8.07</v>
       </c>
       <c r="C2826" s="2" t="s">
-        <v>3789</v>
+        <v>3788</v>
       </c>
     </row>
     <row r="2827" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2827" s="2" t="s">
-        <v>3790</v>
+        <v>3789</v>
       </c>
       <c r="B2827" s="1">
         <v>10</v>
       </c>
       <c r="C2827" s="2" t="s">
-        <v>3791</v>
+        <v>3790</v>
       </c>
     </row>
     <row r="2828" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2828" s="2" t="s">
-        <v>3792</v>
+        <v>3791</v>
       </c>
       <c r="B2828" s="1">
         <v>9.14</v>
       </c>
       <c r="C2828" s="2" t="s">
-        <v>3789</v>
+        <v>3788</v>
       </c>
     </row>
     <row r="2829" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2829" s="2" t="s">
-        <v>3793</v>
+        <v>3792</v>
       </c>
       <c r="B2829" s="1">
         <v>7</v>
@@ -41420,62 +41432,62 @@
     </row>
     <row r="2830" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2830" s="2" t="s">
-        <v>3794</v>
+        <v>3793</v>
       </c>
       <c r="B2830" s="1">
         <v>4.01</v>
       </c>
       <c r="C2830" s="2" t="s">
-        <v>3795</v>
+        <v>3794</v>
       </c>
     </row>
     <row r="2831" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2831" s="2" t="s">
-        <v>3796</v>
+        <v>3795</v>
       </c>
       <c r="B2831" s="1">
         <v>6.36</v>
       </c>
       <c r="C2831" s="2" t="s">
-        <v>3797</v>
+        <v>3796</v>
       </c>
     </row>
     <row r="2832" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2832" s="2" t="s">
-        <v>3798</v>
+        <v>3797</v>
       </c>
       <c r="B2832" s="1">
         <v>6.13</v>
       </c>
       <c r="C2832" s="2" t="s">
-        <v>3799</v>
+        <v>3798</v>
       </c>
     </row>
     <row r="2833" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2833" s="2" t="s">
-        <v>3800</v>
+        <v>3799</v>
       </c>
       <c r="B2833" s="1">
         <v>6</v>
       </c>
       <c r="C2833" s="2" t="s">
-        <v>3801</v>
+        <v>3800</v>
       </c>
     </row>
     <row r="2834" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2834" s="2" t="s">
-        <v>3802</v>
+        <v>3801</v>
       </c>
       <c r="B2834" s="1">
         <v>1.58</v>
       </c>
       <c r="C2834" s="2" t="s">
-        <v>3803</v>
+        <v>3802</v>
       </c>
     </row>
     <row r="2835" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2835" s="2" t="s">
-        <v>3802</v>
+        <v>3801</v>
       </c>
       <c r="B2835" s="1">
         <v>4.5</v>
@@ -41483,84 +41495,84 @@
     </row>
     <row r="2836" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2836" s="2" t="s">
-        <v>3804</v>
+        <v>3803</v>
       </c>
       <c r="B2836" s="1">
         <v>10</v>
       </c>
       <c r="C2836" s="2" t="s">
-        <v>3805</v>
+        <v>3804</v>
       </c>
     </row>
     <row r="2837" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2837" s="2" t="s">
-        <v>3806</v>
+        <v>3805</v>
       </c>
       <c r="B2837" s="1">
         <v>7</v>
       </c>
       <c r="C2837" s="2" t="s">
-        <v>3807</v>
+        <v>3806</v>
       </c>
     </row>
     <row r="2838" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2838" s="2" t="s">
-        <v>3808</v>
+        <v>3807</v>
       </c>
       <c r="B2838" s="1">
         <v>7.18</v>
       </c>
       <c r="C2838" s="2" t="s">
-        <v>3809</v>
+        <v>3808</v>
       </c>
     </row>
     <row r="2839" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2839" s="2" t="s">
-        <v>3810</v>
+        <v>3809</v>
       </c>
       <c r="B2839" s="1">
         <v>7.04</v>
       </c>
       <c r="C2839" s="2" t="s">
-        <v>3811</v>
+        <v>3810</v>
       </c>
     </row>
     <row r="2840" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2840" s="2" t="s">
-        <v>3812</v>
+        <v>3811</v>
       </c>
       <c r="B2840" s="1">
         <v>4</v>
       </c>
       <c r="C2840" s="2" t="s">
-        <v>3813</v>
+        <v>3812</v>
       </c>
     </row>
     <row r="2841" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2841" s="2" t="s">
-        <v>3814</v>
+        <v>3813</v>
       </c>
       <c r="B2841" s="1">
         <v>6</v>
       </c>
       <c r="C2841" s="2" t="s">
-        <v>3815</v>
+        <v>3814</v>
       </c>
     </row>
     <row r="2842" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2842" s="2" t="s">
-        <v>3816</v>
+        <v>3815</v>
       </c>
       <c r="B2842" s="1">
         <v>9.07</v>
       </c>
       <c r="C2842" s="2" t="s">
-        <v>3817</v>
+        <v>3816</v>
       </c>
     </row>
     <row r="2843" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2843" s="2" t="s">
-        <v>3818</v>
+        <v>3817</v>
       </c>
       <c r="B2843" s="1">
         <v>6.01</v>
@@ -41571,18 +41583,18 @@
     </row>
     <row r="2844" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2844" s="2" t="s">
-        <v>3819</v>
+        <v>3818</v>
       </c>
       <c r="B2844" s="1">
         <v>6</v>
       </c>
       <c r="C2844" s="2" t="s">
-        <v>3820</v>
+        <v>3819</v>
       </c>
     </row>
     <row r="2845" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2845" s="2" t="s">
-        <v>3821</v>
+        <v>3820</v>
       </c>
       <c r="B2845" s="1">
         <v>8.4600000000000009</v>
@@ -41593,29 +41605,29 @@
     </row>
     <row r="2846" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2846" s="2" t="s">
-        <v>3822</v>
+        <v>3821</v>
       </c>
       <c r="B2846" s="1">
         <v>12.09</v>
       </c>
       <c r="C2846" s="2" t="s">
-        <v>3823</v>
+        <v>3822</v>
       </c>
     </row>
     <row r="2847" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2847" s="2" t="s">
-        <v>3824</v>
+        <v>3823</v>
       </c>
       <c r="B2847" s="1">
         <v>8</v>
       </c>
       <c r="C2847" s="2" t="s">
-        <v>3825</v>
+        <v>3824</v>
       </c>
     </row>
     <row r="2848" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2848" s="2" t="s">
-        <v>3826</v>
+        <v>3825</v>
       </c>
       <c r="B2848" s="1">
         <v>9.07</v>
@@ -41626,7 +41638,7 @@
     </row>
     <row r="2849" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2849" s="2" t="s">
-        <v>3827</v>
+        <v>3826</v>
       </c>
       <c r="B2849" s="1">
         <v>6.32</v>
@@ -41637,51 +41649,51 @@
     </row>
     <row r="2850" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2850" s="2" t="s">
-        <v>3828</v>
+        <v>3827</v>
       </c>
       <c r="B2850" s="1">
         <v>9.0399999999999991</v>
       </c>
       <c r="C2850" s="2" t="s">
-        <v>3829</v>
+        <v>3828</v>
       </c>
     </row>
     <row r="2851" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2851" s="2" t="s">
-        <v>3830</v>
+        <v>3829</v>
       </c>
       <c r="B2851" s="1">
         <v>13.11</v>
       </c>
       <c r="C2851" s="2" t="s">
-        <v>3831</v>
+        <v>3830</v>
       </c>
     </row>
     <row r="2852" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2852" s="2" t="s">
-        <v>3832</v>
+        <v>3831</v>
       </c>
       <c r="B2852" s="1">
         <v>10</v>
       </c>
       <c r="C2852" s="2" t="s">
-        <v>3833</v>
+        <v>3832</v>
       </c>
     </row>
     <row r="2853" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2853" s="2" t="s">
-        <v>3834</v>
+        <v>3833</v>
       </c>
       <c r="B2853" s="1">
         <v>6.01</v>
       </c>
       <c r="C2853" s="2" t="s">
-        <v>3835</v>
+        <v>3834</v>
       </c>
     </row>
     <row r="2854" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2854" s="2" t="s">
-        <v>3836</v>
+        <v>3835</v>
       </c>
       <c r="B2854" s="1">
         <v>9.1</v>
@@ -41692,18 +41704,18 @@
     </row>
     <row r="2855" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2855" s="2" t="s">
-        <v>3837</v>
+        <v>3836</v>
       </c>
       <c r="B2855" s="1">
         <v>6</v>
       </c>
       <c r="C2855" s="2" t="s">
-        <v>3838</v>
+        <v>3837</v>
       </c>
     </row>
     <row r="2856" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2856" s="2" t="s">
-        <v>3839</v>
+        <v>3838</v>
       </c>
       <c r="B2856" s="1">
         <v>6.04</v>
@@ -41714,29 +41726,29 @@
     </row>
     <row r="2857" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2857" s="2" t="s">
-        <v>3840</v>
+        <v>3839</v>
       </c>
       <c r="B2857" s="1">
         <v>14</v>
       </c>
       <c r="C2857" s="2" t="s">
-        <v>3841</v>
+        <v>3840</v>
       </c>
     </row>
     <row r="2858" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2858" s="2" t="s">
-        <v>3842</v>
+        <v>3841</v>
       </c>
       <c r="B2858" s="1">
         <v>10</v>
       </c>
       <c r="C2858" s="2" t="s">
-        <v>3843</v>
+        <v>3842</v>
       </c>
     </row>
     <row r="2859" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2859" s="2" t="s">
-        <v>3844</v>
+        <v>3843</v>
       </c>
       <c r="B2859" s="1">
         <v>8</v>
@@ -41747,29 +41759,29 @@
     </row>
     <row r="2860" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2860" s="2" t="s">
-        <v>3845</v>
+        <v>3844</v>
       </c>
       <c r="B2860" s="1">
         <v>10</v>
       </c>
       <c r="C2860" s="2" t="s">
-        <v>3846</v>
+        <v>3845</v>
       </c>
     </row>
     <row r="2861" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2861" s="2" t="s">
-        <v>3847</v>
+        <v>3846</v>
       </c>
       <c r="B2861" s="1">
         <v>6</v>
       </c>
       <c r="C2861" s="2" t="s">
-        <v>3848</v>
+        <v>3847</v>
       </c>
     </row>
     <row r="2862" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2862" s="2" t="s">
-        <v>3849</v>
+        <v>3848</v>
       </c>
       <c r="B2862" s="1">
         <v>7.83</v>
@@ -41780,18 +41792,18 @@
     </row>
     <row r="2863" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2863" s="2" t="s">
-        <v>3850</v>
+        <v>3849</v>
       </c>
       <c r="B2863" s="1">
         <v>3.11</v>
       </c>
       <c r="C2863" s="2" t="s">
-        <v>3851</v>
+        <v>3850</v>
       </c>
     </row>
     <row r="2864" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2864" s="2" t="s">
-        <v>3850</v>
+        <v>3849</v>
       </c>
       <c r="B2864" s="1">
         <v>5.4</v>
@@ -41799,40 +41811,40 @@
     </row>
     <row r="2865" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2865" s="2" t="s">
-        <v>3852</v>
+        <v>3851</v>
       </c>
       <c r="B2865" s="1">
         <v>10.050000000000001</v>
       </c>
       <c r="C2865" s="2" t="s">
-        <v>3853</v>
+        <v>3852</v>
       </c>
     </row>
     <row r="2866" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2866" s="2" t="s">
-        <v>3854</v>
+        <v>3853</v>
       </c>
       <c r="B2866" s="1">
         <v>6</v>
       </c>
       <c r="C2866" s="2" t="s">
-        <v>3855</v>
+        <v>3854</v>
       </c>
     </row>
     <row r="2867" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2867" s="2" t="s">
-        <v>3856</v>
+        <v>3855</v>
       </c>
       <c r="B2867" s="1">
         <v>10</v>
       </c>
       <c r="C2867" s="2" t="s">
-        <v>3857</v>
+        <v>3856</v>
       </c>
     </row>
     <row r="2868" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2868" s="2" t="s">
-        <v>3858</v>
+        <v>3857</v>
       </c>
       <c r="B2868" s="1">
         <v>6.02</v>
@@ -41843,7 +41855,7 @@
     </row>
     <row r="2869" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2869" s="2" t="s">
-        <v>3859</v>
+        <v>3858</v>
       </c>
       <c r="B2869" s="1">
         <v>4.01</v>
@@ -41854,29 +41866,29 @@
     </row>
     <row r="2870" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2870" s="2" t="s">
-        <v>3860</v>
+        <v>3859</v>
       </c>
       <c r="B2870" s="1">
         <v>8.0399999999999991</v>
       </c>
       <c r="C2870" s="2" t="s">
-        <v>3861</v>
+        <v>3860</v>
       </c>
     </row>
     <row r="2871" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2871" s="2" t="s">
-        <v>3862</v>
+        <v>3861</v>
       </c>
       <c r="B2871" s="1">
         <v>13.1</v>
       </c>
       <c r="C2871" s="2" t="s">
-        <v>3863</v>
+        <v>3862</v>
       </c>
     </row>
     <row r="2872" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2872" s="2" t="s">
-        <v>3864</v>
+        <v>3863</v>
       </c>
       <c r="B2872" s="1">
         <v>5.7</v>
@@ -41887,18 +41899,18 @@
     </row>
     <row r="2873" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2873" s="2" t="s">
-        <v>3865</v>
+        <v>3864</v>
       </c>
       <c r="B2873" s="1">
         <v>6.34</v>
       </c>
       <c r="C2873" s="2" t="s">
-        <v>3866</v>
+        <v>3865</v>
       </c>
     </row>
     <row r="2874" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2874" s="2" t="s">
-        <v>3867</v>
+        <v>3866</v>
       </c>
       <c r="B2874" s="1">
         <v>7.03</v>
@@ -41909,29 +41921,29 @@
     </row>
     <row r="2875" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2875" s="2" t="s">
-        <v>3868</v>
+        <v>3867</v>
       </c>
       <c r="B2875" s="1">
         <v>4.04</v>
       </c>
       <c r="C2875" s="2" t="s">
-        <v>3869</v>
+        <v>3868</v>
       </c>
     </row>
     <row r="2876" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2876" s="2" t="s">
-        <v>3870</v>
+        <v>3869</v>
       </c>
       <c r="B2876" s="1">
         <v>6</v>
       </c>
       <c r="C2876" s="2" t="s">
-        <v>3871</v>
+        <v>3870</v>
       </c>
     </row>
     <row r="2877" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2877" s="2" t="s">
-        <v>3872</v>
+        <v>3871</v>
       </c>
       <c r="B2877" s="1">
         <v>4.01</v>
@@ -41942,18 +41954,18 @@
     </row>
     <row r="2878" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2878" s="2" t="s">
-        <v>3873</v>
+        <v>3872</v>
       </c>
       <c r="B2878" s="1">
         <v>13.11</v>
       </c>
       <c r="C2878" s="2" t="s">
-        <v>3874</v>
+        <v>3873</v>
       </c>
     </row>
     <row r="2879" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2879" s="2" t="s">
-        <v>3873</v>
+        <v>3872</v>
       </c>
       <c r="B2879" s="1">
         <v>3</v>
@@ -41961,29 +41973,29 @@
     </row>
     <row r="2880" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2880" s="2" t="s">
-        <v>3875</v>
+        <v>3874</v>
       </c>
       <c r="B2880" s="1">
         <v>3.76</v>
       </c>
       <c r="C2880" s="2" t="s">
-        <v>3876</v>
+        <v>3875</v>
       </c>
     </row>
     <row r="2881" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2881" s="2" t="s">
-        <v>3877</v>
+        <v>3876</v>
       </c>
       <c r="B2881" s="1">
         <v>5.2</v>
       </c>
       <c r="C2881" s="2" t="s">
-        <v>3878</v>
+        <v>3877</v>
       </c>
     </row>
     <row r="2882" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2882" s="2" t="s">
-        <v>3879</v>
+        <v>3878</v>
       </c>
       <c r="B2882" s="1">
         <v>6.3</v>
@@ -41994,13 +42006,35 @@
     </row>
     <row r="2883" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2883" s="2" t="s">
-        <v>3880</v>
+        <v>3879</v>
       </c>
       <c r="B2883" s="1">
         <v>4.0599999999999996</v>
       </c>
       <c r="C2883" s="2" t="s">
+        <v>3880</v>
+      </c>
+    </row>
+    <row r="2884" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2884" s="2" t="s">
         <v>3881</v>
+      </c>
+      <c r="B2884" s="1">
+        <v>7.04</v>
+      </c>
+      <c r="C2884" s="2" t="s">
+        <v>3882</v>
+      </c>
+    </row>
+    <row r="2885" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2885" s="2" t="s">
+        <v>3883</v>
+      </c>
+      <c r="B2885" s="1">
+        <v>5</v>
+      </c>
+      <c r="C2885" s="2" t="s">
+        <v>3884</v>
       </c>
     </row>
   </sheetData>

--- a/Running_Log.xlsx
+++ b/Running_Log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/AlexDolwick/dolwick_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CBD1BDB-318B-8542-AB7A-E76A6CC8AAF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED498702-AEBE-B245-8DF8-CD1D7BB4C83F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1400" yWindow="460" windowWidth="25680" windowHeight="15920" xr2:uid="{4B2E00A5-7125-EC4E-9EAD-C4CEE86B127A}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4624" uniqueCount="3886">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4640" uniqueCount="3896">
   <si>
     <t>Date</t>
   </si>
@@ -11691,6 +11691,36 @@
   </si>
   <si>
     <t>2020-10-12</t>
+  </si>
+  <si>
+    <t>2021-10-27</t>
+  </si>
+  <si>
+    <t>2021-10-28</t>
+  </si>
+  <si>
+    <t>50:20</t>
+  </si>
+  <si>
+    <t>2021-10-29</t>
+  </si>
+  <si>
+    <t>2021-11-01</t>
+  </si>
+  <si>
+    <t>2021-11-02</t>
+  </si>
+  <si>
+    <t>2021-11-03</t>
+  </si>
+  <si>
+    <t>2021-11-04</t>
+  </si>
+  <si>
+    <t>39:29</t>
+  </si>
+  <si>
+    <t>2021-11-05</t>
   </si>
 </sst>
 </file>
@@ -12064,10 +12094,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1BECE25-7878-7543-A5E4-1B4438F2AAC2}">
-  <dimension ref="A1:E2885"/>
+  <dimension ref="A1:E2893"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1897" workbookViewId="0">
-      <selection activeCell="D1918" sqref="D1918"/>
+    <sheetView tabSelected="1" topLeftCell="A2876" workbookViewId="0">
+      <selection activeCell="B2894" sqref="B2894"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -42037,6 +42067,94 @@
         <v>3884</v>
       </c>
     </row>
+    <row r="2886" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2886" s="2" t="s">
+        <v>3886</v>
+      </c>
+      <c r="B2886" s="1">
+        <v>6</v>
+      </c>
+      <c r="C2886" s="2" t="s">
+        <v>2936</v>
+      </c>
+    </row>
+    <row r="2887" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2887" s="2" t="s">
+        <v>3887</v>
+      </c>
+      <c r="B2887" s="1">
+        <v>6.42</v>
+      </c>
+      <c r="C2887" s="2" t="s">
+        <v>3888</v>
+      </c>
+    </row>
+    <row r="2888" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2888" s="2" t="s">
+        <v>3889</v>
+      </c>
+      <c r="B2888" s="1">
+        <v>4.05</v>
+      </c>
+      <c r="C2888" s="2" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="2889" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2889" s="2" t="s">
+        <v>3890</v>
+      </c>
+      <c r="B2889" s="1">
+        <v>6.37</v>
+      </c>
+      <c r="C2889" s="2" t="s">
+        <v>3102</v>
+      </c>
+    </row>
+    <row r="2890" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2890" s="2" t="s">
+        <v>3891</v>
+      </c>
+      <c r="B2890" s="1">
+        <v>6.9</v>
+      </c>
+      <c r="C2890" s="2" t="s">
+        <v>3242</v>
+      </c>
+    </row>
+    <row r="2891" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2891" s="2" t="s">
+        <v>3892</v>
+      </c>
+      <c r="B2891" s="1">
+        <v>6.06</v>
+      </c>
+      <c r="C2891" s="2" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="2892" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2892" s="2" t="s">
+        <v>3893</v>
+      </c>
+      <c r="B2892" s="1">
+        <v>4.88</v>
+      </c>
+      <c r="C2892" s="2" t="s">
+        <v>3894</v>
+      </c>
+    </row>
+    <row r="2893" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2893" s="2" t="s">
+        <v>3895</v>
+      </c>
+      <c r="B2893" s="1">
+        <v>6</v>
+      </c>
+      <c r="C2893" s="2" t="s">
+        <v>1972</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>

--- a/Running_Log.xlsx
+++ b/Running_Log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/AlexDolwick/dolwick_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED498702-AEBE-B245-8DF8-CD1D7BB4C83F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C3BE76A-56FA-D64E-8515-1FB40E8C69F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1400" yWindow="460" windowWidth="25680" windowHeight="15920" xr2:uid="{4B2E00A5-7125-EC4E-9EAD-C4CEE86B127A}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4640" uniqueCount="3896">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4652" uniqueCount="3904">
   <si>
     <t>Date</t>
   </si>
@@ -11721,6 +11721,30 @@
   </si>
   <si>
     <t>2021-11-05</t>
+  </si>
+  <si>
+    <t>2021-11-08</t>
+  </si>
+  <si>
+    <t>49:38</t>
+  </si>
+  <si>
+    <t>2021-11-09</t>
+  </si>
+  <si>
+    <t>2021-11-10</t>
+  </si>
+  <si>
+    <t>2021-11-11</t>
+  </si>
+  <si>
+    <t>2021-11-12</t>
+  </si>
+  <si>
+    <t>2021-11-13</t>
+  </si>
+  <si>
+    <t>1:00:50</t>
   </si>
 </sst>
 </file>
@@ -12094,10 +12118,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1BECE25-7878-7543-A5E4-1B4438F2AAC2}">
-  <dimension ref="A1:E2893"/>
+  <dimension ref="A1:E2899"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2876" workbookViewId="0">
-      <selection activeCell="B2894" sqref="B2894"/>
+    <sheetView tabSelected="1" topLeftCell="A2880" workbookViewId="0">
+      <selection activeCell="A2900" sqref="A2900"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -42155,6 +42179,72 @@
         <v>1972</v>
       </c>
     </row>
+    <row r="2894" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2894" s="2" t="s">
+        <v>3896</v>
+      </c>
+      <c r="B2894" s="1">
+        <v>7.05</v>
+      </c>
+      <c r="C2894" s="2" t="s">
+        <v>3897</v>
+      </c>
+    </row>
+    <row r="2895" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2895" s="2" t="s">
+        <v>3898</v>
+      </c>
+      <c r="B2895" s="1">
+        <v>6.28</v>
+      </c>
+      <c r="C2895" s="2" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="2896" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2896" s="2" t="s">
+        <v>3899</v>
+      </c>
+      <c r="B2896" s="1">
+        <v>8.06</v>
+      </c>
+      <c r="C2896" s="2" t="s">
+        <v>2320</v>
+      </c>
+    </row>
+    <row r="2897" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2897" s="2" t="s">
+        <v>3900</v>
+      </c>
+      <c r="B2897" s="1">
+        <v>6.21</v>
+      </c>
+      <c r="C2897" s="2" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="2898" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2898" s="2" t="s">
+        <v>3901</v>
+      </c>
+      <c r="B2898" s="1">
+        <v>4.4800000000000004</v>
+      </c>
+      <c r="C2898" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2899" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2899" s="2" t="s">
+        <v>3902</v>
+      </c>
+      <c r="B2899" s="1">
+        <v>9.18</v>
+      </c>
+      <c r="C2899" s="2" t="s">
+        <v>3903</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>

--- a/Running_Log.xlsx
+++ b/Running_Log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/AlexDolwick/dolwick_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C3BE76A-56FA-D64E-8515-1FB40E8C69F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEFDBD4B-9598-DD45-9182-B6AFCCDC003B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1400" yWindow="460" windowWidth="25680" windowHeight="15920" xr2:uid="{4B2E00A5-7125-EC4E-9EAD-C4CEE86B127A}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4652" uniqueCount="3904">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4678" uniqueCount="3923">
   <si>
     <t>Date</t>
   </si>
@@ -11745,6 +11745,63 @@
   </si>
   <si>
     <t>1:00:50</t>
+  </si>
+  <si>
+    <t>2021-11-15</t>
+  </si>
+  <si>
+    <t>2021-11-16</t>
+  </si>
+  <si>
+    <t>46:33</t>
+  </si>
+  <si>
+    <t>2021-11-17</t>
+  </si>
+  <si>
+    <t>2021-11-23</t>
+  </si>
+  <si>
+    <t>44:39</t>
+  </si>
+  <si>
+    <t>2021-11-25</t>
+  </si>
+  <si>
+    <t>40:43</t>
+  </si>
+  <si>
+    <t>2021-12-03</t>
+  </si>
+  <si>
+    <t>2021-12-04</t>
+  </si>
+  <si>
+    <t>43:05</t>
+  </si>
+  <si>
+    <t>2021-12-06</t>
+  </si>
+  <si>
+    <t>2021-12-13</t>
+  </si>
+  <si>
+    <t>28:35</t>
+  </si>
+  <si>
+    <t>2021-12-16</t>
+  </si>
+  <si>
+    <t>2021-12-19</t>
+  </si>
+  <si>
+    <t>2021-12-17</t>
+  </si>
+  <si>
+    <t>1:11:18</t>
+  </si>
+  <si>
+    <t>2021-12-21</t>
   </si>
 </sst>
 </file>
@@ -12118,10 +12175,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1BECE25-7878-7543-A5E4-1B4438F2AAC2}">
-  <dimension ref="A1:E2899"/>
+  <dimension ref="A1:E2912"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2880" workbookViewId="0">
-      <selection activeCell="A2900" sqref="A2900"/>
+    <sheetView tabSelected="1" topLeftCell="A2881" workbookViewId="0">
+      <selection activeCell="C2913" sqref="C2913"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -42245,6 +42302,149 @@
         <v>3903</v>
       </c>
     </row>
+    <row r="2900" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2900" s="2" t="s">
+        <v>3904</v>
+      </c>
+      <c r="B2900" s="1">
+        <v>8.2899999999999991</v>
+      </c>
+      <c r="C2900" s="2" t="s">
+        <v>3385</v>
+      </c>
+    </row>
+    <row r="2901" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2901" s="2" t="s">
+        <v>3905</v>
+      </c>
+      <c r="B2901" s="1">
+        <v>6.26</v>
+      </c>
+      <c r="C2901" s="2" t="s">
+        <v>3906</v>
+      </c>
+    </row>
+    <row r="2902" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2902" s="2" t="s">
+        <v>3907</v>
+      </c>
+      <c r="B2902" s="1">
+        <v>7.65</v>
+      </c>
+      <c r="C2902" s="2" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="2903" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2903" s="2" t="s">
+        <v>3908</v>
+      </c>
+      <c r="B2903" s="1">
+        <v>6.04</v>
+      </c>
+      <c r="C2903" s="2" t="s">
+        <v>3909</v>
+      </c>
+    </row>
+    <row r="2904" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2904" s="2" t="s">
+        <v>3910</v>
+      </c>
+      <c r="B2904" s="1">
+        <v>6.23</v>
+      </c>
+      <c r="C2904" s="2" t="s">
+        <v>3911</v>
+      </c>
+    </row>
+    <row r="2905" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2905" s="2" t="s">
+        <v>3912</v>
+      </c>
+      <c r="B2905" s="1">
+        <v>4.04</v>
+      </c>
+      <c r="C2905" s="2" t="s">
+        <v>2316</v>
+      </c>
+    </row>
+    <row r="2906" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2906" s="2" t="s">
+        <v>3913</v>
+      </c>
+      <c r="B2906" s="1">
+        <v>6.07</v>
+      </c>
+      <c r="C2906" s="2" t="s">
+        <v>3914</v>
+      </c>
+    </row>
+    <row r="2907" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2907" s="2" t="s">
+        <v>3915</v>
+      </c>
+      <c r="B2907" s="1">
+        <v>4.04</v>
+      </c>
+      <c r="C2907" s="2" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="2908" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2908" s="2" t="s">
+        <v>3916</v>
+      </c>
+      <c r="B2908" s="1">
+        <v>4.03</v>
+      </c>
+      <c r="C2908" s="2" t="s">
+        <v>3917</v>
+      </c>
+    </row>
+    <row r="2909" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2909" s="2" t="s">
+        <v>3918</v>
+      </c>
+      <c r="B2909" s="1">
+        <v>5.0199999999999996</v>
+      </c>
+      <c r="C2909" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="2910" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2910" s="2" t="s">
+        <v>3920</v>
+      </c>
+      <c r="B2910" s="1">
+        <v>6</v>
+      </c>
+      <c r="C2910" s="2" t="s">
+        <v>2197</v>
+      </c>
+    </row>
+    <row r="2911" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2911" s="2" t="s">
+        <v>3919</v>
+      </c>
+      <c r="B2911" s="1">
+        <v>10.220000000000001</v>
+      </c>
+      <c r="C2911" s="2" t="s">
+        <v>3921</v>
+      </c>
+    </row>
+    <row r="2912" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2912" s="2" t="s">
+        <v>3922</v>
+      </c>
+      <c r="B2912" s="1">
+        <v>6.36</v>
+      </c>
+      <c r="C2912" s="2" t="s">
+        <v>3707</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>

--- a/Running_Log.xlsx
+++ b/Running_Log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/AlexDolwick/dolwick_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEFDBD4B-9598-DD45-9182-B6AFCCDC003B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{328EECAE-0928-A94A-A2D5-DA20B6E9E747}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1400" yWindow="460" windowWidth="25680" windowHeight="15920" xr2:uid="{4B2E00A5-7125-EC4E-9EAD-C4CEE86B127A}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4678" uniqueCount="3923">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4688" uniqueCount="3930">
   <si>
     <t>Date</t>
   </si>
@@ -11802,6 +11802,27 @@
   </si>
   <si>
     <t>2021-12-21</t>
+  </si>
+  <si>
+    <t>2021-12-22</t>
+  </si>
+  <si>
+    <t>2021-12-24</t>
+  </si>
+  <si>
+    <t>1:20:04</t>
+  </si>
+  <si>
+    <t>2021-12-25</t>
+  </si>
+  <si>
+    <t>27:23</t>
+  </si>
+  <si>
+    <t>2021-12-26</t>
+  </si>
+  <si>
+    <t>2021-12-28</t>
   </si>
 </sst>
 </file>
@@ -12175,10 +12196,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1BECE25-7878-7543-A5E4-1B4438F2AAC2}">
-  <dimension ref="A1:E2912"/>
+  <dimension ref="A1:E2917"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2881" workbookViewId="0">
-      <selection activeCell="C2913" sqref="C2913"/>
+    <sheetView tabSelected="1" topLeftCell="A2892" workbookViewId="0">
+      <selection activeCell="A2918" sqref="A2918"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -42445,6 +42466,61 @@
         <v>3707</v>
       </c>
     </row>
+    <row r="2913" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2913" s="2" t="s">
+        <v>3923</v>
+      </c>
+      <c r="B2913" s="1">
+        <v>7.27</v>
+      </c>
+      <c r="C2913" s="2" t="s">
+        <v>2902</v>
+      </c>
+    </row>
+    <row r="2914" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2914" s="2" t="s">
+        <v>3924</v>
+      </c>
+      <c r="B2914" s="1">
+        <v>12.04</v>
+      </c>
+      <c r="C2914" s="2" t="s">
+        <v>3925</v>
+      </c>
+    </row>
+    <row r="2915" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2915" s="2" t="s">
+        <v>3926</v>
+      </c>
+      <c r="B2915" s="1">
+        <v>3.17</v>
+      </c>
+      <c r="C2915" s="2" t="s">
+        <v>3927</v>
+      </c>
+    </row>
+    <row r="2916" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2916" s="2" t="s">
+        <v>3928</v>
+      </c>
+      <c r="B2916" s="1">
+        <v>4.41</v>
+      </c>
+      <c r="C2916" s="2" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="2917" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2917" s="2" t="s">
+        <v>3929</v>
+      </c>
+      <c r="B2917" s="1">
+        <v>6</v>
+      </c>
+      <c r="C2917" s="2" t="s">
+        <v>744</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>

--- a/Running_Log.xlsx
+++ b/Running_Log.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/AlexDolwick/dolwick_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{328EECAE-0928-A94A-A2D5-DA20B6E9E747}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63B1BC1A-7B44-224E-A9A8-EC3B97CD7647}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1400" yWindow="460" windowWidth="25680" windowHeight="15920" xr2:uid="{4B2E00A5-7125-EC4E-9EAD-C4CEE86B127A}"/>
+    <workbookView xWindow="2200" yWindow="460" windowWidth="25680" windowHeight="15920" xr2:uid="{4B2E00A5-7125-EC4E-9EAD-C4CEE86B127A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4688" uniqueCount="3930">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4690" uniqueCount="3931">
   <si>
     <t>Date</t>
   </si>
@@ -11823,6 +11823,9 @@
   </si>
   <si>
     <t>2021-12-28</t>
+  </si>
+  <si>
+    <t>2022-01-01</t>
   </si>
 </sst>
 </file>
@@ -12196,10 +12199,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1BECE25-7878-7543-A5E4-1B4438F2AAC2}">
-  <dimension ref="A1:E2917"/>
+  <dimension ref="A1:E2918"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2892" workbookViewId="0">
-      <selection activeCell="A2918" sqref="A2918"/>
+      <selection activeCell="C2918" sqref="C2918"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -42521,6 +42524,17 @@
         <v>744</v>
       </c>
     </row>
+    <row r="2918" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2918" s="2" t="s">
+        <v>3930</v>
+      </c>
+      <c r="B2918" s="1">
+        <v>4.3</v>
+      </c>
+      <c r="C2918" s="2" t="s">
+        <v>468</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>

--- a/Running_Log.xlsx
+++ b/Running_Log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/AlexDolwick/dolwick_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE435137-E6B6-414A-9B8A-1E414DCC483B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37AC9A6F-00E9-5D43-9142-EE58E01E587C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2200" yWindow="460" windowWidth="25680" windowHeight="15920" xr2:uid="{4B2E00A5-7125-EC4E-9EAD-C4CEE86B127A}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4693" uniqueCount="3933">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4898" uniqueCount="4093">
   <si>
     <t>Date</t>
   </si>
@@ -11832,6 +11832,486 @@
   </si>
   <si>
     <t>2009-01-05</t>
+  </si>
+  <si>
+    <t>2022-01-05</t>
+  </si>
+  <si>
+    <t>2022-01-06</t>
+  </si>
+  <si>
+    <t>2022-01-10</t>
+  </si>
+  <si>
+    <t>28:40</t>
+  </si>
+  <si>
+    <t>2022-01-12</t>
+  </si>
+  <si>
+    <t>2022-01-19</t>
+  </si>
+  <si>
+    <t>29:10</t>
+  </si>
+  <si>
+    <t>2022-01-22</t>
+  </si>
+  <si>
+    <t>23:53</t>
+  </si>
+  <si>
+    <t>2022-01-25</t>
+  </si>
+  <si>
+    <t>27:16</t>
+  </si>
+  <si>
+    <t>2022-02-25</t>
+  </si>
+  <si>
+    <t>2022-03-06</t>
+  </si>
+  <si>
+    <t>32:58</t>
+  </si>
+  <si>
+    <t>2022-03-10</t>
+  </si>
+  <si>
+    <t>34:37</t>
+  </si>
+  <si>
+    <t>2022-03-14</t>
+  </si>
+  <si>
+    <t>35:21</t>
+  </si>
+  <si>
+    <t>2022-03-17</t>
+  </si>
+  <si>
+    <t>41:06</t>
+  </si>
+  <si>
+    <t>2022-03-22</t>
+  </si>
+  <si>
+    <t>2022-03-26</t>
+  </si>
+  <si>
+    <t>40:27</t>
+  </si>
+  <si>
+    <t>2022-04-04</t>
+  </si>
+  <si>
+    <t>2022-04-06</t>
+  </si>
+  <si>
+    <t>30:26</t>
+  </si>
+  <si>
+    <t>2022-04-09</t>
+  </si>
+  <si>
+    <t>36:20</t>
+  </si>
+  <si>
+    <t>2022-04-11</t>
+  </si>
+  <si>
+    <t>2022-04-16</t>
+  </si>
+  <si>
+    <t>2022-04-22</t>
+  </si>
+  <si>
+    <t>29:47</t>
+  </si>
+  <si>
+    <t>2022-04-25</t>
+  </si>
+  <si>
+    <t>34:35</t>
+  </si>
+  <si>
+    <t>2022-04-28</t>
+  </si>
+  <si>
+    <t>42:29</t>
+  </si>
+  <si>
+    <t>2022-05-01</t>
+  </si>
+  <si>
+    <t>2022-05-05</t>
+  </si>
+  <si>
+    <t>2022-05-08</t>
+  </si>
+  <si>
+    <t>39:47</t>
+  </si>
+  <si>
+    <t>2022-05-11</t>
+  </si>
+  <si>
+    <t>2022-05-18</t>
+  </si>
+  <si>
+    <t>43:03</t>
+  </si>
+  <si>
+    <t>2022-05-24</t>
+  </si>
+  <si>
+    <t>2022-05-26</t>
+  </si>
+  <si>
+    <t>2022-06-03</t>
+  </si>
+  <si>
+    <t>35:08</t>
+  </si>
+  <si>
+    <t>2022-06-07</t>
+  </si>
+  <si>
+    <t>2022-06-14</t>
+  </si>
+  <si>
+    <t>29:43</t>
+  </si>
+  <si>
+    <t>2022-06-16</t>
+  </si>
+  <si>
+    <t>2022-07-02</t>
+  </si>
+  <si>
+    <t>2022-07-04</t>
+  </si>
+  <si>
+    <t>32:37</t>
+  </si>
+  <si>
+    <t>2022-07-14</t>
+  </si>
+  <si>
+    <t>2022-07-22</t>
+  </si>
+  <si>
+    <t>36:28</t>
+  </si>
+  <si>
+    <t>2022-07-25</t>
+  </si>
+  <si>
+    <t>2022-07-29</t>
+  </si>
+  <si>
+    <t>39:23</t>
+  </si>
+  <si>
+    <t>2022-07-31</t>
+  </si>
+  <si>
+    <t>23:10</t>
+  </si>
+  <si>
+    <t>2022-08-03</t>
+  </si>
+  <si>
+    <t>19:49</t>
+  </si>
+  <si>
+    <t>2022-08-07</t>
+  </si>
+  <si>
+    <t>41:35</t>
+  </si>
+  <si>
+    <t>2022-08-10</t>
+  </si>
+  <si>
+    <t>48:27</t>
+  </si>
+  <si>
+    <t>2022-08-12</t>
+  </si>
+  <si>
+    <t>49:25</t>
+  </si>
+  <si>
+    <t>2022-08-14</t>
+  </si>
+  <si>
+    <t>2022-08-17</t>
+  </si>
+  <si>
+    <t>2022-08-19</t>
+  </si>
+  <si>
+    <t>2022-08-22</t>
+  </si>
+  <si>
+    <t>35:44</t>
+  </si>
+  <si>
+    <t>2022-08-24</t>
+  </si>
+  <si>
+    <t>2022-08-26</t>
+  </si>
+  <si>
+    <t>2022-08-29</t>
+  </si>
+  <si>
+    <t>2022-08-31</t>
+  </si>
+  <si>
+    <t>56:29</t>
+  </si>
+  <si>
+    <t>2022-09-02</t>
+  </si>
+  <si>
+    <t>24:27</t>
+  </si>
+  <si>
+    <t>2022-09-04</t>
+  </si>
+  <si>
+    <t>2022-09-06</t>
+  </si>
+  <si>
+    <t>30:41</t>
+  </si>
+  <si>
+    <t>2022-09-07</t>
+  </si>
+  <si>
+    <t>48:29</t>
+  </si>
+  <si>
+    <t>2022-09-09</t>
+  </si>
+  <si>
+    <t>2022-09-11</t>
+  </si>
+  <si>
+    <t>1:03:49</t>
+  </si>
+  <si>
+    <t>2022-09-12</t>
+  </si>
+  <si>
+    <t>34:42</t>
+  </si>
+  <si>
+    <t>2022-09-14</t>
+  </si>
+  <si>
+    <t>1:06:59</t>
+  </si>
+  <si>
+    <t>2022-09-16</t>
+  </si>
+  <si>
+    <t>49:19</t>
+  </si>
+  <si>
+    <t>2022-09-17</t>
+  </si>
+  <si>
+    <t>2022-09-19</t>
+  </si>
+  <si>
+    <t>48:59</t>
+  </si>
+  <si>
+    <t>2022-09-21</t>
+  </si>
+  <si>
+    <t>2022-09-23</t>
+  </si>
+  <si>
+    <t>38:08</t>
+  </si>
+  <si>
+    <t>2022-09-24</t>
+  </si>
+  <si>
+    <t>2022-09-26</t>
+  </si>
+  <si>
+    <t>2022-09-28</t>
+  </si>
+  <si>
+    <t>1:05:22</t>
+  </si>
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>31:55</t>
+  </si>
+  <si>
+    <t>2022-10-01</t>
+  </si>
+  <si>
+    <t>2022-10-03</t>
+  </si>
+  <si>
+    <t>2022-10-05</t>
+  </si>
+  <si>
+    <t>1:07:41</t>
+  </si>
+  <si>
+    <t>2022-10-07</t>
+  </si>
+  <si>
+    <t>28:38</t>
+  </si>
+  <si>
+    <t>2022-10-09</t>
+  </si>
+  <si>
+    <t>2022-10-10</t>
+  </si>
+  <si>
+    <t>50:42</t>
+  </si>
+  <si>
+    <t>2022-10-12</t>
+  </si>
+  <si>
+    <t>1:23:24</t>
+  </si>
+  <si>
+    <t>2022-10-14</t>
+  </si>
+  <si>
+    <t>2022-10-15</t>
+  </si>
+  <si>
+    <t>29:16</t>
+  </si>
+  <si>
+    <t>2022-10-17</t>
+  </si>
+  <si>
+    <t>43:30</t>
+  </si>
+  <si>
+    <t>2022-10-19</t>
+  </si>
+  <si>
+    <t>54:30</t>
+  </si>
+  <si>
+    <t>2022-10-20</t>
+  </si>
+  <si>
+    <t>1:24:39</t>
+  </si>
+  <si>
+    <t>2022-10-23</t>
+  </si>
+  <si>
+    <t>2022-10-24</t>
+  </si>
+  <si>
+    <t>1:02:05</t>
+  </si>
+  <si>
+    <t>2022-10-26</t>
+  </si>
+  <si>
+    <t>1:11:54</t>
+  </si>
+  <si>
+    <t>2022-10-29</t>
+  </si>
+  <si>
+    <t>1:22:14</t>
+  </si>
+  <si>
+    <t>2022-10-31</t>
+  </si>
+  <si>
+    <t>46:09</t>
+  </si>
+  <si>
+    <t>2022-11-02</t>
+  </si>
+  <si>
+    <t>55:46</t>
+  </si>
+  <si>
+    <t>2022-11-04</t>
+  </si>
+  <si>
+    <t>2022-11-06</t>
+  </si>
+  <si>
+    <t>1:18:11</t>
+  </si>
+  <si>
+    <t>2022-11-08</t>
+  </si>
+  <si>
+    <t>58:45</t>
+  </si>
+  <si>
+    <t>2022-11-09</t>
+  </si>
+  <si>
+    <t>1:01:02</t>
+  </si>
+  <si>
+    <t>2022-11-11</t>
+  </si>
+  <si>
+    <t>2022-11-13</t>
+  </si>
+  <si>
+    <t>1:23:55</t>
+  </si>
+  <si>
+    <t>2022-11-16</t>
+  </si>
+  <si>
+    <t>38:57</t>
+  </si>
+  <si>
+    <t>2022-11-18</t>
+  </si>
+  <si>
+    <t>2022-11-19</t>
+  </si>
+  <si>
+    <t>17:08</t>
+  </si>
+  <si>
+    <t>2022-11-21</t>
+  </si>
+  <si>
+    <t>2022-11-23</t>
+  </si>
+  <si>
+    <t>1:01:59</t>
+  </si>
+  <si>
+    <t>2022-11-24</t>
+  </si>
+  <si>
+    <t>2022-11-26</t>
+  </si>
+  <si>
+    <t>2022-11-29</t>
   </si>
 </sst>
 </file>
@@ -12208,10 +12688,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1BECE25-7878-7543-A5E4-1B4438F2AAC2}">
-  <dimension ref="A1:E2920"/>
+  <dimension ref="A1:E3024"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2904" workbookViewId="0">
-      <selection activeCell="C2924" sqref="C2924"/>
+    <sheetView tabSelected="1" topLeftCell="A3000" workbookViewId="0">
+      <selection activeCell="B3025" sqref="B3025"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -42564,6 +43044,1141 @@
         <v>2448</v>
       </c>
     </row>
+    <row r="2921" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2921" s="2" t="s">
+        <v>3933</v>
+      </c>
+      <c r="B2921" s="1">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="C2921" s="2" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="2922" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2922" s="2" t="s">
+        <v>3934</v>
+      </c>
+      <c r="B2922" s="1">
+        <v>6</v>
+      </c>
+      <c r="C2922" s="2" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="2923" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2923" s="2" t="s">
+        <v>3935</v>
+      </c>
+      <c r="B2923" s="1">
+        <v>4.05</v>
+      </c>
+      <c r="C2923" s="2" t="s">
+        <v>3936</v>
+      </c>
+    </row>
+    <row r="2924" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2924" s="2" t="s">
+        <v>3937</v>
+      </c>
+      <c r="B2924" s="1">
+        <v>10</v>
+      </c>
+      <c r="C2924" s="2" t="s">
+        <v>2255</v>
+      </c>
+    </row>
+    <row r="2925" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2925" s="2" t="s">
+        <v>3938</v>
+      </c>
+      <c r="B2925" s="1">
+        <v>4.03</v>
+      </c>
+      <c r="C2925" s="2" t="s">
+        <v>3939</v>
+      </c>
+    </row>
+    <row r="2926" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2926" s="2" t="s">
+        <v>3940</v>
+      </c>
+      <c r="B2926" s="1">
+        <v>3.16</v>
+      </c>
+      <c r="C2926" s="2" t="s">
+        <v>3941</v>
+      </c>
+    </row>
+    <row r="2927" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2927" s="2" t="s">
+        <v>3942</v>
+      </c>
+      <c r="B2927" s="1">
+        <v>4.07</v>
+      </c>
+      <c r="C2927" s="2" t="s">
+        <v>3943</v>
+      </c>
+    </row>
+    <row r="2928" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2928" s="2" t="s">
+        <v>3944</v>
+      </c>
+      <c r="B2928" s="1">
+        <v>3.45</v>
+      </c>
+      <c r="C2928" s="2" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="2929" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2929" s="2" t="s">
+        <v>3945</v>
+      </c>
+      <c r="B2929" s="1">
+        <v>4.38</v>
+      </c>
+      <c r="C2929" s="2" t="s">
+        <v>3946</v>
+      </c>
+    </row>
+    <row r="2930" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2930" s="2" t="s">
+        <v>3947</v>
+      </c>
+      <c r="B2930" s="1">
+        <v>4.2</v>
+      </c>
+      <c r="C2930" s="2" t="s">
+        <v>3948</v>
+      </c>
+    </row>
+    <row r="2931" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2931" s="2" t="s">
+        <v>3949</v>
+      </c>
+      <c r="B2931" s="1">
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="C2931" s="2" t="s">
+        <v>3950</v>
+      </c>
+    </row>
+    <row r="2932" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2932" s="2" t="s">
+        <v>3951</v>
+      </c>
+      <c r="B2932" s="1">
+        <v>5.55</v>
+      </c>
+      <c r="C2932" s="2" t="s">
+        <v>3952</v>
+      </c>
+    </row>
+    <row r="2933" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2933" s="2" t="s">
+        <v>3953</v>
+      </c>
+      <c r="B2933" s="1">
+        <v>2.75</v>
+      </c>
+      <c r="C2933" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="2934" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2934" s="2" t="s">
+        <v>3954</v>
+      </c>
+      <c r="B2934" s="1">
+        <v>5.03</v>
+      </c>
+      <c r="C2934" s="2" t="s">
+        <v>3955</v>
+      </c>
+    </row>
+    <row r="2935" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2935" s="2" t="s">
+        <v>3956</v>
+      </c>
+      <c r="B2935" s="1">
+        <v>3.11</v>
+      </c>
+      <c r="C2935" s="2" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="2936" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2936" s="2" t="s">
+        <v>3957</v>
+      </c>
+      <c r="B2936" s="1">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="C2936" s="2" t="s">
+        <v>3958</v>
+      </c>
+    </row>
+    <row r="2937" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2937" s="2" t="s">
+        <v>3959</v>
+      </c>
+      <c r="B2937" s="1">
+        <v>5.29</v>
+      </c>
+      <c r="C2937" s="2" t="s">
+        <v>3960</v>
+      </c>
+    </row>
+    <row r="2938" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2938" s="2" t="s">
+        <v>3961</v>
+      </c>
+      <c r="B2938" s="1">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="C2938" s="2" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="2939" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2939" s="2" t="s">
+        <v>3962</v>
+      </c>
+      <c r="B2939" s="1">
+        <v>6.16</v>
+      </c>
+      <c r="C2939" s="2" t="s">
+        <v>3800</v>
+      </c>
+    </row>
+    <row r="2940" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2940" s="2" t="s">
+        <v>3963</v>
+      </c>
+      <c r="B2940" s="1">
+        <v>4.01</v>
+      </c>
+      <c r="C2940" s="2" t="s">
+        <v>3964</v>
+      </c>
+    </row>
+    <row r="2941" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2941" s="2" t="s">
+        <v>3965</v>
+      </c>
+      <c r="B2941" s="1">
+        <v>5</v>
+      </c>
+      <c r="C2941" s="2" t="s">
+        <v>3966</v>
+      </c>
+    </row>
+    <row r="2942" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2942" s="2" t="s">
+        <v>3967</v>
+      </c>
+      <c r="B2942" s="1">
+        <v>6.07</v>
+      </c>
+      <c r="C2942" s="2" t="s">
+        <v>3968</v>
+      </c>
+    </row>
+    <row r="2943" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2943" s="2" t="s">
+        <v>3969</v>
+      </c>
+      <c r="B2943" s="1">
+        <v>7.3</v>
+      </c>
+      <c r="C2943" s="2" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="2944" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2944" s="2" t="s">
+        <v>3970</v>
+      </c>
+      <c r="B2944" s="1">
+        <v>6</v>
+      </c>
+      <c r="C2944" s="2" t="s">
+        <v>3410</v>
+      </c>
+    </row>
+    <row r="2945" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2945" s="2" t="s">
+        <v>3971</v>
+      </c>
+      <c r="B2945" s="1">
+        <v>5.55</v>
+      </c>
+      <c r="C2945" s="2" t="s">
+        <v>3972</v>
+      </c>
+    </row>
+    <row r="2946" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2946" s="2" t="s">
+        <v>3973</v>
+      </c>
+      <c r="B2946" s="1">
+        <v>4.18</v>
+      </c>
+      <c r="C2946" s="2" t="s">
+        <v>3964</v>
+      </c>
+    </row>
+    <row r="2947" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2947" s="2" t="s">
+        <v>3974</v>
+      </c>
+      <c r="B2947" s="1">
+        <v>6.11</v>
+      </c>
+      <c r="C2947" s="2" t="s">
+        <v>3975</v>
+      </c>
+    </row>
+    <row r="2948" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2948" s="2" t="s">
+        <v>3976</v>
+      </c>
+      <c r="B2948" s="1">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="C2948" s="2" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="2949" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2949" s="2" t="s">
+        <v>3977</v>
+      </c>
+      <c r="B2949" s="1">
+        <v>4.93</v>
+      </c>
+      <c r="C2949" s="2" t="s">
+        <v>3894</v>
+      </c>
+    </row>
+    <row r="2950" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2950" s="2" t="s">
+        <v>3978</v>
+      </c>
+      <c r="B2950" s="1">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="C2950" s="2" t="s">
+        <v>3979</v>
+      </c>
+    </row>
+    <row r="2951" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2951" s="2" t="s">
+        <v>3980</v>
+      </c>
+      <c r="B2951" s="1">
+        <v>4.05</v>
+      </c>
+      <c r="C2951" s="2" t="s">
+        <v>1938</v>
+      </c>
+    </row>
+    <row r="2952" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2952" s="2" t="s">
+        <v>3981</v>
+      </c>
+      <c r="B2952" s="1">
+        <v>4.07</v>
+      </c>
+      <c r="C2952" s="2" t="s">
+        <v>3982</v>
+      </c>
+    </row>
+    <row r="2953" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2953" s="2" t="s">
+        <v>3983</v>
+      </c>
+      <c r="B2953" s="1">
+        <v>4.34</v>
+      </c>
+      <c r="C2953" s="2" t="s">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="2954" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2954" s="2" t="s">
+        <v>3984</v>
+      </c>
+      <c r="B2954" s="1">
+        <v>3.11</v>
+      </c>
+      <c r="C2954" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="2955" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2955" s="2" t="s">
+        <v>3985</v>
+      </c>
+      <c r="B2955" s="1">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="C2955" s="2" t="s">
+        <v>3986</v>
+      </c>
+    </row>
+    <row r="2956" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2956" s="2" t="s">
+        <v>3987</v>
+      </c>
+      <c r="B2956" s="1">
+        <v>4.03</v>
+      </c>
+      <c r="C2956" s="2" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="2957" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2957" s="2" t="s">
+        <v>3988</v>
+      </c>
+      <c r="B2957" s="1">
+        <v>5.03</v>
+      </c>
+      <c r="C2957" s="2" t="s">
+        <v>3989</v>
+      </c>
+    </row>
+    <row r="2958" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2958" s="2" t="s">
+        <v>3990</v>
+      </c>
+      <c r="B2958" s="1">
+        <v>3.7</v>
+      </c>
+      <c r="C2958" s="2" t="s">
+        <v>1628</v>
+      </c>
+    </row>
+    <row r="2959" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2959" s="2" t="s">
+        <v>3991</v>
+      </c>
+      <c r="B2959" s="1">
+        <v>5.29</v>
+      </c>
+      <c r="C2959" s="2" t="s">
+        <v>3992</v>
+      </c>
+    </row>
+    <row r="2960" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2960" s="2" t="s">
+        <v>3993</v>
+      </c>
+      <c r="B2960" s="1">
+        <v>3.15</v>
+      </c>
+      <c r="C2960" s="2" t="s">
+        <v>3994</v>
+      </c>
+    </row>
+    <row r="2961" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2961" s="2" t="s">
+        <v>3995</v>
+      </c>
+      <c r="B2961" s="1">
+        <v>3.11</v>
+      </c>
+      <c r="C2961" s="2" t="s">
+        <v>3996</v>
+      </c>
+    </row>
+    <row r="2962" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2962" s="2" t="s">
+        <v>3995</v>
+      </c>
+      <c r="B2962" s="1">
+        <v>2.04</v>
+      </c>
+    </row>
+    <row r="2963" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2963" s="2" t="s">
+        <v>3997</v>
+      </c>
+      <c r="B2963" s="1">
+        <v>5.13</v>
+      </c>
+      <c r="C2963" s="2" t="s">
+        <v>3998</v>
+      </c>
+    </row>
+    <row r="2964" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2964" s="2" t="s">
+        <v>3999</v>
+      </c>
+      <c r="B2964" s="1">
+        <v>6.11</v>
+      </c>
+      <c r="C2964" s="2" t="s">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="2965" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2965" s="2" t="s">
+        <v>4001</v>
+      </c>
+      <c r="B2965" s="1">
+        <v>5.86</v>
+      </c>
+      <c r="C2965" s="2" t="s">
+        <v>4002</v>
+      </c>
+    </row>
+    <row r="2966" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2966" s="2" t="s">
+        <v>4003</v>
+      </c>
+      <c r="B2966" s="1">
+        <v>5.22</v>
+      </c>
+      <c r="C2966" s="2" t="s">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="2967" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2967" s="2" t="s">
+        <v>4004</v>
+      </c>
+      <c r="B2967" s="1">
+        <v>6.04</v>
+      </c>
+      <c r="C2967" s="2" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="2968" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2968" s="2" t="s">
+        <v>4005</v>
+      </c>
+      <c r="B2968" s="1">
+        <v>5.18</v>
+      </c>
+      <c r="C2968" s="2" t="s">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="2969" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2969" s="2" t="s">
+        <v>4006</v>
+      </c>
+      <c r="B2969" s="1">
+        <v>5.0199999999999996</v>
+      </c>
+      <c r="C2969" s="2" t="s">
+        <v>4007</v>
+      </c>
+    </row>
+    <row r="2970" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2970" s="2" t="s">
+        <v>4008</v>
+      </c>
+      <c r="B2970" s="1">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="C2970" s="2" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="2971" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2971" s="2" t="s">
+        <v>4009</v>
+      </c>
+      <c r="B2971" s="1">
+        <v>6.22</v>
+      </c>
+      <c r="C2971" s="2" t="s">
+        <v>3144</v>
+      </c>
+    </row>
+    <row r="2972" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2972" s="2" t="s">
+        <v>4010</v>
+      </c>
+      <c r="B2972" s="1">
+        <v>5.88</v>
+      </c>
+      <c r="C2972" s="2" t="s">
+        <v>3796</v>
+      </c>
+    </row>
+    <row r="2973" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2973" s="2" t="s">
+        <v>4011</v>
+      </c>
+      <c r="B2973" s="1">
+        <v>7.21</v>
+      </c>
+      <c r="C2973" s="2" t="s">
+        <v>4012</v>
+      </c>
+    </row>
+    <row r="2974" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2974" s="2" t="s">
+        <v>4013</v>
+      </c>
+      <c r="B2974" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="C2974" s="2" t="s">
+        <v>4014</v>
+      </c>
+    </row>
+    <row r="2975" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2975" s="2" t="s">
+        <v>4015</v>
+      </c>
+      <c r="B2975" s="1">
+        <v>7.59</v>
+      </c>
+      <c r="C2975" s="2" t="s">
+        <v>3186</v>
+      </c>
+    </row>
+    <row r="2976" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2976" s="2" t="s">
+        <v>4016</v>
+      </c>
+      <c r="B2976" s="1">
+        <v>4.28</v>
+      </c>
+      <c r="C2976" s="2" t="s">
+        <v>4017</v>
+      </c>
+    </row>
+    <row r="2977" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2977" s="2" t="s">
+        <v>4018</v>
+      </c>
+      <c r="B2977" s="1">
+        <v>6.15</v>
+      </c>
+      <c r="C2977" s="2" t="s">
+        <v>4019</v>
+      </c>
+    </row>
+    <row r="2978" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2978" s="2" t="s">
+        <v>4020</v>
+      </c>
+      <c r="B2978" s="1">
+        <v>6.43</v>
+      </c>
+      <c r="C2978" s="2" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="2979" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2979" s="2" t="s">
+        <v>4021</v>
+      </c>
+      <c r="B2979" s="1">
+        <v>8.19</v>
+      </c>
+      <c r="C2979" s="2" t="s">
+        <v>4022</v>
+      </c>
+    </row>
+    <row r="2980" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2980" s="2" t="s">
+        <v>4023</v>
+      </c>
+      <c r="B2980" s="1">
+        <v>5.0199999999999996</v>
+      </c>
+      <c r="C2980" s="2" t="s">
+        <v>4024</v>
+      </c>
+    </row>
+    <row r="2981" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2981" s="2" t="s">
+        <v>4025</v>
+      </c>
+      <c r="B2981" s="1">
+        <v>9.15</v>
+      </c>
+      <c r="C2981" s="2" t="s">
+        <v>4026</v>
+      </c>
+    </row>
+    <row r="2982" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2982" s="2" t="s">
+        <v>4027</v>
+      </c>
+      <c r="B2982" s="1">
+        <v>6.65</v>
+      </c>
+      <c r="C2982" s="2" t="s">
+        <v>4028</v>
+      </c>
+    </row>
+    <row r="2983" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2983" s="2" t="s">
+        <v>4029</v>
+      </c>
+      <c r="B2983" s="1">
+        <v>7.04</v>
+      </c>
+      <c r="C2983" s="2" t="s">
+        <v>3215</v>
+      </c>
+    </row>
+    <row r="2984" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2984" s="2" t="s">
+        <v>4030</v>
+      </c>
+      <c r="B2984" s="1">
+        <v>6.61</v>
+      </c>
+      <c r="C2984" s="2" t="s">
+        <v>4031</v>
+      </c>
+    </row>
+    <row r="2985" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2985" s="2" t="s">
+        <v>4032</v>
+      </c>
+      <c r="B2985" s="1">
+        <v>7.8</v>
+      </c>
+      <c r="C2985" s="2" t="s">
+        <v>2379</v>
+      </c>
+    </row>
+    <row r="2986" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2986" s="2" t="s">
+        <v>4033</v>
+      </c>
+      <c r="B2986" s="1">
+        <v>5.66</v>
+      </c>
+      <c r="C2986" s="2" t="s">
+        <v>4034</v>
+      </c>
+    </row>
+    <row r="2987" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2987" s="2" t="s">
+        <v>4035</v>
+      </c>
+      <c r="B2987" s="1">
+        <v>10.210000000000001</v>
+      </c>
+      <c r="C2987" s="2" t="s">
+        <v>2393</v>
+      </c>
+    </row>
+    <row r="2988" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2988" s="2" t="s">
+        <v>4036</v>
+      </c>
+      <c r="B2988" s="1">
+        <v>4.3</v>
+      </c>
+      <c r="C2988" s="2" t="s">
+        <v>3454</v>
+      </c>
+    </row>
+    <row r="2989" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2989" s="2" t="s">
+        <v>4037</v>
+      </c>
+      <c r="B2989" s="1">
+        <v>8.93</v>
+      </c>
+      <c r="C2989" s="2" t="s">
+        <v>4038</v>
+      </c>
+    </row>
+    <row r="2990" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2990" s="2" t="s">
+        <v>4039</v>
+      </c>
+      <c r="B2990" s="1">
+        <v>4.42</v>
+      </c>
+      <c r="C2990" s="2" t="s">
+        <v>4040</v>
+      </c>
+    </row>
+    <row r="2991" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2991" s="2" t="s">
+        <v>4041</v>
+      </c>
+      <c r="B2991" s="1">
+        <v>5.71</v>
+      </c>
+      <c r="C2991" s="2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="2992" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2992" s="2" t="s">
+        <v>4042</v>
+      </c>
+      <c r="B2992" s="1">
+        <v>7.35</v>
+      </c>
+      <c r="C2992" s="2" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="2993" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2993" s="2" t="s">
+        <v>4043</v>
+      </c>
+      <c r="B2993" s="1">
+        <v>9.26</v>
+      </c>
+      <c r="C2993" s="2" t="s">
+        <v>4044</v>
+      </c>
+    </row>
+    <row r="2994" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2994" s="2" t="s">
+        <v>4045</v>
+      </c>
+      <c r="B2994" s="1">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="C2994" s="2" t="s">
+        <v>4046</v>
+      </c>
+    </row>
+    <row r="2995" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2995" s="2" t="s">
+        <v>4047</v>
+      </c>
+      <c r="B2995" s="1">
+        <v>6.55</v>
+      </c>
+      <c r="C2995" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="2996" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2996" s="2" t="s">
+        <v>4048</v>
+      </c>
+      <c r="B2996" s="1">
+        <v>7</v>
+      </c>
+      <c r="C2996" s="2" t="s">
+        <v>4049</v>
+      </c>
+    </row>
+    <row r="2997" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2997" s="2" t="s">
+        <v>4050</v>
+      </c>
+      <c r="B2997" s="1">
+        <v>11.11</v>
+      </c>
+      <c r="C2997" s="2" t="s">
+        <v>4051</v>
+      </c>
+    </row>
+    <row r="2998" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2998" s="2" t="s">
+        <v>4052</v>
+      </c>
+      <c r="B2998" s="1">
+        <v>7.3</v>
+      </c>
+      <c r="C2998" s="2" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="2999" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2999" s="2" t="s">
+        <v>4053</v>
+      </c>
+      <c r="B2999" s="1">
+        <v>4.24</v>
+      </c>
+      <c r="C2999" s="2" t="s">
+        <v>4054</v>
+      </c>
+    </row>
+    <row r="3000" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3000" s="2" t="s">
+        <v>4055</v>
+      </c>
+      <c r="B3000" s="1">
+        <v>6</v>
+      </c>
+      <c r="C3000" s="2" t="s">
+        <v>4056</v>
+      </c>
+    </row>
+    <row r="3001" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3001" s="2" t="s">
+        <v>4057</v>
+      </c>
+      <c r="B3001" s="1">
+        <v>7.7</v>
+      </c>
+      <c r="C3001" s="2" t="s">
+        <v>4058</v>
+      </c>
+    </row>
+    <row r="3002" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3002" s="2" t="s">
+        <v>4059</v>
+      </c>
+      <c r="B3002" s="1">
+        <v>12.08</v>
+      </c>
+      <c r="C3002" s="2" t="s">
+        <v>4060</v>
+      </c>
+    </row>
+    <row r="3003" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3003" s="2" t="s">
+        <v>4061</v>
+      </c>
+      <c r="B3003" s="1">
+        <v>6.23</v>
+      </c>
+      <c r="C3003" s="2" t="s">
+        <v>3503</v>
+      </c>
+    </row>
+    <row r="3004" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3004" s="2" t="s">
+        <v>4062</v>
+      </c>
+      <c r="B3004" s="1">
+        <v>8.7799999999999994</v>
+      </c>
+      <c r="C3004" s="2" t="s">
+        <v>4063</v>
+      </c>
+    </row>
+    <row r="3005" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3005" s="2" t="s">
+        <v>4064</v>
+      </c>
+      <c r="B3005" s="1">
+        <v>9.8800000000000008</v>
+      </c>
+      <c r="C3005" s="2" t="s">
+        <v>4065</v>
+      </c>
+    </row>
+    <row r="3006" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3006" s="2" t="s">
+        <v>4066</v>
+      </c>
+      <c r="B3006" s="1">
+        <v>10.02</v>
+      </c>
+      <c r="C3006" s="2" t="s">
+        <v>4067</v>
+      </c>
+    </row>
+    <row r="3007" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3007" s="2" t="s">
+        <v>4068</v>
+      </c>
+      <c r="B3007" s="1">
+        <v>6.07</v>
+      </c>
+      <c r="C3007" s="2" t="s">
+        <v>4069</v>
+      </c>
+    </row>
+    <row r="3008" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3008" s="2" t="s">
+        <v>4070</v>
+      </c>
+      <c r="B3008" s="1">
+        <v>8.0399999999999991</v>
+      </c>
+      <c r="C3008" s="2" t="s">
+        <v>4071</v>
+      </c>
+    </row>
+    <row r="3009" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3009" s="2" t="s">
+        <v>4072</v>
+      </c>
+      <c r="B3009" s="1">
+        <v>8.23</v>
+      </c>
+      <c r="C3009" s="2" t="s">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="3010" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3010" s="2" t="s">
+        <v>4073</v>
+      </c>
+      <c r="B3010" s="1">
+        <v>11.67</v>
+      </c>
+      <c r="C3010" s="2" t="s">
+        <v>4074</v>
+      </c>
+    </row>
+    <row r="3011" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3011" s="2" t="s">
+        <v>4075</v>
+      </c>
+      <c r="B3011" s="1">
+        <v>8.18</v>
+      </c>
+      <c r="C3011" s="2" t="s">
+        <v>4076</v>
+      </c>
+    </row>
+    <row r="3012" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3012" s="2" t="s">
+        <v>4077</v>
+      </c>
+      <c r="B3012" s="1">
+        <v>8.35</v>
+      </c>
+      <c r="C3012" s="2" t="s">
+        <v>4078</v>
+      </c>
+    </row>
+    <row r="3013" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3013" s="2" t="s">
+        <v>4079</v>
+      </c>
+      <c r="B3013" s="1">
+        <v>9.11</v>
+      </c>
+      <c r="C3013" s="2" t="s">
+        <v>2370</v>
+      </c>
+    </row>
+    <row r="3014" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3014" s="2" t="s">
+        <v>4080</v>
+      </c>
+      <c r="B3014" s="1">
+        <v>12.11</v>
+      </c>
+      <c r="C3014" s="2" t="s">
+        <v>4081</v>
+      </c>
+    </row>
+    <row r="3015" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3015" s="2" t="s">
+        <v>4082</v>
+      </c>
+      <c r="B3015" s="1">
+        <v>5.01</v>
+      </c>
+      <c r="C3015" s="2" t="s">
+        <v>4083</v>
+      </c>
+    </row>
+    <row r="3016" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3016" s="2" t="s">
+        <v>4084</v>
+      </c>
+      <c r="B3016" s="1">
+        <v>6.29</v>
+      </c>
+      <c r="C3016" s="2" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="3017" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3017" s="2" t="s">
+        <v>4085</v>
+      </c>
+      <c r="B3017" s="1">
+        <v>3.11</v>
+      </c>
+      <c r="C3017" s="2" t="s">
+        <v>4086</v>
+      </c>
+    </row>
+    <row r="3018" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3018" s="2" t="s">
+        <v>4085</v>
+      </c>
+      <c r="B3018" s="1">
+        <v>4.33</v>
+      </c>
+    </row>
+    <row r="3019" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3019" s="2" t="s">
+        <v>4087</v>
+      </c>
+      <c r="B3019" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="C3019" s="2" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="3020" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3020" s="2" t="s">
+        <v>4088</v>
+      </c>
+      <c r="B3020" s="1">
+        <v>6.91</v>
+      </c>
+      <c r="C3020" s="2" t="s">
+        <v>4089</v>
+      </c>
+    </row>
+    <row r="3021" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3021" s="2" t="s">
+        <v>4090</v>
+      </c>
+      <c r="B3021" s="1">
+        <v>3.32</v>
+      </c>
+      <c r="C3021" s="2" t="s">
+        <v>2863</v>
+      </c>
+    </row>
+    <row r="3022" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3022" s="2" t="s">
+        <v>4090</v>
+      </c>
+      <c r="B3022" s="1">
+        <v>4.8099999999999996</v>
+      </c>
+    </row>
+    <row r="3023" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3023" s="2" t="s">
+        <v>4091</v>
+      </c>
+      <c r="B3023" s="1">
+        <v>6.22</v>
+      </c>
+      <c r="C3023" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="3024" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3024" s="2" t="s">
+        <v>4092</v>
+      </c>
+      <c r="B3024" s="1">
+        <v>5</v>
+      </c>
+      <c r="C3024" s="2" t="s">
+        <v>1927</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>

--- a/Running_Log.xlsx
+++ b/Running_Log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/AlexDolwick/dolwick_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37AC9A6F-00E9-5D43-9142-EE58E01E587C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{875B4E29-BAAD-9A47-A4EB-27735A997DD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2200" yWindow="460" windowWidth="25680" windowHeight="15920" xr2:uid="{4B2E00A5-7125-EC4E-9EAD-C4CEE86B127A}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4898" uniqueCount="4093">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5057" uniqueCount="4212">
   <si>
     <t>Date</t>
   </si>
@@ -12312,6 +12312,363 @@
   </si>
   <si>
     <t>2022-11-29</t>
+  </si>
+  <si>
+    <t>2022-12-01</t>
+  </si>
+  <si>
+    <t>1:02:50</t>
+  </si>
+  <si>
+    <t>2022-12-02</t>
+  </si>
+  <si>
+    <t>1:38:59</t>
+  </si>
+  <si>
+    <t>2022-12-04</t>
+  </si>
+  <si>
+    <t>2022-12-05</t>
+  </si>
+  <si>
+    <t>34:28</t>
+  </si>
+  <si>
+    <t>2022-12-07</t>
+  </si>
+  <si>
+    <t>1:17:55</t>
+  </si>
+  <si>
+    <t>2022-12-09</t>
+  </si>
+  <si>
+    <t>2022-12-10</t>
+  </si>
+  <si>
+    <t>1:18:07</t>
+  </si>
+  <si>
+    <t>2022-12-20</t>
+  </si>
+  <si>
+    <t>2022-12-26</t>
+  </si>
+  <si>
+    <t>58:11</t>
+  </si>
+  <si>
+    <t>2022-12-28</t>
+  </si>
+  <si>
+    <t>48:41</t>
+  </si>
+  <si>
+    <t>2022-12-30</t>
+  </si>
+  <si>
+    <t>40:26</t>
+  </si>
+  <si>
+    <t>2023-01-01</t>
+  </si>
+  <si>
+    <t>2023-01-03</t>
+  </si>
+  <si>
+    <t>47:02</t>
+  </si>
+  <si>
+    <t>2023-01-05</t>
+  </si>
+  <si>
+    <t>2023-01-06</t>
+  </si>
+  <si>
+    <t>2023-01-08</t>
+  </si>
+  <si>
+    <t>2023-01-10</t>
+  </si>
+  <si>
+    <t>42:07</t>
+  </si>
+  <si>
+    <t>2023-01-11</t>
+  </si>
+  <si>
+    <t>2023-01-13</t>
+  </si>
+  <si>
+    <t>2023-01-14</t>
+  </si>
+  <si>
+    <t>2023-01-16</t>
+  </si>
+  <si>
+    <t>52:05</t>
+  </si>
+  <si>
+    <t>2023-01-18</t>
+  </si>
+  <si>
+    <t>1:05:59</t>
+  </si>
+  <si>
+    <t>2023-01-20</t>
+  </si>
+  <si>
+    <t>1:18:48</t>
+  </si>
+  <si>
+    <t>2023-01-21</t>
+  </si>
+  <si>
+    <t>2023-01-24</t>
+  </si>
+  <si>
+    <t>2023-01-26</t>
+  </si>
+  <si>
+    <t>2023-01-27</t>
+  </si>
+  <si>
+    <t>1:14:06</t>
+  </si>
+  <si>
+    <t>2023-01-30</t>
+  </si>
+  <si>
+    <t>43:24</t>
+  </si>
+  <si>
+    <t>2023-02-01</t>
+  </si>
+  <si>
+    <t>57:33</t>
+  </si>
+  <si>
+    <t>2023-02-02</t>
+  </si>
+  <si>
+    <t>45:02</t>
+  </si>
+  <si>
+    <t>2023-02-04</t>
+  </si>
+  <si>
+    <t>1:29:11</t>
+  </si>
+  <si>
+    <t>2023-02-06</t>
+  </si>
+  <si>
+    <t>55:50</t>
+  </si>
+  <si>
+    <t>2023-02-08</t>
+  </si>
+  <si>
+    <t>1:13:49</t>
+  </si>
+  <si>
+    <t>2023-02-09</t>
+  </si>
+  <si>
+    <t>2023-02-11</t>
+  </si>
+  <si>
+    <t>1:25:49</t>
+  </si>
+  <si>
+    <t>2023-02-15</t>
+  </si>
+  <si>
+    <t>2023-02-14</t>
+  </si>
+  <si>
+    <t>2023-02-17</t>
+  </si>
+  <si>
+    <t>2023-02-18</t>
+  </si>
+  <si>
+    <t>2023-02-21</t>
+  </si>
+  <si>
+    <t>44:52</t>
+  </si>
+  <si>
+    <t>2023-02-22</t>
+  </si>
+  <si>
+    <t>1:17:02</t>
+  </si>
+  <si>
+    <t>2023-02-23</t>
+  </si>
+  <si>
+    <t>17:37</t>
+  </si>
+  <si>
+    <t>2023-02-24</t>
+  </si>
+  <si>
+    <t>2023-02-26</t>
+  </si>
+  <si>
+    <t>1:22:13</t>
+  </si>
+  <si>
+    <t>2023-02-27</t>
+  </si>
+  <si>
+    <t>2023-02-28</t>
+  </si>
+  <si>
+    <t>2023-03-01</t>
+  </si>
+  <si>
+    <t>57:23</t>
+  </si>
+  <si>
+    <t>2023-03-03</t>
+  </si>
+  <si>
+    <t>2023-03-07</t>
+  </si>
+  <si>
+    <t>2023-03-08</t>
+  </si>
+  <si>
+    <t>52:29</t>
+  </si>
+  <si>
+    <t>2023-03-10</t>
+  </si>
+  <si>
+    <t>2023-03-12</t>
+  </si>
+  <si>
+    <t>2023-03-15</t>
+  </si>
+  <si>
+    <t>2023-03-16</t>
+  </si>
+  <si>
+    <t>2023-03-17</t>
+  </si>
+  <si>
+    <t>45:39</t>
+  </si>
+  <si>
+    <t>2023-03-18</t>
+  </si>
+  <si>
+    <t>1:27:45</t>
+  </si>
+  <si>
+    <t>2023-03-20</t>
+  </si>
+  <si>
+    <t>2023-03-23</t>
+  </si>
+  <si>
+    <t>2023-03-24</t>
+  </si>
+  <si>
+    <t>2023-03-27</t>
+  </si>
+  <si>
+    <t>2023-03-28</t>
+  </si>
+  <si>
+    <t>2023-03-30</t>
+  </si>
+  <si>
+    <t>59:16</t>
+  </si>
+  <si>
+    <t>2023-03-31</t>
+  </si>
+  <si>
+    <t>1:11:32</t>
+  </si>
+  <si>
+    <t>2023-04-03</t>
+  </si>
+  <si>
+    <t>2023-04-01</t>
+  </si>
+  <si>
+    <t>1:04:36</t>
+  </si>
+  <si>
+    <t>2023-04-04</t>
+  </si>
+  <si>
+    <t>2023-04-05</t>
+  </si>
+  <si>
+    <t>1:01:18</t>
+  </si>
+  <si>
+    <t>2023-04-06</t>
+  </si>
+  <si>
+    <t>39:37</t>
+  </si>
+  <si>
+    <t>2023-04-08</t>
+  </si>
+  <si>
+    <t>1:22:58</t>
+  </si>
+  <si>
+    <t>2023-04-10</t>
+  </si>
+  <si>
+    <t>1:02:45</t>
+  </si>
+  <si>
+    <t>2023-04-11</t>
+  </si>
+  <si>
+    <t>2023-04-12</t>
+  </si>
+  <si>
+    <t>56:35</t>
+  </si>
+  <si>
+    <t>2023-04-14</t>
+  </si>
+  <si>
+    <t>5:41</t>
+  </si>
+  <si>
+    <t>2023-04-15</t>
+  </si>
+  <si>
+    <t>1:33:16</t>
+  </si>
+  <si>
+    <t>2023-04-17</t>
+  </si>
+  <si>
+    <t>2023-04-19</t>
+  </si>
+  <si>
+    <t>1:01:21</t>
+  </si>
+  <si>
+    <t>2023-04-21</t>
+  </si>
+  <si>
+    <t>2023-04-22</t>
+  </si>
+  <si>
+    <t>58:29</t>
   </si>
 </sst>
 </file>
@@ -12688,10 +13045,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1BECE25-7878-7543-A5E4-1B4438F2AAC2}">
-  <dimension ref="A1:E3024"/>
+  <dimension ref="A1:E3105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3000" workbookViewId="0">
-      <selection activeCell="B3025" sqref="B3025"/>
+    <sheetView tabSelected="1" topLeftCell="A3094" workbookViewId="0">
+      <selection activeCell="B3106" sqref="B3106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -44179,6 +44536,888 @@
         <v>1927</v>
       </c>
     </row>
+    <row r="3025" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3025" s="2" t="s">
+        <v>4093</v>
+      </c>
+      <c r="B3025" s="1">
+        <v>8.52</v>
+      </c>
+      <c r="C3025" s="2" t="s">
+        <v>4094</v>
+      </c>
+    </row>
+    <row r="3026" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3026" s="2" t="s">
+        <v>4095</v>
+      </c>
+      <c r="B3026" s="1">
+        <v>13.17</v>
+      </c>
+      <c r="C3026" s="2" t="s">
+        <v>4096</v>
+      </c>
+    </row>
+    <row r="3027" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3027" s="2" t="s">
+        <v>4097</v>
+      </c>
+      <c r="B3027" s="1">
+        <v>5.41</v>
+      </c>
+      <c r="C3027" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3028" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3028" s="2" t="s">
+        <v>4098</v>
+      </c>
+      <c r="B3028" s="1">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="C3028" s="2" t="s">
+        <v>4099</v>
+      </c>
+    </row>
+    <row r="3029" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3029" s="2" t="s">
+        <v>4100</v>
+      </c>
+      <c r="B3029" s="1">
+        <v>10.71</v>
+      </c>
+      <c r="C3029" s="2" t="s">
+        <v>4101</v>
+      </c>
+    </row>
+    <row r="3030" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3030" s="2" t="s">
+        <v>4102</v>
+      </c>
+      <c r="B3030" s="1">
+        <v>4.07</v>
+      </c>
+      <c r="C3030" s="2" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="3031" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3031" s="2" t="s">
+        <v>4103</v>
+      </c>
+      <c r="B3031" s="1">
+        <v>13.11</v>
+      </c>
+      <c r="C3031" s="2" t="s">
+        <v>4104</v>
+      </c>
+    </row>
+    <row r="3032" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3032" s="2" t="s">
+        <v>4103</v>
+      </c>
+      <c r="B3032" s="1">
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="3033" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3033" s="2" t="s">
+        <v>4105</v>
+      </c>
+      <c r="B3033" s="1">
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="C3033" s="2" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="3034" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3034" s="2" t="s">
+        <v>4106</v>
+      </c>
+      <c r="B3034" s="1">
+        <v>6.69</v>
+      </c>
+      <c r="C3034" s="2" t="s">
+        <v>4107</v>
+      </c>
+    </row>
+    <row r="3035" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3035" s="2" t="s">
+        <v>4108</v>
+      </c>
+      <c r="B3035" s="1">
+        <v>6.59</v>
+      </c>
+      <c r="C3035" s="2" t="s">
+        <v>4109</v>
+      </c>
+    </row>
+    <row r="3036" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3036" s="2" t="s">
+        <v>4110</v>
+      </c>
+      <c r="B3036" s="1">
+        <v>5</v>
+      </c>
+      <c r="C3036" s="2" t="s">
+        <v>4111</v>
+      </c>
+    </row>
+    <row r="3037" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3037" s="2" t="s">
+        <v>4112</v>
+      </c>
+      <c r="B3037" s="1">
+        <v>4.2</v>
+      </c>
+      <c r="C3037" s="2" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="3038" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3038" s="2" t="s">
+        <v>4113</v>
+      </c>
+      <c r="B3038" s="1">
+        <v>6.43</v>
+      </c>
+      <c r="C3038" s="2" t="s">
+        <v>4114</v>
+      </c>
+    </row>
+    <row r="3039" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3039" s="2" t="s">
+        <v>4115</v>
+      </c>
+      <c r="B3039" s="1">
+        <v>6.43</v>
+      </c>
+      <c r="C3039" s="2" t="s">
+        <v>3865</v>
+      </c>
+    </row>
+    <row r="3040" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3040" s="2" t="s">
+        <v>4116</v>
+      </c>
+      <c r="B3040" s="1">
+        <v>9.08</v>
+      </c>
+      <c r="C3040" s="2" t="s">
+        <v>2550</v>
+      </c>
+    </row>
+    <row r="3041" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3041" s="2" t="s">
+        <v>4117</v>
+      </c>
+      <c r="B3041" s="1">
+        <v>3.82</v>
+      </c>
+      <c r="C3041" s="2" t="s">
+        <v>1628</v>
+      </c>
+    </row>
+    <row r="3042" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3042" s="2" t="s">
+        <v>4118</v>
+      </c>
+      <c r="B3042" s="1">
+        <v>6.01</v>
+      </c>
+      <c r="C3042" s="2" t="s">
+        <v>4119</v>
+      </c>
+    </row>
+    <row r="3043" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3043" s="2" t="s">
+        <v>4120</v>
+      </c>
+      <c r="B3043" s="1">
+        <v>7.91</v>
+      </c>
+      <c r="C3043" s="2" t="s">
+        <v>2438</v>
+      </c>
+    </row>
+    <row r="3044" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3044" s="2" t="s">
+        <v>4121</v>
+      </c>
+      <c r="B3044" s="1">
+        <v>6.08</v>
+      </c>
+      <c r="C3044" s="2" t="s">
+        <v>3328</v>
+      </c>
+    </row>
+    <row r="3045" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3045" s="2" t="s">
+        <v>4122</v>
+      </c>
+      <c r="B3045" s="1">
+        <v>10.53</v>
+      </c>
+      <c r="C3045" s="2" t="s">
+        <v>3198</v>
+      </c>
+    </row>
+    <row r="3046" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3046" s="2" t="s">
+        <v>4123</v>
+      </c>
+      <c r="B3046" s="1">
+        <v>7.07</v>
+      </c>
+      <c r="C3046" s="2" t="s">
+        <v>4124</v>
+      </c>
+    </row>
+    <row r="3047" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3047" s="2" t="s">
+        <v>4125</v>
+      </c>
+      <c r="B3047" s="1">
+        <v>9.33</v>
+      </c>
+      <c r="C3047" s="2" t="s">
+        <v>4126</v>
+      </c>
+    </row>
+    <row r="3048" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3048" s="2" t="s">
+        <v>4127</v>
+      </c>
+      <c r="B3048" s="1">
+        <v>11.02</v>
+      </c>
+      <c r="C3048" s="2" t="s">
+        <v>4128</v>
+      </c>
+    </row>
+    <row r="3049" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3049" s="2" t="s">
+        <v>4129</v>
+      </c>
+      <c r="B3049" s="1">
+        <v>5.69</v>
+      </c>
+      <c r="C3049" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="3050" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3050" s="2" t="s">
+        <v>4130</v>
+      </c>
+      <c r="B3050" s="1">
+        <v>6</v>
+      </c>
+      <c r="C3050" s="2" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="3051" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3051" s="2" t="s">
+        <v>4131</v>
+      </c>
+      <c r="B3051" s="1">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="C3051" s="2" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="3052" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3052" s="2" t="s">
+        <v>4132</v>
+      </c>
+      <c r="B3052" s="1">
+        <v>10.39</v>
+      </c>
+      <c r="C3052" s="2" t="s">
+        <v>4133</v>
+      </c>
+    </row>
+    <row r="3053" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3053" s="2" t="s">
+        <v>4134</v>
+      </c>
+      <c r="B3053" s="1">
+        <v>6.13</v>
+      </c>
+      <c r="C3053" s="2" t="s">
+        <v>4135</v>
+      </c>
+    </row>
+    <row r="3054" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3054" s="2" t="s">
+        <v>4136</v>
+      </c>
+      <c r="B3054" s="1">
+        <v>8.58</v>
+      </c>
+      <c r="C3054" s="2" t="s">
+        <v>4137</v>
+      </c>
+    </row>
+    <row r="3055" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3055" s="2" t="s">
+        <v>4138</v>
+      </c>
+      <c r="B3055" s="1">
+        <v>6.38</v>
+      </c>
+      <c r="C3055" s="2" t="s">
+        <v>4139</v>
+      </c>
+    </row>
+    <row r="3056" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3056" s="2" t="s">
+        <v>4140</v>
+      </c>
+      <c r="B3056" s="1">
+        <v>12.2</v>
+      </c>
+      <c r="C3056" s="2" t="s">
+        <v>4141</v>
+      </c>
+    </row>
+    <row r="3057" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3057" s="2" t="s">
+        <v>4142</v>
+      </c>
+      <c r="B3057" s="1">
+        <v>7.89</v>
+      </c>
+      <c r="C3057" s="2" t="s">
+        <v>4143</v>
+      </c>
+    </row>
+    <row r="3058" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3058" s="2" t="s">
+        <v>4144</v>
+      </c>
+      <c r="B3058" s="1">
+        <v>10.56</v>
+      </c>
+      <c r="C3058" s="2" t="s">
+        <v>4145</v>
+      </c>
+    </row>
+    <row r="3059" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3059" s="2" t="s">
+        <v>4146</v>
+      </c>
+      <c r="B3059" s="1">
+        <v>4.63</v>
+      </c>
+      <c r="C3059" s="2" t="s">
+        <v>2214</v>
+      </c>
+    </row>
+    <row r="3060" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3060" s="2" t="s">
+        <v>4147</v>
+      </c>
+      <c r="B3060" s="1">
+        <v>13.25</v>
+      </c>
+      <c r="C3060" s="2" t="s">
+        <v>4148</v>
+      </c>
+    </row>
+    <row r="3061" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3061" s="2" t="s">
+        <v>4150</v>
+      </c>
+      <c r="B3061" s="1">
+        <v>9.52</v>
+      </c>
+      <c r="C3061" s="2" t="s">
+        <v>2950</v>
+      </c>
+    </row>
+    <row r="3062" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3062" s="2" t="s">
+        <v>4149</v>
+      </c>
+      <c r="B3062" s="1">
+        <v>4.4800000000000004</v>
+      </c>
+      <c r="C3062" s="2" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="3063" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3063" s="2" t="s">
+        <v>4151</v>
+      </c>
+      <c r="B3063" s="1">
+        <v>6.15</v>
+      </c>
+      <c r="C3063" s="2" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="3064" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3064" s="2" t="s">
+        <v>4152</v>
+      </c>
+      <c r="B3064" s="1">
+        <v>6.64</v>
+      </c>
+      <c r="C3064" s="2" t="s">
+        <v>3576</v>
+      </c>
+    </row>
+    <row r="3065" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3065" s="2" t="s">
+        <v>4153</v>
+      </c>
+      <c r="B3065" s="1">
+        <v>6.18</v>
+      </c>
+      <c r="C3065" s="2" t="s">
+        <v>4154</v>
+      </c>
+    </row>
+    <row r="3066" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3066" s="2" t="s">
+        <v>4155</v>
+      </c>
+      <c r="B3066" s="1">
+        <v>11</v>
+      </c>
+      <c r="C3066" s="2" t="s">
+        <v>4156</v>
+      </c>
+    </row>
+    <row r="3067" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3067" s="2" t="s">
+        <v>4157</v>
+      </c>
+      <c r="B3067" s="1">
+        <v>2.23</v>
+      </c>
+      <c r="C3067" s="2" t="s">
+        <v>4158</v>
+      </c>
+    </row>
+    <row r="3068" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3068" s="2" t="s">
+        <v>4159</v>
+      </c>
+      <c r="B3068" s="1">
+        <v>7</v>
+      </c>
+      <c r="C3068" s="2" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="3069" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3069" s="2" t="s">
+        <v>4160</v>
+      </c>
+      <c r="B3069" s="1">
+        <v>12</v>
+      </c>
+      <c r="C3069" s="2" t="s">
+        <v>4161</v>
+      </c>
+    </row>
+    <row r="3070" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3070" s="2" t="s">
+        <v>4162</v>
+      </c>
+      <c r="B3070" s="1">
+        <v>4.09</v>
+      </c>
+      <c r="C3070" s="2" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="3071" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3071" s="2" t="s">
+        <v>4163</v>
+      </c>
+      <c r="B3071" s="1">
+        <v>6</v>
+      </c>
+      <c r="C3071" s="2" t="s">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="3072" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3072" s="2" t="s">
+        <v>4164</v>
+      </c>
+      <c r="B3072" s="1">
+        <v>9.0299999999999994</v>
+      </c>
+      <c r="C3072" s="2" t="s">
+        <v>4165</v>
+      </c>
+    </row>
+    <row r="3073" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3073" s="2" t="s">
+        <v>4166</v>
+      </c>
+      <c r="B3073" s="1">
+        <v>7</v>
+      </c>
+      <c r="C3073" s="2" t="s">
+        <v>3888</v>
+      </c>
+    </row>
+    <row r="3074" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3074" s="2" t="s">
+        <v>4167</v>
+      </c>
+      <c r="B3074" s="1">
+        <v>4.37</v>
+      </c>
+      <c r="C3074" s="2" t="s">
+        <v>1589</v>
+      </c>
+    </row>
+    <row r="3075" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3075" s="2" t="s">
+        <v>4168</v>
+      </c>
+      <c r="B3075" s="1">
+        <v>7.03</v>
+      </c>
+      <c r="C3075" s="2" t="s">
+        <v>4169</v>
+      </c>
+    </row>
+    <row r="3076" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3076" s="2" t="s">
+        <v>4170</v>
+      </c>
+      <c r="B3076" s="1">
+        <v>5.01</v>
+      </c>
+      <c r="C3076" s="2" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="3077" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3077" s="2" t="s">
+        <v>4171</v>
+      </c>
+      <c r="B3077" s="1">
+        <v>6.41</v>
+      </c>
+      <c r="C3077" s="2" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="3078" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3078" s="2" t="s">
+        <v>4171</v>
+      </c>
+      <c r="B3078" s="1">
+        <v>3.83</v>
+      </c>
+    </row>
+    <row r="3079" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3079" s="2" t="s">
+        <v>4172</v>
+      </c>
+      <c r="B3079" s="1">
+        <v>6.11</v>
+      </c>
+      <c r="C3079" s="2" t="s">
+        <v>2450</v>
+      </c>
+    </row>
+    <row r="3080" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3080" s="2" t="s">
+        <v>4173</v>
+      </c>
+      <c r="B3080" s="1">
+        <v>9</v>
+      </c>
+      <c r="C3080" s="2" t="s">
+        <v>3515</v>
+      </c>
+    </row>
+    <row r="3081" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3081" s="2" t="s">
+        <v>4174</v>
+      </c>
+      <c r="B3081" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="C3081" s="2" t="s">
+        <v>4175</v>
+      </c>
+    </row>
+    <row r="3082" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3082" s="2" t="s">
+        <v>4176</v>
+      </c>
+      <c r="B3082" s="1">
+        <v>12</v>
+      </c>
+      <c r="C3082" s="2" t="s">
+        <v>4177</v>
+      </c>
+    </row>
+    <row r="3083" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3083" s="2" t="s">
+        <v>4178</v>
+      </c>
+      <c r="B3083" s="1">
+        <v>6.08</v>
+      </c>
+      <c r="C3083" s="2" t="s">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="3084" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3084" s="2" t="s">
+        <v>4179</v>
+      </c>
+      <c r="B3084" s="1">
+        <v>4.3600000000000003</v>
+      </c>
+      <c r="C3084" s="2" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="3085" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3085" s="2" t="s">
+        <v>4180</v>
+      </c>
+      <c r="B3085" s="1">
+        <v>6.01</v>
+      </c>
+      <c r="C3085" s="2" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="3086" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3086" s="2" t="s">
+        <v>4181</v>
+      </c>
+      <c r="B3086" s="1">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="C3086" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3087" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3087" s="2" t="s">
+        <v>4182</v>
+      </c>
+      <c r="B3087" s="1">
+        <v>6.56</v>
+      </c>
+      <c r="C3087" s="2" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="3088" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3088" s="2" t="s">
+        <v>4183</v>
+      </c>
+      <c r="B3088" s="1">
+        <v>8.35</v>
+      </c>
+      <c r="C3088" s="2" t="s">
+        <v>4184</v>
+      </c>
+    </row>
+    <row r="3089" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3089" s="2" t="s">
+        <v>4185</v>
+      </c>
+      <c r="B3089" s="1">
+        <v>4.93</v>
+      </c>
+      <c r="C3089" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3090" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3090" s="2" t="s">
+        <v>4188</v>
+      </c>
+      <c r="B3090" s="1">
+        <v>10.07</v>
+      </c>
+      <c r="C3090" s="2" t="s">
+        <v>4186</v>
+      </c>
+    </row>
+    <row r="3091" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3091" s="2" t="s">
+        <v>4187</v>
+      </c>
+      <c r="B3091" s="1">
+        <v>8.39</v>
+      </c>
+      <c r="C3091" s="2" t="s">
+        <v>4189</v>
+      </c>
+    </row>
+    <row r="3092" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3092" s="2" t="s">
+        <v>4190</v>
+      </c>
+      <c r="B3092" s="1">
+        <v>6.16</v>
+      </c>
+      <c r="C3092" s="2" t="s">
+        <v>3655</v>
+      </c>
+    </row>
+    <row r="3093" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3093" s="2" t="s">
+        <v>4191</v>
+      </c>
+      <c r="B3093" s="1">
+        <v>8.93</v>
+      </c>
+      <c r="C3093" s="2" t="s">
+        <v>4192</v>
+      </c>
+    </row>
+    <row r="3094" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3094" s="2" t="s">
+        <v>4193</v>
+      </c>
+      <c r="B3094" s="1">
+        <v>5.21</v>
+      </c>
+      <c r="C3094" s="2" t="s">
+        <v>4194</v>
+      </c>
+    </row>
+    <row r="3095" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3095" s="2" t="s">
+        <v>4195</v>
+      </c>
+      <c r="B3095" s="1">
+        <v>12.14</v>
+      </c>
+      <c r="C3095" s="2" t="s">
+        <v>4196</v>
+      </c>
+    </row>
+    <row r="3096" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3096" s="2" t="s">
+        <v>4197</v>
+      </c>
+      <c r="B3096" s="1">
+        <v>8.32</v>
+      </c>
+      <c r="C3096" s="2" t="s">
+        <v>4198</v>
+      </c>
+    </row>
+    <row r="3097" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3097" s="2" t="s">
+        <v>4199</v>
+      </c>
+      <c r="B3097" s="1">
+        <v>6.49</v>
+      </c>
+      <c r="C3097" s="2" t="s">
+        <v>3144</v>
+      </c>
+    </row>
+    <row r="3098" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3098" s="2" t="s">
+        <v>4200</v>
+      </c>
+      <c r="B3098" s="1">
+        <v>7.4</v>
+      </c>
+      <c r="C3098" s="2" t="s">
+        <v>4201</v>
+      </c>
+    </row>
+    <row r="3099" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3099" s="2" t="s">
+        <v>4202</v>
+      </c>
+      <c r="B3099" s="1">
+        <v>0.81</v>
+      </c>
+      <c r="C3099" s="2" t="s">
+        <v>4203</v>
+      </c>
+    </row>
+    <row r="3100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3100" s="2" t="s">
+        <v>4204</v>
+      </c>
+      <c r="B3100" s="1">
+        <v>13.65</v>
+      </c>
+      <c r="C3100" s="2" t="s">
+        <v>4205</v>
+      </c>
+    </row>
+    <row r="3101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3101" s="2" t="s">
+        <v>4206</v>
+      </c>
+      <c r="B3101" s="1">
+        <v>4.83</v>
+      </c>
+      <c r="C3101" s="2" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="3102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3102" s="2" t="s">
+        <v>4207</v>
+      </c>
+      <c r="B3102" s="1">
+        <v>8.4499999999999993</v>
+      </c>
+      <c r="C3102" s="2" t="s">
+        <v>4208</v>
+      </c>
+    </row>
+    <row r="3103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3103" s="2" t="s">
+        <v>4209</v>
+      </c>
+      <c r="B3103" s="1">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="C3103" s="2" t="s">
+        <v>3966</v>
+      </c>
+    </row>
+    <row r="3104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3104" s="2" t="s">
+        <v>4210</v>
+      </c>
+      <c r="B3104" s="1">
+        <v>10</v>
+      </c>
+      <c r="C3104" s="2" t="s">
+        <v>4211</v>
+      </c>
+    </row>
+    <row r="3105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3105" s="2" t="s">
+        <v>4210</v>
+      </c>
+      <c r="B3105" s="1">
+        <v>4.3899999999999997</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>

--- a/Running_Log.xlsx
+++ b/Running_Log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/AlexDolwick/dolwick_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{875B4E29-BAAD-9A47-A4EB-27735A997DD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E2831C7-1819-BE48-AC8D-E5CF3BCE7646}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2200" yWindow="460" windowWidth="25680" windowHeight="15920" xr2:uid="{4B2E00A5-7125-EC4E-9EAD-C4CEE86B127A}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5057" uniqueCount="4212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5065" uniqueCount="4217">
   <si>
     <t>Date</t>
   </si>
@@ -12669,6 +12669,21 @@
   </si>
   <si>
     <t>58:29</t>
+  </si>
+  <si>
+    <t>2023-04-26</t>
+  </si>
+  <si>
+    <t>2023-04-29</t>
+  </si>
+  <si>
+    <t>2023-05-04</t>
+  </si>
+  <si>
+    <t>2023-05-07</t>
+  </si>
+  <si>
+    <t>1:42:31</t>
   </si>
 </sst>
 </file>
@@ -13045,10 +13060,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1BECE25-7878-7543-A5E4-1B4438F2AAC2}">
-  <dimension ref="A1:E3105"/>
+  <dimension ref="A1:E3109"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3094" workbookViewId="0">
-      <selection activeCell="B3106" sqref="B3106"/>
+      <selection activeCell="A3110" sqref="A3110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -45410,12 +45425,56 @@
         <v>4211</v>
       </c>
     </row>
-    <row r="3105" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3105" s="2" t="s">
         <v>4210</v>
       </c>
       <c r="B3105" s="1">
         <v>4.3899999999999997</v>
+      </c>
+    </row>
+    <row r="3106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3106" s="2" t="s">
+        <v>4212</v>
+      </c>
+      <c r="B3106" s="1">
+        <v>7.68</v>
+      </c>
+      <c r="C3106" s="2" t="s">
+        <v>4208</v>
+      </c>
+    </row>
+    <row r="3107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3107" s="2" t="s">
+        <v>4213</v>
+      </c>
+      <c r="B3107" s="1">
+        <v>3.41</v>
+      </c>
+      <c r="C3107" s="2" t="s">
+        <v>2053</v>
+      </c>
+    </row>
+    <row r="3108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3108" s="2" t="s">
+        <v>4214</v>
+      </c>
+      <c r="B3108" s="1">
+        <v>7.73</v>
+      </c>
+      <c r="C3108" s="2" t="s">
+        <v>3721</v>
+      </c>
+    </row>
+    <row r="3109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3109" s="2" t="s">
+        <v>4215</v>
+      </c>
+      <c r="B3109" s="1">
+        <v>12.14</v>
+      </c>
+      <c r="C3109" s="2" t="s">
+        <v>4216</v>
       </c>
     </row>
   </sheetData>

--- a/Running_Log.xlsx
+++ b/Running_Log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/AlexDolwick/dolwick_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E2831C7-1819-BE48-AC8D-E5CF3BCE7646}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B86A4A07-DBAB-D34B-BBD9-C6F08DA78647}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2200" yWindow="460" windowWidth="25680" windowHeight="15920" xr2:uid="{4B2E00A5-7125-EC4E-9EAD-C4CEE86B127A}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5065" uniqueCount="4217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5077" uniqueCount="4226">
   <si>
     <t>Date</t>
   </si>
@@ -12684,6 +12684,33 @@
   </si>
   <si>
     <t>1:42:31</t>
+  </si>
+  <si>
+    <t>2023-05-11</t>
+  </si>
+  <si>
+    <t>50:24</t>
+  </si>
+  <si>
+    <t>2023-05-13</t>
+  </si>
+  <si>
+    <t>48:02</t>
+  </si>
+  <si>
+    <t>2023-05-15</t>
+  </si>
+  <si>
+    <t>2023-05-20</t>
+  </si>
+  <si>
+    <t>2023-05-24</t>
+  </si>
+  <si>
+    <t>1:19:16</t>
+  </si>
+  <si>
+    <t>2023-05-25</t>
   </si>
 </sst>
 </file>
@@ -13060,10 +13087,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1BECE25-7878-7543-A5E4-1B4438F2AAC2}">
-  <dimension ref="A1:E3109"/>
+  <dimension ref="A1:E3115"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3094" workbookViewId="0">
-      <selection activeCell="A3110" sqref="A3110"/>
+      <selection activeCell="A3116" sqref="A3116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -45477,6 +45504,72 @@
         <v>4216</v>
       </c>
     </row>
+    <row r="3110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3110" s="2" t="s">
+        <v>4217</v>
+      </c>
+      <c r="B3110" s="1">
+        <v>7.1</v>
+      </c>
+      <c r="C3110" s="2" t="s">
+        <v>4218</v>
+      </c>
+    </row>
+    <row r="3111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3111" s="2" t="s">
+        <v>4219</v>
+      </c>
+      <c r="B3111" s="1">
+        <v>6.51</v>
+      </c>
+      <c r="C3111" s="2" t="s">
+        <v>4220</v>
+      </c>
+    </row>
+    <row r="3112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3112" s="2" t="s">
+        <v>4221</v>
+      </c>
+      <c r="B3112" s="1">
+        <v>6.16</v>
+      </c>
+      <c r="C3112" s="2" t="s">
+        <v>4139</v>
+      </c>
+    </row>
+    <row r="3113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3113" s="2" t="s">
+        <v>4222</v>
+      </c>
+      <c r="B3113" s="1">
+        <v>6.45</v>
+      </c>
+      <c r="C3113" s="2" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="3114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3114" s="2" t="s">
+        <v>4223</v>
+      </c>
+      <c r="B3114" s="1">
+        <v>10.11</v>
+      </c>
+      <c r="C3114" s="2" t="s">
+        <v>4224</v>
+      </c>
+    </row>
+    <row r="3115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3115" s="2" t="s">
+        <v>4225</v>
+      </c>
+      <c r="B3115" s="1">
+        <v>6.14</v>
+      </c>
+      <c r="C3115" s="2" t="s">
+        <v>974</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>

--- a/Running_Log.xlsx
+++ b/Running_Log.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/AlexDolwick/dolwick_project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adolwick/dolwick_project/biof309project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B86A4A07-DBAB-D34B-BBD9-C6F08DA78647}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E8D3E8B-EDF4-8D40-9350-3A4427BF019F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2200" yWindow="460" windowWidth="25680" windowHeight="15920" xr2:uid="{4B2E00A5-7125-EC4E-9EAD-C4CEE86B127A}"/>
+    <workbookView xWindow="2200" yWindow="500" windowWidth="25680" windowHeight="15920" xr2:uid="{4B2E00A5-7125-EC4E-9EAD-C4CEE86B127A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5077" uniqueCount="4226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5246" uniqueCount="4361">
   <si>
     <t>Date</t>
   </si>
@@ -12711,6 +12711,411 @@
   </si>
   <si>
     <t>2023-05-25</t>
+  </si>
+  <si>
+    <t>2023-05-31</t>
+  </si>
+  <si>
+    <t>2023-06-04</t>
+  </si>
+  <si>
+    <t>2023-06-08</t>
+  </si>
+  <si>
+    <t>2023-06-27</t>
+  </si>
+  <si>
+    <t>48:30</t>
+  </si>
+  <si>
+    <t>2023-07-06</t>
+  </si>
+  <si>
+    <t>31:58</t>
+  </si>
+  <si>
+    <t>2023-07-11</t>
+  </si>
+  <si>
+    <t>2023-07-13</t>
+  </si>
+  <si>
+    <t>34:12</t>
+  </si>
+  <si>
+    <t>2023-07-15</t>
+  </si>
+  <si>
+    <t>1:13:31</t>
+  </si>
+  <si>
+    <t>2023-07-17</t>
+  </si>
+  <si>
+    <t>2023-07-19</t>
+  </si>
+  <si>
+    <t>2023-07-20</t>
+  </si>
+  <si>
+    <t>2023-07-24</t>
+  </si>
+  <si>
+    <t>2023-07-26</t>
+  </si>
+  <si>
+    <t>2023-07-28</t>
+  </si>
+  <si>
+    <t>2023-07-31</t>
+  </si>
+  <si>
+    <t>35:40</t>
+  </si>
+  <si>
+    <t>2023-08-02</t>
+  </si>
+  <si>
+    <t>44:11</t>
+  </si>
+  <si>
+    <t>2023-08-04</t>
+  </si>
+  <si>
+    <t>10:43</t>
+  </si>
+  <si>
+    <t>2023-08-06</t>
+  </si>
+  <si>
+    <t>43:41</t>
+  </si>
+  <si>
+    <t>2023-08-07</t>
+  </si>
+  <si>
+    <t>32:38</t>
+  </si>
+  <si>
+    <t>2023-08-09</t>
+  </si>
+  <si>
+    <t>2023-08-11</t>
+  </si>
+  <si>
+    <t>45:34</t>
+  </si>
+  <si>
+    <t>2023-08-13</t>
+  </si>
+  <si>
+    <t>58:00</t>
+  </si>
+  <si>
+    <t>2023-08-15</t>
+  </si>
+  <si>
+    <t>2023-08-17</t>
+  </si>
+  <si>
+    <t>2023-08-19</t>
+  </si>
+  <si>
+    <t>58:52</t>
+  </si>
+  <si>
+    <t>2023-08-21</t>
+  </si>
+  <si>
+    <t>2023-08-23</t>
+  </si>
+  <si>
+    <t>49:33</t>
+  </si>
+  <si>
+    <t>2023-08-24</t>
+  </si>
+  <si>
+    <t>33:13</t>
+  </si>
+  <si>
+    <t>2023-08-26</t>
+  </si>
+  <si>
+    <t>1:08:01</t>
+  </si>
+  <si>
+    <t>2023-08-29</t>
+  </si>
+  <si>
+    <t>2023-09-01</t>
+  </si>
+  <si>
+    <t>2023-09-03</t>
+  </si>
+  <si>
+    <t>46:18</t>
+  </si>
+  <si>
+    <t>2023-09-05</t>
+  </si>
+  <si>
+    <t>47:38</t>
+  </si>
+  <si>
+    <t>2023-09-06</t>
+  </si>
+  <si>
+    <t>2023-09-07</t>
+  </si>
+  <si>
+    <t>31:26</t>
+  </si>
+  <si>
+    <t>2023-09-09</t>
+  </si>
+  <si>
+    <t>1:02:29</t>
+  </si>
+  <si>
+    <t>2023-09-12</t>
+  </si>
+  <si>
+    <t>48:53</t>
+  </si>
+  <si>
+    <t>2023-09-13</t>
+  </si>
+  <si>
+    <t>55:27</t>
+  </si>
+  <si>
+    <t>2023-09-15</t>
+  </si>
+  <si>
+    <t>2023-09-16</t>
+  </si>
+  <si>
+    <t>1:13:27</t>
+  </si>
+  <si>
+    <t>2023-09-19</t>
+  </si>
+  <si>
+    <t>52:44</t>
+  </si>
+  <si>
+    <t>2023-09-20</t>
+  </si>
+  <si>
+    <t>54:09</t>
+  </si>
+  <si>
+    <t>2023-09-21</t>
+  </si>
+  <si>
+    <t>39:50</t>
+  </si>
+  <si>
+    <t>2023-09-23</t>
+  </si>
+  <si>
+    <t>2023-09-26</t>
+  </si>
+  <si>
+    <t>2023-09-28</t>
+  </si>
+  <si>
+    <t>51:11</t>
+  </si>
+  <si>
+    <t>2023-09-29</t>
+  </si>
+  <si>
+    <t>28:26</t>
+  </si>
+  <si>
+    <t>2023-09-30</t>
+  </si>
+  <si>
+    <t>30:04</t>
+  </si>
+  <si>
+    <t>2023-10-03</t>
+  </si>
+  <si>
+    <t>2023-10-04</t>
+  </si>
+  <si>
+    <t>2023-10-06</t>
+  </si>
+  <si>
+    <t>39:38</t>
+  </si>
+  <si>
+    <t>2023-10-07</t>
+  </si>
+  <si>
+    <t>1:04:49</t>
+  </si>
+  <si>
+    <t>2023-10-09</t>
+  </si>
+  <si>
+    <t>2023-10-11</t>
+  </si>
+  <si>
+    <t>2023-10-12</t>
+  </si>
+  <si>
+    <t>2023-10-14</t>
+  </si>
+  <si>
+    <t>1:25:05</t>
+  </si>
+  <si>
+    <t>2023-10-16</t>
+  </si>
+  <si>
+    <t>48:23</t>
+  </si>
+  <si>
+    <t>2023-10-18</t>
+  </si>
+  <si>
+    <t>2023-10-20</t>
+  </si>
+  <si>
+    <t>2023-10-21</t>
+  </si>
+  <si>
+    <t>1:25:28</t>
+  </si>
+  <si>
+    <t>28:07</t>
+  </si>
+  <si>
+    <t>2023-10-24</t>
+  </si>
+  <si>
+    <t>2023-10-25</t>
+  </si>
+  <si>
+    <t>2023-10-26</t>
+  </si>
+  <si>
+    <t>2023-10-29</t>
+  </si>
+  <si>
+    <t>1:02:16</t>
+  </si>
+  <si>
+    <t>2023-10-30</t>
+  </si>
+  <si>
+    <t>41:52</t>
+  </si>
+  <si>
+    <t>2023-10-31</t>
+  </si>
+  <si>
+    <t>20:20</t>
+  </si>
+  <si>
+    <t>2023-11-01</t>
+  </si>
+  <si>
+    <t>2023-11-03</t>
+  </si>
+  <si>
+    <t>2023-11-04</t>
+  </si>
+  <si>
+    <t>1:32:47</t>
+  </si>
+  <si>
+    <t>2023-11-06</t>
+  </si>
+  <si>
+    <t>49:49</t>
+  </si>
+  <si>
+    <t>2023-11-09</t>
+  </si>
+  <si>
+    <t>40:47</t>
+  </si>
+  <si>
+    <t>2023-11-11</t>
+  </si>
+  <si>
+    <t>1:28:20</t>
+  </si>
+  <si>
+    <t>2023-11-12</t>
+  </si>
+  <si>
+    <t>38:45</t>
+  </si>
+  <si>
+    <t>2023-11-14</t>
+  </si>
+  <si>
+    <t>31:59</t>
+  </si>
+  <si>
+    <t>2023-11-15</t>
+  </si>
+  <si>
+    <t>2023-11-17</t>
+  </si>
+  <si>
+    <t>30:59</t>
+  </si>
+  <si>
+    <t>2023-11-18</t>
+  </si>
+  <si>
+    <t>17:43</t>
+  </si>
+  <si>
+    <t>2023-11-20</t>
+  </si>
+  <si>
+    <t>43:18</t>
+  </si>
+  <si>
+    <t>2023-11-22</t>
+  </si>
+  <si>
+    <t>57:47</t>
+  </si>
+  <si>
+    <t>2023-11-23</t>
+  </si>
+  <si>
+    <t>31:05</t>
+  </si>
+  <si>
+    <t>2023-11-24</t>
+  </si>
+  <si>
+    <t>1:35:51</t>
+  </si>
+  <si>
+    <t>2023-11-27</t>
+  </si>
+  <si>
+    <t>1:05:40</t>
+  </si>
+  <si>
+    <t>2023-11-29</t>
+  </si>
+  <si>
+    <t>1:03:06</t>
+  </si>
+  <si>
+    <t>2023-11-30</t>
   </si>
 </sst>
 </file>
@@ -13087,10 +13492,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1BECE25-7878-7543-A5E4-1B4438F2AAC2}">
-  <dimension ref="A1:E3115"/>
+  <dimension ref="A1:E3202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3094" workbookViewId="0">
-      <selection activeCell="A3116" sqref="A3116"/>
+    <sheetView tabSelected="1" topLeftCell="A3178" workbookViewId="0">
+      <selection activeCell="C3203" sqref="C3203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -45570,6 +45975,948 @@
         <v>974</v>
       </c>
     </row>
+    <row r="3116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3116" s="2" t="s">
+        <v>4226</v>
+      </c>
+      <c r="B3116" s="1">
+        <v>7.89</v>
+      </c>
+      <c r="C3116" s="2" t="s">
+        <v>2624</v>
+      </c>
+    </row>
+    <row r="3117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3117" s="2" t="s">
+        <v>4227</v>
+      </c>
+      <c r="B3117" s="1">
+        <v>4.51</v>
+      </c>
+      <c r="C3117" s="2" t="s">
+        <v>2219</v>
+      </c>
+    </row>
+    <row r="3118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3118" s="2" t="s">
+        <v>4228</v>
+      </c>
+      <c r="B3118" s="1">
+        <v>6.03</v>
+      </c>
+      <c r="C3118" s="2" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="3119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3119" s="2" t="s">
+        <v>4229</v>
+      </c>
+      <c r="B3119" s="1">
+        <v>6.36</v>
+      </c>
+      <c r="C3119" s="2" t="s">
+        <v>4230</v>
+      </c>
+    </row>
+    <row r="3120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3120" s="2" t="s">
+        <v>4231</v>
+      </c>
+      <c r="B3120" s="1">
+        <v>4.3</v>
+      </c>
+      <c r="C3120" s="2" t="s">
+        <v>4232</v>
+      </c>
+    </row>
+    <row r="3121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3121" s="2" t="s">
+        <v>4233</v>
+      </c>
+      <c r="B3121" s="1">
+        <v>4.53</v>
+      </c>
+      <c r="C3121" s="2" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="3122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3122" s="2" t="s">
+        <v>4234</v>
+      </c>
+      <c r="B3122" s="1">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="C3122" s="2" t="s">
+        <v>4235</v>
+      </c>
+    </row>
+    <row r="3123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3123" s="2" t="s">
+        <v>4236</v>
+      </c>
+      <c r="B3123" s="1">
+        <v>8.08</v>
+      </c>
+      <c r="C3123" s="2" t="s">
+        <v>4237</v>
+      </c>
+    </row>
+    <row r="3124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3124" s="2" t="s">
+        <v>4238</v>
+      </c>
+      <c r="B3124" s="1">
+        <v>6.16</v>
+      </c>
+      <c r="C3124" s="2" t="s">
+        <v>1807</v>
+      </c>
+    </row>
+    <row r="3125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3125" s="2" t="s">
+        <v>4239</v>
+      </c>
+      <c r="B3125" s="1">
+        <v>6.8</v>
+      </c>
+      <c r="C3125" s="2" t="s">
+        <v>3397</v>
+      </c>
+    </row>
+    <row r="3126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3126" s="2" t="s">
+        <v>4240</v>
+      </c>
+      <c r="B3126" s="1">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="C3126" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="3127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3127" s="2" t="s">
+        <v>4241</v>
+      </c>
+      <c r="B3127" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="C3127" s="2" t="s">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="3128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3128" s="2" t="s">
+        <v>4242</v>
+      </c>
+      <c r="B3128" s="1">
+        <v>7.51</v>
+      </c>
+    </row>
+    <row r="3129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3129" s="2" t="s">
+        <v>4243</v>
+      </c>
+      <c r="B3129" s="1">
+        <v>4.54</v>
+      </c>
+      <c r="C3129" s="2" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="3130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3130" s="2" t="s">
+        <v>4244</v>
+      </c>
+      <c r="B3130" s="1">
+        <v>4.5199999999999996</v>
+      </c>
+      <c r="C3130" s="2" t="s">
+        <v>4245</v>
+      </c>
+    </row>
+    <row r="3131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3131" s="2" t="s">
+        <v>4246</v>
+      </c>
+      <c r="B3131" s="1">
+        <v>6</v>
+      </c>
+      <c r="C3131" s="2" t="s">
+        <v>4247</v>
+      </c>
+    </row>
+    <row r="3132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3132" s="2" t="s">
+        <v>4248</v>
+      </c>
+      <c r="B3132" s="1">
+        <v>1.86</v>
+      </c>
+      <c r="C3132" s="2" t="s">
+        <v>4249</v>
+      </c>
+    </row>
+    <row r="3133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3133" s="2" t="s">
+        <v>4248</v>
+      </c>
+      <c r="B3133" s="1">
+        <v>2.69</v>
+      </c>
+    </row>
+    <row r="3134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3134" s="2" t="s">
+        <v>4250</v>
+      </c>
+      <c r="B3134" s="1">
+        <v>6</v>
+      </c>
+      <c r="C3134" s="2" t="s">
+        <v>4251</v>
+      </c>
+    </row>
+    <row r="3135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3135" s="2" t="s">
+        <v>4252</v>
+      </c>
+      <c r="B3135" s="1">
+        <v>4.47</v>
+      </c>
+      <c r="C3135" s="2" t="s">
+        <v>4253</v>
+      </c>
+    </row>
+    <row r="3136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3136" s="2" t="s">
+        <v>4254</v>
+      </c>
+      <c r="B3136" s="1">
+        <v>6.29</v>
+      </c>
+      <c r="C3136" s="2" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="3137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3137" s="2" t="s">
+        <v>4255</v>
+      </c>
+      <c r="B3137" s="1">
+        <v>6.02</v>
+      </c>
+      <c r="C3137" s="2" t="s">
+        <v>4256</v>
+      </c>
+    </row>
+    <row r="3138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3138" s="2" t="s">
+        <v>4257</v>
+      </c>
+      <c r="B3138" s="1">
+        <v>7.29</v>
+      </c>
+      <c r="C3138" s="2" t="s">
+        <v>4258</v>
+      </c>
+    </row>
+    <row r="3139" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3139" s="2" t="s">
+        <v>4259</v>
+      </c>
+      <c r="B3139" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="C3139" s="2" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="3140" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3140" s="2" t="s">
+        <v>4260</v>
+      </c>
+      <c r="B3140" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="C3140" s="2" t="s">
+        <v>1785</v>
+      </c>
+    </row>
+    <row r="3141" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3141" s="2" t="s">
+        <v>4261</v>
+      </c>
+      <c r="B3141" s="1">
+        <v>8.5399999999999991</v>
+      </c>
+      <c r="C3141" s="2" t="s">
+        <v>4262</v>
+      </c>
+    </row>
+    <row r="3142" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3142" s="2" t="s">
+        <v>4263</v>
+      </c>
+      <c r="B3142" s="1">
+        <v>4.53</v>
+      </c>
+      <c r="C3142" s="2" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="3143" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3143" s="2" t="s">
+        <v>4264</v>
+      </c>
+      <c r="B3143" s="1">
+        <v>6.76</v>
+      </c>
+      <c r="C3143" s="2" t="s">
+        <v>4265</v>
+      </c>
+    </row>
+    <row r="3144" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3144" s="2" t="s">
+        <v>4266</v>
+      </c>
+      <c r="B3144" s="1">
+        <v>4.68</v>
+      </c>
+      <c r="C3144" s="2" t="s">
+        <v>4267</v>
+      </c>
+    </row>
+    <row r="3145" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3145" s="2" t="s">
+        <v>4268</v>
+      </c>
+      <c r="B3145" s="1">
+        <v>9.17</v>
+      </c>
+      <c r="C3145" s="2" t="s">
+        <v>4269</v>
+      </c>
+    </row>
+    <row r="3146" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3146" s="2" t="s">
+        <v>4270</v>
+      </c>
+      <c r="B3146" s="1">
+        <v>4.53</v>
+      </c>
+      <c r="C3146" s="2" t="s">
+        <v>3247</v>
+      </c>
+    </row>
+    <row r="3147" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3147" s="2" t="s">
+        <v>4271</v>
+      </c>
+      <c r="B3147" s="1">
+        <v>6.04</v>
+      </c>
+      <c r="C3147" s="2" t="s">
+        <v>3909</v>
+      </c>
+    </row>
+    <row r="3148" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3148" s="2" t="s">
+        <v>4272</v>
+      </c>
+      <c r="B3148" s="1">
+        <v>6.05</v>
+      </c>
+      <c r="C3148" s="2" t="s">
+        <v>4273</v>
+      </c>
+    </row>
+    <row r="3149" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3149" s="2" t="s">
+        <v>4274</v>
+      </c>
+      <c r="B3149" s="1">
+        <v>6.51</v>
+      </c>
+      <c r="C3149" s="2" t="s">
+        <v>4275</v>
+      </c>
+    </row>
+    <row r="3150" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3150" s="2" t="s">
+        <v>4276</v>
+      </c>
+      <c r="B3150" s="1">
+        <v>7.25</v>
+      </c>
+      <c r="C3150" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3151" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3151" s="2" t="s">
+        <v>4277</v>
+      </c>
+      <c r="B3151" s="1">
+        <v>4.24</v>
+      </c>
+      <c r="C3151" s="2" t="s">
+        <v>4278</v>
+      </c>
+    </row>
+    <row r="3152" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3152" s="2" t="s">
+        <v>4279</v>
+      </c>
+      <c r="B3152" s="1">
+        <v>8.0399999999999991</v>
+      </c>
+      <c r="C3152" s="2" t="s">
+        <v>4280</v>
+      </c>
+    </row>
+    <row r="3153" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3153" s="2" t="s">
+        <v>4281</v>
+      </c>
+      <c r="B3153" s="1">
+        <v>7.15</v>
+      </c>
+      <c r="C3153" s="2" t="s">
+        <v>4282</v>
+      </c>
+    </row>
+    <row r="3154" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3154" s="2" t="s">
+        <v>4283</v>
+      </c>
+      <c r="B3154" s="1">
+        <v>7.56</v>
+      </c>
+      <c r="C3154" s="2" t="s">
+        <v>4284</v>
+      </c>
+    </row>
+    <row r="3155" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3155" s="2" t="s">
+        <v>4285</v>
+      </c>
+      <c r="B3155" s="1">
+        <v>5.6</v>
+      </c>
+      <c r="C3155" s="2" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="3156" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3156" s="2" t="s">
+        <v>4286</v>
+      </c>
+      <c r="B3156" s="1">
+        <v>9.6300000000000008</v>
+      </c>
+      <c r="C3156" s="2" t="s">
+        <v>4287</v>
+      </c>
+    </row>
+    <row r="3157" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3157" s="2" t="s">
+        <v>4288</v>
+      </c>
+      <c r="B3157" s="1">
+        <v>7.31</v>
+      </c>
+      <c r="C3157" s="2" t="s">
+        <v>4289</v>
+      </c>
+    </row>
+    <row r="3158" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3158" s="2" t="s">
+        <v>4290</v>
+      </c>
+      <c r="B3158" s="1">
+        <v>8.24</v>
+      </c>
+      <c r="C3158" s="2" t="s">
+        <v>4291</v>
+      </c>
+    </row>
+    <row r="3159" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3159" s="2" t="s">
+        <v>4292</v>
+      </c>
+      <c r="B3159" s="1">
+        <v>5.33</v>
+      </c>
+      <c r="C3159" s="2" t="s">
+        <v>4293</v>
+      </c>
+    </row>
+    <row r="3160" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3160" s="2" t="s">
+        <v>4294</v>
+      </c>
+      <c r="B3160" s="1">
+        <v>10.23</v>
+      </c>
+      <c r="C3160" s="2" t="s">
+        <v>1911</v>
+      </c>
+    </row>
+    <row r="3161" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3161" s="2" t="s">
+        <v>4295</v>
+      </c>
+      <c r="B3161" s="1">
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="C3161" s="2" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="3162" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3162" s="2" t="s">
+        <v>4296</v>
+      </c>
+      <c r="B3162" s="1">
+        <v>7.18</v>
+      </c>
+      <c r="C3162" s="2" t="s">
+        <v>4297</v>
+      </c>
+    </row>
+    <row r="3163" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3163" s="2" t="s">
+        <v>4298</v>
+      </c>
+      <c r="B3163" s="1">
+        <v>4.16</v>
+      </c>
+      <c r="C3163" s="2" t="s">
+        <v>4299</v>
+      </c>
+    </row>
+    <row r="3164" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3164" s="2" t="s">
+        <v>4300</v>
+      </c>
+      <c r="B3164" s="1">
+        <v>4.97</v>
+      </c>
+      <c r="C3164" s="2" t="s">
+        <v>4301</v>
+      </c>
+    </row>
+    <row r="3165" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3165" s="2" t="s">
+        <v>4300</v>
+      </c>
+      <c r="B3165" s="1">
+        <v>3.51</v>
+      </c>
+    </row>
+    <row r="3166" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3166" s="2" t="s">
+        <v>4302</v>
+      </c>
+      <c r="B3166" s="1">
+        <v>7.19</v>
+      </c>
+      <c r="C3166" s="2" t="s">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="3167" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3167" s="2" t="s">
+        <v>4303</v>
+      </c>
+      <c r="B3167" s="1">
+        <v>8.61</v>
+      </c>
+    </row>
+    <row r="3168" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3168" s="2" t="s">
+        <v>4304</v>
+      </c>
+      <c r="B3168" s="1">
+        <v>4.74</v>
+      </c>
+      <c r="C3168" s="2" t="s">
+        <v>4305</v>
+      </c>
+    </row>
+    <row r="3169" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3169" s="2" t="s">
+        <v>4306</v>
+      </c>
+      <c r="B3169" s="1">
+        <v>10</v>
+      </c>
+      <c r="C3169" s="2" t="s">
+        <v>4307</v>
+      </c>
+    </row>
+    <row r="3170" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3170" s="2" t="s">
+        <v>4308</v>
+      </c>
+      <c r="B3170" s="1">
+        <v>7.52</v>
+      </c>
+      <c r="C3170" s="2" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="3171" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3171" s="2" t="s">
+        <v>4309</v>
+      </c>
+      <c r="B3171" s="1">
+        <v>8.26</v>
+      </c>
+      <c r="C3171" s="2" t="s">
+        <v>1714</v>
+      </c>
+    </row>
+    <row r="3172" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3172" s="2" t="s">
+        <v>4310</v>
+      </c>
+      <c r="B3172" s="1">
+        <v>5.14</v>
+      </c>
+      <c r="C3172" s="2" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="3173" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3173" s="2" t="s">
+        <v>4311</v>
+      </c>
+      <c r="B3173" s="1">
+        <v>12.38</v>
+      </c>
+      <c r="C3173" s="2" t="s">
+        <v>4312</v>
+      </c>
+    </row>
+    <row r="3174" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3174" s="2" t="s">
+        <v>4313</v>
+      </c>
+      <c r="B3174" s="1">
+        <v>7.09</v>
+      </c>
+      <c r="C3174" s="2" t="s">
+        <v>4314</v>
+      </c>
+    </row>
+    <row r="3175" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3175" s="2" t="s">
+        <v>4315</v>
+      </c>
+      <c r="B3175" s="1">
+        <v>8.43</v>
+      </c>
+      <c r="C3175" s="2" t="s">
+        <v>1568</v>
+      </c>
+    </row>
+    <row r="3176" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3176" s="2" t="s">
+        <v>4316</v>
+      </c>
+      <c r="B3176" s="1">
+        <v>4.53</v>
+      </c>
+      <c r="C3176" s="2" t="s">
+        <v>3454</v>
+      </c>
+    </row>
+    <row r="3177" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3177" s="2" t="s">
+        <v>4317</v>
+      </c>
+      <c r="B3177" s="1">
+        <v>12.01</v>
+      </c>
+      <c r="C3177" s="2" t="s">
+        <v>4318</v>
+      </c>
+    </row>
+    <row r="3178" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3178" s="2" t="s">
+        <v>4320</v>
+      </c>
+      <c r="B3178" s="1">
+        <v>3.99</v>
+      </c>
+      <c r="C3178" s="2" t="s">
+        <v>4319</v>
+      </c>
+    </row>
+    <row r="3179" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3179" s="2" t="s">
+        <v>4321</v>
+      </c>
+      <c r="B3179" s="1">
+        <v>7.34</v>
+      </c>
+      <c r="C3179" s="2" t="s">
+        <v>1554</v>
+      </c>
+    </row>
+    <row r="3180" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3180" s="2" t="s">
+        <v>4322</v>
+      </c>
+      <c r="B3180" s="1">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="C3180" s="2" t="s">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="3181" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3181" s="2" t="s">
+        <v>4323</v>
+      </c>
+      <c r="B3181" s="1">
+        <v>8</v>
+      </c>
+      <c r="C3181" s="2" t="s">
+        <v>4324</v>
+      </c>
+    </row>
+    <row r="3182" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3182" s="2" t="s">
+        <v>4325</v>
+      </c>
+      <c r="B3182" s="1">
+        <v>5.05</v>
+      </c>
+      <c r="C3182" s="2" t="s">
+        <v>4326</v>
+      </c>
+    </row>
+    <row r="3183" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3183" s="2" t="s">
+        <v>4327</v>
+      </c>
+      <c r="B3183" s="1">
+        <v>3.11</v>
+      </c>
+      <c r="C3183" s="2" t="s">
+        <v>4328</v>
+      </c>
+    </row>
+    <row r="3184" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3184" s="2" t="s">
+        <v>4329</v>
+      </c>
+      <c r="B3184" s="1">
+        <v>10.36</v>
+      </c>
+      <c r="C3184" s="2" t="s">
+        <v>3198</v>
+      </c>
+    </row>
+    <row r="3185" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3185" s="2" t="s">
+        <v>4330</v>
+      </c>
+      <c r="B3185" s="1">
+        <v>4.05</v>
+      </c>
+      <c r="C3185" s="2" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="3186" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3186" s="2" t="s">
+        <v>4331</v>
+      </c>
+      <c r="B3186" s="1">
+        <v>12</v>
+      </c>
+      <c r="C3186" s="2" t="s">
+        <v>4332</v>
+      </c>
+    </row>
+    <row r="3187" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3187" s="2" t="s">
+        <v>4333</v>
+      </c>
+      <c r="B3187" s="1">
+        <v>7.07</v>
+      </c>
+      <c r="C3187" s="2" t="s">
+        <v>4334</v>
+      </c>
+    </row>
+    <row r="3188" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3188" s="2" t="s">
+        <v>4335</v>
+      </c>
+      <c r="B3188" s="1">
+        <v>5.3</v>
+      </c>
+      <c r="C3188" s="2" t="s">
+        <v>4336</v>
+      </c>
+    </row>
+    <row r="3189" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3189" s="2" t="s">
+        <v>4337</v>
+      </c>
+      <c r="B3189" s="1">
+        <v>13.11</v>
+      </c>
+      <c r="C3189" s="2" t="s">
+        <v>4338</v>
+      </c>
+    </row>
+    <row r="3190" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3190" s="2" t="s">
+        <v>4339</v>
+      </c>
+      <c r="B3190" s="1">
+        <v>5.07</v>
+      </c>
+      <c r="C3190" s="2" t="s">
+        <v>4340</v>
+      </c>
+    </row>
+    <row r="3191" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3191" s="2" t="s">
+        <v>4341</v>
+      </c>
+      <c r="B3191" s="1">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="C3191" s="2" t="s">
+        <v>4342</v>
+      </c>
+    </row>
+    <row r="3192" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3192" s="2" t="s">
+        <v>4343</v>
+      </c>
+      <c r="B3192" s="1">
+        <v>7.12</v>
+      </c>
+      <c r="C3192" s="2" t="s">
+        <v>1534</v>
+      </c>
+    </row>
+    <row r="3193" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3193" s="2" t="s">
+        <v>4344</v>
+      </c>
+      <c r="B3193" s="1">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="C3193" s="2" t="s">
+        <v>4345</v>
+      </c>
+    </row>
+    <row r="3194" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3194" s="2" t="s">
+        <v>4346</v>
+      </c>
+      <c r="B3194" s="1">
+        <v>3.11</v>
+      </c>
+      <c r="C3194" s="2" t="s">
+        <v>4347</v>
+      </c>
+    </row>
+    <row r="3195" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3195" s="2" t="s">
+        <v>4346</v>
+      </c>
+      <c r="B3195" s="1">
+        <v>5.03</v>
+      </c>
+    </row>
+    <row r="3196" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3196" s="2" t="s">
+        <v>4348</v>
+      </c>
+      <c r="B3196" s="1">
+        <v>6.24</v>
+      </c>
+      <c r="C3196" s="2" t="s">
+        <v>4349</v>
+      </c>
+    </row>
+    <row r="3197" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3197" s="2" t="s">
+        <v>4350</v>
+      </c>
+      <c r="B3197" s="1">
+        <v>8.01</v>
+      </c>
+      <c r="C3197" s="2" t="s">
+        <v>4351</v>
+      </c>
+    </row>
+    <row r="3198" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3198" s="2" t="s">
+        <v>4352</v>
+      </c>
+      <c r="B3198" s="1">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="C3198" s="2" t="s">
+        <v>4353</v>
+      </c>
+    </row>
+    <row r="3199" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3199" s="2" t="s">
+        <v>4354</v>
+      </c>
+      <c r="B3199" s="1">
+        <v>12.23</v>
+      </c>
+      <c r="C3199" s="2" t="s">
+        <v>4355</v>
+      </c>
+    </row>
+    <row r="3200" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3200" s="2" t="s">
+        <v>4356</v>
+      </c>
+      <c r="B3200" s="1">
+        <v>8.44</v>
+      </c>
+      <c r="C3200" s="2" t="s">
+        <v>4357</v>
+      </c>
+    </row>
+    <row r="3201" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3201" s="2" t="s">
+        <v>4358</v>
+      </c>
+      <c r="B3201" s="1">
+        <v>9.58</v>
+      </c>
+      <c r="C3201" s="2" t="s">
+        <v>4359</v>
+      </c>
+    </row>
+    <row r="3202" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3202" s="2" t="s">
+        <v>4360</v>
+      </c>
+      <c r="B3202" s="1">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="C3202" s="2" t="s">
+        <v>1590</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>

--- a/Running_Log.xlsx
+++ b/Running_Log.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adolwick/dolwick_project/biof309project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E8D3E8B-EDF4-8D40-9350-3A4427BF019F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F5114C6-479C-6C4F-9F59-1629F7D792AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2200" yWindow="500" windowWidth="25680" windowHeight="15920" xr2:uid="{4B2E00A5-7125-EC4E-9EAD-C4CEE86B127A}"/>
+    <workbookView xWindow="2200" yWindow="500" windowWidth="25680" windowHeight="15820" xr2:uid="{4B2E00A5-7125-EC4E-9EAD-C4CEE86B127A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5246" uniqueCount="4361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5272" uniqueCount="4381">
   <si>
     <t>Date</t>
   </si>
@@ -13116,6 +13116,66 @@
   </si>
   <si>
     <t>2023-11-30</t>
+  </si>
+  <si>
+    <t>2023-12-06</t>
+  </si>
+  <si>
+    <t>2023-12-07</t>
+  </si>
+  <si>
+    <t>2023-12-09</t>
+  </si>
+  <si>
+    <t>1:43:45</t>
+  </si>
+  <si>
+    <t>2023-12-11</t>
+  </si>
+  <si>
+    <t>39:56</t>
+  </si>
+  <si>
+    <t>2023-12-13</t>
+  </si>
+  <si>
+    <t>53:32</t>
+  </si>
+  <si>
+    <t>2023-12-14</t>
+  </si>
+  <si>
+    <t>2023-12-16</t>
+  </si>
+  <si>
+    <t>1:09:12</t>
+  </si>
+  <si>
+    <t>1:49</t>
+  </si>
+  <si>
+    <t>2023-12-18</t>
+  </si>
+  <si>
+    <t>2023-12-21</t>
+  </si>
+  <si>
+    <t>12:19</t>
+  </si>
+  <si>
+    <t>2023-12-24</t>
+  </si>
+  <si>
+    <t>2024-01-01</t>
+  </si>
+  <si>
+    <t>23:16</t>
+  </si>
+  <si>
+    <t>2024-01-05</t>
+  </si>
+  <si>
+    <t>21:22</t>
   </si>
 </sst>
 </file>
@@ -13492,10 +13552,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1BECE25-7878-7543-A5E4-1B4438F2AAC2}">
-  <dimension ref="A1:E3202"/>
+  <dimension ref="A1:E3215"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3178" workbookViewId="0">
-      <selection activeCell="C3203" sqref="C3203"/>
+    <sheetView tabSelected="1" topLeftCell="A3187" workbookViewId="0">
+      <selection activeCell="C3216" sqref="C3216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -46917,6 +46977,149 @@
         <v>1590</v>
       </c>
     </row>
+    <row r="3203" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3203" s="2" t="s">
+        <v>4361</v>
+      </c>
+      <c r="B3203" s="1">
+        <v>6.48</v>
+      </c>
+      <c r="C3203" s="2" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="3204" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3204" s="2" t="s">
+        <v>4362</v>
+      </c>
+      <c r="B3204" s="1">
+        <v>8.17</v>
+      </c>
+      <c r="C3204" s="2" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="3205" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3205" s="2" t="s">
+        <v>4363</v>
+      </c>
+      <c r="B3205" s="1">
+        <v>14.07</v>
+      </c>
+      <c r="C3205" s="2" t="s">
+        <v>4364</v>
+      </c>
+    </row>
+    <row r="3206" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3206" s="2" t="s">
+        <v>4365</v>
+      </c>
+      <c r="B3206" s="1">
+        <v>5</v>
+      </c>
+      <c r="C3206" s="2" t="s">
+        <v>4366</v>
+      </c>
+    </row>
+    <row r="3207" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3207" s="2" t="s">
+        <v>4367</v>
+      </c>
+      <c r="B3207" s="1">
+        <v>7</v>
+      </c>
+      <c r="C3207" s="2" t="s">
+        <v>4368</v>
+      </c>
+    </row>
+    <row r="3208" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3208" s="2" t="s">
+        <v>4369</v>
+      </c>
+      <c r="B3208" s="1">
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="C3208" s="2" t="s">
+        <v>4284</v>
+      </c>
+    </row>
+    <row r="3209" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3209" s="2" t="s">
+        <v>4370</v>
+      </c>
+      <c r="B3209" s="1">
+        <v>10.64</v>
+      </c>
+      <c r="C3209" s="2" t="s">
+        <v>4371</v>
+      </c>
+    </row>
+    <row r="3210" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3210" s="2" t="s">
+        <v>4370</v>
+      </c>
+      <c r="B3210" s="1">
+        <v>0.21</v>
+      </c>
+      <c r="C3210" s="2" t="s">
+        <v>4372</v>
+      </c>
+    </row>
+    <row r="3211" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3211" s="2" t="s">
+        <v>4373</v>
+      </c>
+      <c r="B3211" s="1">
+        <v>6.18</v>
+      </c>
+      <c r="C3211" s="2" t="s">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="3212" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3212" s="2" t="s">
+        <v>4374</v>
+      </c>
+      <c r="B3212" s="1">
+        <v>1.62</v>
+      </c>
+      <c r="C3212" s="2" t="s">
+        <v>4375</v>
+      </c>
+    </row>
+    <row r="3213" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3213" s="2" t="s">
+        <v>4376</v>
+      </c>
+      <c r="B3213" s="1">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="C3213" s="2" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="3214" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3214" s="2" t="s">
+        <v>4377</v>
+      </c>
+      <c r="B3214" s="1">
+        <v>3.11</v>
+      </c>
+      <c r="C3214" s="2" t="s">
+        <v>4378</v>
+      </c>
+    </row>
+    <row r="3215" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3215" s="2" t="s">
+        <v>4379</v>
+      </c>
+      <c r="B3215" s="1">
+        <v>3.11</v>
+      </c>
+      <c r="C3215" s="2" t="s">
+        <v>4380</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>

--- a/Running_Log.xlsx
+++ b/Running_Log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adolwick/dolwick_project/biof309project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F5114C6-479C-6C4F-9F59-1629F7D792AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27CC3C81-349D-7645-A297-5A823EB2AD6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2200" yWindow="500" windowWidth="25680" windowHeight="15820" xr2:uid="{4B2E00A5-7125-EC4E-9EAD-C4CEE86B127A}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5272" uniqueCount="4381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5303" uniqueCount="4405">
   <si>
     <t>Date</t>
   </si>
@@ -13176,6 +13176,78 @@
   </si>
   <si>
     <t>21:22</t>
+  </si>
+  <si>
+    <t>2024-01-08</t>
+  </si>
+  <si>
+    <t>36:03</t>
+  </si>
+  <si>
+    <t>2024-01-10</t>
+  </si>
+  <si>
+    <t>2024-01-12</t>
+  </si>
+  <si>
+    <t>57:13</t>
+  </si>
+  <si>
+    <t>2024-01-14</t>
+  </si>
+  <si>
+    <t>37:38</t>
+  </si>
+  <si>
+    <t>2024-01-16</t>
+  </si>
+  <si>
+    <t>23:33</t>
+  </si>
+  <si>
+    <t>2024-01-18</t>
+  </si>
+  <si>
+    <t>36:41</t>
+  </si>
+  <si>
+    <t>2024-01-20</t>
+  </si>
+  <si>
+    <t>2024-01-21</t>
+  </si>
+  <si>
+    <t>2024-01-24</t>
+  </si>
+  <si>
+    <t>38:28</t>
+  </si>
+  <si>
+    <t>2024-01-25</t>
+  </si>
+  <si>
+    <t>50:53</t>
+  </si>
+  <si>
+    <t>2024-01-27</t>
+  </si>
+  <si>
+    <t>1:23:32</t>
+  </si>
+  <si>
+    <t>2024-01-29</t>
+  </si>
+  <si>
+    <t>2024-01-30</t>
+  </si>
+  <si>
+    <t>2024-02-01</t>
+  </si>
+  <si>
+    <t>2024-02-03</t>
+  </si>
+  <si>
+    <t>1:36:32</t>
   </si>
 </sst>
 </file>
@@ -13552,10 +13624,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1BECE25-7878-7543-A5E4-1B4438F2AAC2}">
-  <dimension ref="A1:E3215"/>
+  <dimension ref="A1:E3231"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3187" workbookViewId="0">
-      <selection activeCell="C3216" sqref="C3216"/>
+    <sheetView tabSelected="1" topLeftCell="A3224" workbookViewId="0">
+      <selection activeCell="C3232" sqref="C3232"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -47120,6 +47192,179 @@
         <v>4380</v>
       </c>
     </row>
+    <row r="3216" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3216" s="2" t="s">
+        <v>4381</v>
+      </c>
+      <c r="B3216" s="1">
+        <v>5.04</v>
+      </c>
+      <c r="C3216" s="2" t="s">
+        <v>4382</v>
+      </c>
+    </row>
+    <row r="3217" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3217" s="2" t="s">
+        <v>4383</v>
+      </c>
+      <c r="B3217" s="1">
+        <v>5</v>
+      </c>
+      <c r="C3217" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="3218" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3218" s="2" t="s">
+        <v>4384</v>
+      </c>
+      <c r="B3218" s="1">
+        <v>7.75</v>
+      </c>
+      <c r="C3218" s="2" t="s">
+        <v>4385</v>
+      </c>
+    </row>
+    <row r="3219" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3219" s="2" t="s">
+        <v>4386</v>
+      </c>
+      <c r="B3219" s="1">
+        <v>5.05</v>
+      </c>
+      <c r="C3219" s="2" t="s">
+        <v>4387</v>
+      </c>
+    </row>
+    <row r="3220" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3220" s="2" t="s">
+        <v>4388</v>
+      </c>
+      <c r="B3220" s="1">
+        <v>3.17</v>
+      </c>
+      <c r="C3220" s="2" t="s">
+        <v>4389</v>
+      </c>
+    </row>
+    <row r="3221" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3221" s="2" t="s">
+        <v>4390</v>
+      </c>
+      <c r="B3221" s="1">
+        <v>5.35</v>
+      </c>
+      <c r="C3221" s="2" t="s">
+        <v>4391</v>
+      </c>
+    </row>
+    <row r="3222" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3222" s="2" t="s">
+        <v>4392</v>
+      </c>
+      <c r="B3222" s="1">
+        <v>3.21</v>
+      </c>
+      <c r="C3222" s="2" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="3223" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3223" s="2" t="s">
+        <v>4393</v>
+      </c>
+      <c r="B3223" s="1">
+        <v>9.14</v>
+      </c>
+      <c r="C3223" s="2" t="s">
+        <v>4137</v>
+      </c>
+    </row>
+    <row r="3224" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3224" s="2" t="s">
+        <v>4393</v>
+      </c>
+      <c r="B3224" s="1">
+        <v>1.77</v>
+      </c>
+    </row>
+    <row r="3225" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3225" s="2" t="s">
+        <v>4394</v>
+      </c>
+      <c r="B3225" s="1">
+        <v>5.05</v>
+      </c>
+      <c r="C3225" s="2" t="s">
+        <v>4395</v>
+      </c>
+    </row>
+    <row r="3226" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3226" s="2" t="s">
+        <v>4396</v>
+      </c>
+      <c r="B3226" s="1">
+        <v>7</v>
+      </c>
+      <c r="C3226" s="2" t="s">
+        <v>4397</v>
+      </c>
+    </row>
+    <row r="3227" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3227" s="2" t="s">
+        <v>4398</v>
+      </c>
+      <c r="B3227" s="1">
+        <v>12</v>
+      </c>
+      <c r="C3227" s="2" t="s">
+        <v>4399</v>
+      </c>
+    </row>
+    <row r="3228" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3228" s="2" t="s">
+        <v>4400</v>
+      </c>
+      <c r="B3228" s="1">
+        <v>5.12</v>
+      </c>
+      <c r="C3228" s="2" t="s">
+        <v>1486</v>
+      </c>
+    </row>
+    <row r="3229" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3229" s="2" t="s">
+        <v>4401</v>
+      </c>
+      <c r="B3229" s="1">
+        <v>7</v>
+      </c>
+      <c r="C3229" s="2" t="s">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="3230" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3230" s="2" t="s">
+        <v>4402</v>
+      </c>
+      <c r="B3230" s="1">
+        <v>7</v>
+      </c>
+      <c r="C3230" s="2" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="3231" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3231" s="2" t="s">
+        <v>4403</v>
+      </c>
+      <c r="B3231" s="1">
+        <v>14.1</v>
+      </c>
+      <c r="C3231" s="2" t="s">
+        <v>4404</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>

--- a/Running_Log.xlsx
+++ b/Running_Log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adolwick/dolwick_project/biof309project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27CC3C81-349D-7645-A297-5A823EB2AD6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{455BFD5F-C783-734E-9635-1A4BBAD28338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2200" yWindow="500" windowWidth="25680" windowHeight="15820" xr2:uid="{4B2E00A5-7125-EC4E-9EAD-C4CEE86B127A}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5303" uniqueCount="4405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5313" uniqueCount="4412">
   <si>
     <t>Date</t>
   </si>
@@ -13248,6 +13248,27 @@
   </si>
   <si>
     <t>1:36:32</t>
+  </si>
+  <si>
+    <t>2024-02-05</t>
+  </si>
+  <si>
+    <t>51:29</t>
+  </si>
+  <si>
+    <t>2024-02-06</t>
+  </si>
+  <si>
+    <t>2024-02-08</t>
+  </si>
+  <si>
+    <t>2024-02-09</t>
+  </si>
+  <si>
+    <t>2024-02-10</t>
+  </si>
+  <si>
+    <t>1:49:25</t>
   </si>
 </sst>
 </file>
@@ -13624,10 +13645,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1BECE25-7878-7543-A5E4-1B4438F2AAC2}">
-  <dimension ref="A1:E3231"/>
+  <dimension ref="A1:E3236"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3224" workbookViewId="0">
-      <selection activeCell="C3232" sqref="C3232"/>
+    <sheetView tabSelected="1" topLeftCell="A3210" workbookViewId="0">
+      <selection activeCell="C3237" sqref="C3237"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -47365,6 +47386,61 @@
         <v>4404</v>
       </c>
     </row>
+    <row r="3232" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3232" s="2" t="s">
+        <v>4405</v>
+      </c>
+      <c r="B3232" s="1">
+        <v>6.4</v>
+      </c>
+      <c r="C3232" s="2" t="s">
+        <v>4406</v>
+      </c>
+    </row>
+    <row r="3233" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3233" s="2" t="s">
+        <v>4407</v>
+      </c>
+      <c r="B3233" s="1">
+        <v>7</v>
+      </c>
+      <c r="C3233" s="2" t="s">
+        <v>3628</v>
+      </c>
+    </row>
+    <row r="3234" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3234" s="2" t="s">
+        <v>4408</v>
+      </c>
+      <c r="B3234" s="1">
+        <v>5</v>
+      </c>
+      <c r="C3234" s="2" t="s">
+        <v>4119</v>
+      </c>
+    </row>
+    <row r="3235" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3235" s="2" t="s">
+        <v>4409</v>
+      </c>
+      <c r="B3235" s="1">
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="C3235" s="2" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="3236" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3236" s="2" t="s">
+        <v>4410</v>
+      </c>
+      <c r="B3236" s="1">
+        <v>16.13</v>
+      </c>
+      <c r="C3236" s="2" t="s">
+        <v>4411</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>

--- a/Running_Log.xlsx
+++ b/Running_Log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adolwick/dolwick_project/biof309project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{455BFD5F-C783-734E-9635-1A4BBAD28338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F01439B-7141-BA48-BAE8-033978BE0335}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2200" yWindow="500" windowWidth="25680" windowHeight="15820" xr2:uid="{4B2E00A5-7125-EC4E-9EAD-C4CEE86B127A}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5313" uniqueCount="4412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5341" uniqueCount="4434">
   <si>
     <t>Date</t>
   </si>
@@ -13269,6 +13269,72 @@
   </si>
   <si>
     <t>1:49:25</t>
+  </si>
+  <si>
+    <t>2024-02-12</t>
+  </si>
+  <si>
+    <t>2024-02-13</t>
+  </si>
+  <si>
+    <t>2024-02-15</t>
+  </si>
+  <si>
+    <t>49:15</t>
+  </si>
+  <si>
+    <t>2024-02-16</t>
+  </si>
+  <si>
+    <t>30:48</t>
+  </si>
+  <si>
+    <t>2024-02-17</t>
+  </si>
+  <si>
+    <t>1:16:39</t>
+  </si>
+  <si>
+    <t>2024-02-19</t>
+  </si>
+  <si>
+    <t>47:48</t>
+  </si>
+  <si>
+    <t>2024-02-20</t>
+  </si>
+  <si>
+    <t>1:06:03</t>
+  </si>
+  <si>
+    <t>2024-02-23</t>
+  </si>
+  <si>
+    <t>2024-02-24</t>
+  </si>
+  <si>
+    <t>2:06:04</t>
+  </si>
+  <si>
+    <t>2024-02-26</t>
+  </si>
+  <si>
+    <t>2024-02-27</t>
+  </si>
+  <si>
+    <t>41:31</t>
+  </si>
+  <si>
+    <t>2024-02-29</t>
+  </si>
+  <si>
+    <t>2024-03-01</t>
+  </si>
+  <si>
+    <t>2024-03-02</t>
+  </si>
+  <si>
+    <t>2:18:56</t>
   </si>
 </sst>
 </file>
@@ -13645,10 +13711,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1BECE25-7878-7543-A5E4-1B4438F2AAC2}">
-  <dimension ref="A1:E3236"/>
+  <dimension ref="A1:E3250"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3210" workbookViewId="0">
-      <selection activeCell="C3237" sqref="C3237"/>
+    <sheetView tabSelected="1" topLeftCell="A3226" workbookViewId="0">
+      <selection activeCell="C3251" sqref="C3251"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -47441,6 +47507,160 @@
         <v>4411</v>
       </c>
     </row>
+    <row r="3237" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3237" s="2" t="s">
+        <v>4412</v>
+      </c>
+      <c r="B3237" s="1">
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="C3237" s="2" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="3238" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3238" s="2" t="s">
+        <v>4413</v>
+      </c>
+      <c r="B3238" s="1">
+        <v>7</v>
+      </c>
+      <c r="C3238" s="2" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="3239" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3239" s="2" t="s">
+        <v>4414</v>
+      </c>
+      <c r="B3239" s="1">
+        <v>6.09</v>
+      </c>
+      <c r="C3239" s="2" t="s">
+        <v>4415</v>
+      </c>
+    </row>
+    <row r="3240" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3240" s="2" t="s">
+        <v>4416</v>
+      </c>
+      <c r="B3240" s="1">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="C3240" s="2" t="s">
+        <v>4417</v>
+      </c>
+    </row>
+    <row r="3241" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3241" s="2" t="s">
+        <v>4418</v>
+      </c>
+      <c r="B3241" s="1">
+        <v>12.01</v>
+      </c>
+      <c r="C3241" s="2" t="s">
+        <v>4419</v>
+      </c>
+    </row>
+    <row r="3242" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3242" s="2" t="s">
+        <v>4420</v>
+      </c>
+      <c r="B3242" s="1">
+        <v>6.28</v>
+      </c>
+      <c r="C3242" s="2" t="s">
+        <v>4421</v>
+      </c>
+    </row>
+    <row r="3243" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3243" s="2" t="s">
+        <v>4422</v>
+      </c>
+      <c r="B3243" s="1">
+        <v>9.35</v>
+      </c>
+      <c r="C3243" s="2" t="s">
+        <v>4423</v>
+      </c>
+    </row>
+    <row r="3244" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3244" s="2" t="s">
+        <v>4424</v>
+      </c>
+      <c r="B3244" s="1">
+        <v>4.22</v>
+      </c>
+      <c r="C3244" s="2" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="3245" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3245" s="2" t="s">
+        <v>4425</v>
+      </c>
+      <c r="B3245" s="1">
+        <v>18.07</v>
+      </c>
+      <c r="C3245" s="2" t="s">
+        <v>4426</v>
+      </c>
+    </row>
+    <row r="3246" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3246" s="2" t="s">
+        <v>4427</v>
+      </c>
+      <c r="B3246" s="1">
+        <v>6.13</v>
+      </c>
+      <c r="C3246" s="2" t="s">
+        <v>3733</v>
+      </c>
+    </row>
+    <row r="3247" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3247" s="2" t="s">
+        <v>4428</v>
+      </c>
+      <c r="B3247" s="1">
+        <v>5.13</v>
+      </c>
+      <c r="C3247" s="2" t="s">
+        <v>4429</v>
+      </c>
+    </row>
+    <row r="3248" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3248" s="2" t="s">
+        <v>4430</v>
+      </c>
+      <c r="B3248" s="1">
+        <v>7</v>
+      </c>
+      <c r="C3248" s="2" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="3249" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3249" s="2" t="s">
+        <v>4431</v>
+      </c>
+      <c r="B3249" s="1">
+        <v>6.21</v>
+      </c>
+      <c r="C3249" s="2" t="s">
+        <v>1751</v>
+      </c>
+    </row>
+    <row r="3250" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3250" s="2" t="s">
+        <v>4432</v>
+      </c>
+      <c r="B3250" s="1">
+        <v>20.53</v>
+      </c>
+      <c r="C3250" s="2" t="s">
+        <v>4433</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>

--- a/Running_Log.xlsx
+++ b/Running_Log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adolwick/dolwick_project/biof309project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F01439B-7141-BA48-BAE8-033978BE0335}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FDBA953-FB18-574B-A0B3-6ADAD154B941}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2200" yWindow="500" windowWidth="25680" windowHeight="15820" xr2:uid="{4B2E00A5-7125-EC4E-9EAD-C4CEE86B127A}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5341" uniqueCount="4434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5378" uniqueCount="4462">
   <si>
     <t>Date</t>
   </si>
@@ -13335,6 +13335,90 @@
   </si>
   <si>
     <t>2:18:56</t>
+  </si>
+  <si>
+    <t>2024-03-04</t>
+  </si>
+  <si>
+    <t>34:53</t>
+  </si>
+  <si>
+    <t>2024-03-06</t>
+  </si>
+  <si>
+    <t>1:14:34</t>
+  </si>
+  <si>
+    <t>2024-03-07</t>
+  </si>
+  <si>
+    <t>2023-03-11</t>
+  </si>
+  <si>
+    <t>32:21</t>
+  </si>
+  <si>
+    <t>2024-03-13</t>
+  </si>
+  <si>
+    <t>2024-03-15</t>
+  </si>
+  <si>
+    <t>2024-03-19</t>
+  </si>
+  <si>
+    <t>2024-03-21</t>
+  </si>
+  <si>
+    <t>37:35</t>
+  </si>
+  <si>
+    <t>2024-03-22</t>
+  </si>
+  <si>
+    <t>2024-03-23</t>
+  </si>
+  <si>
+    <t>1:23:46</t>
+  </si>
+  <si>
+    <t>2024-03-25</t>
+  </si>
+  <si>
+    <t>2024-03-27</t>
+  </si>
+  <si>
+    <t>30:40</t>
+  </si>
+  <si>
+    <t>2024-03-28</t>
+  </si>
+  <si>
+    <t>50:09</t>
+  </si>
+  <si>
+    <t>2024-03-29</t>
+  </si>
+  <si>
+    <t>2024-03-30</t>
+  </si>
+  <si>
+    <t>2024-04-01</t>
+  </si>
+  <si>
+    <t>1:12:06</t>
+  </si>
+  <si>
+    <t>2024-04-03</t>
+  </si>
+  <si>
+    <t>2024-04-04</t>
+  </si>
+  <si>
+    <t>2024-04-05</t>
+  </si>
+  <si>
+    <t>1:49:30</t>
   </si>
 </sst>
 </file>
@@ -13711,10 +13795,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1BECE25-7878-7543-A5E4-1B4438F2AAC2}">
-  <dimension ref="A1:E3250"/>
+  <dimension ref="A1:E3269"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3226" workbookViewId="0">
-      <selection activeCell="C3251" sqref="C3251"/>
+    <sheetView tabSelected="1" topLeftCell="A3241" workbookViewId="0">
+      <selection activeCell="A3270" sqref="A3270"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -47661,6 +47745,212 @@
         <v>4433</v>
       </c>
     </row>
+    <row r="3251" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3251" s="2" t="s">
+        <v>4434</v>
+      </c>
+      <c r="B3251" s="1">
+        <v>4.04</v>
+      </c>
+      <c r="C3251" s="2" t="s">
+        <v>4435</v>
+      </c>
+    </row>
+    <row r="3252" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3252" s="2" t="s">
+        <v>4436</v>
+      </c>
+      <c r="B3252" s="1">
+        <v>10.29</v>
+      </c>
+      <c r="C3252" s="2" t="s">
+        <v>4437</v>
+      </c>
+    </row>
+    <row r="3253" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3253" s="2" t="s">
+        <v>4438</v>
+      </c>
+      <c r="B3253" s="1">
+        <v>5.01</v>
+      </c>
+      <c r="C3253" s="2" t="s">
+        <v>2462</v>
+      </c>
+    </row>
+    <row r="3254" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3254" s="2" t="s">
+        <v>4439</v>
+      </c>
+      <c r="B3254" s="1">
+        <v>4</v>
+      </c>
+      <c r="C3254" s="2" t="s">
+        <v>4440</v>
+      </c>
+    </row>
+    <row r="3255" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3255" s="2" t="s">
+        <v>4441</v>
+      </c>
+      <c r="B3255" s="1">
+        <v>6.01</v>
+      </c>
+      <c r="C3255" s="2" t="s">
+        <v>1759</v>
+      </c>
+    </row>
+    <row r="3256" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3256" s="2" t="s">
+        <v>4442</v>
+      </c>
+      <c r="B3256" s="1">
+        <v>4.33</v>
+      </c>
+      <c r="C3256" s="2" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="3257" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3257" s="2" t="s">
+        <v>4443</v>
+      </c>
+      <c r="B3257" s="1">
+        <v>4.01</v>
+      </c>
+      <c r="C3257" s="2" t="s">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="3258" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3258" s="2" t="s">
+        <v>4444</v>
+      </c>
+      <c r="B3258" s="1">
+        <v>5.05</v>
+      </c>
+      <c r="C3258" s="2" t="s">
+        <v>4445</v>
+      </c>
+    </row>
+    <row r="3259" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3259" s="2" t="s">
+        <v>4446</v>
+      </c>
+      <c r="B3259" s="1">
+        <v>7.06</v>
+      </c>
+      <c r="C3259" s="2" t="s">
+        <v>3021</v>
+      </c>
+    </row>
+    <row r="3260" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3260" s="2" t="s">
+        <v>4447</v>
+      </c>
+      <c r="B3260" s="1">
+        <v>12.25</v>
+      </c>
+      <c r="C3260" s="2" t="s">
+        <v>4448</v>
+      </c>
+    </row>
+    <row r="3261" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3261" s="2" t="s">
+        <v>4449</v>
+      </c>
+      <c r="B3261" s="1">
+        <v>5.03</v>
+      </c>
+      <c r="C3261" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3262" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3262" s="2" t="s">
+        <v>4450</v>
+      </c>
+      <c r="B3262" s="1">
+        <v>4.09</v>
+      </c>
+      <c r="C3262" s="2" t="s">
+        <v>4451</v>
+      </c>
+    </row>
+    <row r="3263" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3263" s="2" t="s">
+        <v>4452</v>
+      </c>
+      <c r="B3263" s="1">
+        <v>7.01</v>
+      </c>
+      <c r="C3263" s="2" t="s">
+        <v>4453</v>
+      </c>
+    </row>
+    <row r="3264" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3264" s="2" t="s">
+        <v>4454</v>
+      </c>
+      <c r="B3264" s="1">
+        <v>7.64</v>
+      </c>
+    </row>
+    <row r="3265" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3265" s="2" t="s">
+        <v>4455</v>
+      </c>
+      <c r="B3265" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="C3265" s="2" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="3266" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3266" s="2" t="s">
+        <v>4456</v>
+      </c>
+      <c r="B3266" s="1">
+        <v>10</v>
+      </c>
+      <c r="C3266" s="2" t="s">
+        <v>4457</v>
+      </c>
+    </row>
+    <row r="3267" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3267" s="2" t="s">
+        <v>4458</v>
+      </c>
+      <c r="B3267" s="1">
+        <v>4.26</v>
+      </c>
+      <c r="C3267" s="2" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="3268" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3268" s="2" t="s">
+        <v>4459</v>
+      </c>
+      <c r="B3268" s="1">
+        <v>4</v>
+      </c>
+      <c r="C3268" s="2" t="s">
+        <v>3986</v>
+      </c>
+    </row>
+    <row r="3269" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3269" s="2" t="s">
+        <v>4460</v>
+      </c>
+      <c r="B3269" s="1">
+        <v>16.04</v>
+      </c>
+      <c r="C3269" s="2" t="s">
+        <v>4461</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>

--- a/Running_Log.xlsx
+++ b/Running_Log.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adolwick/dolwick_project/biof309project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FDBA953-FB18-574B-A0B3-6ADAD154B941}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{746ECF4E-4E38-7B46-BF0C-87194FBD4004}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2200" yWindow="500" windowWidth="25680" windowHeight="15820" xr2:uid="{4B2E00A5-7125-EC4E-9EAD-C4CEE86B127A}"/>
+    <workbookView xWindow="2200" yWindow="500" windowWidth="25680" windowHeight="15800" xr2:uid="{4B2E00A5-7125-EC4E-9EAD-C4CEE86B127A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5378" uniqueCount="4462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5400" uniqueCount="4478">
   <si>
     <t>Date</t>
   </si>
@@ -13419,6 +13419,54 @@
   </si>
   <si>
     <t>1:49:30</t>
+  </si>
+  <si>
+    <t>2024-04-06</t>
+  </si>
+  <si>
+    <t>2024-04-08</t>
+  </si>
+  <si>
+    <t>2024-04-09</t>
+  </si>
+  <si>
+    <t>2024-04-10</t>
+  </si>
+  <si>
+    <t>53:54</t>
+  </si>
+  <si>
+    <t>2024-04-11</t>
+  </si>
+  <si>
+    <t>2024-04-13</t>
+  </si>
+  <si>
+    <t>1:17:15</t>
+  </si>
+  <si>
+    <t>2024-04-15</t>
+  </si>
+  <si>
+    <t>2024-04-16</t>
+  </si>
+  <si>
+    <t>37:50</t>
+  </si>
+  <si>
+    <t>2024-04-17</t>
+  </si>
+  <si>
+    <t>2024-04-19</t>
+  </si>
+  <si>
+    <t>40:29</t>
+  </si>
+  <si>
+    <t>2024-04-20</t>
+  </si>
+  <si>
+    <t>1:53:12</t>
   </si>
 </sst>
 </file>
@@ -13795,10 +13843,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1BECE25-7878-7543-A5E4-1B4438F2AAC2}">
-  <dimension ref="A1:E3269"/>
+  <dimension ref="A1:E3280"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3241" workbookViewId="0">
-      <selection activeCell="A3270" sqref="A3270"/>
+    <sheetView tabSelected="1" topLeftCell="A3255" workbookViewId="0">
+      <selection activeCell="C3281" sqref="C3281"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -47951,6 +47999,127 @@
         <v>4461</v>
       </c>
     </row>
+    <row r="3270" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3270" s="2" t="s">
+        <v>4462</v>
+      </c>
+      <c r="B3270" s="1">
+        <v>4.09</v>
+      </c>
+      <c r="C3270" s="2" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="3271" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3271" s="2" t="s">
+        <v>4463</v>
+      </c>
+      <c r="B3271" s="1">
+        <v>5.09</v>
+      </c>
+      <c r="C3271" s="2" t="s">
+        <v>3709</v>
+      </c>
+    </row>
+    <row r="3272" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3272" s="2" t="s">
+        <v>4464</v>
+      </c>
+      <c r="B3272" s="1">
+        <v>5.37</v>
+      </c>
+      <c r="C3272" s="2" t="s">
+        <v>1972</v>
+      </c>
+    </row>
+    <row r="3273" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3273" s="2" t="s">
+        <v>4465</v>
+      </c>
+      <c r="B3273" s="1">
+        <v>7.59</v>
+      </c>
+      <c r="C3273" s="2" t="s">
+        <v>4466</v>
+      </c>
+    </row>
+    <row r="3274" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3274" s="2" t="s">
+        <v>4467</v>
+      </c>
+      <c r="B3274" s="1">
+        <v>4.03</v>
+      </c>
+      <c r="C3274" s="2" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="3275" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3275" s="2" t="s">
+        <v>4468</v>
+      </c>
+      <c r="B3275" s="1">
+        <v>11</v>
+      </c>
+      <c r="C3275" s="2" t="s">
+        <v>4469</v>
+      </c>
+    </row>
+    <row r="3276" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3276" s="2" t="s">
+        <v>4470</v>
+      </c>
+      <c r="B3276" s="1">
+        <v>5.38</v>
+      </c>
+      <c r="C3276" s="2" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="3277" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3277" s="2" t="s">
+        <v>4471</v>
+      </c>
+      <c r="B3277" s="1">
+        <v>5.17</v>
+      </c>
+      <c r="C3277" s="2" t="s">
+        <v>4472</v>
+      </c>
+    </row>
+    <row r="3278" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3278" s="2" t="s">
+        <v>4473</v>
+      </c>
+      <c r="B3278" s="1">
+        <v>8.27</v>
+      </c>
+      <c r="C3278" s="2" t="s">
+        <v>3450</v>
+      </c>
+    </row>
+    <row r="3279" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3279" s="2" t="s">
+        <v>4474</v>
+      </c>
+      <c r="B3279" s="1">
+        <v>5.49</v>
+      </c>
+      <c r="C3279" s="2" t="s">
+        <v>4475</v>
+      </c>
+    </row>
+    <row r="3280" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3280" s="2" t="s">
+        <v>4476</v>
+      </c>
+      <c r="B3280" s="1">
+        <v>17.62</v>
+      </c>
+      <c r="C3280" s="2" t="s">
+        <v>4477</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>

--- a/Running_Log.xlsx
+++ b/Running_Log.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adolwick/dolwick_project/biof309project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{746ECF4E-4E38-7B46-BF0C-87194FBD4004}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADF39833-DA92-8C45-9A3C-0FB73938F805}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2200" yWindow="500" windowWidth="25680" windowHeight="15800" xr2:uid="{4B2E00A5-7125-EC4E-9EAD-C4CEE86B127A}"/>
+    <workbookView xWindow="3120" yWindow="500" windowWidth="25680" windowHeight="15820" xr2:uid="{4B2E00A5-7125-EC4E-9EAD-C4CEE86B127A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5400" uniqueCount="4478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5420" uniqueCount="4494">
   <si>
     <t>Date</t>
   </si>
@@ -13467,6 +13467,54 @@
   </si>
   <si>
     <t>1:53:12</t>
+  </si>
+  <si>
+    <t>2024-04-22</t>
+  </si>
+  <si>
+    <t>39:01</t>
+  </si>
+  <si>
+    <t>2024-04-23</t>
+  </si>
+  <si>
+    <t>36:18</t>
+  </si>
+  <si>
+    <t>2024-04-24</t>
+  </si>
+  <si>
+    <t>2024-04-26</t>
+  </si>
+  <si>
+    <t>33:15</t>
+  </si>
+  <si>
+    <t>2024-04-27</t>
+  </si>
+  <si>
+    <t>1:14:05</t>
+  </si>
+  <si>
+    <t>2024-04-29</t>
+  </si>
+  <si>
+    <t>44:43</t>
+  </si>
+  <si>
+    <t>2024-04-30</t>
+  </si>
+  <si>
+    <t>2024-05-01</t>
+  </si>
+  <si>
+    <t>2024-05-03</t>
+  </si>
+  <si>
+    <t>2024-05-04</t>
+  </si>
+  <si>
+    <t>2:13:46</t>
   </si>
 </sst>
 </file>
@@ -13843,10 +13891,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1BECE25-7878-7543-A5E4-1B4438F2AAC2}">
-  <dimension ref="A1:E3280"/>
+  <dimension ref="A1:E3290"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3255" workbookViewId="0">
-      <selection activeCell="C3281" sqref="C3281"/>
+    <sheetView tabSelected="1" topLeftCell="A3267" workbookViewId="0">
+      <selection activeCell="B3291" sqref="B3291"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -48120,6 +48168,116 @@
         <v>4477</v>
       </c>
     </row>
+    <row r="3281" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3281" s="2" t="s">
+        <v>4478</v>
+      </c>
+      <c r="B3281" s="1">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="C3281" s="2" t="s">
+        <v>4479</v>
+      </c>
+    </row>
+    <row r="3282" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3282" s="2" t="s">
+        <v>4480</v>
+      </c>
+      <c r="B3282" s="1">
+        <v>5</v>
+      </c>
+      <c r="C3282" s="2" t="s">
+        <v>4481</v>
+      </c>
+    </row>
+    <row r="3283" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3283" s="2" t="s">
+        <v>4482</v>
+      </c>
+      <c r="B3283" s="1">
+        <v>7.07</v>
+      </c>
+      <c r="C3283" s="2" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="3284" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3284" s="2" t="s">
+        <v>4483</v>
+      </c>
+      <c r="B3284" s="1">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="C3284" s="2" t="s">
+        <v>4484</v>
+      </c>
+    </row>
+    <row r="3285" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3285" s="2" t="s">
+        <v>4485</v>
+      </c>
+      <c r="B3285" s="1">
+        <v>10.5</v>
+      </c>
+      <c r="C3285" s="2" t="s">
+        <v>4486</v>
+      </c>
+    </row>
+    <row r="3286" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3286" s="2" t="s">
+        <v>4487</v>
+      </c>
+      <c r="B3286" s="1">
+        <v>5.9</v>
+      </c>
+      <c r="C3286" s="2" t="s">
+        <v>4488</v>
+      </c>
+    </row>
+    <row r="3287" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3287" s="2" t="s">
+        <v>4489</v>
+      </c>
+      <c r="B3287" s="1">
+        <v>5.31</v>
+      </c>
+      <c r="C3287" s="2" t="s">
+        <v>3960</v>
+      </c>
+    </row>
+    <row r="3288" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3288" s="2" t="s">
+        <v>4490</v>
+      </c>
+      <c r="B3288" s="1">
+        <v>4.41</v>
+      </c>
+      <c r="C3288" s="2" t="s">
+        <v>2883</v>
+      </c>
+    </row>
+    <row r="3289" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3289" s="2" t="s">
+        <v>4491</v>
+      </c>
+      <c r="B3289" s="1">
+        <v>5.74</v>
+      </c>
+      <c r="C3289" s="2" t="s">
+        <v>4349</v>
+      </c>
+    </row>
+    <row r="3290" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3290" s="2" t="s">
+        <v>4492</v>
+      </c>
+      <c r="B3290" s="1">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="C3290" s="2" t="s">
+        <v>4493</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>

--- a/Running_Log.xlsx
+++ b/Running_Log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adolwick/dolwick_project/biof309project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADF39833-DA92-8C45-9A3C-0FB73938F805}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8DB16BB-6E52-4146-9221-4471A9CE3E5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3120" yWindow="500" windowWidth="25680" windowHeight="15820" xr2:uid="{4B2E00A5-7125-EC4E-9EAD-C4CEE86B127A}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5420" uniqueCount="4494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5442" uniqueCount="4508">
   <si>
     <t>Date</t>
   </si>
@@ -13515,6 +13515,48 @@
   </si>
   <si>
     <t>2:13:46</t>
+  </si>
+  <si>
+    <t>2024-05-07</t>
+  </si>
+  <si>
+    <t>2024-05-08</t>
+  </si>
+  <si>
+    <t>2024-05-10</t>
+  </si>
+  <si>
+    <t>2024-05-11</t>
+  </si>
+  <si>
+    <t>1:21:00</t>
+  </si>
+  <si>
+    <t>2024-05-13</t>
+  </si>
+  <si>
+    <t>47:53</t>
+  </si>
+  <si>
+    <t>2024-05-14</t>
+  </si>
+  <si>
+    <t>2024-05-15</t>
+  </si>
+  <si>
+    <t>2024-05-17</t>
+  </si>
+  <si>
+    <t>2024-05-18</t>
+  </si>
+  <si>
+    <t>2:14:32</t>
+  </si>
+  <si>
+    <t>2024-05-21</t>
+  </si>
+  <si>
+    <t>2024-05-22</t>
   </si>
 </sst>
 </file>
@@ -13891,10 +13933,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1BECE25-7878-7543-A5E4-1B4438F2AAC2}">
-  <dimension ref="A1:E3290"/>
+  <dimension ref="A1:E3301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3267" workbookViewId="0">
-      <selection activeCell="B3291" sqref="B3291"/>
+    <sheetView tabSelected="1" topLeftCell="A3273" workbookViewId="0">
+      <selection activeCell="A3302" sqref="A3302"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -48278,6 +48320,127 @@
         <v>4493</v>
       </c>
     </row>
+    <row r="3291" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3291" s="2" t="s">
+        <v>4494</v>
+      </c>
+      <c r="B3291" s="1">
+        <v>6.52</v>
+      </c>
+      <c r="C3291" s="2" t="s">
+        <v>2301</v>
+      </c>
+    </row>
+    <row r="3292" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3292" s="2" t="s">
+        <v>4495</v>
+      </c>
+      <c r="B3292" s="1">
+        <v>7.27</v>
+      </c>
+      <c r="C3292" s="2" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="3293" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3293" s="2" t="s">
+        <v>4496</v>
+      </c>
+      <c r="B3293" s="1">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="C3293" s="2" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="3294" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3294" s="2" t="s">
+        <v>4497</v>
+      </c>
+      <c r="B3294" s="1">
+        <v>12.16</v>
+      </c>
+      <c r="C3294" s="2" t="s">
+        <v>4498</v>
+      </c>
+    </row>
+    <row r="3295" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3295" s="2" t="s">
+        <v>4499</v>
+      </c>
+      <c r="B3295" s="1">
+        <v>6.01</v>
+      </c>
+      <c r="C3295" s="2" t="s">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="3296" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3296" s="2" t="s">
+        <v>4501</v>
+      </c>
+      <c r="B3296" s="1">
+        <v>6.93</v>
+      </c>
+      <c r="C3296" s="2" t="s">
+        <v>4230</v>
+      </c>
+    </row>
+    <row r="3297" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3297" s="2" t="s">
+        <v>4502</v>
+      </c>
+      <c r="B3297" s="1">
+        <v>7.54</v>
+      </c>
+      <c r="C3297" s="2" t="s">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="3298" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3298" s="2" t="s">
+        <v>4503</v>
+      </c>
+      <c r="B3298" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="C3298" s="2" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="3299" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3299" s="2" t="s">
+        <v>4504</v>
+      </c>
+      <c r="B3299" s="1">
+        <v>20.079999999999998</v>
+      </c>
+      <c r="C3299" s="2" t="s">
+        <v>4505</v>
+      </c>
+    </row>
+    <row r="3300" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3300" s="2" t="s">
+        <v>4506</v>
+      </c>
+      <c r="B3300" s="1">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="C3300" s="2" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="3301" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3301" s="2" t="s">
+        <v>4507</v>
+      </c>
+      <c r="B3301" s="1">
+        <v>6.76</v>
+      </c>
+      <c r="C3301" s="2" t="s">
+        <v>3713</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>

--- a/Running_Log.xlsx
+++ b/Running_Log.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adolwick/dolwick_project/biof309project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8DB16BB-6E52-4146-9221-4471A9CE3E5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCBA3DFE-5548-FD4C-839E-A76B485BA273}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3120" yWindow="500" windowWidth="25680" windowHeight="15820" xr2:uid="{4B2E00A5-7125-EC4E-9EAD-C4CEE86B127A}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5442" uniqueCount="4508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5461" uniqueCount="4522">
   <si>
     <t>Date</t>
   </si>
@@ -13557,6 +13557,48 @@
   </si>
   <si>
     <t>2024-05-22</t>
+  </si>
+  <si>
+    <t>2024-05-24</t>
+  </si>
+  <si>
+    <t>38:48</t>
+  </si>
+  <si>
+    <t>2024-05-25</t>
+  </si>
+  <si>
+    <t>1:26:05</t>
+  </si>
+  <si>
+    <t>2024-05-28</t>
+  </si>
+  <si>
+    <t>2024-05-29</t>
+  </si>
+  <si>
+    <t>2024-05-31</t>
+  </si>
+  <si>
+    <t>2024-06-01</t>
+  </si>
+  <si>
+    <t>1:08:19</t>
+  </si>
+  <si>
+    <t>2024-06-04</t>
+  </si>
+  <si>
+    <t>2024-06-05</t>
+  </si>
+  <si>
+    <t>2024-06-07</t>
+  </si>
+  <si>
+    <t>2024-06-08</t>
+  </si>
+  <si>
+    <t>2:52:58</t>
   </si>
 </sst>
 </file>
@@ -13933,10 +13975,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1BECE25-7878-7543-A5E4-1B4438F2AAC2}">
-  <dimension ref="A1:E3301"/>
+  <dimension ref="A1:E3311"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3273" workbookViewId="0">
-      <selection activeCell="A3302" sqref="A3302"/>
+    <sheetView tabSelected="1" topLeftCell="A3294" workbookViewId="0">
+      <selection activeCell="A3312" sqref="A3312"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -48441,6 +48483,113 @@
         <v>3713</v>
       </c>
     </row>
+    <row r="3302" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3302" s="2" t="s">
+        <v>4508</v>
+      </c>
+      <c r="B3302" s="1">
+        <v>4.7</v>
+      </c>
+      <c r="C3302" s="2" t="s">
+        <v>4509</v>
+      </c>
+    </row>
+    <row r="3303" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3303" s="2" t="s">
+        <v>4510</v>
+      </c>
+      <c r="B3303" s="1">
+        <v>12.03</v>
+      </c>
+      <c r="C3303" s="2" t="s">
+        <v>4511</v>
+      </c>
+    </row>
+    <row r="3304" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3304" s="2" t="s">
+        <v>4512</v>
+      </c>
+      <c r="B3304" s="1">
+        <v>5.05</v>
+      </c>
+      <c r="C3304" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="3305" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3305" s="2" t="s">
+        <v>4513</v>
+      </c>
+      <c r="B3305" s="1">
+        <v>5.23</v>
+      </c>
+    </row>
+    <row r="3306" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3306" s="2" t="s">
+        <v>4514</v>
+      </c>
+      <c r="B3306" s="1">
+        <v>6.3</v>
+      </c>
+      <c r="C3306" s="2" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="3307" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3307" s="2" t="s">
+        <v>4515</v>
+      </c>
+      <c r="B3307" s="1">
+        <v>10.01</v>
+      </c>
+      <c r="C3307" s="2" t="s">
+        <v>4516</v>
+      </c>
+    </row>
+    <row r="3308" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3308" s="2" t="s">
+        <v>4517</v>
+      </c>
+      <c r="B3308" s="1">
+        <v>4</v>
+      </c>
+      <c r="C3308" s="2" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="3309" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3309" s="2" t="s">
+        <v>4518</v>
+      </c>
+      <c r="B3309" s="1">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="C3309" s="2" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="3310" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3310" s="2" t="s">
+        <v>4519</v>
+      </c>
+      <c r="B3310" s="1">
+        <v>2.31</v>
+      </c>
+      <c r="C3310" s="2" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="3311" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3311" s="2" t="s">
+        <v>4520</v>
+      </c>
+      <c r="B3311" s="1">
+        <v>26.22</v>
+      </c>
+      <c r="C3311" s="2" t="s">
+        <v>4521</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>

--- a/Running_Log.xlsx
+++ b/Running_Log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adolwick/dolwick_project/biof309project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCBA3DFE-5548-FD4C-839E-A76B485BA273}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06243A4A-EF8F-BF42-8E5F-1176CD8E4D28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3120" yWindow="500" windowWidth="25680" windowHeight="15820" xr2:uid="{4B2E00A5-7125-EC4E-9EAD-C4CEE86B127A}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5461" uniqueCount="4522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5521" uniqueCount="4568">
   <si>
     <t>Date</t>
   </si>
@@ -13599,6 +13599,144 @@
   </si>
   <si>
     <t>2:52:58</t>
+  </si>
+  <si>
+    <t>2024-06-22</t>
+  </si>
+  <si>
+    <t>2024-06-24</t>
+  </si>
+  <si>
+    <t>37:57</t>
+  </si>
+  <si>
+    <t>2024-06-26</t>
+  </si>
+  <si>
+    <t>2024-06-29</t>
+  </si>
+  <si>
+    <t>42:50</t>
+  </si>
+  <si>
+    <t>2024-07-01</t>
+  </si>
+  <si>
+    <t>2024-07-08</t>
+  </si>
+  <si>
+    <t>2024-07-09</t>
+  </si>
+  <si>
+    <t>2024-07-10</t>
+  </si>
+  <si>
+    <t>55:57</t>
+  </si>
+  <si>
+    <t>2024-07-13</t>
+  </si>
+  <si>
+    <t>2024-07-15</t>
+  </si>
+  <si>
+    <t>26:20</t>
+  </si>
+  <si>
+    <t>2024-07-16</t>
+  </si>
+  <si>
+    <t>2024-07-17</t>
+  </si>
+  <si>
+    <t>1:02:24</t>
+  </si>
+  <si>
+    <t>2024-07-19</t>
+  </si>
+  <si>
+    <t>33:22</t>
+  </si>
+  <si>
+    <t>2024-07-20</t>
+  </si>
+  <si>
+    <t>1:21:37</t>
+  </si>
+  <si>
+    <t>2024-07-23</t>
+  </si>
+  <si>
+    <t>55:38</t>
+  </si>
+  <si>
+    <t>2024-07-24</t>
+  </si>
+  <si>
+    <t>4:53</t>
+  </si>
+  <si>
+    <t>2024-07-26</t>
+  </si>
+  <si>
+    <t>2024-07-27</t>
+  </si>
+  <si>
+    <t>2024-07-29</t>
+  </si>
+  <si>
+    <t>2024-07-31</t>
+  </si>
+  <si>
+    <t>44:31</t>
+  </si>
+  <si>
+    <t>2024-08-01</t>
+  </si>
+  <si>
+    <t>35:14</t>
+  </si>
+  <si>
+    <t>2024-08-02</t>
+  </si>
+  <si>
+    <t>56:41</t>
+  </si>
+  <si>
+    <t>2024-08-05</t>
+  </si>
+  <si>
+    <t>42:47</t>
+  </si>
+  <si>
+    <t>2024-08-06</t>
+  </si>
+  <si>
+    <t>2024-08-07</t>
+  </si>
+  <si>
+    <t>2024-08-08</t>
+  </si>
+  <si>
+    <t>33:12</t>
+  </si>
+  <si>
+    <t>2024-08-09</t>
+  </si>
+  <si>
+    <t>9:34</t>
+  </si>
+  <si>
+    <t>2024-08-12</t>
+  </si>
+  <si>
+    <t>2024-08-13</t>
+  </si>
+  <si>
+    <t>44:32</t>
+  </si>
+  <si>
+    <t>2024-08-14</t>
   </si>
 </sst>
 </file>
@@ -13975,10 +14113,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1BECE25-7878-7543-A5E4-1B4438F2AAC2}">
-  <dimension ref="A1:E3311"/>
+  <dimension ref="A1:E3343"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3294" workbookViewId="0">
-      <selection activeCell="A3312" sqref="A3312"/>
+    <sheetView tabSelected="1" topLeftCell="A3315" workbookViewId="0">
+      <selection activeCell="A3344" sqref="A3344"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -48590,6 +48728,346 @@
         <v>4521</v>
       </c>
     </row>
+    <row r="3312" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3312" s="2" t="s">
+        <v>4522</v>
+      </c>
+      <c r="B3312" s="1">
+        <v>3.7</v>
+      </c>
+      <c r="C3312" s="2" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="3313" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3313" s="2" t="s">
+        <v>4523</v>
+      </c>
+      <c r="B3313" s="1">
+        <v>5</v>
+      </c>
+      <c r="C3313" s="2" t="s">
+        <v>4524</v>
+      </c>
+    </row>
+    <row r="3314" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3314" s="2" t="s">
+        <v>4525</v>
+      </c>
+      <c r="B3314" s="1">
+        <v>3.3</v>
+      </c>
+      <c r="C3314" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3315" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3315" s="2" t="s">
+        <v>4526</v>
+      </c>
+      <c r="B3315" s="1">
+        <v>5.55</v>
+      </c>
+      <c r="C3315" s="2" t="s">
+        <v>4527</v>
+      </c>
+    </row>
+    <row r="3316" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3316" s="2" t="s">
+        <v>4528</v>
+      </c>
+      <c r="B3316" s="1">
+        <v>4.62</v>
+      </c>
+      <c r="C3316" s="2" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="3317" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3317" s="2" t="s">
+        <v>4529</v>
+      </c>
+      <c r="B3317" s="1">
+        <v>4</v>
+      </c>
+      <c r="C3317" s="2" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="3318" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3318" s="2" t="s">
+        <v>4530</v>
+      </c>
+      <c r="B3318" s="1">
+        <v>4.41</v>
+      </c>
+      <c r="C3318" s="2" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="3319" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3319" s="2" t="s">
+        <v>4531</v>
+      </c>
+      <c r="B3319" s="1">
+        <v>7.09</v>
+      </c>
+      <c r="C3319" s="2" t="s">
+        <v>4532</v>
+      </c>
+    </row>
+    <row r="3320" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3320" s="2" t="s">
+        <v>4533</v>
+      </c>
+      <c r="B3320" s="1">
+        <v>7.24</v>
+      </c>
+    </row>
+    <row r="3321" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3321" s="2" t="s">
+        <v>4534</v>
+      </c>
+      <c r="B3321" s="1">
+        <v>3.21</v>
+      </c>
+      <c r="C3321" s="2" t="s">
+        <v>4535</v>
+      </c>
+    </row>
+    <row r="3322" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3322" s="2" t="s">
+        <v>4536</v>
+      </c>
+      <c r="B3322" s="1">
+        <v>5.81</v>
+      </c>
+      <c r="C3322" s="2" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="3323" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3323" s="2" t="s">
+        <v>4537</v>
+      </c>
+      <c r="B3323" s="1">
+        <v>8.33</v>
+      </c>
+      <c r="C3323" s="2" t="s">
+        <v>4538</v>
+      </c>
+    </row>
+    <row r="3324" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3324" s="2" t="s">
+        <v>4539</v>
+      </c>
+      <c r="B3324" s="1">
+        <v>4.07</v>
+      </c>
+      <c r="C3324" s="2" t="s">
+        <v>4540</v>
+      </c>
+    </row>
+    <row r="3325" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3325" s="2" t="s">
+        <v>4541</v>
+      </c>
+      <c r="B3325" s="1">
+        <v>10.220000000000001</v>
+      </c>
+      <c r="C3325" s="2" t="s">
+        <v>4542</v>
+      </c>
+    </row>
+    <row r="3326" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3326" s="2" t="s">
+        <v>4543</v>
+      </c>
+      <c r="B3326" s="1">
+        <v>6.18</v>
+      </c>
+      <c r="C3326" s="2" t="s">
+        <v>4544</v>
+      </c>
+    </row>
+    <row r="3327" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3327" s="2" t="s">
+        <v>4545</v>
+      </c>
+      <c r="B3327" s="1">
+        <v>0.93</v>
+      </c>
+      <c r="C3327" s="2" t="s">
+        <v>4546</v>
+      </c>
+    </row>
+    <row r="3328" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3328" s="2" t="s">
+        <v>4545</v>
+      </c>
+      <c r="B3328" s="1">
+        <v>3.11</v>
+      </c>
+    </row>
+    <row r="3329" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3329" s="2" t="s">
+        <v>4547</v>
+      </c>
+      <c r="B3329" s="1">
+        <v>4.57</v>
+      </c>
+      <c r="C3329" s="2" t="s">
+        <v>3035</v>
+      </c>
+    </row>
+    <row r="3330" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3330" s="2" t="s">
+        <v>4548</v>
+      </c>
+      <c r="B3330" s="1">
+        <v>10.27</v>
+      </c>
+      <c r="C3330" s="2" t="s">
+        <v>2365</v>
+      </c>
+    </row>
+    <row r="3331" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3331" s="2" t="s">
+        <v>4549</v>
+      </c>
+      <c r="B3331" s="1">
+        <v>4.29</v>
+      </c>
+      <c r="C3331" s="2" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="3332" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3332" s="2" t="s">
+        <v>4550</v>
+      </c>
+      <c r="B3332" s="1">
+        <v>6.11</v>
+      </c>
+      <c r="C3332" s="2" t="s">
+        <v>4551</v>
+      </c>
+    </row>
+    <row r="3333" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3333" s="2" t="s">
+        <v>4552</v>
+      </c>
+      <c r="B3333" s="1">
+        <v>4.62</v>
+      </c>
+      <c r="C3333" s="2" t="s">
+        <v>4553</v>
+      </c>
+    </row>
+    <row r="3334" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3334" s="2" t="s">
+        <v>4554</v>
+      </c>
+      <c r="B3334" s="1">
+        <v>8.32</v>
+      </c>
+      <c r="C3334" s="2" t="s">
+        <v>4555</v>
+      </c>
+    </row>
+    <row r="3335" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3335" s="2" t="s">
+        <v>4556</v>
+      </c>
+      <c r="B3335" s="1">
+        <v>5.18</v>
+      </c>
+      <c r="C3335" s="2" t="s">
+        <v>4557</v>
+      </c>
+    </row>
+    <row r="3336" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3336" s="2" t="s">
+        <v>4558</v>
+      </c>
+      <c r="B3336" s="1">
+        <v>5.01</v>
+      </c>
+      <c r="C3336" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="3337" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3337" s="2" t="s">
+        <v>4559</v>
+      </c>
+      <c r="B3337" s="1">
+        <v>8.56</v>
+      </c>
+      <c r="C3337" s="2" t="s">
+        <v>3903</v>
+      </c>
+    </row>
+    <row r="3338" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3338" s="2" t="s">
+        <v>4560</v>
+      </c>
+      <c r="B3338" s="1">
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="C3338" s="2" t="s">
+        <v>4561</v>
+      </c>
+    </row>
+    <row r="3339" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3339" s="2" t="s">
+        <v>4562</v>
+      </c>
+      <c r="B3339" s="1">
+        <v>1.73</v>
+      </c>
+      <c r="C3339" s="2" t="s">
+        <v>4563</v>
+      </c>
+    </row>
+    <row r="3340" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3340" s="2" t="s">
+        <v>4562</v>
+      </c>
+      <c r="B3340" s="1">
+        <v>2.87</v>
+      </c>
+    </row>
+    <row r="3341" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3341" s="2" t="s">
+        <v>4564</v>
+      </c>
+      <c r="B3341" s="1">
+        <v>6.21</v>
+      </c>
+      <c r="C3341" s="2" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="3342" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3342" s="2" t="s">
+        <v>4565</v>
+      </c>
+      <c r="B3342" s="1">
+        <v>6.27</v>
+      </c>
+      <c r="C3342" s="2" t="s">
+        <v>4566</v>
+      </c>
+    </row>
+    <row r="3343" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3343" s="2" t="s">
+        <v>4567</v>
+      </c>
+      <c r="B3343" s="1">
+        <v>8.77</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>

--- a/Running_Log.xlsx
+++ b/Running_Log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adolwick/dolwick_project/biof309project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06243A4A-EF8F-BF42-8E5F-1176CD8E4D28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0E97DBD-6F05-CF4B-8B26-A968E91405CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3120" yWindow="500" windowWidth="25680" windowHeight="15820" xr2:uid="{4B2E00A5-7125-EC4E-9EAD-C4CEE86B127A}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5521" uniqueCount="4568">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5553" uniqueCount="4593">
   <si>
     <t>Date</t>
   </si>
@@ -13737,6 +13737,81 @@
   </si>
   <si>
     <t>2024-08-14</t>
+  </si>
+  <si>
+    <t>2024-08-16</t>
+  </si>
+  <si>
+    <t>40:25</t>
+  </si>
+  <si>
+    <t>2024-08-17</t>
+  </si>
+  <si>
+    <t>2024-08-19</t>
+  </si>
+  <si>
+    <t>53:07</t>
+  </si>
+  <si>
+    <t>2024-08-21</t>
+  </si>
+  <si>
+    <t>1:07:20</t>
+  </si>
+  <si>
+    <t>2024-08-22</t>
+  </si>
+  <si>
+    <t>2024-08-23</t>
+  </si>
+  <si>
+    <t>1:09:34</t>
+  </si>
+  <si>
+    <t>2024-08-26</t>
+  </si>
+  <si>
+    <t>2024-08-27</t>
+  </si>
+  <si>
+    <t>44:55</t>
+  </si>
+  <si>
+    <t>2024-08-28</t>
+  </si>
+  <si>
+    <t>2024-08-30</t>
+  </si>
+  <si>
+    <t>2024-09-02</t>
+  </si>
+  <si>
+    <t>47:17</t>
+  </si>
+  <si>
+    <t>2024-09-04</t>
+  </si>
+  <si>
+    <t>2024-09-05</t>
+  </si>
+  <si>
+    <t>48:52</t>
+  </si>
+  <si>
+    <t>2024-09-06</t>
+  </si>
+  <si>
+    <t>2024-09-07</t>
+  </si>
+  <si>
+    <t>2024-09-10</t>
+  </si>
+  <si>
+    <t>2024-09-11</t>
+  </si>
+  <si>
+    <t>1:17:31</t>
   </si>
 </sst>
 </file>
@@ -14113,10 +14188,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1BECE25-7878-7543-A5E4-1B4438F2AAC2}">
-  <dimension ref="A1:E3343"/>
+  <dimension ref="A1:E3360"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3315" workbookViewId="0">
-      <selection activeCell="A3344" sqref="A3344"/>
+    <sheetView tabSelected="1" topLeftCell="A3332" workbookViewId="0">
+      <selection activeCell="F3357" sqref="F3357"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -49068,6 +49143,187 @@
         <v>8.77</v>
       </c>
     </row>
+    <row r="3344" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3344" s="2" t="s">
+        <v>4568</v>
+      </c>
+      <c r="B3344" s="1">
+        <v>5.13</v>
+      </c>
+      <c r="C3344" s="2" t="s">
+        <v>4569</v>
+      </c>
+    </row>
+    <row r="3345" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3345" s="2" t="s">
+        <v>4570</v>
+      </c>
+      <c r="B3345" s="1">
+        <v>10.3</v>
+      </c>
+      <c r="C3345" s="2" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="3346" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3346" s="2" t="s">
+        <v>4571</v>
+      </c>
+      <c r="B3346" s="1">
+        <v>7.11</v>
+      </c>
+      <c r="C3346" s="2" t="s">
+        <v>4572</v>
+      </c>
+    </row>
+    <row r="3347" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3347" s="2" t="s">
+        <v>4573</v>
+      </c>
+      <c r="B3347" s="1">
+        <v>9.27</v>
+      </c>
+      <c r="C3347" s="2" t="s">
+        <v>4574</v>
+      </c>
+    </row>
+    <row r="3348" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3348" s="2" t="s">
+        <v>4575</v>
+      </c>
+      <c r="B3348" s="1">
+        <v>6.26</v>
+      </c>
+      <c r="C3348" s="2" t="s">
+        <v>3144</v>
+      </c>
+    </row>
+    <row r="3349" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3349" s="2" t="s">
+        <v>4576</v>
+      </c>
+      <c r="B3349" s="1">
+        <v>10.57</v>
+      </c>
+      <c r="C3349" s="2" t="s">
+        <v>4577</v>
+      </c>
+    </row>
+    <row r="3350" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3350" s="2" t="s">
+        <v>4578</v>
+      </c>
+      <c r="B3350" s="1">
+        <v>5.26</v>
+      </c>
+      <c r="C3350" s="2" t="s">
+        <v>3256</v>
+      </c>
+    </row>
+    <row r="3351" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3351" s="2" t="s">
+        <v>4579</v>
+      </c>
+      <c r="B3351" s="1">
+        <v>6.26</v>
+      </c>
+      <c r="C3351" s="2" t="s">
+        <v>4580</v>
+      </c>
+    </row>
+    <row r="3352" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3352" s="2" t="s">
+        <v>4581</v>
+      </c>
+      <c r="B3352" s="1">
+        <v>8.19</v>
+      </c>
+    </row>
+    <row r="3353" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3353" s="2" t="s">
+        <v>4582</v>
+      </c>
+      <c r="B3353" s="1">
+        <v>5.44</v>
+      </c>
+      <c r="C3353" s="2" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="3354" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3354" s="2" t="s">
+        <v>4583</v>
+      </c>
+      <c r="B3354" s="1">
+        <v>6.08</v>
+      </c>
+      <c r="C3354" s="2" t="s">
+        <v>4584</v>
+      </c>
+    </row>
+    <row r="3355" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3355" s="2" t="s">
+        <v>4585</v>
+      </c>
+      <c r="B3355" s="1">
+        <v>8.19</v>
+      </c>
+    </row>
+    <row r="3356" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3356" s="2" t="s">
+        <v>4586</v>
+      </c>
+      <c r="B3356" s="1">
+        <v>6</v>
+      </c>
+      <c r="C3356" s="2" t="s">
+        <v>4587</v>
+      </c>
+    </row>
+    <row r="3357" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3357" s="2" t="s">
+        <v>4588</v>
+      </c>
+      <c r="B3357" s="1">
+        <v>6.05</v>
+      </c>
+      <c r="C3357" s="2" t="s">
+        <v>2450</v>
+      </c>
+    </row>
+    <row r="3358" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3358" s="2" t="s">
+        <v>4589</v>
+      </c>
+      <c r="B3358" s="1">
+        <v>7.72</v>
+      </c>
+      <c r="C3358" s="2" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="3359" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3359" s="2" t="s">
+        <v>4590</v>
+      </c>
+      <c r="B3359" s="1">
+        <v>6.02</v>
+      </c>
+      <c r="C3359" s="2" t="s">
+        <v>4154</v>
+      </c>
+    </row>
+    <row r="3360" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3360" s="2" t="s">
+        <v>4591</v>
+      </c>
+      <c r="B3360" s="1">
+        <v>11.52</v>
+      </c>
+      <c r="C3360" s="2" t="s">
+        <v>4592</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>

--- a/Running_Log.xlsx
+++ b/Running_Log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adolwick/dolwick_project/biof309project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0E97DBD-6F05-CF4B-8B26-A968E91405CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0491E14-FF99-4E40-895D-9A8AC500E92B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3120" yWindow="500" windowWidth="25680" windowHeight="15820" xr2:uid="{4B2E00A5-7125-EC4E-9EAD-C4CEE86B127A}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5553" uniqueCount="4593">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5555" uniqueCount="4594">
   <si>
     <t>Date</t>
   </si>
@@ -13812,6 +13812,9 @@
   </si>
   <si>
     <t>1:17:31</t>
+  </si>
+  <si>
+    <t>1:02:15</t>
   </si>
 </sst>
 </file>
@@ -14190,8 +14193,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1BECE25-7878-7543-A5E4-1B4438F2AAC2}">
   <dimension ref="A1:E3360"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3332" workbookViewId="0">
-      <selection activeCell="F3357" sqref="F3357"/>
+    <sheetView tabSelected="1" topLeftCell="A2167" workbookViewId="0">
+      <selection activeCell="C2172" sqref="C2172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -36616,6 +36619,9 @@
       <c r="B2170" s="1">
         <v>9</v>
       </c>
+      <c r="C2170" s="2" t="s">
+        <v>4593</v>
+      </c>
     </row>
     <row r="2171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2171" s="2" t="s">
@@ -36623,6 +36629,9 @@
       </c>
       <c r="B2171" s="1">
         <v>8</v>
+      </c>
+      <c r="C2171" s="2" t="s">
+        <v>2635</v>
       </c>
     </row>
     <row r="2172" spans="1:3" x14ac:dyDescent="0.2">

--- a/Running_Log.xlsx
+++ b/Running_Log.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adolwick/dolwick_project/biof309project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0491E14-FF99-4E40-895D-9A8AC500E92B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21C7130C-EDEF-6548-A089-28983F22C6BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3120" yWindow="500" windowWidth="25680" windowHeight="15820" xr2:uid="{4B2E00A5-7125-EC4E-9EAD-C4CEE86B127A}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5555" uniqueCount="4594">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5607" uniqueCount="4631">
   <si>
     <t>Date</t>
   </si>
@@ -13815,6 +13815,117 @@
   </si>
   <si>
     <t>1:02:15</t>
+  </si>
+  <si>
+    <t>2024-09-13</t>
+  </si>
+  <si>
+    <t>54:54</t>
+  </si>
+  <si>
+    <t>2024-09-14</t>
+  </si>
+  <si>
+    <t>1:42:45</t>
+  </si>
+  <si>
+    <t>2024-09-16</t>
+  </si>
+  <si>
+    <t>44:50</t>
+  </si>
+  <si>
+    <t>2024-09-18</t>
+  </si>
+  <si>
+    <t>2024-09-20</t>
+  </si>
+  <si>
+    <t>2024-09-23</t>
+  </si>
+  <si>
+    <t>2024-09-25</t>
+  </si>
+  <si>
+    <t>2024-09-26</t>
+  </si>
+  <si>
+    <t>2024-09-28</t>
+  </si>
+  <si>
+    <t>1:20:25</t>
+  </si>
+  <si>
+    <t>2024-09-30</t>
+  </si>
+  <si>
+    <t>2024-10-02</t>
+  </si>
+  <si>
+    <t>2024-10-03</t>
+  </si>
+  <si>
+    <t>2024-10-05</t>
+  </si>
+  <si>
+    <t>28:59</t>
+  </si>
+  <si>
+    <t>2024-10-06</t>
+  </si>
+  <si>
+    <t>2024-10-08</t>
+  </si>
+  <si>
+    <t>2024-10-09</t>
+  </si>
+  <si>
+    <t>1:03:20</t>
+  </si>
+  <si>
+    <t>2024-10-11</t>
+  </si>
+  <si>
+    <t>29:24</t>
+  </si>
+  <si>
+    <t>2024-10-12</t>
+  </si>
+  <si>
+    <t>2024-10-14</t>
+  </si>
+  <si>
+    <t>2024-10-16</t>
+  </si>
+  <si>
+    <t>2024-10-17</t>
+  </si>
+  <si>
+    <t>2024-10-18</t>
+  </si>
+  <si>
+    <t>2024-10-21</t>
+  </si>
+  <si>
+    <t>2024-10-22</t>
+  </si>
+  <si>
+    <t>2024-10-23</t>
+  </si>
+  <si>
+    <t>59:18</t>
+  </si>
+  <si>
+    <t>2024-10-25</t>
+  </si>
+  <si>
+    <t>28:46</t>
+  </si>
+  <si>
+    <t>2024-10-26</t>
+  </si>
+  <si>
+    <t>22:13</t>
   </si>
 </sst>
 </file>
@@ -14191,10 +14302,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1BECE25-7878-7543-A5E4-1B4438F2AAC2}">
-  <dimension ref="A1:E3360"/>
+  <dimension ref="A1:E3389"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2167" workbookViewId="0">
-      <selection activeCell="C2172" sqref="C2172"/>
+    <sheetView tabSelected="1" topLeftCell="A3360" workbookViewId="0">
+      <selection activeCell="C3389" sqref="C3389"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -49333,6 +49444,307 @@
         <v>4592</v>
       </c>
     </row>
+    <row r="3361" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3361" s="2" t="s">
+        <v>4594</v>
+      </c>
+      <c r="B3361" s="1">
+        <v>7.39</v>
+      </c>
+      <c r="C3361" s="2" t="s">
+        <v>4595</v>
+      </c>
+    </row>
+    <row r="3362" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3362" s="2" t="s">
+        <v>4596</v>
+      </c>
+      <c r="B3362" s="1">
+        <v>11.94</v>
+      </c>
+      <c r="C3362" s="2" t="s">
+        <v>4597</v>
+      </c>
+    </row>
+    <row r="3363" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3363" s="2" t="s">
+        <v>4598</v>
+      </c>
+      <c r="B3363" s="1">
+        <v>5.77</v>
+      </c>
+      <c r="C3363" s="2" t="s">
+        <v>4599</v>
+      </c>
+    </row>
+    <row r="3364" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3364" s="2" t="s">
+        <v>4600</v>
+      </c>
+      <c r="B3364" s="1">
+        <v>10.52</v>
+      </c>
+    </row>
+    <row r="3365" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3365" s="2" t="s">
+        <v>4601</v>
+      </c>
+      <c r="B3365" s="1">
+        <v>4.51</v>
+      </c>
+      <c r="C3365" s="2" t="s">
+        <v>1733</v>
+      </c>
+    </row>
+    <row r="3366" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3366" s="2" t="s">
+        <v>4602</v>
+      </c>
+      <c r="B3366" s="1">
+        <v>7.14</v>
+      </c>
+      <c r="C3366" s="2" t="s">
+        <v>3777</v>
+      </c>
+    </row>
+    <row r="3367" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3367" s="2" t="s">
+        <v>4603</v>
+      </c>
+      <c r="B3367" s="1">
+        <v>6.09</v>
+      </c>
+    </row>
+    <row r="3368" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3368" s="2" t="s">
+        <v>4604</v>
+      </c>
+      <c r="B3368" s="1">
+        <v>5.34</v>
+      </c>
+      <c r="C3368" s="2" t="s">
+        <v>4509</v>
+      </c>
+    </row>
+    <row r="3369" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3369" s="2" t="s">
+        <v>4605</v>
+      </c>
+      <c r="B3369" s="1">
+        <v>11.23</v>
+      </c>
+      <c r="C3369" s="2" t="s">
+        <v>4606</v>
+      </c>
+    </row>
+    <row r="3370" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3370" s="2" t="s">
+        <v>4607</v>
+      </c>
+      <c r="B3370" s="1">
+        <v>7.14</v>
+      </c>
+      <c r="C3370" s="2" t="s">
+        <v>2476</v>
+      </c>
+    </row>
+    <row r="3371" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3371" s="2" t="s">
+        <v>4608</v>
+      </c>
+      <c r="B3371" s="1">
+        <v>8.2899999999999991</v>
+      </c>
+    </row>
+    <row r="3372" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3372" s="2" t="s">
+        <v>4609</v>
+      </c>
+      <c r="B3372" s="1">
+        <v>6.07</v>
+      </c>
+      <c r="C3372" s="2" t="s">
+        <v>4599</v>
+      </c>
+    </row>
+    <row r="3373" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3373" s="2" t="s">
+        <v>4610</v>
+      </c>
+      <c r="B3373" s="1">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="C3373" s="2" t="s">
+        <v>4611</v>
+      </c>
+    </row>
+    <row r="3374" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3374" s="2" t="s">
+        <v>4612</v>
+      </c>
+      <c r="B3374" s="1">
+        <v>3.11</v>
+      </c>
+      <c r="C3374" s="2" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="3375" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3375" s="2" t="s">
+        <v>4612</v>
+      </c>
+      <c r="B3375" s="1">
+        <v>2.76</v>
+      </c>
+    </row>
+    <row r="3376" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3376" s="2" t="s">
+        <v>4613</v>
+      </c>
+      <c r="B3376" s="1">
+        <v>5.94</v>
+      </c>
+      <c r="C3376" s="2" t="s">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="3377" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3377" s="2" t="s">
+        <v>4614</v>
+      </c>
+      <c r="B3377" s="1">
+        <v>9.31</v>
+      </c>
+      <c r="C3377" s="2" t="s">
+        <v>4615</v>
+      </c>
+    </row>
+    <row r="3378" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3378" s="2" t="s">
+        <v>4616</v>
+      </c>
+      <c r="B3378" s="1">
+        <v>4.05</v>
+      </c>
+      <c r="C3378" s="2" t="s">
+        <v>4617</v>
+      </c>
+    </row>
+    <row r="3379" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3379" s="2" t="s">
+        <v>4618</v>
+      </c>
+      <c r="B3379" s="1">
+        <v>13.11</v>
+      </c>
+      <c r="C3379" s="2" t="s">
+        <v>3147</v>
+      </c>
+    </row>
+    <row r="3380" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3380" s="2" t="s">
+        <v>4619</v>
+      </c>
+      <c r="B3380" s="1">
+        <v>6.84</v>
+      </c>
+      <c r="C3380" s="2" t="s">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="3381" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3381" s="2" t="s">
+        <v>4620</v>
+      </c>
+      <c r="B3381" s="1">
+        <v>8.18</v>
+      </c>
+    </row>
+    <row r="3382" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3382" s="2" t="s">
+        <v>4621</v>
+      </c>
+      <c r="B3382" s="1">
+        <v>7.05</v>
+      </c>
+      <c r="C3382" s="2" t="s">
+        <v>3711</v>
+      </c>
+    </row>
+    <row r="3383" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3383" s="2" t="s">
+        <v>4622</v>
+      </c>
+      <c r="B3383" s="1">
+        <v>6.61</v>
+      </c>
+      <c r="C3383" s="2" t="s">
+        <v>1718</v>
+      </c>
+    </row>
+    <row r="3384" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3384" s="2" t="s">
+        <v>4623</v>
+      </c>
+      <c r="B3384" s="1">
+        <v>7.23</v>
+      </c>
+      <c r="C3384" s="2" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="3385" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3385" s="2" t="s">
+        <v>4624</v>
+      </c>
+      <c r="B3385" s="1">
+        <v>7</v>
+      </c>
+      <c r="C3385" s="2" t="s">
+        <v>3713</v>
+      </c>
+    </row>
+    <row r="3386" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3386" s="2" t="s">
+        <v>4625</v>
+      </c>
+      <c r="B3386" s="1">
+        <v>9.1</v>
+      </c>
+      <c r="C3386" s="2" t="s">
+        <v>4626</v>
+      </c>
+    </row>
+    <row r="3387" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3387" s="2" t="s">
+        <v>4627</v>
+      </c>
+      <c r="B3387" s="1">
+        <v>4.24</v>
+      </c>
+      <c r="C3387" s="2" t="s">
+        <v>4628</v>
+      </c>
+    </row>
+    <row r="3388" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3388" s="2" t="s">
+        <v>4629</v>
+      </c>
+      <c r="B3388" s="1">
+        <v>4</v>
+      </c>
+      <c r="C3388" s="2" t="s">
+        <v>4630</v>
+      </c>
+    </row>
+    <row r="3389" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3389" s="2" t="s">
+        <v>4629</v>
+      </c>
+      <c r="B3389" s="1">
+        <v>5.45</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>

--- a/Running_Log.xlsx
+++ b/Running_Log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adolwick/dolwick_project/biof309project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21C7130C-EDEF-6548-A089-28983F22C6BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2353604A-503C-5340-AF3D-B06ED56F3970}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3120" yWindow="500" windowWidth="25680" windowHeight="15820" xr2:uid="{4B2E00A5-7125-EC4E-9EAD-C4CEE86B127A}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5607" uniqueCount="4631">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5645" uniqueCount="4654">
   <si>
     <t>Date</t>
   </si>
@@ -13352,9 +13352,6 @@
     <t>2024-03-07</t>
   </si>
   <si>
-    <t>2023-03-11</t>
-  </si>
-  <si>
     <t>32:21</t>
   </si>
   <si>
@@ -13926,6 +13923,78 @@
   </si>
   <si>
     <t>22:13</t>
+  </si>
+  <si>
+    <t>2024-03-11</t>
+  </si>
+  <si>
+    <t>2024-10-28</t>
+  </si>
+  <si>
+    <t>2024-10-29</t>
+  </si>
+  <si>
+    <t>2024-10-30</t>
+  </si>
+  <si>
+    <t>2024-11-03</t>
+  </si>
+  <si>
+    <t>2024-11-04</t>
+  </si>
+  <si>
+    <t>2024-11-06</t>
+  </si>
+  <si>
+    <t>2024-11-09</t>
+  </si>
+  <si>
+    <t>2024-11-10</t>
+  </si>
+  <si>
+    <t>2024-11-12</t>
+  </si>
+  <si>
+    <t>16:25</t>
+  </si>
+  <si>
+    <t>2024-11-13</t>
+  </si>
+  <si>
+    <t>2024-11-16</t>
+  </si>
+  <si>
+    <t>2024-11-19</t>
+  </si>
+  <si>
+    <t>2024-11-20</t>
+  </si>
+  <si>
+    <t>2024-11-22</t>
+  </si>
+  <si>
+    <t>2024-11-23</t>
+  </si>
+  <si>
+    <t>2024-12-09</t>
+  </si>
+  <si>
+    <t>2024-12-11</t>
+  </si>
+  <si>
+    <t>2024-12-13</t>
+  </si>
+  <si>
+    <t>32:59</t>
+  </si>
+  <si>
+    <t>2024-12-14</t>
+  </si>
+  <si>
+    <t>51:59</t>
+  </si>
+  <si>
+    <t>2024-12-16</t>
   </si>
 </sst>
 </file>
@@ -14302,10 +14371,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1BECE25-7878-7543-A5E4-1B4438F2AAC2}">
-  <dimension ref="A1:E3389"/>
+  <dimension ref="A1:E3410"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3360" workbookViewId="0">
-      <selection activeCell="C3389" sqref="C3389"/>
+    <sheetView tabSelected="1" topLeftCell="A3382" workbookViewId="0">
+      <selection activeCell="C3411" sqref="C3411"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -36731,7 +36800,7 @@
         <v>9</v>
       </c>
       <c r="C2170" s="2" t="s">
-        <v>4593</v>
+        <v>4592</v>
       </c>
     </row>
     <row r="2171" spans="1:3" x14ac:dyDescent="0.2">
@@ -48293,18 +48362,18 @@
     </row>
     <row r="3254" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3254" s="2" t="s">
-        <v>4439</v>
+        <v>4630</v>
       </c>
       <c r="B3254" s="1">
         <v>4</v>
       </c>
       <c r="C3254" s="2" t="s">
-        <v>4440</v>
+        <v>4439</v>
       </c>
     </row>
     <row r="3255" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3255" s="2" t="s">
-        <v>4441</v>
+        <v>4440</v>
       </c>
       <c r="B3255" s="1">
         <v>6.01</v>
@@ -48315,7 +48384,7 @@
     </row>
     <row r="3256" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3256" s="2" t="s">
-        <v>4442</v>
+        <v>4441</v>
       </c>
       <c r="B3256" s="1">
         <v>4.33</v>
@@ -48326,7 +48395,7 @@
     </row>
     <row r="3257" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3257" s="2" t="s">
-        <v>4443</v>
+        <v>4442</v>
       </c>
       <c r="B3257" s="1">
         <v>4.01</v>
@@ -48337,18 +48406,18 @@
     </row>
     <row r="3258" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3258" s="2" t="s">
-        <v>4444</v>
+        <v>4443</v>
       </c>
       <c r="B3258" s="1">
         <v>5.05</v>
       </c>
       <c r="C3258" s="2" t="s">
-        <v>4445</v>
+        <v>4444</v>
       </c>
     </row>
     <row r="3259" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3259" s="2" t="s">
-        <v>4446</v>
+        <v>4445</v>
       </c>
       <c r="B3259" s="1">
         <v>7.06</v>
@@ -48359,18 +48428,18 @@
     </row>
     <row r="3260" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3260" s="2" t="s">
-        <v>4447</v>
+        <v>4446</v>
       </c>
       <c r="B3260" s="1">
         <v>12.25</v>
       </c>
       <c r="C3260" s="2" t="s">
-        <v>4448</v>
+        <v>4447</v>
       </c>
     </row>
     <row r="3261" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3261" s="2" t="s">
-        <v>4449</v>
+        <v>4448</v>
       </c>
       <c r="B3261" s="1">
         <v>5.03</v>
@@ -48381,29 +48450,29 @@
     </row>
     <row r="3262" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3262" s="2" t="s">
-        <v>4450</v>
+        <v>4449</v>
       </c>
       <c r="B3262" s="1">
         <v>4.09</v>
       </c>
       <c r="C3262" s="2" t="s">
-        <v>4451</v>
+        <v>4450</v>
       </c>
     </row>
     <row r="3263" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3263" s="2" t="s">
-        <v>4452</v>
+        <v>4451</v>
       </c>
       <c r="B3263" s="1">
         <v>7.01</v>
       </c>
       <c r="C3263" s="2" t="s">
-        <v>4453</v>
+        <v>4452</v>
       </c>
     </row>
     <row r="3264" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3264" s="2" t="s">
-        <v>4454</v>
+        <v>4453</v>
       </c>
       <c r="B3264" s="1">
         <v>7.64</v>
@@ -48411,7 +48480,7 @@
     </row>
     <row r="3265" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3265" s="2" t="s">
-        <v>4455</v>
+        <v>4454</v>
       </c>
       <c r="B3265" s="1">
         <v>4.5</v>
@@ -48422,18 +48491,18 @@
     </row>
     <row r="3266" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3266" s="2" t="s">
-        <v>4456</v>
+        <v>4455</v>
       </c>
       <c r="B3266" s="1">
         <v>10</v>
       </c>
       <c r="C3266" s="2" t="s">
-        <v>4457</v>
+        <v>4456</v>
       </c>
     </row>
     <row r="3267" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3267" s="2" t="s">
-        <v>4458</v>
+        <v>4457</v>
       </c>
       <c r="B3267" s="1">
         <v>4.26</v>
@@ -48444,7 +48513,7 @@
     </row>
     <row r="3268" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3268" s="2" t="s">
-        <v>4459</v>
+        <v>4458</v>
       </c>
       <c r="B3268" s="1">
         <v>4</v>
@@ -48455,18 +48524,18 @@
     </row>
     <row r="3269" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3269" s="2" t="s">
-        <v>4460</v>
+        <v>4459</v>
       </c>
       <c r="B3269" s="1">
         <v>16.04</v>
       </c>
       <c r="C3269" s="2" t="s">
-        <v>4461</v>
+        <v>4460</v>
       </c>
     </row>
     <row r="3270" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3270" s="2" t="s">
-        <v>4462</v>
+        <v>4461</v>
       </c>
       <c r="B3270" s="1">
         <v>4.09</v>
@@ -48477,7 +48546,7 @@
     </row>
     <row r="3271" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3271" s="2" t="s">
-        <v>4463</v>
+        <v>4462</v>
       </c>
       <c r="B3271" s="1">
         <v>5.09</v>
@@ -48488,7 +48557,7 @@
     </row>
     <row r="3272" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3272" s="2" t="s">
-        <v>4464</v>
+        <v>4463</v>
       </c>
       <c r="B3272" s="1">
         <v>5.37</v>
@@ -48499,18 +48568,18 @@
     </row>
     <row r="3273" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3273" s="2" t="s">
-        <v>4465</v>
+        <v>4464</v>
       </c>
       <c r="B3273" s="1">
         <v>7.59</v>
       </c>
       <c r="C3273" s="2" t="s">
-        <v>4466</v>
+        <v>4465</v>
       </c>
     </row>
     <row r="3274" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3274" s="2" t="s">
-        <v>4467</v>
+        <v>4466</v>
       </c>
       <c r="B3274" s="1">
         <v>4.03</v>
@@ -48521,18 +48590,18 @@
     </row>
     <row r="3275" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3275" s="2" t="s">
-        <v>4468</v>
+        <v>4467</v>
       </c>
       <c r="B3275" s="1">
         <v>11</v>
       </c>
       <c r="C3275" s="2" t="s">
-        <v>4469</v>
+        <v>4468</v>
       </c>
     </row>
     <row r="3276" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3276" s="2" t="s">
-        <v>4470</v>
+        <v>4469</v>
       </c>
       <c r="B3276" s="1">
         <v>5.38</v>
@@ -48543,18 +48612,18 @@
     </row>
     <row r="3277" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3277" s="2" t="s">
-        <v>4471</v>
+        <v>4470</v>
       </c>
       <c r="B3277" s="1">
         <v>5.17</v>
       </c>
       <c r="C3277" s="2" t="s">
-        <v>4472</v>
+        <v>4471</v>
       </c>
     </row>
     <row r="3278" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3278" s="2" t="s">
-        <v>4473</v>
+        <v>4472</v>
       </c>
       <c r="B3278" s="1">
         <v>8.27</v>
@@ -48565,51 +48634,51 @@
     </row>
     <row r="3279" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3279" s="2" t="s">
-        <v>4474</v>
+        <v>4473</v>
       </c>
       <c r="B3279" s="1">
         <v>5.49</v>
       </c>
       <c r="C3279" s="2" t="s">
-        <v>4475</v>
+        <v>4474</v>
       </c>
     </row>
     <row r="3280" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3280" s="2" t="s">
-        <v>4476</v>
+        <v>4475</v>
       </c>
       <c r="B3280" s="1">
         <v>17.62</v>
       </c>
       <c r="C3280" s="2" t="s">
-        <v>4477</v>
+        <v>4476</v>
       </c>
     </row>
     <row r="3281" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3281" s="2" t="s">
-        <v>4478</v>
+        <v>4477</v>
       </c>
       <c r="B3281" s="1">
         <v>4.4000000000000004</v>
       </c>
       <c r="C3281" s="2" t="s">
-        <v>4479</v>
+        <v>4478</v>
       </c>
     </row>
     <row r="3282" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3282" s="2" t="s">
-        <v>4480</v>
+        <v>4479</v>
       </c>
       <c r="B3282" s="1">
         <v>5</v>
       </c>
       <c r="C3282" s="2" t="s">
-        <v>4481</v>
+        <v>4480</v>
       </c>
     </row>
     <row r="3283" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3283" s="2" t="s">
-        <v>4482</v>
+        <v>4481</v>
       </c>
       <c r="B3283" s="1">
         <v>7.07</v>
@@ -48620,40 +48689,40 @@
     </row>
     <row r="3284" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3284" s="2" t="s">
-        <v>4483</v>
+        <v>4482</v>
       </c>
       <c r="B3284" s="1">
         <v>4.4000000000000004</v>
       </c>
       <c r="C3284" s="2" t="s">
-        <v>4484</v>
+        <v>4483</v>
       </c>
     </row>
     <row r="3285" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3285" s="2" t="s">
-        <v>4485</v>
+        <v>4484</v>
       </c>
       <c r="B3285" s="1">
         <v>10.5</v>
       </c>
       <c r="C3285" s="2" t="s">
-        <v>4486</v>
+        <v>4485</v>
       </c>
     </row>
     <row r="3286" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3286" s="2" t="s">
-        <v>4487</v>
+        <v>4486</v>
       </c>
       <c r="B3286" s="1">
         <v>5.9</v>
       </c>
       <c r="C3286" s="2" t="s">
-        <v>4488</v>
+        <v>4487</v>
       </c>
     </row>
     <row r="3287" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3287" s="2" t="s">
-        <v>4489</v>
+        <v>4488</v>
       </c>
       <c r="B3287" s="1">
         <v>5.31</v>
@@ -48664,7 +48733,7 @@
     </row>
     <row r="3288" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3288" s="2" t="s">
-        <v>4490</v>
+        <v>4489</v>
       </c>
       <c r="B3288" s="1">
         <v>4.41</v>
@@ -48675,7 +48744,7 @@
     </row>
     <row r="3289" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3289" s="2" t="s">
-        <v>4491</v>
+        <v>4490</v>
       </c>
       <c r="B3289" s="1">
         <v>5.74</v>
@@ -48686,18 +48755,18 @@
     </row>
     <row r="3290" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3290" s="2" t="s">
-        <v>4492</v>
+        <v>4491</v>
       </c>
       <c r="B3290" s="1">
         <v>19.399999999999999</v>
       </c>
       <c r="C3290" s="2" t="s">
-        <v>4493</v>
+        <v>4492</v>
       </c>
     </row>
     <row r="3291" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3291" s="2" t="s">
-        <v>4494</v>
+        <v>4493</v>
       </c>
       <c r="B3291" s="1">
         <v>6.52</v>
@@ -48708,7 +48777,7 @@
     </row>
     <row r="3292" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3292" s="2" t="s">
-        <v>4495</v>
+        <v>4494</v>
       </c>
       <c r="B3292" s="1">
         <v>7.27</v>
@@ -48719,7 +48788,7 @@
     </row>
     <row r="3293" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3293" s="2" t="s">
-        <v>4496</v>
+        <v>4495</v>
       </c>
       <c r="B3293" s="1">
         <v>4.4000000000000004</v>
@@ -48730,29 +48799,29 @@
     </row>
     <row r="3294" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3294" s="2" t="s">
-        <v>4497</v>
+        <v>4496</v>
       </c>
       <c r="B3294" s="1">
         <v>12.16</v>
       </c>
       <c r="C3294" s="2" t="s">
-        <v>4498</v>
+        <v>4497</v>
       </c>
     </row>
     <row r="3295" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3295" s="2" t="s">
-        <v>4499</v>
+        <v>4498</v>
       </c>
       <c r="B3295" s="1">
         <v>6.01</v>
       </c>
       <c r="C3295" s="2" t="s">
-        <v>4500</v>
+        <v>4499</v>
       </c>
     </row>
     <row r="3296" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3296" s="2" t="s">
-        <v>4501</v>
+        <v>4500</v>
       </c>
       <c r="B3296" s="1">
         <v>6.93</v>
@@ -48763,7 +48832,7 @@
     </row>
     <row r="3297" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3297" s="2" t="s">
-        <v>4502</v>
+        <v>4501</v>
       </c>
       <c r="B3297" s="1">
         <v>7.54</v>
@@ -48774,7 +48843,7 @@
     </row>
     <row r="3298" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3298" s="2" t="s">
-        <v>4503</v>
+        <v>4502</v>
       </c>
       <c r="B3298" s="1">
         <v>4.5</v>
@@ -48785,18 +48854,18 @@
     </row>
     <row r="3299" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3299" s="2" t="s">
-        <v>4504</v>
+        <v>4503</v>
       </c>
       <c r="B3299" s="1">
         <v>20.079999999999998</v>
       </c>
       <c r="C3299" s="2" t="s">
-        <v>4505</v>
+        <v>4504</v>
       </c>
     </row>
     <row r="3300" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3300" s="2" t="s">
-        <v>4506</v>
+        <v>4505</v>
       </c>
       <c r="B3300" s="1">
         <v>4.3899999999999997</v>
@@ -48807,7 +48876,7 @@
     </row>
     <row r="3301" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3301" s="2" t="s">
-        <v>4507</v>
+        <v>4506</v>
       </c>
       <c r="B3301" s="1">
         <v>6.76</v>
@@ -48818,29 +48887,29 @@
     </row>
     <row r="3302" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3302" s="2" t="s">
-        <v>4508</v>
+        <v>4507</v>
       </c>
       <c r="B3302" s="1">
         <v>4.7</v>
       </c>
       <c r="C3302" s="2" t="s">
-        <v>4509</v>
+        <v>4508</v>
       </c>
     </row>
     <row r="3303" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3303" s="2" t="s">
-        <v>4510</v>
+        <v>4509</v>
       </c>
       <c r="B3303" s="1">
         <v>12.03</v>
       </c>
       <c r="C3303" s="2" t="s">
-        <v>4511</v>
+        <v>4510</v>
       </c>
     </row>
     <row r="3304" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3304" s="2" t="s">
-        <v>4512</v>
+        <v>4511</v>
       </c>
       <c r="B3304" s="1">
         <v>5.05</v>
@@ -48851,7 +48920,7 @@
     </row>
     <row r="3305" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3305" s="2" t="s">
-        <v>4513</v>
+        <v>4512</v>
       </c>
       <c r="B3305" s="1">
         <v>5.23</v>
@@ -48859,7 +48928,7 @@
     </row>
     <row r="3306" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3306" s="2" t="s">
-        <v>4514</v>
+        <v>4513</v>
       </c>
       <c r="B3306" s="1">
         <v>6.3</v>
@@ -48870,18 +48939,18 @@
     </row>
     <row r="3307" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3307" s="2" t="s">
-        <v>4515</v>
+        <v>4514</v>
       </c>
       <c r="B3307" s="1">
         <v>10.01</v>
       </c>
       <c r="C3307" s="2" t="s">
-        <v>4516</v>
+        <v>4515</v>
       </c>
     </row>
     <row r="3308" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3308" s="2" t="s">
-        <v>4517</v>
+        <v>4516</v>
       </c>
       <c r="B3308" s="1">
         <v>4</v>
@@ -48892,7 +48961,7 @@
     </row>
     <row r="3309" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3309" s="2" t="s">
-        <v>4518</v>
+        <v>4517</v>
       </c>
       <c r="B3309" s="1">
         <v>4.4000000000000004</v>
@@ -48903,7 +48972,7 @@
     </row>
     <row r="3310" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3310" s="2" t="s">
-        <v>4519</v>
+        <v>4518</v>
       </c>
       <c r="B3310" s="1">
         <v>2.31</v>
@@ -48914,18 +48983,18 @@
     </row>
     <row r="3311" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3311" s="2" t="s">
-        <v>4520</v>
+        <v>4519</v>
       </c>
       <c r="B3311" s="1">
         <v>26.22</v>
       </c>
       <c r="C3311" s="2" t="s">
-        <v>4521</v>
+        <v>4520</v>
       </c>
     </row>
     <row r="3312" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3312" s="2" t="s">
-        <v>4522</v>
+        <v>4521</v>
       </c>
       <c r="B3312" s="1">
         <v>3.7</v>
@@ -48936,18 +49005,18 @@
     </row>
     <row r="3313" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3313" s="2" t="s">
-        <v>4523</v>
+        <v>4522</v>
       </c>
       <c r="B3313" s="1">
         <v>5</v>
       </c>
       <c r="C3313" s="2" t="s">
-        <v>4524</v>
+        <v>4523</v>
       </c>
     </row>
     <row r="3314" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3314" s="2" t="s">
-        <v>4525</v>
+        <v>4524</v>
       </c>
       <c r="B3314" s="1">
         <v>3.3</v>
@@ -48958,18 +49027,18 @@
     </row>
     <row r="3315" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3315" s="2" t="s">
-        <v>4526</v>
+        <v>4525</v>
       </c>
       <c r="B3315" s="1">
         <v>5.55</v>
       </c>
       <c r="C3315" s="2" t="s">
-        <v>4527</v>
+        <v>4526</v>
       </c>
     </row>
     <row r="3316" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3316" s="2" t="s">
-        <v>4528</v>
+        <v>4527</v>
       </c>
       <c r="B3316" s="1">
         <v>4.62</v>
@@ -48980,7 +49049,7 @@
     </row>
     <row r="3317" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3317" s="2" t="s">
-        <v>4529</v>
+        <v>4528</v>
       </c>
       <c r="B3317" s="1">
         <v>4</v>
@@ -48991,7 +49060,7 @@
     </row>
     <row r="3318" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3318" s="2" t="s">
-        <v>4530</v>
+        <v>4529</v>
       </c>
       <c r="B3318" s="1">
         <v>4.41</v>
@@ -49002,18 +49071,18 @@
     </row>
     <row r="3319" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3319" s="2" t="s">
-        <v>4531</v>
+        <v>4530</v>
       </c>
       <c r="B3319" s="1">
         <v>7.09</v>
       </c>
       <c r="C3319" s="2" t="s">
-        <v>4532</v>
+        <v>4531</v>
       </c>
     </row>
     <row r="3320" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3320" s="2" t="s">
-        <v>4533</v>
+        <v>4532</v>
       </c>
       <c r="B3320" s="1">
         <v>7.24</v>
@@ -49021,18 +49090,18 @@
     </row>
     <row r="3321" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3321" s="2" t="s">
-        <v>4534</v>
+        <v>4533</v>
       </c>
       <c r="B3321" s="1">
         <v>3.21</v>
       </c>
       <c r="C3321" s="2" t="s">
-        <v>4535</v>
+        <v>4534</v>
       </c>
     </row>
     <row r="3322" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3322" s="2" t="s">
-        <v>4536</v>
+        <v>4535</v>
       </c>
       <c r="B3322" s="1">
         <v>5.81</v>
@@ -49043,62 +49112,62 @@
     </row>
     <row r="3323" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3323" s="2" t="s">
-        <v>4537</v>
+        <v>4536</v>
       </c>
       <c r="B3323" s="1">
         <v>8.33</v>
       </c>
       <c r="C3323" s="2" t="s">
-        <v>4538</v>
+        <v>4537</v>
       </c>
     </row>
     <row r="3324" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3324" s="2" t="s">
-        <v>4539</v>
+        <v>4538</v>
       </c>
       <c r="B3324" s="1">
         <v>4.07</v>
       </c>
       <c r="C3324" s="2" t="s">
-        <v>4540</v>
+        <v>4539</v>
       </c>
     </row>
     <row r="3325" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3325" s="2" t="s">
-        <v>4541</v>
+        <v>4540</v>
       </c>
       <c r="B3325" s="1">
         <v>10.220000000000001</v>
       </c>
       <c r="C3325" s="2" t="s">
-        <v>4542</v>
+        <v>4541</v>
       </c>
     </row>
     <row r="3326" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3326" s="2" t="s">
-        <v>4543</v>
+        <v>4542</v>
       </c>
       <c r="B3326" s="1">
         <v>6.18</v>
       </c>
       <c r="C3326" s="2" t="s">
-        <v>4544</v>
+        <v>4543</v>
       </c>
     </row>
     <row r="3327" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3327" s="2" t="s">
-        <v>4545</v>
+        <v>4544</v>
       </c>
       <c r="B3327" s="1">
         <v>0.93</v>
       </c>
       <c r="C3327" s="2" t="s">
-        <v>4546</v>
+        <v>4545</v>
       </c>
     </row>
     <row r="3328" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3328" s="2" t="s">
-        <v>4545</v>
+        <v>4544</v>
       </c>
       <c r="B3328" s="1">
         <v>3.11</v>
@@ -49106,7 +49175,7 @@
     </row>
     <row r="3329" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3329" s="2" t="s">
-        <v>4547</v>
+        <v>4546</v>
       </c>
       <c r="B3329" s="1">
         <v>4.57</v>
@@ -49117,7 +49186,7 @@
     </row>
     <row r="3330" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3330" s="2" t="s">
-        <v>4548</v>
+        <v>4547</v>
       </c>
       <c r="B3330" s="1">
         <v>10.27</v>
@@ -49128,7 +49197,7 @@
     </row>
     <row r="3331" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3331" s="2" t="s">
-        <v>4549</v>
+        <v>4548</v>
       </c>
       <c r="B3331" s="1">
         <v>4.29</v>
@@ -49139,51 +49208,51 @@
     </row>
     <row r="3332" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3332" s="2" t="s">
-        <v>4550</v>
+        <v>4549</v>
       </c>
       <c r="B3332" s="1">
         <v>6.11</v>
       </c>
       <c r="C3332" s="2" t="s">
-        <v>4551</v>
+        <v>4550</v>
       </c>
     </row>
     <row r="3333" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3333" s="2" t="s">
-        <v>4552</v>
+        <v>4551</v>
       </c>
       <c r="B3333" s="1">
         <v>4.62</v>
       </c>
       <c r="C3333" s="2" t="s">
-        <v>4553</v>
+        <v>4552</v>
       </c>
     </row>
     <row r="3334" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3334" s="2" t="s">
-        <v>4554</v>
+        <v>4553</v>
       </c>
       <c r="B3334" s="1">
         <v>8.32</v>
       </c>
       <c r="C3334" s="2" t="s">
-        <v>4555</v>
+        <v>4554</v>
       </c>
     </row>
     <row r="3335" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3335" s="2" t="s">
-        <v>4556</v>
+        <v>4555</v>
       </c>
       <c r="B3335" s="1">
         <v>5.18</v>
       </c>
       <c r="C3335" s="2" t="s">
-        <v>4557</v>
+        <v>4556</v>
       </c>
     </row>
     <row r="3336" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3336" s="2" t="s">
-        <v>4558</v>
+        <v>4557</v>
       </c>
       <c r="B3336" s="1">
         <v>5.01</v>
@@ -49194,7 +49263,7 @@
     </row>
     <row r="3337" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3337" s="2" t="s">
-        <v>4559</v>
+        <v>4558</v>
       </c>
       <c r="B3337" s="1">
         <v>8.56</v>
@@ -49205,29 +49274,29 @@
     </row>
     <row r="3338" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3338" s="2" t="s">
-        <v>4560</v>
+        <v>4559</v>
       </c>
       <c r="B3338" s="1">
         <v>4.4400000000000004</v>
       </c>
       <c r="C3338" s="2" t="s">
-        <v>4561</v>
+        <v>4560</v>
       </c>
     </row>
     <row r="3339" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3339" s="2" t="s">
-        <v>4562</v>
+        <v>4561</v>
       </c>
       <c r="B3339" s="1">
         <v>1.73</v>
       </c>
       <c r="C3339" s="2" t="s">
-        <v>4563</v>
+        <v>4562</v>
       </c>
     </row>
     <row r="3340" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3340" s="2" t="s">
-        <v>4562</v>
+        <v>4561</v>
       </c>
       <c r="B3340" s="1">
         <v>2.87</v>
@@ -49235,7 +49304,7 @@
     </row>
     <row r="3341" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3341" s="2" t="s">
-        <v>4564</v>
+        <v>4563</v>
       </c>
       <c r="B3341" s="1">
         <v>6.21</v>
@@ -49246,18 +49315,18 @@
     </row>
     <row r="3342" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3342" s="2" t="s">
-        <v>4565</v>
+        <v>4564</v>
       </c>
       <c r="B3342" s="1">
         <v>6.27</v>
       </c>
       <c r="C3342" s="2" t="s">
-        <v>4566</v>
+        <v>4565</v>
       </c>
     </row>
     <row r="3343" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3343" s="2" t="s">
-        <v>4567</v>
+        <v>4566</v>
       </c>
       <c r="B3343" s="1">
         <v>8.77</v>
@@ -49265,18 +49334,18 @@
     </row>
     <row r="3344" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3344" s="2" t="s">
-        <v>4568</v>
+        <v>4567</v>
       </c>
       <c r="B3344" s="1">
         <v>5.13</v>
       </c>
       <c r="C3344" s="2" t="s">
-        <v>4569</v>
+        <v>4568</v>
       </c>
     </row>
     <row r="3345" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3345" s="2" t="s">
-        <v>4570</v>
+        <v>4569</v>
       </c>
       <c r="B3345" s="1">
         <v>10.3</v>
@@ -49287,29 +49356,29 @@
     </row>
     <row r="3346" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3346" s="2" t="s">
-        <v>4571</v>
+        <v>4570</v>
       </c>
       <c r="B3346" s="1">
         <v>7.11</v>
       </c>
       <c r="C3346" s="2" t="s">
-        <v>4572</v>
+        <v>4571</v>
       </c>
     </row>
     <row r="3347" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3347" s="2" t="s">
-        <v>4573</v>
+        <v>4572</v>
       </c>
       <c r="B3347" s="1">
         <v>9.27</v>
       </c>
       <c r="C3347" s="2" t="s">
-        <v>4574</v>
+        <v>4573</v>
       </c>
     </row>
     <row r="3348" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3348" s="2" t="s">
-        <v>4575</v>
+        <v>4574</v>
       </c>
       <c r="B3348" s="1">
         <v>6.26</v>
@@ -49320,18 +49389,18 @@
     </row>
     <row r="3349" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3349" s="2" t="s">
-        <v>4576</v>
+        <v>4575</v>
       </c>
       <c r="B3349" s="1">
         <v>10.57</v>
       </c>
       <c r="C3349" s="2" t="s">
-        <v>4577</v>
+        <v>4576</v>
       </c>
     </row>
     <row r="3350" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3350" s="2" t="s">
-        <v>4578</v>
+        <v>4577</v>
       </c>
       <c r="B3350" s="1">
         <v>5.26</v>
@@ -49342,18 +49411,18 @@
     </row>
     <row r="3351" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3351" s="2" t="s">
-        <v>4579</v>
+        <v>4578</v>
       </c>
       <c r="B3351" s="1">
         <v>6.26</v>
       </c>
       <c r="C3351" s="2" t="s">
-        <v>4580</v>
+        <v>4579</v>
       </c>
     </row>
     <row r="3352" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3352" s="2" t="s">
-        <v>4581</v>
+        <v>4580</v>
       </c>
       <c r="B3352" s="1">
         <v>8.19</v>
@@ -49361,7 +49430,7 @@
     </row>
     <row r="3353" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3353" s="2" t="s">
-        <v>4582</v>
+        <v>4581</v>
       </c>
       <c r="B3353" s="1">
         <v>5.44</v>
@@ -49372,18 +49441,18 @@
     </row>
     <row r="3354" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3354" s="2" t="s">
-        <v>4583</v>
+        <v>4582</v>
       </c>
       <c r="B3354" s="1">
         <v>6.08</v>
       </c>
       <c r="C3354" s="2" t="s">
-        <v>4584</v>
+        <v>4583</v>
       </c>
     </row>
     <row r="3355" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3355" s="2" t="s">
-        <v>4585</v>
+        <v>4584</v>
       </c>
       <c r="B3355" s="1">
         <v>8.19</v>
@@ -49391,18 +49460,18 @@
     </row>
     <row r="3356" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3356" s="2" t="s">
-        <v>4586</v>
+        <v>4585</v>
       </c>
       <c r="B3356" s="1">
         <v>6</v>
       </c>
       <c r="C3356" s="2" t="s">
-        <v>4587</v>
+        <v>4586</v>
       </c>
     </row>
     <row r="3357" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3357" s="2" t="s">
-        <v>4588</v>
+        <v>4587</v>
       </c>
       <c r="B3357" s="1">
         <v>6.05</v>
@@ -49413,7 +49482,7 @@
     </row>
     <row r="3358" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3358" s="2" t="s">
-        <v>4589</v>
+        <v>4588</v>
       </c>
       <c r="B3358" s="1">
         <v>7.72</v>
@@ -49424,7 +49493,7 @@
     </row>
     <row r="3359" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3359" s="2" t="s">
-        <v>4590</v>
+        <v>4589</v>
       </c>
       <c r="B3359" s="1">
         <v>6.02</v>
@@ -49435,51 +49504,51 @@
     </row>
     <row r="3360" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3360" s="2" t="s">
-        <v>4591</v>
+        <v>4590</v>
       </c>
       <c r="B3360" s="1">
         <v>11.52</v>
       </c>
       <c r="C3360" s="2" t="s">
-        <v>4592</v>
+        <v>4591</v>
       </c>
     </row>
     <row r="3361" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3361" s="2" t="s">
-        <v>4594</v>
+        <v>4593</v>
       </c>
       <c r="B3361" s="1">
         <v>7.39</v>
       </c>
       <c r="C3361" s="2" t="s">
-        <v>4595</v>
+        <v>4594</v>
       </c>
     </row>
     <row r="3362" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3362" s="2" t="s">
-        <v>4596</v>
+        <v>4595</v>
       </c>
       <c r="B3362" s="1">
         <v>11.94</v>
       </c>
       <c r="C3362" s="2" t="s">
-        <v>4597</v>
+        <v>4596</v>
       </c>
     </row>
     <row r="3363" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3363" s="2" t="s">
-        <v>4598</v>
+        <v>4597</v>
       </c>
       <c r="B3363" s="1">
         <v>5.77</v>
       </c>
       <c r="C3363" s="2" t="s">
-        <v>4599</v>
+        <v>4598</v>
       </c>
     </row>
     <row r="3364" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3364" s="2" t="s">
-        <v>4600</v>
+        <v>4599</v>
       </c>
       <c r="B3364" s="1">
         <v>10.52</v>
@@ -49487,7 +49556,7 @@
     </row>
     <row r="3365" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3365" s="2" t="s">
-        <v>4601</v>
+        <v>4600</v>
       </c>
       <c r="B3365" s="1">
         <v>4.51</v>
@@ -49498,7 +49567,7 @@
     </row>
     <row r="3366" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3366" s="2" t="s">
-        <v>4602</v>
+        <v>4601</v>
       </c>
       <c r="B3366" s="1">
         <v>7.14</v>
@@ -49509,7 +49578,7 @@
     </row>
     <row r="3367" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3367" s="2" t="s">
-        <v>4603</v>
+        <v>4602</v>
       </c>
       <c r="B3367" s="1">
         <v>6.09</v>
@@ -49517,29 +49586,29 @@
     </row>
     <row r="3368" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3368" s="2" t="s">
-        <v>4604</v>
+        <v>4603</v>
       </c>
       <c r="B3368" s="1">
         <v>5.34</v>
       </c>
       <c r="C3368" s="2" t="s">
-        <v>4509</v>
+        <v>4508</v>
       </c>
     </row>
     <row r="3369" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3369" s="2" t="s">
-        <v>4605</v>
+        <v>4604</v>
       </c>
       <c r="B3369" s="1">
         <v>11.23</v>
       </c>
       <c r="C3369" s="2" t="s">
-        <v>4606</v>
+        <v>4605</v>
       </c>
     </row>
     <row r="3370" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3370" s="2" t="s">
-        <v>4607</v>
+        <v>4606</v>
       </c>
       <c r="B3370" s="1">
         <v>7.14</v>
@@ -49550,7 +49619,7 @@
     </row>
     <row r="3371" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3371" s="2" t="s">
-        <v>4608</v>
+        <v>4607</v>
       </c>
       <c r="B3371" s="1">
         <v>8.2899999999999991</v>
@@ -49558,29 +49627,29 @@
     </row>
     <row r="3372" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3372" s="2" t="s">
-        <v>4609</v>
+        <v>4608</v>
       </c>
       <c r="B3372" s="1">
         <v>6.07</v>
       </c>
       <c r="C3372" s="2" t="s">
-        <v>4599</v>
+        <v>4598</v>
       </c>
     </row>
     <row r="3373" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3373" s="2" t="s">
-        <v>4610</v>
+        <v>4609</v>
       </c>
       <c r="B3373" s="1">
         <v>4.1500000000000004</v>
       </c>
       <c r="C3373" s="2" t="s">
-        <v>4611</v>
+        <v>4610</v>
       </c>
     </row>
     <row r="3374" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3374" s="2" t="s">
-        <v>4612</v>
+        <v>4611</v>
       </c>
       <c r="B3374" s="1">
         <v>3.11</v>
@@ -49591,7 +49660,7 @@
     </row>
     <row r="3375" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3375" s="2" t="s">
-        <v>4612</v>
+        <v>4611</v>
       </c>
       <c r="B3375" s="1">
         <v>2.76</v>
@@ -49599,7 +49668,7 @@
     </row>
     <row r="3376" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3376" s="2" t="s">
-        <v>4613</v>
+        <v>4612</v>
       </c>
       <c r="B3376" s="1">
         <v>5.94</v>
@@ -49610,29 +49679,29 @@
     </row>
     <row r="3377" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3377" s="2" t="s">
-        <v>4614</v>
+        <v>4613</v>
       </c>
       <c r="B3377" s="1">
         <v>9.31</v>
       </c>
       <c r="C3377" s="2" t="s">
-        <v>4615</v>
+        <v>4614</v>
       </c>
     </row>
     <row r="3378" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3378" s="2" t="s">
-        <v>4616</v>
+        <v>4615</v>
       </c>
       <c r="B3378" s="1">
         <v>4.05</v>
       </c>
       <c r="C3378" s="2" t="s">
-        <v>4617</v>
+        <v>4616</v>
       </c>
     </row>
     <row r="3379" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3379" s="2" t="s">
-        <v>4618</v>
+        <v>4617</v>
       </c>
       <c r="B3379" s="1">
         <v>13.11</v>
@@ -49643,7 +49712,7 @@
     </row>
     <row r="3380" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3380" s="2" t="s">
-        <v>4619</v>
+        <v>4618</v>
       </c>
       <c r="B3380" s="1">
         <v>6.84</v>
@@ -49654,7 +49723,7 @@
     </row>
     <row r="3381" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3381" s="2" t="s">
-        <v>4620</v>
+        <v>4619</v>
       </c>
       <c r="B3381" s="1">
         <v>8.18</v>
@@ -49662,7 +49731,7 @@
     </row>
     <row r="3382" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3382" s="2" t="s">
-        <v>4621</v>
+        <v>4620</v>
       </c>
       <c r="B3382" s="1">
         <v>7.05</v>
@@ -49673,7 +49742,7 @@
     </row>
     <row r="3383" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3383" s="2" t="s">
-        <v>4622</v>
+        <v>4621</v>
       </c>
       <c r="B3383" s="1">
         <v>6.61</v>
@@ -49684,7 +49753,7 @@
     </row>
     <row r="3384" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3384" s="2" t="s">
-        <v>4623</v>
+        <v>4622</v>
       </c>
       <c r="B3384" s="1">
         <v>7.23</v>
@@ -49695,7 +49764,7 @@
     </row>
     <row r="3385" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3385" s="2" t="s">
-        <v>4624</v>
+        <v>4623</v>
       </c>
       <c r="B3385" s="1">
         <v>7</v>
@@ -49706,43 +49775,262 @@
     </row>
     <row r="3386" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3386" s="2" t="s">
-        <v>4625</v>
+        <v>4624</v>
       </c>
       <c r="B3386" s="1">
         <v>9.1</v>
       </c>
       <c r="C3386" s="2" t="s">
-        <v>4626</v>
+        <v>4625</v>
       </c>
     </row>
     <row r="3387" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3387" s="2" t="s">
-        <v>4627</v>
+        <v>4626</v>
       </c>
       <c r="B3387" s="1">
         <v>4.24</v>
       </c>
       <c r="C3387" s="2" t="s">
-        <v>4628</v>
+        <v>4627</v>
       </c>
     </row>
     <row r="3388" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3388" s="2" t="s">
-        <v>4629</v>
+        <v>4628</v>
       </c>
       <c r="B3388" s="1">
         <v>4</v>
       </c>
       <c r="C3388" s="2" t="s">
-        <v>4630</v>
+        <v>4629</v>
       </c>
     </row>
     <row r="3389" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3389" s="2" t="s">
-        <v>4629</v>
+        <v>4628</v>
       </c>
       <c r="B3389" s="1">
         <v>5.45</v>
+      </c>
+    </row>
+    <row r="3390" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3390" s="2" t="s">
+        <v>4631</v>
+      </c>
+      <c r="B3390" s="1">
+        <v>7.04</v>
+      </c>
+      <c r="C3390" s="2" t="s">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="3391" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3391" s="2" t="s">
+        <v>4632</v>
+      </c>
+      <c r="B3391" s="1">
+        <v>6.04</v>
+      </c>
+      <c r="C3391" s="2" t="s">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="3392" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3392" s="2" t="s">
+        <v>4633</v>
+      </c>
+      <c r="B3392" s="1">
+        <v>9.14</v>
+      </c>
+    </row>
+    <row r="3393" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3393" s="2" t="s">
+        <v>4634</v>
+      </c>
+      <c r="B3393" s="1">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="C3393" s="2" t="s">
+        <v>4471</v>
+      </c>
+    </row>
+    <row r="3394" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3394" s="2" t="s">
+        <v>4635</v>
+      </c>
+      <c r="B3394" s="1">
+        <v>4</v>
+      </c>
+      <c r="C3394" s="2" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="3395" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3395" s="2" t="s">
+        <v>4636</v>
+      </c>
+      <c r="B3395" s="1">
+        <v>4.03</v>
+      </c>
+      <c r="C3395" s="2" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="3396" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3396" s="2" t="s">
+        <v>4637</v>
+      </c>
+      <c r="B3396" s="1">
+        <v>5.6</v>
+      </c>
+      <c r="C3396" s="2" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="3397" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3397" s="2" t="s">
+        <v>4638</v>
+      </c>
+      <c r="B3397" s="1">
+        <v>10</v>
+      </c>
+      <c r="C3397" s="2" t="s">
+        <v>2066</v>
+      </c>
+    </row>
+    <row r="3398" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3398" s="2" t="s">
+        <v>4639</v>
+      </c>
+      <c r="B3398" s="1">
+        <v>2.31</v>
+      </c>
+      <c r="C3398" s="2" t="s">
+        <v>4640</v>
+      </c>
+    </row>
+    <row r="3399" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3399" s="2" t="s">
+        <v>4641</v>
+      </c>
+      <c r="B3399" s="1">
+        <v>7.14</v>
+      </c>
+    </row>
+    <row r="3400" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3400" s="2" t="s">
+        <v>4642</v>
+      </c>
+      <c r="B3400" s="1">
+        <v>10</v>
+      </c>
+      <c r="C3400" s="2" t="s">
+        <v>3208</v>
+      </c>
+    </row>
+    <row r="3401" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3401" s="2" t="s">
+        <v>4643</v>
+      </c>
+      <c r="B3401" s="1">
+        <v>3.26</v>
+      </c>
+      <c r="C3401" s="2" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="3402" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3402" s="2" t="s">
+        <v>4644</v>
+      </c>
+      <c r="B3402" s="1">
+        <v>7.23</v>
+      </c>
+    </row>
+    <row r="3403" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3403" s="2" t="s">
+        <v>4645</v>
+      </c>
+      <c r="B3403" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="C3403" s="2" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="3404" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3404" s="2" t="s">
+        <v>4646</v>
+      </c>
+      <c r="B3404" s="1">
+        <v>3.11</v>
+      </c>
+      <c r="C3404" s="2" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="3405" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3405" s="2" t="s">
+        <v>4646</v>
+      </c>
+      <c r="B3405" s="1">
+        <v>3.64</v>
+      </c>
+    </row>
+    <row r="3406" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3406" s="2" t="s">
+        <v>4647</v>
+      </c>
+      <c r="B3406" s="1">
+        <v>3.7</v>
+      </c>
+      <c r="C3406" s="2" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="3407" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3407" s="2" t="s">
+        <v>4648</v>
+      </c>
+      <c r="B3407" s="1">
+        <v>4.62</v>
+      </c>
+      <c r="C3407" s="2" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="3408" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3408" s="2" t="s">
+        <v>4649</v>
+      </c>
+      <c r="B3408" s="1">
+        <v>4.6399999999999997</v>
+      </c>
+      <c r="C3408" s="2" t="s">
+        <v>4650</v>
+      </c>
+    </row>
+    <row r="3409" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3409" s="2" t="s">
+        <v>4651</v>
+      </c>
+      <c r="B3409" s="1">
+        <v>7.1</v>
+      </c>
+      <c r="C3409" s="2" t="s">
+        <v>4652</v>
+      </c>
+    </row>
+    <row r="3410" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3410" s="2" t="s">
+        <v>4653</v>
+      </c>
+      <c r="B3410" s="1">
+        <v>6.2</v>
+      </c>
+      <c r="C3410" s="2" t="s">
+        <v>1046</v>
       </c>
     </row>
   </sheetData>

--- a/Running_Log.xlsx
+++ b/Running_Log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adolwick/dolwick_project/biof309project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2353604A-503C-5340-AF3D-B06ED56F3970}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD4A27A5-12B3-1D41-B5EE-DDDD65AB5261}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3120" yWindow="500" windowWidth="25680" windowHeight="15820" xr2:uid="{4B2E00A5-7125-EC4E-9EAD-C4CEE86B127A}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5645" uniqueCount="4654">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5663" uniqueCount="4666">
   <si>
     <t>Date</t>
   </si>
@@ -13995,6 +13995,42 @@
   </si>
   <si>
     <t>2024-12-16</t>
+  </si>
+  <si>
+    <t>2024-12-18</t>
+  </si>
+  <si>
+    <t>2024-12-19</t>
+  </si>
+  <si>
+    <t>1:03:43</t>
+  </si>
+  <si>
+    <t>2024-12-22</t>
+  </si>
+  <si>
+    <t>38:14</t>
+  </si>
+  <si>
+    <t>2024-12-23</t>
+  </si>
+  <si>
+    <t>2024-12-26</t>
+  </si>
+  <si>
+    <t>2024-12-27</t>
+  </si>
+  <si>
+    <t>2024-12-28</t>
+  </si>
+  <si>
+    <t>1:17:20</t>
+  </si>
+  <si>
+    <t>2024-12-30</t>
+  </si>
+  <si>
+    <t>2024-12-31</t>
   </si>
 </sst>
 </file>
@@ -14371,10 +14407,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1BECE25-7878-7543-A5E4-1B4438F2AAC2}">
-  <dimension ref="A1:E3410"/>
+  <dimension ref="A1:E3419"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3382" workbookViewId="0">
-      <selection activeCell="C3411" sqref="C3411"/>
+    <sheetView tabSelected="1" topLeftCell="A3390" workbookViewId="0">
+      <selection activeCell="C3420" sqref="C3420"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -50033,6 +50069,105 @@
         <v>1046</v>
       </c>
     </row>
+    <row r="3411" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3411" s="2" t="s">
+        <v>4654</v>
+      </c>
+      <c r="B3411" s="1">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="C3411" s="2" t="s">
+        <v>3669</v>
+      </c>
+    </row>
+    <row r="3412" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3412" s="2" t="s">
+        <v>4655</v>
+      </c>
+      <c r="B3412" s="1">
+        <v>9.01</v>
+      </c>
+      <c r="C3412" s="2" t="s">
+        <v>4656</v>
+      </c>
+    </row>
+    <row r="3413" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3413" s="2" t="s">
+        <v>4657</v>
+      </c>
+      <c r="B3413" s="1">
+        <v>5</v>
+      </c>
+      <c r="C3413" s="2" t="s">
+        <v>4658</v>
+      </c>
+    </row>
+    <row r="3414" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3414" s="2" t="s">
+        <v>4659</v>
+      </c>
+      <c r="B3414" s="1">
+        <v>6.28</v>
+      </c>
+      <c r="C3414" s="2" t="s">
+        <v>4349</v>
+      </c>
+    </row>
+    <row r="3415" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3415" s="2" t="s">
+        <v>4660</v>
+      </c>
+      <c r="B3415" s="1">
+        <v>8</v>
+      </c>
+      <c r="C3415" s="2" t="s">
+        <v>3385</v>
+      </c>
+    </row>
+    <row r="3416" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3416" s="2" t="s">
+        <v>4661</v>
+      </c>
+      <c r="B3416" s="1">
+        <v>5</v>
+      </c>
+      <c r="C3416" s="2" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="3417" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3417" s="2" t="s">
+        <v>4662</v>
+      </c>
+      <c r="B3417" s="1">
+        <v>11</v>
+      </c>
+      <c r="C3417" s="2" t="s">
+        <v>4663</v>
+      </c>
+    </row>
+    <row r="3418" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3418" s="2" t="s">
+        <v>4664</v>
+      </c>
+      <c r="B3418" s="1">
+        <v>4</v>
+      </c>
+      <c r="C3418" s="2" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="3419" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3419" s="2" t="s">
+        <v>4665</v>
+      </c>
+      <c r="B3419" s="1">
+        <v>7</v>
+      </c>
+      <c r="C3419" s="2" t="s">
+        <v>3087</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>

--- a/Running_Log.xlsx
+++ b/Running_Log.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adolwick/dolwick_project/biof309project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD4A27A5-12B3-1D41-B5EE-DDDD65AB5261}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{241C3C25-D2AC-2846-B795-73270B2D597B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="500" windowWidth="25680" windowHeight="15820" xr2:uid="{4B2E00A5-7125-EC4E-9EAD-C4CEE86B127A}"/>
+    <workbookView xWindow="3120" yWindow="500" windowWidth="25680" windowHeight="15800" xr2:uid="{4B2E00A5-7125-EC4E-9EAD-C4CEE86B127A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5663" uniqueCount="4666">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5730" uniqueCount="4719">
   <si>
     <t>Date</t>
   </si>
@@ -14031,6 +14031,165 @@
   </si>
   <si>
     <t>2024-12-31</t>
+  </si>
+  <si>
+    <t>2025-01-01</t>
+  </si>
+  <si>
+    <t>2025-01-03</t>
+  </si>
+  <si>
+    <t>2025-01-04</t>
+  </si>
+  <si>
+    <t>1:37:59</t>
+  </si>
+  <si>
+    <t>2025-01-07</t>
+  </si>
+  <si>
+    <t>2025-01-08</t>
+  </si>
+  <si>
+    <t>2025-01-10</t>
+  </si>
+  <si>
+    <t>38:35</t>
+  </si>
+  <si>
+    <t>2025-01-12</t>
+  </si>
+  <si>
+    <t>43:32</t>
+  </si>
+  <si>
+    <t>2025-01-13</t>
+  </si>
+  <si>
+    <t>1:16:29</t>
+  </si>
+  <si>
+    <t>2025-01-15</t>
+  </si>
+  <si>
+    <t>1:10:20</t>
+  </si>
+  <si>
+    <t>2025-01-16</t>
+  </si>
+  <si>
+    <t>51:26</t>
+  </si>
+  <si>
+    <t>2025-01-17</t>
+  </si>
+  <si>
+    <t>23:44</t>
+  </si>
+  <si>
+    <t>2025-01-18</t>
+  </si>
+  <si>
+    <t>2025-01-20</t>
+  </si>
+  <si>
+    <t>1:29:46</t>
+  </si>
+  <si>
+    <t>2025-01-22</t>
+  </si>
+  <si>
+    <t>2025-01-23</t>
+  </si>
+  <si>
+    <t>2025-01-25</t>
+  </si>
+  <si>
+    <t>2025-01-27</t>
+  </si>
+  <si>
+    <t>2025-01-29</t>
+  </si>
+  <si>
+    <t>2025-01-31</t>
+  </si>
+  <si>
+    <t>30:50</t>
+  </si>
+  <si>
+    <t>2025-02-01</t>
+  </si>
+  <si>
+    <t>1:13:35</t>
+  </si>
+  <si>
+    <t>2025-02-04</t>
+  </si>
+  <si>
+    <t>18:28</t>
+  </si>
+  <si>
+    <t>2025-02-05</t>
+  </si>
+  <si>
+    <t>49:54</t>
+  </si>
+  <si>
+    <t>2025-02-07</t>
+  </si>
+  <si>
+    <t>40:31</t>
+  </si>
+  <si>
+    <t>2025-02-08</t>
+  </si>
+  <si>
+    <t>1:10:16</t>
+  </si>
+  <si>
+    <t>2025-02-10</t>
+  </si>
+  <si>
+    <t>2025-02-12</t>
+  </si>
+  <si>
+    <t>2025-02-14</t>
+  </si>
+  <si>
+    <t>2025-02-15</t>
+  </si>
+  <si>
+    <t>1:31:42</t>
+  </si>
+  <si>
+    <t>2025-02-16</t>
+  </si>
+  <si>
+    <t>34:04</t>
+  </si>
+  <si>
+    <t>2025-02-17</t>
+  </si>
+  <si>
+    <t>1:06:36</t>
+  </si>
+  <si>
+    <t>2025-02-19</t>
+  </si>
+  <si>
+    <t>2025-02-20</t>
+  </si>
+  <si>
+    <t>2025-02-21</t>
+  </si>
+  <si>
+    <t>22:21</t>
+  </si>
+  <si>
+    <t>2025-02-22</t>
+  </si>
+  <si>
+    <t>2:00:01</t>
   </si>
 </sst>
 </file>
@@ -14407,10 +14566,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1BECE25-7878-7543-A5E4-1B4438F2AAC2}">
-  <dimension ref="A1:E3419"/>
+  <dimension ref="A1:E3453"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3390" workbookViewId="0">
-      <selection activeCell="C3420" sqref="C3420"/>
+    <sheetView tabSelected="1" topLeftCell="A3424" workbookViewId="0">
+      <selection activeCell="D3453" sqref="D3453"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -21995,7 +22154,7 @@
     </row>
     <row r="718" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A718" s="7">
-        <v>41881</v>
+        <v>41880</v>
       </c>
       <c r="B718" s="6">
         <v>1.5</v>
@@ -50166,6 +50325,377 @@
       </c>
       <c r="C3419" s="2" t="s">
         <v>3087</v>
+      </c>
+    </row>
+    <row r="3420" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3420" s="2" t="s">
+        <v>4666</v>
+      </c>
+      <c r="B3420" s="1">
+        <v>8.3699999999999992</v>
+      </c>
+      <c r="C3420" s="2" t="s">
+        <v>2194</v>
+      </c>
+    </row>
+    <row r="3421" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3421" s="2" t="s">
+        <v>4667</v>
+      </c>
+      <c r="B3421" s="1">
+        <v>2.82</v>
+      </c>
+      <c r="C3421" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3422" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3422" s="2" t="s">
+        <v>4668</v>
+      </c>
+      <c r="B3422" s="1">
+        <v>13.11</v>
+      </c>
+      <c r="C3422" s="2" t="s">
+        <v>4669</v>
+      </c>
+    </row>
+    <row r="3423" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3423" s="2" t="s">
+        <v>4670</v>
+      </c>
+      <c r="B3423" s="1">
+        <v>5.42</v>
+      </c>
+      <c r="C3423" s="2" t="s">
+        <v>3256</v>
+      </c>
+    </row>
+    <row r="3424" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3424" s="2" t="s">
+        <v>4671</v>
+      </c>
+      <c r="B3424" s="1">
+        <v>8.91</v>
+      </c>
+      <c r="C3424" s="2" t="s">
+        <v>3341</v>
+      </c>
+    </row>
+    <row r="3425" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3425" s="2" t="s">
+        <v>4672</v>
+      </c>
+      <c r="B3425" s="1">
+        <v>5.37</v>
+      </c>
+      <c r="C3425" s="2" t="s">
+        <v>4673</v>
+      </c>
+    </row>
+    <row r="3426" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3426" s="2" t="s">
+        <v>4674</v>
+      </c>
+      <c r="B3426" s="1">
+        <v>5.37</v>
+      </c>
+      <c r="C3426" s="2" t="s">
+        <v>4675</v>
+      </c>
+    </row>
+    <row r="3427" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3427" s="2" t="s">
+        <v>4676</v>
+      </c>
+      <c r="B3427" s="1">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="C3427" s="2" t="s">
+        <v>4677</v>
+      </c>
+    </row>
+    <row r="3428" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3428" s="2" t="s">
+        <v>4678</v>
+      </c>
+      <c r="B3428" s="1">
+        <v>10.06</v>
+      </c>
+      <c r="C3428" s="2" t="s">
+        <v>4679</v>
+      </c>
+    </row>
+    <row r="3429" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3429" s="2" t="s">
+        <v>4680</v>
+      </c>
+      <c r="B3429" s="1">
+        <v>7</v>
+      </c>
+      <c r="C3429" s="2" t="s">
+        <v>4681</v>
+      </c>
+    </row>
+    <row r="3430" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3430" s="2" t="s">
+        <v>4682</v>
+      </c>
+      <c r="B3430" s="1">
+        <v>3.25</v>
+      </c>
+      <c r="C3430" s="2" t="s">
+        <v>4683</v>
+      </c>
+    </row>
+    <row r="3431" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3431" s="2" t="s">
+        <v>4684</v>
+      </c>
+      <c r="B3431" s="1">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="C3431" s="2" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="3432" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3432" s="2" t="s">
+        <v>4685</v>
+      </c>
+      <c r="B3432" s="1">
+        <v>13.11</v>
+      </c>
+      <c r="C3432" s="2" t="s">
+        <v>4686</v>
+      </c>
+    </row>
+    <row r="3433" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3433" s="2" t="s">
+        <v>4687</v>
+      </c>
+      <c r="B3433" s="1">
+        <v>5.29</v>
+      </c>
+      <c r="C3433" s="2" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="3434" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3434" s="2" t="s">
+        <v>4688</v>
+      </c>
+      <c r="B3434" s="1">
+        <v>4.53</v>
+      </c>
+      <c r="C3434" s="2" t="s">
+        <v>2214</v>
+      </c>
+    </row>
+    <row r="3435" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3435" s="2" t="s">
+        <v>4689</v>
+      </c>
+      <c r="B3435" s="1">
+        <v>14</v>
+      </c>
+      <c r="C3435" s="2" t="s">
+        <v>2812</v>
+      </c>
+    </row>
+    <row r="3436" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3436" s="2" t="s">
+        <v>4690</v>
+      </c>
+      <c r="B3436" s="1">
+        <v>4.8099999999999996</v>
+      </c>
+      <c r="C3436" s="2" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="3437" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3437" s="2" t="s">
+        <v>4691</v>
+      </c>
+      <c r="B3437" s="1">
+        <v>10.77</v>
+      </c>
+      <c r="C3437" s="2" t="s">
+        <v>3481</v>
+      </c>
+    </row>
+    <row r="3438" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3438" s="2" t="s">
+        <v>4692</v>
+      </c>
+      <c r="B3438" s="1">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="C3438" s="2" t="s">
+        <v>4693</v>
+      </c>
+    </row>
+    <row r="3439" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3439" s="2" t="s">
+        <v>4694</v>
+      </c>
+      <c r="B3439" s="1">
+        <v>10</v>
+      </c>
+      <c r="C3439" s="2" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="3440" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3440" s="2" t="s">
+        <v>4696</v>
+      </c>
+      <c r="B3440" s="1">
+        <v>2.23</v>
+      </c>
+      <c r="C3440" s="2" t="s">
+        <v>4697</v>
+      </c>
+    </row>
+    <row r="3441" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3441" s="2" t="s">
+        <v>4698</v>
+      </c>
+      <c r="B3441" s="1">
+        <v>7.41</v>
+      </c>
+      <c r="C3441" s="2" t="s">
+        <v>4699</v>
+      </c>
+    </row>
+    <row r="3442" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3442" s="2" t="s">
+        <v>4700</v>
+      </c>
+      <c r="B3442" s="1">
+        <v>5.55</v>
+      </c>
+      <c r="C3442" s="2" t="s">
+        <v>4701</v>
+      </c>
+    </row>
+    <row r="3443" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3443" s="2" t="s">
+        <v>4702</v>
+      </c>
+      <c r="B3443" s="1">
+        <v>10</v>
+      </c>
+      <c r="C3443" s="2" t="s">
+        <v>4703</v>
+      </c>
+    </row>
+    <row r="3444" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3444" s="2" t="s">
+        <v>4704</v>
+      </c>
+      <c r="B3444" s="1">
+        <v>7.53</v>
+      </c>
+      <c r="C3444" s="2" t="s">
+        <v>3528</v>
+      </c>
+    </row>
+    <row r="3445" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3445" s="2" t="s">
+        <v>4705</v>
+      </c>
+      <c r="B3445" s="1">
+        <v>5.14</v>
+      </c>
+      <c r="C3445" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="3446" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3446" s="2" t="s">
+        <v>4706</v>
+      </c>
+      <c r="B3446" s="1">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="C3446" s="2" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="3447" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3447" s="2" t="s">
+        <v>4707</v>
+      </c>
+      <c r="B3447" s="1">
+        <v>13.54</v>
+      </c>
+      <c r="C3447" s="2" t="s">
+        <v>4708</v>
+      </c>
+    </row>
+    <row r="3448" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3448" s="2" t="s">
+        <v>4709</v>
+      </c>
+      <c r="B3448" s="1">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="C3448" s="2" t="s">
+        <v>4710</v>
+      </c>
+    </row>
+    <row r="3449" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3449" s="2" t="s">
+        <v>4711</v>
+      </c>
+      <c r="B3449" s="1">
+        <v>9.23</v>
+      </c>
+      <c r="C3449" s="2" t="s">
+        <v>4712</v>
+      </c>
+    </row>
+    <row r="3450" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3450" s="2" t="s">
+        <v>4713</v>
+      </c>
+      <c r="B3450" s="1">
+        <v>9.16</v>
+      </c>
+    </row>
+    <row r="3451" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3451" s="2" t="s">
+        <v>4714</v>
+      </c>
+      <c r="B3451" s="1">
+        <v>4.9400000000000004</v>
+      </c>
+      <c r="C3451" s="2" t="s">
+        <v>3321</v>
+      </c>
+    </row>
+    <row r="3452" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3452" s="2" t="s">
+        <v>4715</v>
+      </c>
+      <c r="B3452" s="1">
+        <v>3</v>
+      </c>
+      <c r="C3452" s="2" t="s">
+        <v>4716</v>
+      </c>
+    </row>
+    <row r="3453" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3453" s="2" t="s">
+        <v>4717</v>
+      </c>
+      <c r="B3453" s="1">
+        <v>16.010000000000002</v>
+      </c>
+      <c r="C3453" s="2" t="s">
+        <v>4718</v>
       </c>
     </row>
   </sheetData>

--- a/Running_Log.xlsx
+++ b/Running_Log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adolwick/dolwick_project/biof309project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{241C3C25-D2AC-2846-B795-73270B2D597B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7569F350-1F86-6340-9AE3-1EB7F8026C3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3120" yWindow="500" windowWidth="25680" windowHeight="15800" xr2:uid="{4B2E00A5-7125-EC4E-9EAD-C4CEE86B127A}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5730" uniqueCount="4719">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5739" uniqueCount="4727">
   <si>
     <t>Date</t>
   </si>
@@ -14190,6 +14190,30 @@
   </si>
   <si>
     <t>2:00:01</t>
+  </si>
+  <si>
+    <t>2025-02-24</t>
+  </si>
+  <si>
+    <t>1:12:09</t>
+  </si>
+  <si>
+    <t>2025-02-26</t>
+  </si>
+  <si>
+    <t>2025-02-27</t>
+  </si>
+  <si>
+    <t>2025-02-28</t>
+  </si>
+  <si>
+    <t>35:41</t>
+  </si>
+  <si>
+    <t>2025-03-01</t>
+  </si>
+  <si>
+    <t>2:05:46</t>
   </si>
 </sst>
 </file>
@@ -14566,10 +14590,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1BECE25-7878-7543-A5E4-1B4438F2AAC2}">
-  <dimension ref="A1:E3453"/>
+  <dimension ref="A1:E3458"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3424" workbookViewId="0">
-      <selection activeCell="D3453" sqref="D3453"/>
+    <sheetView tabSelected="1" topLeftCell="A3442" workbookViewId="0">
+      <selection activeCell="C3459" sqref="C3459"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -50698,6 +50722,58 @@
         <v>4718</v>
       </c>
     </row>
+    <row r="3454" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3454" s="2" t="s">
+        <v>4719</v>
+      </c>
+      <c r="B3454" s="1">
+        <v>9.08</v>
+      </c>
+      <c r="C3454" s="2" t="s">
+        <v>4720</v>
+      </c>
+    </row>
+    <row r="3455" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3455" s="2" t="s">
+        <v>4721</v>
+      </c>
+      <c r="B3455" s="1">
+        <v>9.6300000000000008</v>
+      </c>
+    </row>
+    <row r="3456" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3456" s="2" t="s">
+        <v>4722</v>
+      </c>
+      <c r="B3456" s="1">
+        <v>9.0399999999999991</v>
+      </c>
+      <c r="C3456" s="2" t="s">
+        <v>2393</v>
+      </c>
+    </row>
+    <row r="3457" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3457" s="2" t="s">
+        <v>4723</v>
+      </c>
+      <c r="B3457" s="1">
+        <v>4.55</v>
+      </c>
+      <c r="C3457" s="2" t="s">
+        <v>4724</v>
+      </c>
+    </row>
+    <row r="3458" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3458" s="2" t="s">
+        <v>4725</v>
+      </c>
+      <c r="B3458" s="1">
+        <v>18</v>
+      </c>
+      <c r="C3458" s="2" t="s">
+        <v>4726</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>

--- a/Running_Log.xlsx
+++ b/Running_Log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adolwick/dolwick_project/biof309project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7569F350-1F86-6340-9AE3-1EB7F8026C3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4599669-DB83-844F-9BAD-17DB82C72FBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3120" yWindow="500" windowWidth="25680" windowHeight="15800" xr2:uid="{4B2E00A5-7125-EC4E-9EAD-C4CEE86B127A}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5739" uniqueCount="4727">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5749" uniqueCount="4733">
   <si>
     <t>Date</t>
   </si>
@@ -14214,6 +14214,24 @@
   </si>
   <si>
     <t>2:05:46</t>
+  </si>
+  <si>
+    <t>2025-03-03</t>
+  </si>
+  <si>
+    <t>2025-03-05</t>
+  </si>
+  <si>
+    <t>2025-03-06</t>
+  </si>
+  <si>
+    <t>2025-03-07</t>
+  </si>
+  <si>
+    <t>2025-03-08</t>
+  </si>
+  <si>
+    <t>33:43</t>
   </si>
 </sst>
 </file>
@@ -14590,10 +14608,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1BECE25-7878-7543-A5E4-1B4438F2AAC2}">
-  <dimension ref="A1:E3458"/>
+  <dimension ref="A1:E3464"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3442" workbookViewId="0">
-      <selection activeCell="C3459" sqref="C3459"/>
+    <sheetView tabSelected="1" topLeftCell="A3440" workbookViewId="0">
+      <selection activeCell="A3465" sqref="A3465"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -50774,6 +50792,66 @@
         <v>4726</v>
       </c>
     </row>
+    <row r="3459" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3459" s="2" t="s">
+        <v>4727</v>
+      </c>
+      <c r="B3459" s="1">
+        <v>7.03</v>
+      </c>
+      <c r="C3459" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="3460" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3460" s="2" t="s">
+        <v>4728</v>
+      </c>
+      <c r="B3460" s="1">
+        <v>10.25</v>
+      </c>
+    </row>
+    <row r="3461" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3461" s="2" t="s">
+        <v>4729</v>
+      </c>
+      <c r="B3461" s="1">
+        <v>6.34</v>
+      </c>
+      <c r="C3461" s="2" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="3462" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3462" s="2" t="s">
+        <v>4730</v>
+      </c>
+      <c r="B3462" s="1">
+        <v>3.56</v>
+      </c>
+      <c r="C3462" s="2" t="s">
+        <v>2128</v>
+      </c>
+    </row>
+    <row r="3463" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3463" s="2" t="s">
+        <v>4731</v>
+      </c>
+      <c r="B3463" s="1">
+        <v>6.07</v>
+      </c>
+      <c r="C3463" s="2" t="s">
+        <v>4732</v>
+      </c>
+    </row>
+    <row r="3464" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3464" s="2" t="s">
+        <v>4731</v>
+      </c>
+      <c r="B3464" s="1">
+        <v>6.94</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>

--- a/Running_Log.xlsx
+++ b/Running_Log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adolwick/dolwick_project/biof309project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4599669-DB83-844F-9BAD-17DB82C72FBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C30FDC1-E717-874B-AFF4-5E494724FA66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3120" yWindow="500" windowWidth="25680" windowHeight="15800" xr2:uid="{4B2E00A5-7125-EC4E-9EAD-C4CEE86B127A}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5749" uniqueCount="4733">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5767" uniqueCount="4748">
   <si>
     <t>Date</t>
   </si>
@@ -14232,6 +14232,51 @@
   </si>
   <si>
     <t>33:43</t>
+  </si>
+  <si>
+    <t>2025-03-10</t>
+  </si>
+  <si>
+    <t>2025-03-12</t>
+  </si>
+  <si>
+    <t>2025-03-13</t>
+  </si>
+  <si>
+    <t>1:13:25</t>
+  </si>
+  <si>
+    <t>2025-03-14</t>
+  </si>
+  <si>
+    <t>2025-03-15</t>
+  </si>
+  <si>
+    <t>2:27:00</t>
+  </si>
+  <si>
+    <t>2025-03-17</t>
+  </si>
+  <si>
+    <t>1:07:36</t>
+  </si>
+  <si>
+    <t>2025-03-18</t>
+  </si>
+  <si>
+    <t>2025-03-19</t>
+  </si>
+  <si>
+    <t>2025-03-20</t>
+  </si>
+  <si>
+    <t>1:12:45</t>
+  </si>
+  <si>
+    <t>2025-03-21</t>
+  </si>
+  <si>
+    <t>52:25</t>
   </si>
 </sst>
 </file>
@@ -14608,10 +14653,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1BECE25-7878-7543-A5E4-1B4438F2AAC2}">
-  <dimension ref="A1:E3464"/>
+  <dimension ref="A1:E3474"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3440" workbookViewId="0">
-      <selection activeCell="A3465" sqref="A3465"/>
+    <sheetView tabSelected="1" topLeftCell="A3446" workbookViewId="0">
+      <selection activeCell="C3475" sqref="C3475"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -50852,6 +50897,110 @@
         <v>6.94</v>
       </c>
     </row>
+    <row r="3465" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3465" s="2" t="s">
+        <v>4733</v>
+      </c>
+      <c r="B3465" s="1">
+        <v>7.14</v>
+      </c>
+      <c r="C3465" s="2" t="s">
+        <v>4554</v>
+      </c>
+    </row>
+    <row r="3466" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3466" s="2" t="s">
+        <v>4734</v>
+      </c>
+      <c r="B3466" s="1">
+        <v>8.85</v>
+      </c>
+    </row>
+    <row r="3467" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3467" s="2" t="s">
+        <v>4735</v>
+      </c>
+      <c r="B3467" s="1">
+        <v>9.06</v>
+      </c>
+      <c r="C3467" s="2" t="s">
+        <v>4736</v>
+      </c>
+    </row>
+    <row r="3468" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3468" s="2" t="s">
+        <v>4737</v>
+      </c>
+      <c r="B3468" s="1">
+        <v>5</v>
+      </c>
+      <c r="C3468" s="2" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="3469" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3469" s="2" t="s">
+        <v>4738</v>
+      </c>
+      <c r="B3469" s="1">
+        <v>20.38</v>
+      </c>
+      <c r="C3469" s="2" t="s">
+        <v>4739</v>
+      </c>
+    </row>
+    <row r="3470" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3470" s="2" t="s">
+        <v>4740</v>
+      </c>
+      <c r="B3470" s="1">
+        <v>9.01</v>
+      </c>
+      <c r="C3470" s="2" t="s">
+        <v>4741</v>
+      </c>
+    </row>
+    <row r="3471" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3471" s="2" t="s">
+        <v>4742</v>
+      </c>
+      <c r="B3471" s="1">
+        <v>6.76</v>
+      </c>
+      <c r="C3471" s="2" t="s">
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="3472" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3472" s="2" t="s">
+        <v>4743</v>
+      </c>
+      <c r="B3472" s="1">
+        <v>9.4499999999999993</v>
+      </c>
+    </row>
+    <row r="3473" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3473" s="2" t="s">
+        <v>4744</v>
+      </c>
+      <c r="B3473" s="1">
+        <v>9.09</v>
+      </c>
+      <c r="C3473" s="2" t="s">
+        <v>4745</v>
+      </c>
+    </row>
+    <row r="3474" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3474" s="2" t="s">
+        <v>4746</v>
+      </c>
+      <c r="B3474" s="1">
+        <v>6.01</v>
+      </c>
+      <c r="C3474" s="2" t="s">
+        <v>4747</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>

--- a/Running_Log.xlsx
+++ b/Running_Log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adolwick/dolwick_project/biof309project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C30FDC1-E717-874B-AFF4-5E494724FA66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD04533D-2AD8-7B48-B128-778E634D5D8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3120" yWindow="500" windowWidth="25680" windowHeight="15800" xr2:uid="{4B2E00A5-7125-EC4E-9EAD-C4CEE86B127A}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5767" uniqueCount="4748">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5778" uniqueCount="4759">
   <si>
     <t>Date</t>
   </si>
@@ -14277,6 +14277,39 @@
   </si>
   <si>
     <t>52:25</t>
+  </si>
+  <si>
+    <t>2025-03-22</t>
+  </si>
+  <si>
+    <t>1:33:36</t>
+  </si>
+  <si>
+    <t>2025-03-24</t>
+  </si>
+  <si>
+    <t>1:10:55</t>
+  </si>
+  <si>
+    <t>2025-03-26</t>
+  </si>
+  <si>
+    <t>2025-03-27</t>
+  </si>
+  <si>
+    <t>1:22:59</t>
+  </si>
+  <si>
+    <t>2025-03-28</t>
+  </si>
+  <si>
+    <t>41:32</t>
+  </si>
+  <si>
+    <t>2025-03-29</t>
+  </si>
+  <si>
+    <t>2:32:46</t>
   </si>
 </sst>
 </file>
@@ -14653,10 +14686,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1BECE25-7878-7543-A5E4-1B4438F2AAC2}">
-  <dimension ref="A1:E3474"/>
+  <dimension ref="A1:E3480"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3446" workbookViewId="0">
-      <selection activeCell="C3475" sqref="C3475"/>
+    <sheetView tabSelected="1" topLeftCell="A3451" workbookViewId="0">
+      <selection activeCell="D3480" sqref="D3480"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -51001,6 +51034,69 @@
         <v>4747</v>
       </c>
     </row>
+    <row r="3475" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3475" s="2" t="s">
+        <v>4748</v>
+      </c>
+      <c r="B3475" s="1">
+        <v>13.11</v>
+      </c>
+      <c r="C3475" s="2" t="s">
+        <v>4749</v>
+      </c>
+    </row>
+    <row r="3476" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3476" s="2" t="s">
+        <v>4750</v>
+      </c>
+      <c r="B3476" s="1">
+        <v>9</v>
+      </c>
+      <c r="C3476" s="2" t="s">
+        <v>4751</v>
+      </c>
+    </row>
+    <row r="3477" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3477" s="2" t="s">
+        <v>4752</v>
+      </c>
+      <c r="B3477" s="1">
+        <v>8.32</v>
+      </c>
+    </row>
+    <row r="3478" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3478" s="2" t="s">
+        <v>4753</v>
+      </c>
+      <c r="B3478" s="1">
+        <v>9.31</v>
+      </c>
+      <c r="C3478" s="2" t="s">
+        <v>4754</v>
+      </c>
+    </row>
+    <row r="3479" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3479" s="2" t="s">
+        <v>4755</v>
+      </c>
+      <c r="B3479" s="1">
+        <v>5.44</v>
+      </c>
+      <c r="C3479" s="2" t="s">
+        <v>4756</v>
+      </c>
+    </row>
+    <row r="3480" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3480" s="2" t="s">
+        <v>4757</v>
+      </c>
+      <c r="B3480" s="1">
+        <v>22.19</v>
+      </c>
+      <c r="C3480" s="2" t="s">
+        <v>4758</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>

--- a/Running_Log.xlsx
+++ b/Running_Log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adolwick/dolwick_project/biof309project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD04533D-2AD8-7B48-B128-778E634D5D8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C20C914-F114-9041-AA66-0BF3EDD39205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3120" yWindow="500" windowWidth="25680" windowHeight="15800" xr2:uid="{4B2E00A5-7125-EC4E-9EAD-C4CEE86B127A}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5778" uniqueCount="4759">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5809" uniqueCount="4784">
   <si>
     <t>Date</t>
   </si>
@@ -14310,6 +14310,81 @@
   </si>
   <si>
     <t>2:32:46</t>
+  </si>
+  <si>
+    <t>2025-04-01</t>
+  </si>
+  <si>
+    <t>2025-04-02</t>
+  </si>
+  <si>
+    <t>55:51</t>
+  </si>
+  <si>
+    <t>2025-04-03</t>
+  </si>
+  <si>
+    <t>51:38</t>
+  </si>
+  <si>
+    <t>2025-04-04</t>
+  </si>
+  <si>
+    <t>2025-04-05</t>
+  </si>
+  <si>
+    <t>1:43:10</t>
+  </si>
+  <si>
+    <t>2025-04-07</t>
+  </si>
+  <si>
+    <t>2025-04-09</t>
+  </si>
+  <si>
+    <t>55:49</t>
+  </si>
+  <si>
+    <t>2025-04-10</t>
+  </si>
+  <si>
+    <t>2025-04-11</t>
+  </si>
+  <si>
+    <t>22:59</t>
+  </si>
+  <si>
+    <t>2025-04-12</t>
+  </si>
+  <si>
+    <t>1:12:26</t>
+  </si>
+  <si>
+    <t>2025-04-14</t>
+  </si>
+  <si>
+    <t>2025-04-16</t>
+  </si>
+  <si>
+    <t>2025-04-17</t>
+  </si>
+  <si>
+    <t>42:43</t>
+  </si>
+  <si>
+    <t>2025-04-19</t>
+  </si>
+  <si>
+    <t>2025-04-20</t>
+  </si>
+  <si>
+    <t>24:23</t>
+  </si>
+  <si>
+    <t>2025-04-21</t>
+  </si>
+  <si>
+    <t>2:57:07</t>
   </si>
 </sst>
 </file>
@@ -14686,10 +14761,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1BECE25-7878-7543-A5E4-1B4438F2AAC2}">
-  <dimension ref="A1:E3480"/>
+  <dimension ref="A1:E3496"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3451" workbookViewId="0">
-      <selection activeCell="D3480" sqref="D3480"/>
+    <sheetView tabSelected="1" topLeftCell="A3472" workbookViewId="0">
+      <selection activeCell="C3497" sqref="C3497"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -51097,6 +51172,179 @@
         <v>4758</v>
       </c>
     </row>
+    <row r="3481" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3481" s="2" t="s">
+        <v>4759</v>
+      </c>
+      <c r="B3481" s="1">
+        <v>6.85</v>
+      </c>
+      <c r="C3481" s="2" t="s">
+        <v>3448</v>
+      </c>
+    </row>
+    <row r="3482" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3482" s="2" t="s">
+        <v>4760</v>
+      </c>
+      <c r="B3482" s="1">
+        <v>8.27</v>
+      </c>
+      <c r="C3482" s="2" t="s">
+        <v>4761</v>
+      </c>
+    </row>
+    <row r="3483" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3483" s="2" t="s">
+        <v>4762</v>
+      </c>
+      <c r="B3483" s="1">
+        <v>5.88</v>
+      </c>
+      <c r="C3483" s="2" t="s">
+        <v>4763</v>
+      </c>
+    </row>
+    <row r="3484" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3484" s="2" t="s">
+        <v>4764</v>
+      </c>
+      <c r="B3484" s="1">
+        <v>5.73</v>
+      </c>
+      <c r="C3484" s="2" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="3485" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3485" s="2" t="s">
+        <v>4765</v>
+      </c>
+      <c r="B3485" s="1">
+        <v>14</v>
+      </c>
+      <c r="C3485" s="2" t="s">
+        <v>4766</v>
+      </c>
+    </row>
+    <row r="3486" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3486" s="2" t="s">
+        <v>4767</v>
+      </c>
+      <c r="B3486" s="1">
+        <v>7.03</v>
+      </c>
+      <c r="C3486" s="2" t="s">
+        <v>4543</v>
+      </c>
+    </row>
+    <row r="3487" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3487" s="2" t="s">
+        <v>4768</v>
+      </c>
+      <c r="B3487" s="1">
+        <v>8.26</v>
+      </c>
+      <c r="C3487" s="2" t="s">
+        <v>4769</v>
+      </c>
+    </row>
+    <row r="3488" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3488" s="2" t="s">
+        <v>4770</v>
+      </c>
+      <c r="B3488" s="1">
+        <v>6.36</v>
+      </c>
+      <c r="C3488" s="2" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="3489" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3489" s="2" t="s">
+        <v>4771</v>
+      </c>
+      <c r="B3489" s="1">
+        <v>3.17</v>
+      </c>
+      <c r="C3489" s="2" t="s">
+        <v>4772</v>
+      </c>
+    </row>
+    <row r="3490" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3490" s="2" t="s">
+        <v>4773</v>
+      </c>
+      <c r="B3490" s="1">
+        <v>10.5</v>
+      </c>
+      <c r="C3490" s="2" t="s">
+        <v>4774</v>
+      </c>
+    </row>
+    <row r="3491" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3491" s="2" t="s">
+        <v>4775</v>
+      </c>
+      <c r="B3491" s="1">
+        <v>5.42</v>
+      </c>
+      <c r="C3491" s="2" t="s">
+        <v>3731</v>
+      </c>
+    </row>
+    <row r="3492" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3492" s="2" t="s">
+        <v>4776</v>
+      </c>
+      <c r="B3492" s="1">
+        <v>7.26</v>
+      </c>
+    </row>
+    <row r="3493" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3493" s="2" t="s">
+        <v>4777</v>
+      </c>
+      <c r="B3493" s="1">
+        <v>5.31</v>
+      </c>
+      <c r="C3493" s="2" t="s">
+        <v>4778</v>
+      </c>
+    </row>
+    <row r="3494" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3494" s="2" t="s">
+        <v>4779</v>
+      </c>
+      <c r="B3494" s="1">
+        <v>3.96</v>
+      </c>
+      <c r="C3494" s="2" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="3495" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3495" s="2" t="s">
+        <v>4780</v>
+      </c>
+      <c r="B3495" s="1">
+        <v>3.33</v>
+      </c>
+      <c r="C3495" s="2" t="s">
+        <v>4781</v>
+      </c>
+    </row>
+    <row r="3496" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3496" s="2" t="s">
+        <v>4782</v>
+      </c>
+      <c r="B3496" s="1">
+        <v>26.22</v>
+      </c>
+      <c r="C3496" s="2" t="s">
+        <v>4783</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>

--- a/Running_Log.xlsx
+++ b/Running_Log.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10727"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adolwick/dolwick_project/biof309project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C20C914-F114-9041-AA66-0BF3EDD39205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{272CD64E-A920-A34E-9508-B3E0A09FE38B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3120" yWindow="500" windowWidth="25680" windowHeight="15800" xr2:uid="{4B2E00A5-7125-EC4E-9EAD-C4CEE86B127A}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5809" uniqueCount="4784">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5948" uniqueCount="4884">
   <si>
     <t>Date</t>
   </si>
@@ -14385,6 +14385,306 @@
   </si>
   <si>
     <t>2:57:07</t>
+  </si>
+  <si>
+    <t>2025-05-02</t>
+  </si>
+  <si>
+    <t>2025-05-05</t>
+  </si>
+  <si>
+    <t>2025-05-07</t>
+  </si>
+  <si>
+    <t>2025-05-09</t>
+  </si>
+  <si>
+    <t>2025-05-12</t>
+  </si>
+  <si>
+    <t>2025-05-14</t>
+  </si>
+  <si>
+    <t>2025-05-16</t>
+  </si>
+  <si>
+    <t>2025-05-17</t>
+  </si>
+  <si>
+    <t>2025-05-18</t>
+  </si>
+  <si>
+    <t>23:13</t>
+  </si>
+  <si>
+    <t>2025-05-21</t>
+  </si>
+  <si>
+    <t>2025-05-23</t>
+  </si>
+  <si>
+    <t>2025-05-25</t>
+  </si>
+  <si>
+    <t>41:01</t>
+  </si>
+  <si>
+    <t>2025-05-26</t>
+  </si>
+  <si>
+    <t>2025-05-27</t>
+  </si>
+  <si>
+    <t>39:18</t>
+  </si>
+  <si>
+    <t>2025-05-28</t>
+  </si>
+  <si>
+    <t>17:28</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-05-31</t>
+  </si>
+  <si>
+    <t>2025-06-04</t>
+  </si>
+  <si>
+    <t>4:28</t>
+  </si>
+  <si>
+    <t>2025-06-06</t>
+  </si>
+  <si>
+    <t>37:02</t>
+  </si>
+  <si>
+    <t>2025-06-07</t>
+  </si>
+  <si>
+    <t>2025-06-09</t>
+  </si>
+  <si>
+    <t>34:05</t>
+  </si>
+  <si>
+    <t>2025-06-10</t>
+  </si>
+  <si>
+    <t>2025-06-13</t>
+  </si>
+  <si>
+    <t>46:24</t>
+  </si>
+  <si>
+    <t>2025-06-14</t>
+  </si>
+  <si>
+    <t>1:19:06</t>
+  </si>
+  <si>
+    <t>2025-06-16</t>
+  </si>
+  <si>
+    <t>36:52</t>
+  </si>
+  <si>
+    <t>2025-06-17</t>
+  </si>
+  <si>
+    <t>2025-06-19</t>
+  </si>
+  <si>
+    <t>14:23</t>
+  </si>
+  <si>
+    <t>2025-06-21</t>
+  </si>
+  <si>
+    <t>2025-06-25</t>
+  </si>
+  <si>
+    <t>2025-06-26</t>
+  </si>
+  <si>
+    <t>2025-06-27</t>
+  </si>
+  <si>
+    <t>2025-06-28</t>
+  </si>
+  <si>
+    <t>44:24</t>
+  </si>
+  <si>
+    <t>2025-07-01</t>
+  </si>
+  <si>
+    <t>37:28</t>
+  </si>
+  <si>
+    <t>2025-07-02</t>
+  </si>
+  <si>
+    <t>1:04:53</t>
+  </si>
+  <si>
+    <t>2025-07-04</t>
+  </si>
+  <si>
+    <t>1:39:31</t>
+  </si>
+  <si>
+    <t>2025-07-05</t>
+  </si>
+  <si>
+    <t>36:09</t>
+  </si>
+  <si>
+    <t>2025-07-08</t>
+  </si>
+  <si>
+    <t>2025-07-09</t>
+  </si>
+  <si>
+    <t>25:41</t>
+  </si>
+  <si>
+    <t>2025-07-11</t>
+  </si>
+  <si>
+    <t>2025-07-12</t>
+  </si>
+  <si>
+    <t>1:39:51</t>
+  </si>
+  <si>
+    <t>2025-07-14</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-16</t>
+  </si>
+  <si>
+    <t>1:00:48</t>
+  </si>
+  <si>
+    <t>2025-07-18</t>
+  </si>
+  <si>
+    <t>24:42</t>
+  </si>
+  <si>
+    <t>2025-07-21</t>
+  </si>
+  <si>
+    <t>2025-07-26</t>
+  </si>
+  <si>
+    <t>2025-07-27</t>
+  </si>
+  <si>
+    <t>2025-07-29</t>
+  </si>
+  <si>
+    <t>46:16</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>38:38</t>
+  </si>
+  <si>
+    <t>2025-08-01</t>
+  </si>
+  <si>
+    <t>49:56</t>
+  </si>
+  <si>
+    <t>2025-08-02</t>
+  </si>
+  <si>
+    <t>1:28:59</t>
+  </si>
+  <si>
+    <t>2025-08-04</t>
+  </si>
+  <si>
+    <t>1:01:01</t>
+  </si>
+  <si>
+    <t>2025-08-06</t>
+  </si>
+  <si>
+    <t>46:56</t>
+  </si>
+  <si>
+    <t>2025-08-07</t>
+  </si>
+  <si>
+    <t>2025-08-08</t>
+  </si>
+  <si>
+    <t>2025-08-09</t>
+  </si>
+  <si>
+    <t>2025-08-11</t>
+  </si>
+  <si>
+    <t>2025-08-12</t>
+  </si>
+  <si>
+    <t>2025-08-13</t>
+  </si>
+  <si>
+    <t>1:04:48</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-16</t>
+  </si>
+  <si>
+    <t>2025-08-19</t>
+  </si>
+  <si>
+    <t>2025-08-20</t>
+  </si>
+  <si>
+    <t>1:07:21</t>
+  </si>
+  <si>
+    <t>2025-08-22</t>
+  </si>
+  <si>
+    <t>1:03:42</t>
+  </si>
+  <si>
+    <t>2025-08-23</t>
+  </si>
+  <si>
+    <t>2025-08-25</t>
+  </si>
+  <si>
+    <t>2025-08-26</t>
+  </si>
+  <si>
+    <t>1:01:45</t>
+  </si>
+  <si>
+    <t>2025-08-27</t>
+  </si>
+  <si>
+    <t>1:03:29</t>
+  </si>
+  <si>
+    <t>2025-08-29</t>
   </si>
 </sst>
 </file>
@@ -14761,10 +15061,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1BECE25-7878-7543-A5E4-1B4438F2AAC2}">
-  <dimension ref="A1:E3496"/>
+  <dimension ref="A1:E3568"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3472" workbookViewId="0">
-      <selection activeCell="C3497" sqref="C3497"/>
+    <sheetView tabSelected="1" topLeftCell="A3537" workbookViewId="0">
+      <selection activeCell="D3568" sqref="D3568"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -51345,6 +51645,783 @@
         <v>4783</v>
       </c>
     </row>
+    <row r="3497" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3497" s="2" t="s">
+        <v>4784</v>
+      </c>
+      <c r="B3497" s="1">
+        <v>2.63</v>
+      </c>
+      <c r="C3497" s="2" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="3498" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3498" s="2" t="s">
+        <v>4785</v>
+      </c>
+      <c r="B3498" s="1">
+        <v>4</v>
+      </c>
+      <c r="C3498" s="2" t="s">
+        <v>3331</v>
+      </c>
+    </row>
+    <row r="3499" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3499" s="2" t="s">
+        <v>4786</v>
+      </c>
+      <c r="B3499" s="1">
+        <v>5.35</v>
+      </c>
+      <c r="C3499" s="2" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="3500" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3500" s="2" t="s">
+        <v>4787</v>
+      </c>
+      <c r="B3500" s="1">
+        <v>4.13</v>
+      </c>
+      <c r="C3500" s="2" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="3501" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3501" s="2" t="s">
+        <v>4788</v>
+      </c>
+      <c r="B3501" s="1">
+        <v>5.85</v>
+      </c>
+      <c r="C3501" s="2" t="s">
+        <v>3598</v>
+      </c>
+    </row>
+    <row r="3502" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3502" s="2" t="s">
+        <v>4789</v>
+      </c>
+      <c r="B3502" s="1">
+        <v>6.05</v>
+      </c>
+      <c r="C3502" s="2" t="s">
+        <v>3837</v>
+      </c>
+    </row>
+    <row r="3503" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3503" s="2" t="s">
+        <v>4790</v>
+      </c>
+      <c r="B3503" s="1">
+        <v>6.94</v>
+      </c>
+      <c r="C3503" s="2" t="s">
+        <v>3444</v>
+      </c>
+    </row>
+    <row r="3504" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3504" s="2" t="s">
+        <v>4791</v>
+      </c>
+      <c r="B3504" s="1">
+        <v>2</v>
+      </c>
+      <c r="C3504" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="3505" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3505" s="2" t="s">
+        <v>4792</v>
+      </c>
+      <c r="B3505" s="1">
+        <v>3</v>
+      </c>
+      <c r="C3505" s="2" t="s">
+        <v>4793</v>
+      </c>
+    </row>
+    <row r="3506" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3506" s="2" t="s">
+        <v>4794</v>
+      </c>
+      <c r="B3506" s="1">
+        <v>7.57</v>
+      </c>
+    </row>
+    <row r="3507" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3507" s="2" t="s">
+        <v>4795</v>
+      </c>
+      <c r="B3507" s="1">
+        <v>6.73</v>
+      </c>
+      <c r="C3507" s="2" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="3508" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3508" s="2" t="s">
+        <v>4796</v>
+      </c>
+      <c r="B3508" s="1">
+        <v>4.88</v>
+      </c>
+      <c r="C3508" s="2" t="s">
+        <v>4797</v>
+      </c>
+    </row>
+    <row r="3509" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3509" s="2" t="s">
+        <v>4798</v>
+      </c>
+      <c r="B3509" s="1">
+        <v>3.74</v>
+      </c>
+      <c r="C3509" s="2" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="3510" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3510" s="2" t="s">
+        <v>4799</v>
+      </c>
+      <c r="B3510" s="1">
+        <v>5.16</v>
+      </c>
+      <c r="C3510" s="2" t="s">
+        <v>4800</v>
+      </c>
+    </row>
+    <row r="3511" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3511" s="2" t="s">
+        <v>4801</v>
+      </c>
+      <c r="B3511" s="1">
+        <v>3.11</v>
+      </c>
+      <c r="C3511" s="2" t="s">
+        <v>4802</v>
+      </c>
+    </row>
+    <row r="3512" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3512" s="2" t="s">
+        <v>4801</v>
+      </c>
+      <c r="B3512" s="1">
+        <v>4.66</v>
+      </c>
+    </row>
+    <row r="3513" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3513" s="2" t="s">
+        <v>4803</v>
+      </c>
+      <c r="B3513" s="1">
+        <v>3.1</v>
+      </c>
+      <c r="C3513" s="2" t="s">
+        <v>4781</v>
+      </c>
+    </row>
+    <row r="3514" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3514" s="2" t="s">
+        <v>4804</v>
+      </c>
+      <c r="B3514" s="1">
+        <v>4.07</v>
+      </c>
+      <c r="C3514" s="2" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="3515" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3515" s="2" t="s">
+        <v>4805</v>
+      </c>
+      <c r="B3515" s="1">
+        <v>0.93</v>
+      </c>
+      <c r="C3515" s="2" t="s">
+        <v>4806</v>
+      </c>
+    </row>
+    <row r="3516" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3516" s="2" t="s">
+        <v>4805</v>
+      </c>
+      <c r="B3516" s="1">
+        <v>5.68</v>
+      </c>
+    </row>
+    <row r="3517" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3517" s="2" t="s">
+        <v>4807</v>
+      </c>
+      <c r="B3517" s="1">
+        <v>4.6399999999999997</v>
+      </c>
+      <c r="C3517" s="2" t="s">
+        <v>4808</v>
+      </c>
+    </row>
+    <row r="3518" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3518" s="2" t="s">
+        <v>4809</v>
+      </c>
+      <c r="B3518" s="1">
+        <v>9.3699999999999992</v>
+      </c>
+      <c r="C3518" s="2" t="s">
+        <v>4186</v>
+      </c>
+    </row>
+    <row r="3519" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3519" s="2" t="s">
+        <v>4810</v>
+      </c>
+      <c r="B3519" s="1">
+        <v>4.91</v>
+      </c>
+      <c r="C3519" s="2" t="s">
+        <v>4811</v>
+      </c>
+    </row>
+    <row r="3520" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3520" s="2" t="s">
+        <v>4812</v>
+      </c>
+      <c r="B3520" s="1">
+        <v>5.64</v>
+      </c>
+      <c r="C3520" s="2" t="s">
+        <v>4349</v>
+      </c>
+    </row>
+    <row r="3521" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3521" s="2" t="s">
+        <v>4813</v>
+      </c>
+      <c r="B3521" s="1">
+        <v>5.03</v>
+      </c>
+      <c r="C3521" s="2" t="s">
+        <v>4814</v>
+      </c>
+    </row>
+    <row r="3522" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3522" s="2" t="s">
+        <v>4815</v>
+      </c>
+      <c r="B3522" s="1">
+        <v>10.17</v>
+      </c>
+      <c r="C3522" s="2" t="s">
+        <v>4816</v>
+      </c>
+    </row>
+    <row r="3523" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3523" s="2" t="s">
+        <v>4817</v>
+      </c>
+      <c r="B3523" s="1">
+        <v>5.08</v>
+      </c>
+      <c r="C3523" s="2" t="s">
+        <v>4818</v>
+      </c>
+    </row>
+    <row r="3524" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3524" s="2" t="s">
+        <v>4819</v>
+      </c>
+      <c r="B3524" s="1">
+        <v>3.07</v>
+      </c>
+      <c r="C3524" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3525" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3525" s="2" t="s">
+        <v>4820</v>
+      </c>
+      <c r="B3525" s="1">
+        <v>2.02</v>
+      </c>
+      <c r="C3525" s="2" t="s">
+        <v>4821</v>
+      </c>
+    </row>
+    <row r="3526" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3526" s="2" t="s">
+        <v>4822</v>
+      </c>
+      <c r="B3526" s="1">
+        <v>6.78</v>
+      </c>
+      <c r="C3526" s="2" t="s">
+        <v>3215</v>
+      </c>
+    </row>
+    <row r="3527" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3527" s="2" t="s">
+        <v>4823</v>
+      </c>
+      <c r="B3527" s="1">
+        <v>2.08</v>
+      </c>
+      <c r="C3527" s="2" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="3528" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3528" s="2" t="s">
+        <v>4824</v>
+      </c>
+      <c r="B3528" s="1">
+        <v>5.05</v>
+      </c>
+      <c r="C3528" s="2" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="3529" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3529" s="2" t="s">
+        <v>4825</v>
+      </c>
+      <c r="B3529" s="1">
+        <v>4.03</v>
+      </c>
+      <c r="C3529" s="2" t="s">
+        <v>2219</v>
+      </c>
+    </row>
+    <row r="3530" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3530" s="2" t="s">
+        <v>4826</v>
+      </c>
+      <c r="B3530" s="1">
+        <v>5.82</v>
+      </c>
+      <c r="C3530" s="2" t="s">
+        <v>4827</v>
+      </c>
+    </row>
+    <row r="3531" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3531" s="2" t="s">
+        <v>4828</v>
+      </c>
+      <c r="B3531" s="1">
+        <v>5.18</v>
+      </c>
+      <c r="C3531" s="2" t="s">
+        <v>4829</v>
+      </c>
+    </row>
+    <row r="3532" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3532" s="2" t="s">
+        <v>4830</v>
+      </c>
+      <c r="B3532" s="1">
+        <v>8.4</v>
+      </c>
+      <c r="C3532" s="2" t="s">
+        <v>4831</v>
+      </c>
+    </row>
+    <row r="3533" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3533" s="2" t="s">
+        <v>4832</v>
+      </c>
+      <c r="B3533" s="1">
+        <v>12.92</v>
+      </c>
+      <c r="C3533" s="2" t="s">
+        <v>4833</v>
+      </c>
+    </row>
+    <row r="3534" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3534" s="2" t="s">
+        <v>4834</v>
+      </c>
+      <c r="B3534" s="1">
+        <v>4.62</v>
+      </c>
+      <c r="C3534" s="2" t="s">
+        <v>4835</v>
+      </c>
+    </row>
+    <row r="3535" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3535" s="2" t="s">
+        <v>4836</v>
+      </c>
+      <c r="B3535" s="1">
+        <v>4.41</v>
+      </c>
+      <c r="C3535" s="2" t="s">
+        <v>1771</v>
+      </c>
+    </row>
+    <row r="3536" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3536" s="2" t="s">
+        <v>4837</v>
+      </c>
+      <c r="B3536" s="1">
+        <v>3</v>
+      </c>
+      <c r="C3536" s="2" t="s">
+        <v>4838</v>
+      </c>
+    </row>
+    <row r="3537" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3537" s="2" t="s">
+        <v>4839</v>
+      </c>
+      <c r="B3537" s="1">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="C3537" s="2" t="s">
+        <v>1881</v>
+      </c>
+    </row>
+    <row r="3538" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3538" s="2" t="s">
+        <v>4840</v>
+      </c>
+      <c r="B3538" s="1">
+        <v>14</v>
+      </c>
+      <c r="C3538" s="2" t="s">
+        <v>4841</v>
+      </c>
+    </row>
+    <row r="3539" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3539" s="2" t="s">
+        <v>4842</v>
+      </c>
+      <c r="B3539" s="1">
+        <v>2.09</v>
+      </c>
+      <c r="C3539" s="2" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="3540" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3540" s="2" t="s">
+        <v>4843</v>
+      </c>
+      <c r="B3540" s="1">
+        <v>4.17</v>
+      </c>
+      <c r="C3540" s="2" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="3541" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3541" s="2" t="s">
+        <v>4844</v>
+      </c>
+      <c r="B3541" s="1">
+        <v>8.16</v>
+      </c>
+      <c r="C3541" s="2" t="s">
+        <v>4845</v>
+      </c>
+    </row>
+    <row r="3542" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3542" s="2" t="s">
+        <v>4846</v>
+      </c>
+      <c r="B3542" s="1">
+        <v>3.03</v>
+      </c>
+      <c r="C3542" s="2" t="s">
+        <v>4847</v>
+      </c>
+    </row>
+    <row r="3543" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3543" s="2" t="s">
+        <v>4848</v>
+      </c>
+      <c r="B3543" s="1">
+        <v>7.81</v>
+      </c>
+      <c r="C3543" s="2" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="3544" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3544" s="2" t="s">
+        <v>4849</v>
+      </c>
+      <c r="B3544" s="1">
+        <v>5.03</v>
+      </c>
+      <c r="C3544" s="2" t="s">
+        <v>4111</v>
+      </c>
+    </row>
+    <row r="3545" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3545" s="2" t="s">
+        <v>4850</v>
+      </c>
+      <c r="B3545" s="1">
+        <v>5.86</v>
+      </c>
+      <c r="C3545" s="2" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="3546" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3546" s="2" t="s">
+        <v>4851</v>
+      </c>
+      <c r="B3546" s="1">
+        <v>6.31</v>
+      </c>
+      <c r="C3546" s="2" t="s">
+        <v>4852</v>
+      </c>
+    </row>
+    <row r="3547" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3547" s="2" t="s">
+        <v>4853</v>
+      </c>
+      <c r="B3547" s="1">
+        <v>4.84</v>
+      </c>
+      <c r="C3547" s="2" t="s">
+        <v>4854</v>
+      </c>
+    </row>
+    <row r="3548" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3548" s="2" t="s">
+        <v>4855</v>
+      </c>
+      <c r="B3548" s="1">
+        <v>6.61</v>
+      </c>
+      <c r="C3548" s="2" t="s">
+        <v>4856</v>
+      </c>
+    </row>
+    <row r="3549" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3549" s="2" t="s">
+        <v>4857</v>
+      </c>
+      <c r="B3549" s="1">
+        <v>11.26</v>
+      </c>
+      <c r="C3549" s="2" t="s">
+        <v>4858</v>
+      </c>
+    </row>
+    <row r="3550" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3550" s="2" t="s">
+        <v>4859</v>
+      </c>
+      <c r="B3550" s="1">
+        <v>8</v>
+      </c>
+      <c r="C3550" s="2" t="s">
+        <v>4860</v>
+      </c>
+    </row>
+    <row r="3551" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3551" s="2" t="s">
+        <v>4861</v>
+      </c>
+      <c r="B3551" s="1">
+        <v>6.13</v>
+      </c>
+      <c r="C3551" s="2" t="s">
+        <v>4862</v>
+      </c>
+    </row>
+    <row r="3552" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3552" s="2" t="s">
+        <v>4863</v>
+      </c>
+      <c r="B3552" s="1">
+        <v>5.83</v>
+      </c>
+      <c r="C3552" s="2" t="s">
+        <v>4056</v>
+      </c>
+    </row>
+    <row r="3553" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3553" s="2" t="s">
+        <v>4864</v>
+      </c>
+      <c r="B3553" s="1">
+        <v>1.86</v>
+      </c>
+      <c r="C3553" s="2" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="3554" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3554" s="2" t="s">
+        <v>4864</v>
+      </c>
+      <c r="B3554" s="1">
+        <v>3.58</v>
+      </c>
+    </row>
+    <row r="3555" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3555" s="2" t="s">
+        <v>4865</v>
+      </c>
+      <c r="B3555" s="1">
+        <v>10</v>
+      </c>
+      <c r="C3555" s="2" t="s">
+        <v>3842</v>
+      </c>
+    </row>
+    <row r="3556" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3556" s="2" t="s">
+        <v>4866</v>
+      </c>
+      <c r="B3556" s="1">
+        <v>4.42</v>
+      </c>
+      <c r="C3556" s="2" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="3557" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3557" s="2" t="s">
+        <v>4867</v>
+      </c>
+      <c r="B3557" s="1">
+        <v>3.57</v>
+      </c>
+      <c r="C3557" s="2" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="3558" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3558" s="2" t="s">
+        <v>4868</v>
+      </c>
+      <c r="B3558" s="1">
+        <v>9.56</v>
+      </c>
+      <c r="C3558" s="2" t="s">
+        <v>4869</v>
+      </c>
+    </row>
+    <row r="3559" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3559" s="2" t="s">
+        <v>4870</v>
+      </c>
+      <c r="B3559" s="1">
+        <v>5.33</v>
+      </c>
+      <c r="C3559" s="2" t="s">
+        <v>3753</v>
+      </c>
+    </row>
+    <row r="3560" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3560" s="2" t="s">
+        <v>4871</v>
+      </c>
+      <c r="B3560" s="1">
+        <v>8.2899999999999991</v>
+      </c>
+    </row>
+    <row r="3561" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3561" s="2" t="s">
+        <v>4872</v>
+      </c>
+      <c r="B3561" s="1">
+        <v>3.26</v>
+      </c>
+      <c r="C3561" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3562" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3562" s="2" t="s">
+        <v>4873</v>
+      </c>
+      <c r="B3562" s="1">
+        <v>9.4700000000000006</v>
+      </c>
+      <c r="C3562" s="2" t="s">
+        <v>4874</v>
+      </c>
+    </row>
+    <row r="3563" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3563" s="2" t="s">
+        <v>4875</v>
+      </c>
+      <c r="B3563" s="1">
+        <v>8</v>
+      </c>
+      <c r="C3563" s="2" t="s">
+        <v>4876</v>
+      </c>
+    </row>
+    <row r="3564" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3564" s="2" t="s">
+        <v>4877</v>
+      </c>
+      <c r="B3564" s="1">
+        <v>12.09</v>
+      </c>
+      <c r="C3564" s="2" t="s">
+        <v>3212</v>
+      </c>
+    </row>
+    <row r="3565" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3565" s="2" t="s">
+        <v>4878</v>
+      </c>
+      <c r="B3565" s="1">
+        <v>5</v>
+      </c>
+      <c r="C3565" s="2" t="s">
+        <v>1483</v>
+      </c>
+    </row>
+    <row r="3566" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3566" s="2" t="s">
+        <v>4879</v>
+      </c>
+      <c r="B3566" s="1">
+        <v>8.25</v>
+      </c>
+      <c r="C3566" s="2" t="s">
+        <v>4880</v>
+      </c>
+    </row>
+    <row r="3567" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3567" s="2" t="s">
+        <v>4881</v>
+      </c>
+      <c r="B3567" s="1">
+        <v>9.3699999999999992</v>
+      </c>
+      <c r="C3567" s="2" t="s">
+        <v>4882</v>
+      </c>
+    </row>
+    <row r="3568" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3568" s="2" t="s">
+        <v>4883</v>
+      </c>
+      <c r="B3568" s="1">
+        <v>8.2899999999999991</v>
+      </c>
+      <c r="C3568" s="2" t="s">
+        <v>2491</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>

--- a/Running_Log.xlsx
+++ b/Running_Log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adolwick/dolwick_project/biof309project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{272CD64E-A920-A34E-9508-B3E0A09FE38B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AFCF7E2-D95E-A943-A059-C9DF92496EB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3120" yWindow="500" windowWidth="25680" windowHeight="15800" xr2:uid="{4B2E00A5-7125-EC4E-9EAD-C4CEE86B127A}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5948" uniqueCount="4884">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5952" uniqueCount="4887">
   <si>
     <t>Date</t>
   </si>
@@ -14685,6 +14685,15 @@
   </si>
   <si>
     <t>2025-08-29</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>2025-09-01</t>
+  </si>
+  <si>
+    <t>1:45:37</t>
   </si>
 </sst>
 </file>
@@ -15061,10 +15070,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1BECE25-7878-7543-A5E4-1B4438F2AAC2}">
-  <dimension ref="A1:E3568"/>
+  <dimension ref="A1:E3570"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3537" workbookViewId="0">
-      <selection activeCell="D3568" sqref="D3568"/>
+    <sheetView tabSelected="1" topLeftCell="A3546" workbookViewId="0">
+      <selection activeCell="I3562" sqref="I3562"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -52422,6 +52431,28 @@
         <v>2491</v>
       </c>
     </row>
+    <row r="3569" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3569" s="2" t="s">
+        <v>4884</v>
+      </c>
+      <c r="B3569" s="1">
+        <v>9.09</v>
+      </c>
+      <c r="C3569" s="2" t="s">
+        <v>3267</v>
+      </c>
+    </row>
+    <row r="3570" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3570" s="2" t="s">
+        <v>4885</v>
+      </c>
+      <c r="B3570" s="1">
+        <v>14.29</v>
+      </c>
+      <c r="C3570" s="2" t="s">
+        <v>4886</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>

--- a/Running_Log.xlsx
+++ b/Running_Log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adolwick/dolwick_project/biof309project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AFCF7E2-D95E-A943-A059-C9DF92496EB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09C3F6B8-E8C6-484C-B1E7-3AD797FFC26B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3120" yWindow="500" windowWidth="25680" windowHeight="15800" xr2:uid="{4B2E00A5-7125-EC4E-9EAD-C4CEE86B127A}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5952" uniqueCount="4887">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5967" uniqueCount="4898">
   <si>
     <t>Date</t>
   </si>
@@ -14694,6 +14694,39 @@
   </si>
   <si>
     <t>1:45:37</t>
+  </si>
+  <si>
+    <t>2025-09-06</t>
+  </si>
+  <si>
+    <t>43:19</t>
+  </si>
+  <si>
+    <t>2025-09-08</t>
+  </si>
+  <si>
+    <t>36:53</t>
+  </si>
+  <si>
+    <t>2025-09-09</t>
+  </si>
+  <si>
+    <t>54:53</t>
+  </si>
+  <si>
+    <t>2025-09-11</t>
+  </si>
+  <si>
+    <t>2025-09-13</t>
+  </si>
+  <si>
+    <t>2025-09-15</t>
+  </si>
+  <si>
+    <t>2025-09-16</t>
+  </si>
+  <si>
+    <t>2025-09-17</t>
   </si>
 </sst>
 </file>
@@ -15070,10 +15103,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1BECE25-7878-7543-A5E4-1B4438F2AAC2}">
-  <dimension ref="A1:E3570"/>
+  <dimension ref="A1:E3578"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3546" workbookViewId="0">
-      <selection activeCell="I3562" sqref="I3562"/>
+    <sheetView tabSelected="1" topLeftCell="A3549" workbookViewId="0">
+      <selection activeCell="C3578" sqref="C3578"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -52453,6 +52486,91 @@
         <v>4886</v>
       </c>
     </row>
+    <row r="3571" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3571" s="2" t="s">
+        <v>4887</v>
+      </c>
+      <c r="B3571" s="1">
+        <v>5.01</v>
+      </c>
+      <c r="C3571" s="2" t="s">
+        <v>4888</v>
+      </c>
+    </row>
+    <row r="3572" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3572" s="2" t="s">
+        <v>4889</v>
+      </c>
+      <c r="B3572" s="1">
+        <v>5</v>
+      </c>
+      <c r="C3572" s="2" t="s">
+        <v>4890</v>
+      </c>
+    </row>
+    <row r="3573" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3573" s="2" t="s">
+        <v>4891</v>
+      </c>
+      <c r="B3573" s="1">
+        <v>7.64</v>
+      </c>
+      <c r="C3573" s="2" t="s">
+        <v>4892</v>
+      </c>
+    </row>
+    <row r="3574" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3574" s="2" t="s">
+        <v>4893</v>
+      </c>
+      <c r="B3574" s="1">
+        <v>5.09</v>
+      </c>
+      <c r="C3574" s="2" t="s">
+        <v>3798</v>
+      </c>
+    </row>
+    <row r="3575" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3575" s="2" t="s">
+        <v>4894</v>
+      </c>
+      <c r="B3575" s="1">
+        <v>8.01</v>
+      </c>
+      <c r="C3575" s="2" t="s">
+        <v>2483</v>
+      </c>
+    </row>
+    <row r="3576" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3576" s="2" t="s">
+        <v>4895</v>
+      </c>
+      <c r="B3576" s="1">
+        <v>4.09</v>
+      </c>
+      <c r="C3576" s="2" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="3577" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3577" s="2" t="s">
+        <v>4896</v>
+      </c>
+      <c r="B3577" s="1">
+        <v>6.11</v>
+      </c>
+      <c r="C3577" s="2" t="s">
+        <v>1940</v>
+      </c>
+    </row>
+    <row r="3578" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3578" s="2" t="s">
+        <v>4897</v>
+      </c>
+      <c r="B3578" s="1">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>

--- a/Running_Log.xlsx
+++ b/Running_Log.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adolwick/dolwick_project/biof309project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09C3F6B8-E8C6-484C-B1E7-3AD797FFC26B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64E4C0DE-96C2-4A41-9055-5C72F0AE7272}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3120" yWindow="500" windowWidth="25680" windowHeight="15800" xr2:uid="{4B2E00A5-7125-EC4E-9EAD-C4CEE86B127A}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5967" uniqueCount="4898">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6051" uniqueCount="4963">
   <si>
     <t>Date</t>
   </si>
@@ -14727,6 +14727,201 @@
   </si>
   <si>
     <t>2025-09-17</t>
+  </si>
+  <si>
+    <t>2025-09-19</t>
+  </si>
+  <si>
+    <t>1:13:15</t>
+  </si>
+  <si>
+    <t>2025-09-20</t>
+  </si>
+  <si>
+    <t>2025-09-22</t>
+  </si>
+  <si>
+    <t>2025-09-23</t>
+  </si>
+  <si>
+    <t>1:05:16</t>
+  </si>
+  <si>
+    <t>2025-09-24</t>
+  </si>
+  <si>
+    <t>1:01:28</t>
+  </si>
+  <si>
+    <t>2025-09-26</t>
+  </si>
+  <si>
+    <t>2025-09-27</t>
+  </si>
+  <si>
+    <t>2025-09-29</t>
+  </si>
+  <si>
+    <t>2025-10-01</t>
+  </si>
+  <si>
+    <t>2025-10-02</t>
+  </si>
+  <si>
+    <t>2025-10-03</t>
+  </si>
+  <si>
+    <t>32:28</t>
+  </si>
+  <si>
+    <t>2025-10-04</t>
+  </si>
+  <si>
+    <t>16:41</t>
+  </si>
+  <si>
+    <t>2025-10-06</t>
+  </si>
+  <si>
+    <t>1:04:13</t>
+  </si>
+  <si>
+    <t>2025-10-08</t>
+  </si>
+  <si>
+    <t>2025-10-09</t>
+  </si>
+  <si>
+    <t>2025-10-10</t>
+  </si>
+  <si>
+    <t>56:05</t>
+  </si>
+  <si>
+    <t>2025-10-11</t>
+  </si>
+  <si>
+    <t>2025-10-14</t>
+  </si>
+  <si>
+    <t>52:14</t>
+  </si>
+  <si>
+    <t>2025-10-15</t>
+  </si>
+  <si>
+    <t>2025-10-17</t>
+  </si>
+  <si>
+    <t>54:59</t>
+  </si>
+  <si>
+    <t>2025-10-18</t>
+  </si>
+  <si>
+    <t>1:14:16</t>
+  </si>
+  <si>
+    <t>2025-10-19</t>
+  </si>
+  <si>
+    <t>1:25:54</t>
+  </si>
+  <si>
+    <t>2025-10-22</t>
+  </si>
+  <si>
+    <t>55:12</t>
+  </si>
+  <si>
+    <t>2025-10-25</t>
+  </si>
+  <si>
+    <t>58:49</t>
+  </si>
+  <si>
+    <t>2025-10-26</t>
+  </si>
+  <si>
+    <t>2025-10-28</t>
+  </si>
+  <si>
+    <t>2025-10-30</t>
+  </si>
+  <si>
+    <t>30:16</t>
+  </si>
+  <si>
+    <t>2025-10-31</t>
+  </si>
+  <si>
+    <t>25:50</t>
+  </si>
+  <si>
+    <t>2025-11-02</t>
+  </si>
+  <si>
+    <t>1:17:21</t>
+  </si>
+  <si>
+    <t>2025-11-03</t>
+  </si>
+  <si>
+    <t>34:50</t>
+  </si>
+  <si>
+    <t>2025-11-05</t>
+  </si>
+  <si>
+    <t>58:35</t>
+  </si>
+  <si>
+    <t>2025-11-07</t>
+  </si>
+  <si>
+    <t>2025-11-08</t>
+  </si>
+  <si>
+    <t>1:09:27</t>
+  </si>
+  <si>
+    <t>2025-11-10</t>
+  </si>
+  <si>
+    <t>2025-11-11</t>
+  </si>
+  <si>
+    <t>37:03</t>
+  </si>
+  <si>
+    <t>2025-11-12</t>
+  </si>
+  <si>
+    <t>2025-11-14</t>
+  </si>
+  <si>
+    <t>2025-11-15</t>
+  </si>
+  <si>
+    <t>42:31</t>
+  </si>
+  <si>
+    <t>2025-11-17</t>
+  </si>
+  <si>
+    <t>1:00:14</t>
+  </si>
+  <si>
+    <t>2025-11-18</t>
+  </si>
+  <si>
+    <t>2025-11-19</t>
+  </si>
+  <si>
+    <t>2025-11-21</t>
+  </si>
+  <si>
+    <t>2025-11-22</t>
   </si>
 </sst>
 </file>
@@ -15103,10 +15298,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1BECE25-7878-7543-A5E4-1B4438F2AAC2}">
-  <dimension ref="A1:E3578"/>
+  <dimension ref="A1:E3624"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3549" workbookViewId="0">
-      <selection activeCell="C3578" sqref="C3578"/>
+    <sheetView tabSelected="1" topLeftCell="A3600" workbookViewId="0">
+      <selection activeCell="B3625" sqref="B3625"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -52571,6 +52766,488 @@
         <v>10</v>
       </c>
     </row>
+    <row r="3579" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3579" s="2" t="s">
+        <v>4898</v>
+      </c>
+      <c r="B3579" s="1">
+        <v>8.31</v>
+      </c>
+      <c r="C3579" s="2" t="s">
+        <v>4899</v>
+      </c>
+    </row>
+    <row r="3580" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3580" s="2" t="s">
+        <v>4900</v>
+      </c>
+      <c r="B3580" s="1">
+        <v>9.4</v>
+      </c>
+      <c r="C3580" s="2" t="s">
+        <v>3477</v>
+      </c>
+    </row>
+    <row r="3581" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3581" s="2" t="s">
+        <v>4901</v>
+      </c>
+      <c r="B3581" s="1">
+        <v>5.14</v>
+      </c>
+      <c r="C3581" s="2" t="s">
+        <v>3766</v>
+      </c>
+    </row>
+    <row r="3582" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3582" s="2" t="s">
+        <v>4902</v>
+      </c>
+      <c r="B3582" s="1">
+        <v>8.31</v>
+      </c>
+      <c r="C3582" s="2" t="s">
+        <v>4903</v>
+      </c>
+    </row>
+    <row r="3583" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3583" s="2" t="s">
+        <v>4904</v>
+      </c>
+      <c r="B3583" s="1">
+        <v>8.59</v>
+      </c>
+      <c r="C3583" s="2" t="s">
+        <v>4905</v>
+      </c>
+    </row>
+    <row r="3584" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3584" s="2" t="s">
+        <v>4906</v>
+      </c>
+      <c r="B3584" s="1">
+        <v>3.76</v>
+      </c>
+      <c r="C3584" s="2" t="s">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="3585" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3585" s="2" t="s">
+        <v>4907</v>
+      </c>
+      <c r="B3585" s="1">
+        <v>2.9</v>
+      </c>
+      <c r="C3585" s="2" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="3586" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3586" s="2" t="s">
+        <v>4907</v>
+      </c>
+      <c r="B3586" s="1">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="3587" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3587" s="2" t="s">
+        <v>4908</v>
+      </c>
+      <c r="B3587" s="1">
+        <v>7.24</v>
+      </c>
+      <c r="C3587" s="2" t="s">
+        <v>2407</v>
+      </c>
+    </row>
+    <row r="3588" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3588" s="2" t="s">
+        <v>4909</v>
+      </c>
+      <c r="B3588" s="1">
+        <v>5.23</v>
+      </c>
+      <c r="C3588" s="2" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="3589" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3589" s="2" t="s">
+        <v>4910</v>
+      </c>
+      <c r="B3589" s="1">
+        <v>5.46</v>
+      </c>
+      <c r="C3589" s="2" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="3590" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3590" s="2" t="s">
+        <v>4911</v>
+      </c>
+      <c r="B3590" s="1">
+        <v>4.55</v>
+      </c>
+      <c r="C3590" s="2" t="s">
+        <v>4912</v>
+      </c>
+    </row>
+    <row r="3591" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3591" s="2" t="s">
+        <v>4913</v>
+      </c>
+      <c r="B3591" s="1">
+        <v>3.11</v>
+      </c>
+      <c r="C3591" s="2" t="s">
+        <v>4914</v>
+      </c>
+    </row>
+    <row r="3592" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3592" s="2" t="s">
+        <v>4913</v>
+      </c>
+      <c r="B3592" s="1">
+        <v>4.33</v>
+      </c>
+    </row>
+    <row r="3593" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3593" s="2" t="s">
+        <v>4915</v>
+      </c>
+      <c r="B3593" s="1">
+        <v>8.34</v>
+      </c>
+      <c r="C3593" s="2" t="s">
+        <v>4916</v>
+      </c>
+    </row>
+    <row r="3594" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3594" s="2" t="s">
+        <v>4917</v>
+      </c>
+      <c r="B3594" s="1">
+        <v>8.56</v>
+      </c>
+    </row>
+    <row r="3595" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3595" s="2" t="s">
+        <v>4918</v>
+      </c>
+      <c r="B3595" s="1">
+        <v>5.87</v>
+      </c>
+      <c r="C3595" s="2" t="s">
+        <v>3520</v>
+      </c>
+    </row>
+    <row r="3596" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3596" s="2" t="s">
+        <v>4919</v>
+      </c>
+      <c r="B3596" s="1">
+        <v>8</v>
+      </c>
+      <c r="C3596" s="2" t="s">
+        <v>4920</v>
+      </c>
+    </row>
+    <row r="3597" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3597" s="2" t="s">
+        <v>4921</v>
+      </c>
+      <c r="B3597" s="1">
+        <v>10.24</v>
+      </c>
+      <c r="C3597" s="2" t="s">
+        <v>2544</v>
+      </c>
+    </row>
+    <row r="3598" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3598" s="2" t="s">
+        <v>4922</v>
+      </c>
+      <c r="B3598" s="1">
+        <v>6.23</v>
+      </c>
+      <c r="C3598" s="2" t="s">
+        <v>4923</v>
+      </c>
+    </row>
+    <row r="3599" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3599" s="2" t="s">
+        <v>4924</v>
+      </c>
+      <c r="B3599" s="1">
+        <v>7.01</v>
+      </c>
+    </row>
+    <row r="3600" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3600" s="2" t="s">
+        <v>4925</v>
+      </c>
+      <c r="B3600" s="1">
+        <v>7.85</v>
+      </c>
+      <c r="C3600" s="2" t="s">
+        <v>4926</v>
+      </c>
+    </row>
+    <row r="3601" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3601" s="2" t="s">
+        <v>4927</v>
+      </c>
+      <c r="B3601" s="1">
+        <v>10.029999999999999</v>
+      </c>
+      <c r="C3601" s="2" t="s">
+        <v>4928</v>
+      </c>
+    </row>
+    <row r="3602" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3602" s="2" t="s">
+        <v>4929</v>
+      </c>
+      <c r="B3602" s="1">
+        <v>12.19</v>
+      </c>
+      <c r="C3602" s="2" t="s">
+        <v>4930</v>
+      </c>
+    </row>
+    <row r="3603" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3603" s="2" t="s">
+        <v>4931</v>
+      </c>
+      <c r="B3603" s="1">
+        <v>6.34</v>
+      </c>
+      <c r="C3603" s="2" t="s">
+        <v>4932</v>
+      </c>
+    </row>
+    <row r="3604" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3604" s="2" t="s">
+        <v>4933</v>
+      </c>
+      <c r="B3604" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="C3604" s="2" t="s">
+        <v>4934</v>
+      </c>
+    </row>
+    <row r="3605" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3605" s="2" t="s">
+        <v>4935</v>
+      </c>
+      <c r="B3605" s="1">
+        <v>7.27</v>
+      </c>
+      <c r="C3605" s="2" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="3606" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3606" s="2" t="s">
+        <v>4936</v>
+      </c>
+      <c r="B3606" s="1">
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="C3606" s="2" t="s">
+        <v>1881</v>
+      </c>
+    </row>
+    <row r="3607" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3607" s="2" t="s">
+        <v>4937</v>
+      </c>
+      <c r="B3607" s="1">
+        <v>3.76</v>
+      </c>
+      <c r="C3607" s="2" t="s">
+        <v>4938</v>
+      </c>
+    </row>
+    <row r="3608" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3608" s="2" t="s">
+        <v>4939</v>
+      </c>
+      <c r="B3608" s="1">
+        <v>3.57</v>
+      </c>
+      <c r="C3608" s="2" t="s">
+        <v>4940</v>
+      </c>
+    </row>
+    <row r="3609" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3609" s="2" t="s">
+        <v>4941</v>
+      </c>
+      <c r="B3609" s="1">
+        <v>9.91</v>
+      </c>
+      <c r="C3609" s="2" t="s">
+        <v>4942</v>
+      </c>
+    </row>
+    <row r="3610" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3610" s="2" t="s">
+        <v>4943</v>
+      </c>
+      <c r="B3610" s="1">
+        <v>4.09</v>
+      </c>
+      <c r="C3610" s="2" t="s">
+        <v>4944</v>
+      </c>
+    </row>
+    <row r="3611" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3611" s="2" t="s">
+        <v>4945</v>
+      </c>
+      <c r="B3611" s="1">
+        <v>8.42</v>
+      </c>
+      <c r="C3611" s="2" t="s">
+        <v>4946</v>
+      </c>
+    </row>
+    <row r="3612" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3612" s="2" t="s">
+        <v>4947</v>
+      </c>
+      <c r="B3612" s="1">
+        <v>8.0399999999999991</v>
+      </c>
+      <c r="C3612" s="2" t="s">
+        <v>4934</v>
+      </c>
+    </row>
+    <row r="3613" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3613" s="2" t="s">
+        <v>4948</v>
+      </c>
+      <c r="B3613" s="1">
+        <v>8.57</v>
+      </c>
+      <c r="C3613" s="2" t="s">
+        <v>4949</v>
+      </c>
+    </row>
+    <row r="3614" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3614" s="2" t="s">
+        <v>4950</v>
+      </c>
+      <c r="B3614" s="1">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="C3614" s="2" t="s">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="3615" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3615" s="2" t="s">
+        <v>4951</v>
+      </c>
+      <c r="B3615" s="1">
+        <v>5.21</v>
+      </c>
+      <c r="C3615" s="2" t="s">
+        <v>4952</v>
+      </c>
+    </row>
+    <row r="3616" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3616" s="2" t="s">
+        <v>4953</v>
+      </c>
+      <c r="B3616" s="1">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="3617" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3617" s="2" t="s">
+        <v>4954</v>
+      </c>
+      <c r="B3617" s="1">
+        <v>6.06</v>
+      </c>
+      <c r="C3617" s="2" t="s">
+        <v>4579</v>
+      </c>
+    </row>
+    <row r="3618" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3618" s="2" t="s">
+        <v>4955</v>
+      </c>
+      <c r="B3618" s="1">
+        <v>5.46</v>
+      </c>
+      <c r="C3618" s="2" t="s">
+        <v>4956</v>
+      </c>
+    </row>
+    <row r="3619" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3619" s="2" t="s">
+        <v>4957</v>
+      </c>
+      <c r="B3619" s="1">
+        <v>7.67</v>
+      </c>
+      <c r="C3619" s="2" t="s">
+        <v>4958</v>
+      </c>
+    </row>
+    <row r="3620" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3620" s="2" t="s">
+        <v>4959</v>
+      </c>
+      <c r="B3620" s="1">
+        <v>6.2</v>
+      </c>
+      <c r="C3620" s="2" t="s">
+        <v>4579</v>
+      </c>
+    </row>
+    <row r="3621" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3621" s="2" t="s">
+        <v>4960</v>
+      </c>
+      <c r="B3621" s="1">
+        <v>7.29</v>
+      </c>
+    </row>
+    <row r="3622" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3622" s="2" t="s">
+        <v>4961</v>
+      </c>
+      <c r="B3622" s="1">
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="3623" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3623" s="2" t="s">
+        <v>4962</v>
+      </c>
+      <c r="B3623" s="1">
+        <v>3.11</v>
+      </c>
+      <c r="C3623" s="2" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="3624" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3624" s="2" t="s">
+        <v>4962</v>
+      </c>
+      <c r="B3624" s="1">
+        <v>5.79</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
